--- a/笔记/CBAP/知识点.xlsx
+++ b/笔记/CBAP/知识点.xlsx
@@ -1901,12 +1901,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Change</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>: the act of transformation in response to a need.</t>
@@ -1914,12 +1922,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Need</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>: a problem or opportunity to be addressed.</t>
@@ -1927,12 +1943,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>: a specific way of satisfying one or more needs in a context.</t>
@@ -1940,12 +1964,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Stakeholder</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>: a group or individual with a relationship to the change, the need, or the solution.</t>
@@ -1953,12 +1985,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Value</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>: the worth, importance, or usefulness of something to a stakeholder within a context.</t>
@@ -1966,12 +2006,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Context</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>: the circumstances that influence, are influenced by, and provide understanding of the 
@@ -8658,10 +8706,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -8715,13 +8763,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -8736,9 +8777,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8752,32 +8853,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8798,61 +8898,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8926,12 +8974,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8944,19 +8986,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8968,25 +9016,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9004,13 +9058,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9022,43 +9124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9070,43 +9136,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9309,8 +9357,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9326,6 +9374,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9359,166 +9416,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9717,20 +9765,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9745,9 +9781,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10213,420 +10246,424 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.703125" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="71" customWidth="1"/>
-    <col min="2" max="3" width="20.703125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="71" customWidth="1"/>
-    <col min="5" max="16384" width="20.703125" style="71" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="67" customWidth="1"/>
+    <col min="2" max="3" width="20.703125" style="67" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="67" customWidth="1"/>
+    <col min="5" max="16384" width="20.703125" style="67" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75">
+      <c r="B9" s="71"/>
+      <c r="C9" s="71">
         <v>20211106</v>
       </c>
-      <c r="D9" s="75"/>
+      <c r="D9" s="71"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71">
         <v>20211114</v>
       </c>
-      <c r="D10" s="75"/>
+      <c r="D10" s="71"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71">
         <v>20211208</v>
       </c>
-      <c r="D11" s="75"/>
+      <c r="D11" s="71"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75">
+      <c r="B12" s="71"/>
+      <c r="C12" s="71">
         <v>20211225</v>
       </c>
-      <c r="D12" s="75"/>
+      <c r="D12" s="71"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75">
+      <c r="B13" s="71"/>
+      <c r="C13" s="71">
         <v>20211106</v>
       </c>
-      <c r="D13" s="75"/>
+      <c r="D13" s="71"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75">
+      <c r="B14" s="71"/>
+      <c r="C14" s="71">
         <v>20211106</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="71"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75">
+      <c r="B15" s="71"/>
+      <c r="C15" s="71">
         <v>20211108</v>
       </c>
-      <c r="D15" s="75"/>
+      <c r="D15" s="71"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71">
         <v>20211108</v>
       </c>
-      <c r="D16" s="75"/>
+      <c r="D16" s="71"/>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75">
+      <c r="B17" s="71"/>
+      <c r="C17" s="71">
         <v>20211108</v>
       </c>
-      <c r="D17" s="75"/>
+      <c r="D17" s="71"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75">
+      <c r="B18" s="71"/>
+      <c r="C18" s="71">
         <v>20211109</v>
       </c>
-      <c r="D18" s="75"/>
+      <c r="D18" s="71"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75">
+      <c r="B19" s="71"/>
+      <c r="C19" s="71">
         <v>20211109</v>
       </c>
-      <c r="D19" s="75"/>
+      <c r="D19" s="71"/>
     </row>
     <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71">
         <v>20211109</v>
       </c>
-      <c r="D20" s="75"/>
+      <c r="D20" s="71"/>
     </row>
     <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75">
+      <c r="B21" s="71"/>
+      <c r="C21" s="71">
         <v>20211114</v>
       </c>
-      <c r="D21" s="75"/>
+      <c r="D21" s="71"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75">
+      <c r="B22" s="71"/>
+      <c r="C22" s="71">
         <v>20211208</v>
       </c>
-      <c r="D22" s="75"/>
+      <c r="D22" s="71"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75">
+      <c r="B23" s="71"/>
+      <c r="C23" s="71">
         <v>20211225</v>
       </c>
-      <c r="D23" s="75"/>
+      <c r="D23" s="71"/>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76" t="s">
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76" t="s">
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75">
+      <c r="B26" s="71"/>
+      <c r="C26" s="71">
         <v>20211225</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="71" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71">
+        <v>20211226</v>
+      </c>
+      <c r="D27" s="71"/>
     </row>
     <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71">
+        <v>20211226</v>
+      </c>
+      <c r="D28" s="71"/>
     </row>
     <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
     </row>
     <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
     </row>
     <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
     </row>
     <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
     </row>
     <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
     </row>
     <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="76" t="s">
+      <c r="A38" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
     </row>
     <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
     </row>
     <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="76" t="s">
+      <c r="A41" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
     </row>
     <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
     </row>
     <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
     </row>
     <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="76" t="s">
+      <c r="A44" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
     </row>
     <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -17414,54 +17451,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.890625" style="66" customWidth="1"/>
-    <col min="2" max="2" width="36.328125" style="66" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="67"/>
+    <col min="1" max="1" width="37.890625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.328125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="66" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" ht="54" customHeight="1" spans="1:2">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" ht="54" customHeight="1" spans="1:2">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" ht="49" customHeight="1" spans="1:2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" ht="49" customHeight="1" spans="1:2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -17475,7 +17512,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.0859375" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>

--- a/笔记/CBAP/知识点.xlsx
+++ b/笔记/CBAP/知识点.xlsx
@@ -8707,9 +8707,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -8771,7 +8771,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8785,7 +8801,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8800,6 +8816,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -8807,24 +8831,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8839,7 +8847,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8853,16 +8876,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8875,24 +8891,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8900,7 +8900,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8980,25 +8980,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9016,13 +9022,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9034,19 +9130,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9058,103 +9148,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9319,16 +9319,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -9338,17 +9338,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -9380,9 +9369,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9401,159 +9416,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9562,11 +9562,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9784,6 +9784,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10244,9 +10247,9 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.703125" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
@@ -10581,24 +10584,28 @@
       <c r="A35" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71">
+        <v>20211229</v>
+      </c>
       <c r="D35" s="72"/>
     </row>
     <row r="36" customHeight="1" spans="1:4">
       <c r="A36" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71">
+        <v>20211229</v>
+      </c>
       <c r="D36" s="72"/>
     </row>
     <row r="37" customHeight="1" spans="1:4">
       <c r="A37" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="72"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">

--- a/笔记/CBAP/知识点.xlsx
+++ b/笔记/CBAP/知识点.xlsx
@@ -8762,8 +8762,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8777,17 +8839,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8800,15 +8853,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -8817,17 +8863,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8838,16 +8876,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8860,39 +8890,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8900,7 +8900,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8974,19 +8974,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8998,7 +8992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9016,19 +9010,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9040,19 +9034,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9070,7 +9052,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9082,73 +9136,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9319,17 +9319,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9343,11 +9352,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9367,13 +9382,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9387,32 +9406,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9421,152 +9421,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9784,9 +9784,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10247,9 +10244,9 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37:C37"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.703125" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
@@ -10604,16 +10601,20 @@
       <c r="A37" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71">
+        <v>20211230</v>
+      </c>
       <c r="D37" s="72"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71">
+        <v>20220101</v>
+      </c>
       <c r="D38" s="72"/>
     </row>
     <row r="39" customHeight="1" spans="1:4">

--- a/笔记/CBAP/知识点.xlsx
+++ b/笔记/CBAP/知识点.xlsx
@@ -10244,9 +10244,9 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.703125" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
@@ -10621,8 +10621,10 @@
       <c r="A39" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71">
+        <v>20220102</v>
+      </c>
       <c r="D39" s="72"/>
     </row>
     <row r="40" customHeight="1" spans="1:4">

--- a/笔记/CBAP/知识点.xlsx
+++ b/笔记/CBAP/知识点.xlsx
@@ -10246,7 +10246,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.703125" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
@@ -10631,8 +10631,10 @@
       <c r="A40" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71">
+        <v>20220106</v>
+      </c>
       <c r="D40" s="72"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">

--- a/笔记/CBAP/知识点.xlsx
+++ b/笔记/CBAP/知识点.xlsx
@@ -10244,9 +10244,9 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.703125" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
@@ -10641,16 +10641,20 @@
       <c r="A41" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71">
+        <v>20220108</v>
+      </c>
       <c r="D41" s="72"/>
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71">
+        <v>20220108</v>
+      </c>
       <c r="D42" s="72"/>
     </row>
     <row r="43" customHeight="1" spans="1:4">

--- a/笔记/CBAP/知识点.xlsx
+++ b/笔记/CBAP/知识点.xlsx
@@ -1738,7 +1738,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516">
   <si>
     <t>核查单</t>
   </si>
@@ -3387,6 +3387,9 @@
       </rPr>
       <t>治理过程描述需求与设计的批准与优先级排序的决定如何作出。</t>
     </r>
+  </si>
+  <si>
+    <t>定义流程和决策标准</t>
   </si>
   <si>
     <r>
@@ -12215,18 +12218,18 @@
         <v>8.1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="40" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12239,13 +12242,13 @@
         <v>6.2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12254,13 +12257,13 @@
       <c r="C4" s="31"/>
       <c r="D4" s="45"/>
       <c r="E4" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12271,13 +12274,13 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="58" customHeight="1" spans="1:7">
@@ -12285,18 +12288,18 @@
         <v>8.2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
@@ -12309,13 +12312,13 @@
         <v>6.2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
@@ -12326,13 +12329,13 @@
         <v>8.1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12343,13 +12346,13 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="75" customHeight="1" spans="1:7">
@@ -12357,18 +12360,18 @@
         <v>8.3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="40" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12379,13 +12382,13 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12396,13 +12399,13 @@
         <v>8.2</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12413,13 +12416,13 @@
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
@@ -12427,18 +12430,18 @@
         <v>8.4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="40" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12451,13 +12454,13 @@
         <v>6.1</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12466,13 +12469,13 @@
       <c r="C16" s="26"/>
       <c r="D16" s="46"/>
       <c r="E16" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12483,13 +12486,13 @@
         <v>8.2</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12500,13 +12503,13 @@
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="78" customHeight="1" spans="1:7">
@@ -12514,18 +12517,18 @@
         <v>8.5</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="40" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12538,13 +12541,13 @@
         <v>8.3</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12555,13 +12558,13 @@
         <v>8.4</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12572,13 +12575,13 @@
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -12643,7 +12646,7 @@
         <v>109</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>110</v>
@@ -12659,19 +12662,19 @@
     </row>
     <row r="2" ht="49" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -12679,16 +12682,16 @@
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -12696,16 +12699,16 @@
     <row r="4" ht="47" customHeight="1" spans="1:7">
       <c r="A4" s="11"/>
       <c r="B4" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -12713,16 +12716,16 @@
     <row r="5" ht="48" customHeight="1" spans="1:7">
       <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -12730,16 +12733,16 @@
     <row r="6" ht="47" customHeight="1" spans="1:7">
       <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -12747,16 +12750,16 @@
     <row r="7" ht="58" customHeight="1" spans="1:7">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -12764,35 +12767,35 @@
     <row r="8" ht="45" customHeight="1" spans="1:7">
       <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" ht="62" customHeight="1" spans="1:7">
       <c r="A9" s="9" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -12800,16 +12803,16 @@
     <row r="10" ht="57" customHeight="1" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -12817,16 +12820,16 @@
     <row r="11" ht="50" customHeight="1" spans="1:7">
       <c r="A11" s="11"/>
       <c r="B11" s="5" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -12834,16 +12837,16 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="11"/>
       <c r="B12" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -12851,35 +12854,35 @@
     <row r="13" ht="50" customHeight="1" spans="1:7">
       <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" ht="34" spans="1:7">
       <c r="A14" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -12887,16 +12890,16 @@
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -12904,16 +12907,16 @@
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="11"/>
       <c r="B16" s="5" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -12921,16 +12924,16 @@
     <row r="17" ht="55" customHeight="1" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -12938,35 +12941,35 @@
     <row r="18" ht="49" customHeight="1" spans="1:7">
       <c r="A18" s="13"/>
       <c r="B18" s="5" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -12974,16 +12977,16 @@
     <row r="20" ht="48" customHeight="1" spans="1:7">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -12991,16 +12994,16 @@
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="11"/>
       <c r="B21" s="5" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -13008,35 +13011,35 @@
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="13"/>
       <c r="B22" s="5" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" ht="80" customHeight="1" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -13044,16 +13047,16 @@
     <row r="24" ht="54" customHeight="1" spans="1:7">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -13061,16 +13064,16 @@
     <row r="25" ht="48" customHeight="1" spans="1:7">
       <c r="A25" s="11"/>
       <c r="B25" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -13078,16 +13081,16 @@
     <row r="26" ht="56" spans="1:7">
       <c r="A26" s="11"/>
       <c r="B26" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -13095,35 +13098,35 @@
     <row r="27" ht="55" customHeight="1" spans="1:7">
       <c r="A27" s="13"/>
       <c r="B27" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -13131,16 +13134,16 @@
     <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -13148,16 +13151,16 @@
     <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -13224,17 +13227,17 @@
         <v>10.1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="32" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -13242,14 +13245,14 @@
       <c r="A3" s="25"/>
       <c r="B3" s="11"/>
       <c r="C3" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="32" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -13257,10 +13260,10 @@
       <c r="A4" s="25"/>
       <c r="B4" s="11"/>
       <c r="C4" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="33"/>
@@ -13271,13 +13274,13 @@
       <c r="B5" s="13"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -13286,17 +13289,17 @@
         <v>10.2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -13304,14 +13307,14 @@
       <c r="A7" s="25"/>
       <c r="B7" s="11"/>
       <c r="C7" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="32" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -13319,16 +13322,16 @@
       <c r="A8" s="25"/>
       <c r="B8" s="11"/>
       <c r="C8" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -13337,13 +13340,13 @@
       <c r="B9" s="11"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -13352,13 +13355,13 @@
       <c r="B10" s="11"/>
       <c r="C10" s="26"/>
       <c r="D10" s="27" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -13367,11 +13370,11 @@
       <c r="B11" s="13"/>
       <c r="C11" s="26"/>
       <c r="D11" s="27" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="33" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -13380,17 +13383,17 @@
         <v>10.3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -13398,14 +13401,14 @@
       <c r="A13" s="25"/>
       <c r="B13" s="11"/>
       <c r="C13" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="32" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -13413,16 +13416,16 @@
       <c r="A14" s="25"/>
       <c r="B14" s="11"/>
       <c r="C14" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -13431,13 +13434,13 @@
       <c r="B15" s="11"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -13446,13 +13449,13 @@
       <c r="B16" s="11"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -13461,13 +13464,13 @@
       <c r="B17" s="11"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -13476,13 +13479,13 @@
       <c r="B18" s="13"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -13491,17 +13494,17 @@
         <v>10.4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -13509,14 +13512,14 @@
       <c r="A20" s="25"/>
       <c r="B20" s="11"/>
       <c r="C20" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="32" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -13524,14 +13527,14 @@
       <c r="A21" s="25"/>
       <c r="B21" s="11"/>
       <c r="C21" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="33" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -13540,11 +13543,11 @@
       <c r="B22" s="13"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="33" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -13553,17 +13556,17 @@
         <v>10.5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -13571,14 +13574,14 @@
       <c r="A24" s="25"/>
       <c r="B24" s="11"/>
       <c r="C24" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="32" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G24" s="6"/>
     </row>
@@ -13586,14 +13589,14 @@
       <c r="A25" s="25"/>
       <c r="B25" s="11"/>
       <c r="C25" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="33" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G25" s="6"/>
     </row>
@@ -13602,11 +13605,11 @@
       <c r="B26" s="11"/>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="33" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G26" s="6"/>
     </row>
@@ -13615,11 +13618,11 @@
       <c r="B27" s="13"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="33" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -13628,17 +13631,17 @@
         <v>10.6</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G28" s="6"/>
     </row>
@@ -13646,14 +13649,14 @@
       <c r="A29" s="25"/>
       <c r="B29" s="11"/>
       <c r="C29" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="32" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G29" s="6"/>
     </row>
@@ -13661,16 +13664,16 @@
       <c r="A30" s="25"/>
       <c r="B30" s="11"/>
       <c r="C30" s="29" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G30" s="6"/>
     </row>
@@ -13679,13 +13682,13 @@
       <c r="B31" s="11"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G31" s="6"/>
     </row>
@@ -13694,13 +13697,13 @@
       <c r="B32" s="11"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G32" s="6"/>
     </row>
@@ -13709,13 +13712,13 @@
       <c r="B33" s="11"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G33" s="6"/>
     </row>
@@ -13724,13 +13727,13 @@
       <c r="B34" s="11"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G34" s="6"/>
     </row>
@@ -13739,11 +13742,11 @@
       <c r="B35" s="11"/>
       <c r="C35" s="31"/>
       <c r="D35" s="27" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="33" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G35" s="6"/>
     </row>
@@ -13752,17 +13755,17 @@
         <v>10.7</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G36" s="6"/>
     </row>
@@ -13770,14 +13773,14 @@
       <c r="A37" s="25"/>
       <c r="B37" s="11"/>
       <c r="C37" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="32" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G37" s="6"/>
     </row>
@@ -13785,16 +13788,16 @@
       <c r="A38" s="25"/>
       <c r="B38" s="11"/>
       <c r="C38" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G38" s="6"/>
     </row>
@@ -13803,13 +13806,13 @@
       <c r="B39" s="11"/>
       <c r="C39" s="26"/>
       <c r="D39" s="27" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G39" s="6"/>
     </row>
@@ -13818,13 +13821,13 @@
       <c r="B40" s="11"/>
       <c r="C40" s="26"/>
       <c r="D40" s="27" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G40" s="6"/>
     </row>
@@ -13833,13 +13836,13 @@
       <c r="B41" s="11"/>
       <c r="C41" s="26"/>
       <c r="D41" s="27" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G41" s="6"/>
     </row>
@@ -13848,17 +13851,17 @@
         <v>10.8</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G42" s="6"/>
     </row>
@@ -13866,14 +13869,14 @@
       <c r="A43" s="25"/>
       <c r="B43" s="11"/>
       <c r="C43" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="32" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G43" s="6"/>
     </row>
@@ -13881,16 +13884,16 @@
       <c r="A44" s="25"/>
       <c r="B44" s="11"/>
       <c r="C44" s="29" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G44" s="6"/>
     </row>
@@ -13899,13 +13902,13 @@
       <c r="B45" s="11"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G45" s="6"/>
     </row>
@@ -13914,13 +13917,13 @@
       <c r="B46" s="11"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G46" s="6"/>
     </row>
@@ -13929,13 +13932,13 @@
       <c r="B47" s="11"/>
       <c r="C47" s="30"/>
       <c r="D47" s="27" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G47" s="6"/>
     </row>
@@ -13944,13 +13947,13 @@
       <c r="B48" s="11"/>
       <c r="C48" s="30"/>
       <c r="D48" s="27" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G48" s="6"/>
     </row>
@@ -13959,13 +13962,13 @@
       <c r="B49" s="11"/>
       <c r="C49" s="30"/>
       <c r="D49" s="27" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G49" s="6"/>
     </row>
@@ -13974,13 +13977,13 @@
       <c r="B50" s="11"/>
       <c r="C50" s="30"/>
       <c r="D50" s="27" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G50" s="6"/>
     </row>
@@ -13989,11 +13992,11 @@
       <c r="B51" s="11"/>
       <c r="C51" s="30"/>
       <c r="D51" s="27" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="33" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G51" s="6"/>
     </row>
@@ -14002,13 +14005,13 @@
       <c r="B52" s="11"/>
       <c r="C52" s="31"/>
       <c r="D52" s="27" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G52" s="6"/>
     </row>
@@ -14017,17 +14020,17 @@
         <v>10.9</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G53" s="6"/>
     </row>
@@ -14035,14 +14038,14 @@
       <c r="A54" s="25"/>
       <c r="B54" s="11"/>
       <c r="C54" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="32" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G54" s="6"/>
     </row>
@@ -14050,16 +14053,16 @@
       <c r="A55" s="25"/>
       <c r="B55" s="11"/>
       <c r="C55" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G55" s="6"/>
     </row>
@@ -14068,32 +14071,32 @@
       <c r="B56" s="13"/>
       <c r="C56" s="26"/>
       <c r="D56" s="27" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G56" s="6"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A57" s="22" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="7" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G57" s="6"/>
     </row>
@@ -14101,14 +14104,14 @@
       <c r="A58" s="25"/>
       <c r="B58" s="11"/>
       <c r="C58" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="32" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G58" s="6"/>
     </row>
@@ -14116,16 +14119,16 @@
       <c r="A59" s="25"/>
       <c r="B59" s="11"/>
       <c r="C59" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G59" s="6"/>
     </row>
@@ -14134,11 +14137,11 @@
       <c r="B60" s="11"/>
       <c r="C60" s="26"/>
       <c r="D60" s="27" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E60" s="32"/>
       <c r="F60" s="33" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G60" s="6"/>
     </row>
@@ -14147,11 +14150,11 @@
       <c r="B61" s="11"/>
       <c r="C61" s="26"/>
       <c r="D61" s="27" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="33" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G61" s="6"/>
     </row>
@@ -14160,32 +14163,32 @@
       <c r="B62" s="11"/>
       <c r="C62" s="26"/>
       <c r="D62" s="27" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G62" s="6"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A63" s="22" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C63" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D63" s="24"/>
       <c r="E63" s="7" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G63" s="6"/>
     </row>
@@ -14193,14 +14196,14 @@
       <c r="A64" s="25"/>
       <c r="B64" s="11"/>
       <c r="C64" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D64" s="24"/>
       <c r="E64" s="32" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G64" s="6"/>
     </row>
@@ -14208,14 +14211,14 @@
       <c r="A65" s="25"/>
       <c r="B65" s="11"/>
       <c r="C65" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="33" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G65" s="6"/>
     </row>
@@ -14224,13 +14227,13 @@
       <c r="B66" s="11"/>
       <c r="C66" s="26"/>
       <c r="D66" s="27" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G66" s="6"/>
     </row>
@@ -14239,30 +14242,30 @@
       <c r="B67" s="11"/>
       <c r="C67" s="26"/>
       <c r="D67" s="27" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="33" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G67" s="6"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A68" s="22" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D68" s="24"/>
       <c r="E68" s="7" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G68" s="6"/>
     </row>
@@ -14270,14 +14273,14 @@
       <c r="A69" s="25"/>
       <c r="B69" s="11"/>
       <c r="C69" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="32" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G69" s="6"/>
     </row>
@@ -14285,16 +14288,16 @@
       <c r="A70" s="25"/>
       <c r="B70" s="11"/>
       <c r="C70" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G70" s="6"/>
     </row>
@@ -14303,13 +14306,13 @@
       <c r="B71" s="11"/>
       <c r="C71" s="26"/>
       <c r="D71" s="27" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G71" s="6"/>
     </row>
@@ -14318,32 +14321,32 @@
       <c r="B72" s="11"/>
       <c r="C72" s="26"/>
       <c r="D72" s="27" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G72" s="6"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A73" s="22" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C73" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="7" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G73" s="6"/>
     </row>
@@ -14351,14 +14354,14 @@
       <c r="A74" s="25"/>
       <c r="B74" s="5"/>
       <c r="C74" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="32" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F74" s="33" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G74" s="6"/>
     </row>
@@ -14366,16 +14369,16 @@
       <c r="A75" s="25"/>
       <c r="B75" s="5"/>
       <c r="C75" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G75" s="6"/>
     </row>
@@ -14384,13 +14387,13 @@
       <c r="B76" s="5"/>
       <c r="C76" s="26"/>
       <c r="D76" s="27" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G76" s="6"/>
     </row>
@@ -14399,13 +14402,13 @@
       <c r="B77" s="5"/>
       <c r="C77" s="26"/>
       <c r="D77" s="27" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G77" s="6"/>
     </row>
@@ -14414,32 +14417,32 @@
       <c r="B78" s="5"/>
       <c r="C78" s="26"/>
       <c r="D78" s="27" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G78" s="6"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A79" s="22" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C79" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="7" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F79" s="33" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G79" s="6"/>
     </row>
@@ -14447,14 +14450,14 @@
       <c r="A80" s="25"/>
       <c r="B80" s="11"/>
       <c r="C80" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="32" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F80" s="33" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G80" s="6"/>
     </row>
@@ -14462,16 +14465,16 @@
       <c r="A81" s="25"/>
       <c r="B81" s="11"/>
       <c r="C81" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G81" s="6"/>
     </row>
@@ -14480,13 +14483,13 @@
       <c r="B82" s="11"/>
       <c r="C82" s="26"/>
       <c r="D82" s="27" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G82" s="6"/>
     </row>
@@ -14495,13 +14498,13 @@
       <c r="B83" s="11"/>
       <c r="C83" s="26"/>
       <c r="D83" s="27" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G83" s="6"/>
     </row>
@@ -14510,11 +14513,11 @@
       <c r="B84" s="11"/>
       <c r="C84" s="26"/>
       <c r="D84" s="27" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="33" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G84" s="6"/>
     </row>
@@ -14523,32 +14526,32 @@
       <c r="B85" s="11"/>
       <c r="C85" s="26"/>
       <c r="D85" s="27" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G85" s="6"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A86" s="22" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C86" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D86" s="24"/>
       <c r="E86" s="7" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G86" s="6"/>
     </row>
@@ -14556,14 +14559,14 @@
       <c r="A87" s="25"/>
       <c r="B87" s="11"/>
       <c r="C87" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="32" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G87" s="6"/>
     </row>
@@ -14571,16 +14574,16 @@
       <c r="A88" s="25"/>
       <c r="B88" s="11"/>
       <c r="C88" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G88" s="6"/>
     </row>
@@ -14589,13 +14592,13 @@
       <c r="B89" s="11"/>
       <c r="C89" s="26"/>
       <c r="D89" s="27" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E89" s="32" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G89" s="6"/>
     </row>
@@ -14604,13 +14607,13 @@
       <c r="B90" s="11"/>
       <c r="C90" s="26"/>
       <c r="D90" s="27" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G90" s="6"/>
     </row>
@@ -14619,13 +14622,13 @@
       <c r="B91" s="11"/>
       <c r="C91" s="26"/>
       <c r="D91" s="27" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F91" s="33" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G91" s="6"/>
     </row>
@@ -14634,32 +14637,32 @@
       <c r="B92" s="11"/>
       <c r="C92" s="26"/>
       <c r="D92" s="27" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E92" s="32" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F92" s="33" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G92" s="6"/>
     </row>
     <row r="93" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A93" s="22" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C93" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D93" s="24"/>
       <c r="E93" s="7" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F93" s="33" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G93" s="6"/>
     </row>
@@ -14667,14 +14670,14 @@
       <c r="A94" s="25"/>
       <c r="B94" s="11"/>
       <c r="C94" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D94" s="24"/>
       <c r="E94" s="32" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F94" s="33" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G94" s="6"/>
     </row>
@@ -14682,16 +14685,16 @@
       <c r="A95" s="25"/>
       <c r="B95" s="11"/>
       <c r="C95" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F95" s="33" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G95" s="6"/>
     </row>
@@ -14700,11 +14703,11 @@
       <c r="B96" s="11"/>
       <c r="C96" s="26"/>
       <c r="D96" s="27" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="33" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G96" s="6"/>
     </row>
@@ -14713,13 +14716,13 @@
       <c r="B97" s="11"/>
       <c r="C97" s="26"/>
       <c r="D97" s="27" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G97" s="6"/>
     </row>
@@ -14728,32 +14731,32 @@
       <c r="B98" s="11"/>
       <c r="C98" s="26"/>
       <c r="D98" s="27" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F98" s="33" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G98" s="6"/>
     </row>
     <row r="99" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A99" s="22" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C99" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D99" s="24"/>
       <c r="E99" s="7" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F99" s="33" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G99" s="6"/>
     </row>
@@ -14761,14 +14764,14 @@
       <c r="A100" s="25"/>
       <c r="B100" s="11"/>
       <c r="C100" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D100" s="24"/>
       <c r="E100" s="32" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F100" s="33" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G100" s="6"/>
     </row>
@@ -14776,14 +14779,14 @@
       <c r="A101" s="25"/>
       <c r="B101" s="11"/>
       <c r="C101" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="33" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="G101" s="6"/>
     </row>
@@ -14792,11 +14795,11 @@
       <c r="B102" s="11"/>
       <c r="C102" s="26"/>
       <c r="D102" s="27" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="33" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G102" s="6"/>
     </row>
@@ -14805,11 +14808,11 @@
       <c r="B103" s="11"/>
       <c r="C103" s="26"/>
       <c r="D103" s="27" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="33" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G103" s="6"/>
     </row>
@@ -14818,32 +14821,32 @@
       <c r="B104" s="11"/>
       <c r="C104" s="26"/>
       <c r="D104" s="27" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F104" s="33" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G104" s="6"/>
     </row>
     <row r="105" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A105" s="22" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C105" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D105" s="24"/>
       <c r="E105" s="7" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F105" s="33" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="G105" s="6"/>
     </row>
@@ -14851,14 +14854,14 @@
       <c r="A106" s="25"/>
       <c r="B106" s="11"/>
       <c r="C106" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D106" s="24"/>
       <c r="E106" s="32" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F106" s="33" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="G106" s="6"/>
     </row>
@@ -14866,16 +14869,16 @@
       <c r="A107" s="25"/>
       <c r="B107" s="11"/>
       <c r="C107" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F107" s="33" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G107" s="6"/>
     </row>
@@ -14884,13 +14887,13 @@
       <c r="B108" s="11"/>
       <c r="C108" s="26"/>
       <c r="D108" s="27" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F108" s="33" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G108" s="6"/>
     </row>
@@ -14899,32 +14902,32 @@
       <c r="B109" s="11"/>
       <c r="C109" s="26"/>
       <c r="D109" s="27" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F109" s="33" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="G109" s="6"/>
     </row>
     <row r="110" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A110" s="22" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C110" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D110" s="24"/>
       <c r="E110" s="7" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F110" s="33" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G110" s="6"/>
     </row>
@@ -14932,14 +14935,14 @@
       <c r="A111" s="25"/>
       <c r="B111" s="11"/>
       <c r="C111" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D111" s="24"/>
       <c r="E111" s="32" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F111" s="33" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G111" s="6"/>
     </row>
@@ -14947,16 +14950,16 @@
       <c r="A112" s="25"/>
       <c r="B112" s="11"/>
       <c r="C112" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D112" s="27" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F112" s="33" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G112" s="6"/>
     </row>
@@ -14965,13 +14968,13 @@
       <c r="B113" s="11"/>
       <c r="C113" s="26"/>
       <c r="D113" s="27" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F113" s="33" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G113" s="6"/>
     </row>
@@ -14980,13 +14983,13 @@
       <c r="B114" s="11"/>
       <c r="C114" s="26"/>
       <c r="D114" s="27" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E114" s="32" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F114" s="33" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G114" s="6"/>
     </row>
@@ -14995,13 +14998,13 @@
       <c r="B115" s="11"/>
       <c r="C115" s="26"/>
       <c r="D115" s="27" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E115" s="32" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F115" s="33" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G115" s="6"/>
     </row>
@@ -15010,30 +15013,30 @@
       <c r="B116" s="11"/>
       <c r="C116" s="26"/>
       <c r="D116" s="27" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E116" s="32"/>
       <c r="F116" s="33" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G116" s="6"/>
     </row>
     <row r="117" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A117" s="22" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C117" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D117" s="24"/>
       <c r="E117" s="7" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F117" s="33" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="G117" s="6"/>
     </row>
@@ -15041,14 +15044,14 @@
       <c r="A118" s="25"/>
       <c r="B118" s="11"/>
       <c r="C118" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D118" s="24"/>
       <c r="E118" s="32" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F118" s="33" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G118" s="6"/>
     </row>
@@ -15056,16 +15059,16 @@
       <c r="A119" s="25"/>
       <c r="B119" s="11"/>
       <c r="C119" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E119" s="32" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F119" s="33" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="G119" s="6"/>
     </row>
@@ -15074,13 +15077,13 @@
       <c r="B120" s="11"/>
       <c r="C120" s="26"/>
       <c r="D120" s="27" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E120" s="32" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F120" s="33" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G120" s="6"/>
     </row>
@@ -15089,13 +15092,13 @@
       <c r="B121" s="11"/>
       <c r="C121" s="26"/>
       <c r="D121" s="27" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E121" s="32" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F121" s="33" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="G121" s="6"/>
     </row>
@@ -15104,13 +15107,13 @@
       <c r="B122" s="11"/>
       <c r="C122" s="26"/>
       <c r="D122" s="27" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E122" s="32" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F122" s="33" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G122" s="6"/>
     </row>
@@ -15119,13 +15122,13 @@
       <c r="B123" s="11"/>
       <c r="C123" s="26"/>
       <c r="D123" s="35" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E123" s="38" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="G123" s="6"/>
     </row>
@@ -15135,10 +15138,10 @@
       <c r="C124" s="26"/>
       <c r="D124" s="36"/>
       <c r="E124" s="38" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F124" s="33" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="G124" s="6"/>
     </row>
@@ -15148,10 +15151,10 @@
       <c r="C125" s="26"/>
       <c r="D125" s="36"/>
       <c r="E125" s="38" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F125" s="33" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G125" s="6"/>
     </row>
@@ -15161,10 +15164,10 @@
       <c r="C126" s="26"/>
       <c r="D126" s="36"/>
       <c r="E126" s="38" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F126" s="33" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G126" s="6"/>
     </row>
@@ -15174,10 +15177,10 @@
       <c r="C127" s="26"/>
       <c r="D127" s="36"/>
       <c r="E127" s="38" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F127" s="33" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G127" s="6"/>
     </row>
@@ -15187,26 +15190,26 @@
       <c r="C128" s="26"/>
       <c r="D128" s="37"/>
       <c r="E128" s="38" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F128" s="33" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G128" s="6"/>
     </row>
     <row r="129" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A129" s="22" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C129" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D129" s="24"/>
       <c r="E129" s="7" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="6"/>
@@ -15215,11 +15218,11 @@
       <c r="A130" s="25"/>
       <c r="B130" s="11"/>
       <c r="C130" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D130" s="24"/>
       <c r="E130" s="32" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="6"/>
@@ -15228,10 +15231,10 @@
       <c r="A131" s="25"/>
       <c r="B131" s="11"/>
       <c r="C131" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D131" s="27" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E131" s="32"/>
       <c r="F131" s="33"/>
@@ -15242,10 +15245,10 @@
       <c r="B132" s="11"/>
       <c r="C132" s="26"/>
       <c r="D132" s="27" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="6"/>
@@ -15255,10 +15258,10 @@
       <c r="B133" s="11"/>
       <c r="C133" s="26"/>
       <c r="D133" s="27" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="6"/>
@@ -15268,10 +15271,10 @@
       <c r="B134" s="11"/>
       <c r="C134" s="26"/>
       <c r="D134" s="27" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="6"/>
@@ -15281,7 +15284,7 @@
       <c r="B135" s="11"/>
       <c r="C135" s="26"/>
       <c r="D135" s="27" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E135" s="32"/>
       <c r="F135" s="33"/>
@@ -15292,7 +15295,7 @@
       <c r="B136" s="11"/>
       <c r="C136" s="26"/>
       <c r="D136" s="27" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E136" s="32"/>
       <c r="F136" s="33"/>
@@ -15303,27 +15306,27 @@
       <c r="B137" s="11"/>
       <c r="C137" s="26"/>
       <c r="D137" s="27" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E137" s="32" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="6"/>
     </row>
     <row r="138" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A138" s="22" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C138" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D138" s="24"/>
       <c r="E138" s="7" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="6"/>
@@ -15332,11 +15335,11 @@
       <c r="A139" s="25"/>
       <c r="B139" s="11"/>
       <c r="C139" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D139" s="24"/>
       <c r="E139" s="32" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="6"/>
@@ -15345,13 +15348,13 @@
       <c r="A140" s="25"/>
       <c r="B140" s="11"/>
       <c r="C140" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E140" s="32" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="6"/>
@@ -15361,10 +15364,10 @@
       <c r="B141" s="11"/>
       <c r="C141" s="26"/>
       <c r="D141" s="27" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E141" s="32" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="6"/>
@@ -15374,7 +15377,7 @@
       <c r="B142" s="11"/>
       <c r="C142" s="26"/>
       <c r="D142" s="27" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E142" s="32"/>
       <c r="F142" s="33"/>
@@ -15385,27 +15388,27 @@
       <c r="B143" s="11"/>
       <c r="C143" s="26"/>
       <c r="D143" s="27" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E143" s="32" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="6"/>
     </row>
     <row r="144" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A144" s="22" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C144" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D144" s="24"/>
       <c r="E144" s="7" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="6"/>
@@ -15414,28 +15417,28 @@
       <c r="A145" s="25"/>
       <c r="B145" s="11"/>
       <c r="C145" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D145" s="24"/>
       <c r="E145" s="32" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="6"/>
     </row>
     <row r="146" s="1" customFormat="1" ht="62" customHeight="1" spans="1:7">
       <c r="A146" s="22" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C146" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D146" s="24"/>
       <c r="E146" s="7" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="6"/>
@@ -15444,11 +15447,11 @@
       <c r="A147" s="25"/>
       <c r="B147" s="11"/>
       <c r="C147" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D147" s="24"/>
       <c r="E147" s="32" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="6"/>
@@ -15457,13 +15460,13 @@
       <c r="A148" s="25"/>
       <c r="B148" s="11"/>
       <c r="C148" s="29" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E148" s="32" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="6"/>
@@ -15473,10 +15476,10 @@
       <c r="B149" s="11"/>
       <c r="C149" s="30"/>
       <c r="D149" s="27" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="6"/>
@@ -15486,27 +15489,27 @@
       <c r="B150" s="11"/>
       <c r="C150" s="31"/>
       <c r="D150" s="27" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E150" s="32" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="6"/>
     </row>
     <row r="151" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A151" s="22" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C151" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D151" s="24"/>
       <c r="E151" s="7" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F151" s="33"/>
       <c r="G151" s="6"/>
@@ -15515,11 +15518,11 @@
       <c r="A152" s="25"/>
       <c r="B152" s="11"/>
       <c r="C152" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D152" s="24"/>
       <c r="E152" s="32" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="6"/>
@@ -15528,10 +15531,10 @@
       <c r="A153" s="25"/>
       <c r="B153" s="11"/>
       <c r="C153" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="33"/>
@@ -15542,11 +15545,11 @@
       <c r="B154" s="11"/>
       <c r="C154" s="26"/>
       <c r="D154" s="27" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E154" s="32"/>
       <c r="F154" s="33" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="G154" s="6"/>
     </row>
@@ -15555,7 +15558,7 @@
       <c r="B155" s="11"/>
       <c r="C155" s="26"/>
       <c r="D155" s="27" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="33"/>
@@ -15566,10 +15569,10 @@
       <c r="B156" s="11"/>
       <c r="C156" s="26"/>
       <c r="D156" s="27" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E156" s="32" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="6"/>
@@ -15579,7 +15582,7 @@
       <c r="B157" s="11"/>
       <c r="C157" s="26"/>
       <c r="D157" s="27" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E157" s="32"/>
       <c r="F157" s="33"/>
@@ -15590,7 +15593,7 @@
       <c r="B158" s="11"/>
       <c r="C158" s="26"/>
       <c r="D158" s="27" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="33"/>
@@ -15598,17 +15601,17 @@
     </row>
     <row r="159" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A159" s="22" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C159" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D159" s="24"/>
       <c r="E159" s="7" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="6"/>
@@ -15617,11 +15620,11 @@
       <c r="A160" s="25"/>
       <c r="B160" s="11"/>
       <c r="C160" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D160" s="24"/>
       <c r="E160" s="32" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="6"/>
@@ -15630,13 +15633,13 @@
       <c r="A161" s="25"/>
       <c r="B161" s="11"/>
       <c r="C161" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D161" s="27" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E161" s="32" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="6"/>
@@ -15646,10 +15649,10 @@
       <c r="B162" s="11"/>
       <c r="C162" s="26"/>
       <c r="D162" s="27" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E162" s="32" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="6"/>
@@ -15659,7 +15662,7 @@
       <c r="B163" s="11"/>
       <c r="C163" s="26"/>
       <c r="D163" s="27" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E163" s="32"/>
       <c r="F163" s="33"/>
@@ -15667,17 +15670,17 @@
     </row>
     <row r="164" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A164" s="22" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C164" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D164" s="24"/>
       <c r="E164" s="7" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="6"/>
@@ -15686,11 +15689,11 @@
       <c r="A165" s="25"/>
       <c r="B165" s="11"/>
       <c r="C165" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D165" s="24"/>
       <c r="E165" s="32" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="6"/>
@@ -15699,7 +15702,7 @@
       <c r="A166" s="25"/>
       <c r="B166" s="11"/>
       <c r="C166" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="32"/>
@@ -15717,17 +15720,17 @@
     </row>
     <row r="168" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A168" s="22" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C168" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D168" s="24"/>
       <c r="E168" s="7" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="6"/>
@@ -15736,11 +15739,11 @@
       <c r="A169" s="25"/>
       <c r="B169" s="11"/>
       <c r="C169" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D169" s="24"/>
       <c r="E169" s="32" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="6"/>
@@ -15749,13 +15752,13 @@
       <c r="A170" s="25"/>
       <c r="B170" s="11"/>
       <c r="C170" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D170" s="27" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E170" s="32" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="6"/>
@@ -15765,10 +15768,10 @@
       <c r="B171" s="11"/>
       <c r="C171" s="26"/>
       <c r="D171" s="27" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E171" s="32" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="6"/>
@@ -15778,10 +15781,10 @@
       <c r="B172" s="11"/>
       <c r="C172" s="26"/>
       <c r="D172" s="27" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E172" s="32" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="6"/>
@@ -15791,7 +15794,7 @@
       <c r="B173" s="11"/>
       <c r="C173" s="26"/>
       <c r="D173" s="27" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E173" s="32"/>
       <c r="F173" s="33"/>
@@ -15799,17 +15802,17 @@
     </row>
     <row r="174" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A174" s="22" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C174" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D174" s="24"/>
       <c r="E174" s="7" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="6"/>
@@ -15818,11 +15821,11 @@
       <c r="A175" s="25"/>
       <c r="B175" s="11"/>
       <c r="C175" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D175" s="24"/>
       <c r="E175" s="32" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="6"/>
@@ -15831,10 +15834,10 @@
       <c r="A176" s="25"/>
       <c r="B176" s="11"/>
       <c r="C176" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E176" s="32"/>
       <c r="F176" s="33"/>
@@ -15845,7 +15848,7 @@
       <c r="B177" s="11"/>
       <c r="C177" s="26"/>
       <c r="D177" s="27" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E177" s="32"/>
       <c r="F177" s="33"/>
@@ -15856,7 +15859,7 @@
       <c r="B178" s="11"/>
       <c r="C178" s="26"/>
       <c r="D178" s="27" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E178" s="32"/>
       <c r="F178" s="33"/>
@@ -15867,7 +15870,7 @@
       <c r="B179" s="11"/>
       <c r="C179" s="26"/>
       <c r="D179" s="27" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E179" s="32"/>
       <c r="F179" s="33"/>
@@ -15878,7 +15881,7 @@
       <c r="B180" s="11"/>
       <c r="C180" s="26"/>
       <c r="D180" s="27" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="E180" s="32"/>
       <c r="F180" s="33"/>
@@ -15889,7 +15892,7 @@
       <c r="B181" s="11"/>
       <c r="C181" s="26"/>
       <c r="D181" s="27" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E181" s="32"/>
       <c r="F181" s="33"/>
@@ -15900,7 +15903,7 @@
       <c r="B182" s="11"/>
       <c r="C182" s="26"/>
       <c r="D182" s="27" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E182" s="32"/>
       <c r="F182" s="33"/>
@@ -15908,17 +15911,17 @@
     </row>
     <row r="183" s="1" customFormat="1" ht="58" customHeight="1" spans="1:7">
       <c r="A183" s="22" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C183" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D183" s="24"/>
       <c r="E183" s="7" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F183" s="33"/>
       <c r="G183" s="6"/>
@@ -15927,11 +15930,11 @@
       <c r="A184" s="25"/>
       <c r="B184" s="11"/>
       <c r="C184" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D184" s="24"/>
       <c r="E184" s="32" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F184" s="33"/>
       <c r="G184" s="6"/>
@@ -15940,13 +15943,13 @@
       <c r="A185" s="25"/>
       <c r="B185" s="11"/>
       <c r="C185" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D185" s="27" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="E185" s="32" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="F185" s="33"/>
       <c r="G185" s="6"/>
@@ -15956,7 +15959,7 @@
       <c r="B186" s="11"/>
       <c r="C186" s="26"/>
       <c r="D186" s="27" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E186" s="32"/>
       <c r="F186" s="33"/>
@@ -15967,7 +15970,7 @@
       <c r="B187" s="11"/>
       <c r="C187" s="26"/>
       <c r="D187" s="27" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="E187" s="32"/>
       <c r="F187" s="33"/>
@@ -15975,17 +15978,17 @@
     </row>
     <row r="188" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A188" s="22" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C188" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D188" s="24"/>
       <c r="E188" s="7" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="6"/>
@@ -15994,11 +15997,11 @@
       <c r="A189" s="25"/>
       <c r="B189" s="11"/>
       <c r="C189" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D189" s="24"/>
       <c r="E189" s="32" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="6"/>
@@ -16007,10 +16010,10 @@
       <c r="A190" s="25"/>
       <c r="B190" s="11"/>
       <c r="C190" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E190" s="32"/>
       <c r="F190" s="33"/>
@@ -16021,7 +16024,7 @@
       <c r="B191" s="11"/>
       <c r="C191" s="26"/>
       <c r="D191" s="27" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E191" s="32"/>
       <c r="F191" s="33"/>
@@ -16032,7 +16035,7 @@
       <c r="B192" s="11"/>
       <c r="C192" s="26"/>
       <c r="D192" s="27" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="E192" s="32"/>
       <c r="F192" s="33"/>
@@ -16043,7 +16046,7 @@
       <c r="B193" s="11"/>
       <c r="C193" s="26"/>
       <c r="D193" s="27" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="E193" s="32"/>
       <c r="F193" s="33"/>
@@ -16051,17 +16054,17 @@
     </row>
     <row r="194" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A194" s="22" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C194" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D194" s="24"/>
       <c r="E194" s="7" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="F194" s="33"/>
       <c r="G194" s="6"/>
@@ -16070,11 +16073,11 @@
       <c r="A195" s="25"/>
       <c r="B195" s="11"/>
       <c r="C195" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D195" s="24"/>
       <c r="E195" s="32" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="6"/>
@@ -16083,13 +16086,13 @@
       <c r="A196" s="25"/>
       <c r="B196" s="11"/>
       <c r="C196" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D196" s="27" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E196" s="32" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="F196" s="33"/>
       <c r="G196" s="6"/>
@@ -16099,10 +16102,10 @@
       <c r="B197" s="11"/>
       <c r="C197" s="26"/>
       <c r="D197" s="27" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="E197" s="32" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F197" s="33"/>
       <c r="G197" s="6"/>
@@ -16112,10 +16115,10 @@
       <c r="B198" s="11"/>
       <c r="C198" s="26"/>
       <c r="D198" s="27" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="E198" s="32" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="F198" s="33"/>
       <c r="G198" s="6"/>
@@ -16125,10 +16128,10 @@
       <c r="B199" s="11"/>
       <c r="C199" s="26"/>
       <c r="D199" s="27" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E199" s="32" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="F199" s="33"/>
       <c r="G199" s="6"/>
@@ -16138,7 +16141,7 @@
       <c r="B200" s="11"/>
       <c r="C200" s="26"/>
       <c r="D200" s="27" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E200" s="32"/>
       <c r="F200" s="33"/>
@@ -16146,17 +16149,17 @@
     </row>
     <row r="201" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A201" s="22" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C201" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D201" s="24"/>
       <c r="E201" s="7" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="F201" s="33"/>
       <c r="G201" s="6"/>
@@ -16165,11 +16168,11 @@
       <c r="A202" s="25"/>
       <c r="B202" s="11"/>
       <c r="C202" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D202" s="24"/>
       <c r="E202" s="32" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="F202" s="33"/>
       <c r="G202" s="6"/>
@@ -16178,13 +16181,13 @@
       <c r="A203" s="25"/>
       <c r="B203" s="11"/>
       <c r="C203" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D203" s="27" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="E203" s="32" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F203" s="33"/>
       <c r="G203" s="6"/>
@@ -16194,10 +16197,10 @@
       <c r="B204" s="11"/>
       <c r="C204" s="26"/>
       <c r="D204" s="27" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E204" s="32" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="F204" s="33"/>
       <c r="G204" s="6"/>
@@ -16207,10 +16210,10 @@
       <c r="B205" s="11"/>
       <c r="C205" s="26"/>
       <c r="D205" s="27" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="E205" s="32" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="F205" s="33"/>
       <c r="G205" s="6"/>
@@ -16220,27 +16223,27 @@
       <c r="B206" s="11"/>
       <c r="C206" s="26"/>
       <c r="D206" s="27" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="E206" s="32" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="F206" s="33"/>
       <c r="G206" s="6"/>
     </row>
     <row r="207" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A207" s="22" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C207" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D207" s="24"/>
       <c r="E207" s="7" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="6"/>
@@ -16249,14 +16252,14 @@
       <c r="A208" s="25"/>
       <c r="B208" s="11"/>
       <c r="C208" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D208" s="24"/>
       <c r="E208" s="38" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="F208" s="33" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="G208" s="6"/>
     </row>
@@ -16264,13 +16267,13 @@
       <c r="A209" s="25"/>
       <c r="B209" s="11"/>
       <c r="C209" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="E209" s="32" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="6"/>
@@ -16280,10 +16283,10 @@
       <c r="B210" s="11"/>
       <c r="C210" s="26"/>
       <c r="D210" s="27" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E210" s="32" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="6"/>
@@ -16293,10 +16296,10 @@
       <c r="B211" s="11"/>
       <c r="C211" s="26"/>
       <c r="D211" s="27" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E211" s="32" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="6"/>
@@ -16306,27 +16309,27 @@
       <c r="B212" s="11"/>
       <c r="C212" s="26"/>
       <c r="D212" s="27" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="E212" s="32" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="6"/>
     </row>
     <row r="213" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A213" s="22" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C213" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D213" s="24"/>
       <c r="E213" s="7" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="6"/>
@@ -16335,11 +16338,11 @@
       <c r="A214" s="25"/>
       <c r="B214" s="11"/>
       <c r="C214" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D214" s="24"/>
       <c r="E214" s="32" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="6"/>
@@ -16348,13 +16351,13 @@
       <c r="A215" s="25"/>
       <c r="B215" s="11"/>
       <c r="C215" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D215" s="27" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E215" s="38" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="6"/>
@@ -16364,13 +16367,13 @@
       <c r="B216" s="11"/>
       <c r="C216" s="26"/>
       <c r="D216" s="27" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E216" s="32" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="F216" s="33" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G216" s="6"/>
     </row>
@@ -16379,13 +16382,13 @@
       <c r="B217" s="11"/>
       <c r="C217" s="26"/>
       <c r="D217" s="27" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="E217" s="32" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="F217" s="33" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="G217" s="6"/>
     </row>
@@ -16394,29 +16397,29 @@
       <c r="B218" s="11"/>
       <c r="C218" s="26"/>
       <c r="D218" s="27" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E218" s="32" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F218" s="33" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G218" s="6"/>
     </row>
     <row r="219" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A219" s="22" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C219" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D219" s="24"/>
       <c r="E219" s="7" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="F219" s="33"/>
       <c r="G219" s="6"/>
@@ -16425,11 +16428,11 @@
       <c r="A220" s="25"/>
       <c r="B220" s="11"/>
       <c r="C220" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D220" s="24"/>
       <c r="E220" s="32" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="F220" s="33"/>
       <c r="G220" s="6"/>
@@ -16438,13 +16441,13 @@
       <c r="A221" s="25"/>
       <c r="B221" s="11"/>
       <c r="C221" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D221" s="27" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E221" s="32" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="F221" s="33"/>
       <c r="G221" s="6"/>
@@ -16454,10 +16457,10 @@
       <c r="B222" s="11"/>
       <c r="C222" s="26"/>
       <c r="D222" s="27" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="E222" s="32" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="F222" s="33"/>
       <c r="G222" s="6"/>
@@ -16467,27 +16470,27 @@
       <c r="B223" s="11"/>
       <c r="C223" s="26"/>
       <c r="D223" s="27" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="E223" s="32" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F223" s="33"/>
       <c r="G223" s="6"/>
     </row>
     <row r="224" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A224" s="22" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C224" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D224" s="24"/>
       <c r="E224" s="7" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F224" s="33"/>
       <c r="G224" s="6"/>
@@ -16496,11 +16499,11 @@
       <c r="A225" s="25"/>
       <c r="B225" s="11"/>
       <c r="C225" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D225" s="24"/>
       <c r="E225" s="32" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="F225" s="33"/>
       <c r="G225" s="6"/>
@@ -16509,13 +16512,13 @@
       <c r="A226" s="25"/>
       <c r="B226" s="11"/>
       <c r="C226" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D226" s="27" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="E226" s="32" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="F226" s="33"/>
       <c r="G226" s="6"/>
@@ -16528,7 +16531,7 @@
         <v>131</v>
       </c>
       <c r="E227" s="32" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="F227" s="33"/>
       <c r="G227" s="6"/>
@@ -16538,27 +16541,27 @@
       <c r="B228" s="11"/>
       <c r="C228" s="26"/>
       <c r="D228" s="27" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E228" s="32" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="F228" s="33"/>
       <c r="G228" s="6"/>
     </row>
     <row r="229" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A229" s="22" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C229" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D229" s="24"/>
       <c r="E229" s="7" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="F229" s="33"/>
       <c r="G229" s="6"/>
@@ -16567,11 +16570,11 @@
       <c r="A230" s="25"/>
       <c r="B230" s="11"/>
       <c r="C230" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D230" s="24"/>
       <c r="E230" s="32" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="F230" s="33"/>
       <c r="G230" s="6"/>
@@ -16580,13 +16583,13 @@
       <c r="A231" s="25"/>
       <c r="B231" s="11"/>
       <c r="C231" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D231" s="27" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="E231" s="32" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="6"/>
@@ -16596,10 +16599,10 @@
       <c r="B232" s="11"/>
       <c r="C232" s="26"/>
       <c r="D232" s="27" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E232" s="32" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="F232" s="33"/>
       <c r="G232" s="6"/>
@@ -16609,10 +16612,10 @@
       <c r="B233" s="11"/>
       <c r="C233" s="26"/>
       <c r="D233" s="27" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E233" s="32" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="6"/>
@@ -16622,27 +16625,27 @@
       <c r="B234" s="11"/>
       <c r="C234" s="26"/>
       <c r="D234" s="27" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="E234" s="38" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="F234" s="33"/>
       <c r="G234" s="6"/>
     </row>
     <row r="235" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A235" s="22" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C235" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D235" s="24"/>
       <c r="E235" s="7" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F235" s="33"/>
       <c r="G235" s="6"/>
@@ -16651,11 +16654,11 @@
       <c r="A236" s="25"/>
       <c r="B236" s="11"/>
       <c r="C236" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D236" s="24"/>
       <c r="E236" s="32" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F236" s="33"/>
       <c r="G236" s="6"/>
@@ -16664,10 +16667,10 @@
       <c r="A237" s="25"/>
       <c r="B237" s="11"/>
       <c r="C237" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="E237" s="32"/>
       <c r="F237" s="33"/>
@@ -16678,7 +16681,7 @@
       <c r="B238" s="11"/>
       <c r="C238" s="26"/>
       <c r="D238" s="27" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E238" s="32"/>
       <c r="F238" s="33"/>
@@ -16689,10 +16692,10 @@
       <c r="B239" s="11"/>
       <c r="C239" s="26"/>
       <c r="D239" s="27" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E239" s="32" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="F239" s="33"/>
       <c r="G239" s="6"/>
@@ -16702,27 +16705,27 @@
       <c r="B240" s="11"/>
       <c r="C240" s="26"/>
       <c r="D240" s="27" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E240" s="32" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="F240" s="33"/>
       <c r="G240" s="6"/>
     </row>
     <row r="241" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A241" s="22" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C241" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D241" s="24"/>
       <c r="E241" s="7" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="F241" s="33"/>
       <c r="G241" s="6"/>
@@ -16731,11 +16734,11 @@
       <c r="A242" s="25"/>
       <c r="B242" s="11"/>
       <c r="C242" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D242" s="24"/>
       <c r="E242" s="32" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F242" s="33"/>
       <c r="G242" s="6"/>
@@ -16744,10 +16747,10 @@
       <c r="A243" s="25"/>
       <c r="B243" s="11"/>
       <c r="C243" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D243" s="27" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="E243" s="32"/>
       <c r="F243" s="33"/>
@@ -16758,7 +16761,7 @@
       <c r="B244" s="13"/>
       <c r="C244" s="26"/>
       <c r="D244" s="27" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E244" s="32"/>
       <c r="F244" s="33"/>
@@ -16766,17 +16769,17 @@
     </row>
     <row r="245" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A245" s="22" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C245" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D245" s="24"/>
       <c r="E245" s="7" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F245" s="33"/>
       <c r="G245" s="6"/>
@@ -16785,11 +16788,11 @@
       <c r="A246" s="25"/>
       <c r="B246" s="11"/>
       <c r="C246" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D246" s="24"/>
       <c r="E246" s="32" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F246" s="33"/>
       <c r="G246" s="6"/>
@@ -16798,10 +16801,10 @@
       <c r="A247" s="25"/>
       <c r="B247" s="11"/>
       <c r="C247" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D247" s="27" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E247" s="32"/>
       <c r="F247" s="33"/>
@@ -16812,7 +16815,7 @@
       <c r="B248" s="11"/>
       <c r="C248" s="26"/>
       <c r="D248" s="27" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E248" s="32"/>
       <c r="F248" s="33"/>
@@ -16823,10 +16826,10 @@
       <c r="B249" s="11"/>
       <c r="C249" s="26"/>
       <c r="D249" s="27" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="E249" s="32" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="F249" s="33"/>
       <c r="G249" s="6"/>
@@ -16836,10 +16839,10 @@
       <c r="B250" s="11"/>
       <c r="C250" s="26"/>
       <c r="D250" s="27" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E250" s="32" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="F250" s="33"/>
       <c r="G250" s="6"/>
@@ -16849,7 +16852,7 @@
       <c r="B251" s="11"/>
       <c r="C251" s="26"/>
       <c r="D251" s="27" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="E251" s="32"/>
       <c r="F251" s="33"/>
@@ -16860,7 +16863,7 @@
       <c r="B252" s="11"/>
       <c r="C252" s="26"/>
       <c r="D252" s="27" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="E252" s="32"/>
       <c r="F252" s="33"/>
@@ -16868,17 +16871,17 @@
     </row>
     <row r="253" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A253" s="22" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C253" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D253" s="24"/>
       <c r="E253" s="7" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="F253" s="33"/>
       <c r="G253" s="6"/>
@@ -16887,14 +16890,14 @@
       <c r="A254" s="25"/>
       <c r="B254" s="11"/>
       <c r="C254" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D254" s="24"/>
       <c r="E254" s="32" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F254" s="33" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="G254" s="6"/>
     </row>
@@ -16902,13 +16905,13 @@
       <c r="A255" s="25"/>
       <c r="B255" s="11"/>
       <c r="C255" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D255" s="27" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="E255" s="32" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="F255" s="33"/>
       <c r="G255" s="6"/>
@@ -16918,10 +16921,10 @@
       <c r="B256" s="11"/>
       <c r="C256" s="26"/>
       <c r="D256" s="27" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="E256" s="32" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="F256" s="33"/>
       <c r="G256" s="6"/>
@@ -16931,27 +16934,27 @@
       <c r="B257" s="11"/>
       <c r="C257" s="26"/>
       <c r="D257" s="27" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E257" s="32" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="F257" s="33"/>
       <c r="G257" s="6"/>
     </row>
     <row r="258" s="1" customFormat="1" ht="65" customHeight="1" spans="1:7">
       <c r="A258" s="22" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C258" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D258" s="24"/>
       <c r="E258" s="7" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F258" s="33"/>
       <c r="G258" s="6"/>
@@ -16960,11 +16963,11 @@
       <c r="A259" s="25"/>
       <c r="B259" s="11"/>
       <c r="C259" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D259" s="24"/>
       <c r="E259" s="32" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="F259" s="33"/>
       <c r="G259" s="6"/>
@@ -16973,10 +16976,10 @@
       <c r="A260" s="25"/>
       <c r="B260" s="11"/>
       <c r="C260" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D260" s="27" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="E260" s="32"/>
       <c r="F260" s="33"/>
@@ -16987,10 +16990,10 @@
       <c r="B261" s="11"/>
       <c r="C261" s="26"/>
       <c r="D261" s="27" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E261" s="32" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="F261" s="33"/>
       <c r="G261" s="6"/>
@@ -17000,7 +17003,7 @@
       <c r="B262" s="11"/>
       <c r="C262" s="26"/>
       <c r="D262" s="27" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E262" s="32"/>
       <c r="F262" s="33"/>
@@ -17011,7 +17014,7 @@
       <c r="B263" s="11"/>
       <c r="C263" s="26"/>
       <c r="D263" s="27" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="E263" s="32"/>
       <c r="F263" s="33"/>
@@ -17019,17 +17022,17 @@
     </row>
     <row r="264" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A264" s="22" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C264" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D264" s="24"/>
       <c r="E264" s="7" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="F264" s="33"/>
       <c r="G264" s="6"/>
@@ -17038,11 +17041,11 @@
       <c r="A265" s="25"/>
       <c r="B265" s="11"/>
       <c r="C265" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D265" s="24"/>
       <c r="E265" s="32" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="F265" s="33"/>
       <c r="G265" s="6"/>
@@ -17051,13 +17054,13 @@
       <c r="A266" s="25"/>
       <c r="B266" s="11"/>
       <c r="C266" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D266" s="27" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="E266" s="32" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="F266" s="33"/>
       <c r="G266" s="6"/>
@@ -17067,7 +17070,7 @@
       <c r="B267" s="11"/>
       <c r="C267" s="26"/>
       <c r="D267" s="27" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E267" s="32"/>
       <c r="F267" s="33"/>
@@ -17078,7 +17081,7 @@
       <c r="B268" s="11"/>
       <c r="C268" s="26"/>
       <c r="D268" s="27" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E268" s="32"/>
       <c r="F268" s="33"/>
@@ -17089,7 +17092,7 @@
       <c r="B269" s="11"/>
       <c r="C269" s="26"/>
       <c r="D269" s="27" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E269" s="32"/>
       <c r="F269" s="33"/>
@@ -17097,17 +17100,17 @@
     </row>
     <row r="270" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A270" s="22" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C270" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D270" s="24"/>
       <c r="E270" s="7" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="F270" s="33"/>
       <c r="G270" s="6"/>
@@ -17116,11 +17119,11 @@
       <c r="A271" s="25"/>
       <c r="B271" s="11"/>
       <c r="C271" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D271" s="24"/>
       <c r="E271" s="38" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="F271" s="33"/>
       <c r="G271" s="6"/>
@@ -17129,13 +17132,13 @@
       <c r="A272" s="25"/>
       <c r="B272" s="11"/>
       <c r="C272" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D272" s="27" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="E272" s="32" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="F272" s="33"/>
       <c r="G272" s="6"/>
@@ -17145,7 +17148,7 @@
       <c r="B273" s="11"/>
       <c r="C273" s="26"/>
       <c r="D273" s="27" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E273" s="32"/>
       <c r="F273" s="33"/>
@@ -17156,27 +17159,27 @@
       <c r="B274" s="11"/>
       <c r="C274" s="26"/>
       <c r="D274" s="27" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="E274" s="32" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="F274" s="33"/>
       <c r="G274" s="6"/>
     </row>
     <row r="275" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A275" s="22" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C275" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D275" s="24"/>
       <c r="E275" s="7" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="F275" s="33"/>
       <c r="G275" s="6"/>
@@ -17185,11 +17188,11 @@
       <c r="A276" s="25"/>
       <c r="B276" s="11"/>
       <c r="C276" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D276" s="24"/>
       <c r="E276" s="32" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="F276" s="33"/>
       <c r="G276" s="6"/>
@@ -17198,13 +17201,13 @@
       <c r="A277" s="25"/>
       <c r="B277" s="11"/>
       <c r="C277" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D277" s="27" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="E277" s="32" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="F277" s="33"/>
       <c r="G277" s="6"/>
@@ -17214,10 +17217,10 @@
       <c r="B278" s="11"/>
       <c r="C278" s="26"/>
       <c r="D278" s="27" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E278" s="32" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="F278" s="33"/>
       <c r="G278" s="6"/>
@@ -17227,10 +17230,10 @@
       <c r="B279" s="11"/>
       <c r="C279" s="26"/>
       <c r="D279" s="27" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="E279" s="32" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="F279" s="33"/>
       <c r="G279" s="6"/>
@@ -17240,27 +17243,27 @@
       <c r="B280" s="11"/>
       <c r="C280" s="26"/>
       <c r="D280" s="27" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E280" s="32" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="F280" s="33"/>
       <c r="G280" s="6"/>
     </row>
     <row r="281" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A281" s="22" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C281" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D281" s="24"/>
       <c r="E281" s="7" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="F281" s="33"/>
       <c r="G281" s="6"/>
@@ -17269,7 +17272,7 @@
       <c r="A282" s="25"/>
       <c r="B282" s="11"/>
       <c r="C282" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D282" s="24"/>
       <c r="E282" s="32"/>
@@ -17280,13 +17283,13 @@
       <c r="A283" s="25"/>
       <c r="B283" s="11"/>
       <c r="C283" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D283" s="27" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E283" s="32" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="F283" s="33"/>
       <c r="G283" s="6"/>
@@ -17296,17 +17299,17 @@
       <c r="B284" s="13"/>
       <c r="C284" s="26"/>
       <c r="D284" s="27" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="E284" s="32" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="F284" s="33"/>
       <c r="G284" s="6"/>
     </row>
     <row r="285" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A285" s="22" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B285" s="9"/>
       <c r="C285" s="23" t="s">
@@ -17314,7 +17317,7 @@
       </c>
       <c r="D285" s="24"/>
       <c r="E285" s="7" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="F285" s="33"/>
       <c r="G285" s="6"/>
@@ -17323,11 +17326,11 @@
       <c r="A286" s="25"/>
       <c r="B286" s="11"/>
       <c r="C286" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D286" s="24"/>
       <c r="E286" s="32" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="F286" s="33"/>
       <c r="G286" s="6"/>
@@ -17336,10 +17339,10 @@
       <c r="A287" s="25"/>
       <c r="B287" s="11"/>
       <c r="C287" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D287" s="27" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E287" s="32"/>
       <c r="F287" s="33"/>
@@ -17350,10 +17353,10 @@
       <c r="B288" s="11"/>
       <c r="C288" s="26"/>
       <c r="D288" s="27" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E288" s="32" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="F288" s="33"/>
       <c r="G288" s="6"/>
@@ -17363,10 +17366,10 @@
       <c r="B289" s="11"/>
       <c r="C289" s="26"/>
       <c r="D289" s="27" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="E289" s="32" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="F289" s="33"/>
       <c r="G289" s="6"/>
@@ -17376,27 +17379,27 @@
       <c r="B290" s="11"/>
       <c r="C290" s="26"/>
       <c r="D290" s="27" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E290" s="32" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="F290" s="33"/>
       <c r="G290" s="6"/>
     </row>
     <row r="291" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A291" s="22" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C291" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D291" s="24"/>
       <c r="E291" s="7" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="F291" s="33"/>
       <c r="G291" s="6"/>
@@ -17405,7 +17408,7 @@
       <c r="A292" s="25"/>
       <c r="B292" s="11"/>
       <c r="C292" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D292" s="24"/>
       <c r="E292" s="32"/>
@@ -17416,13 +17419,13 @@
       <c r="A293" s="25"/>
       <c r="B293" s="11"/>
       <c r="C293" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D293" s="27" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="E293" s="32" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="F293" s="33"/>
       <c r="G293" s="6"/>
@@ -17432,10 +17435,10 @@
       <c r="B294" s="11"/>
       <c r="C294" s="26"/>
       <c r="D294" s="27" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="E294" s="32" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="F294" s="33"/>
       <c r="G294" s="6"/>
@@ -17445,7 +17448,7 @@
       <c r="B295" s="11"/>
       <c r="C295" s="26"/>
       <c r="D295" s="27" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E295" s="32"/>
       <c r="F295" s="33"/>
@@ -17456,7 +17459,7 @@
       <c r="B296" s="11"/>
       <c r="C296" s="26"/>
       <c r="D296" s="27" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="E296" s="32"/>
       <c r="F296" s="33"/>
@@ -17467,7 +17470,7 @@
       <c r="B297" s="11"/>
       <c r="C297" s="26"/>
       <c r="D297" s="27" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="E297" s="32"/>
       <c r="F297" s="33"/>
@@ -17475,17 +17478,17 @@
     </row>
     <row r="298" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A298" s="22" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C298" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D298" s="24"/>
       <c r="E298" s="7" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="F298" s="33"/>
       <c r="G298" s="6"/>
@@ -17494,11 +17497,11 @@
       <c r="A299" s="25"/>
       <c r="B299" s="11"/>
       <c r="C299" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D299" s="24"/>
       <c r="E299" s="32" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="F299" s="33"/>
       <c r="G299" s="6"/>
@@ -17507,10 +17510,10 @@
       <c r="A300" s="25"/>
       <c r="B300" s="11"/>
       <c r="C300" s="29" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D300" s="27" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E300" s="32"/>
       <c r="F300" s="33"/>
@@ -17521,10 +17524,10 @@
       <c r="B301" s="11"/>
       <c r="C301" s="30"/>
       <c r="D301" s="27" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="E301" s="32" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F301" s="33"/>
       <c r="G301" s="6"/>
@@ -17534,7 +17537,7 @@
       <c r="B302" s="11"/>
       <c r="C302" s="30"/>
       <c r="D302" s="5" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="E302" s="7"/>
       <c r="F302" s="33"/>
@@ -17545,10 +17548,10 @@
       <c r="B303" s="13"/>
       <c r="C303" s="31"/>
       <c r="D303" s="5" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="F303" s="33"/>
       <c r="G303" s="6"/>
@@ -18142,7 +18145,7 @@
         <v>109</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>110</v>
@@ -18158,7 +18161,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -18170,13 +18173,13 @@
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -18187,7 +18190,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="7" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -18198,11 +18201,11 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="7" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -18211,11 +18214,11 @@
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="7" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -18224,7 +18227,7 @@
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="7" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -18233,13 +18236,13 @@
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -18250,7 +18253,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -18261,7 +18264,7 @@
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="7" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -18272,7 +18275,7 @@
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="7" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -18281,17 +18284,17 @@
     <row r="12" ht="139" customHeight="1" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -18304,10 +18307,10 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="18" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
@@ -18317,10 +18320,10 @@
       <c r="D14" s="15"/>
       <c r="E14" s="10"/>
       <c r="F14" s="18" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="15" ht="84" spans="1:7">
@@ -18330,10 +18333,10 @@
       <c r="D15" s="15"/>
       <c r="E15" s="10"/>
       <c r="F15" s="18" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="16" ht="56" spans="1:7">
@@ -18343,10 +18346,10 @@
       <c r="D16" s="15"/>
       <c r="E16" s="10"/>
       <c r="F16" s="18" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
@@ -18356,10 +18359,10 @@
       <c r="D17" s="15"/>
       <c r="E17" s="10"/>
       <c r="F17" s="18" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
@@ -18369,10 +18372,10 @@
       <c r="D18" s="15"/>
       <c r="E18" s="10"/>
       <c r="F18" s="18" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
@@ -18382,10 +18385,10 @@
       <c r="D19" s="15"/>
       <c r="E19" s="10"/>
       <c r="F19" s="18" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1" spans="1:7">
@@ -18395,10 +18398,10 @@
       <c r="D20" s="15"/>
       <c r="E20" s="10"/>
       <c r="F20" s="18" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="21" ht="63" customHeight="1" spans="1:7">
@@ -18408,10 +18411,10 @@
       <c r="D21" s="15"/>
       <c r="E21" s="10"/>
       <c r="F21" s="18" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:7">
@@ -18421,10 +18424,10 @@
       <c r="D22" s="15"/>
       <c r="E22" s="10"/>
       <c r="F22" s="18" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
@@ -18434,10 +18437,10 @@
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
       <c r="F23" s="18" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
@@ -18447,10 +18450,10 @@
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
       <c r="F24" s="18" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
@@ -18460,22 +18463,22 @@
       <c r="D25" s="16"/>
       <c r="E25" s="12"/>
       <c r="F25" s="18" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>129</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -18486,7 +18489,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -18497,7 +18500,7 @@
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -18508,7 +18511,7 @@
       <c r="B29" s="6"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -18519,7 +18522,7 @@
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -18530,7 +18533,7 @@
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -18539,17 +18542,17 @@
     <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -18558,11 +18561,11 @@
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="G33" s="7"/>
     </row>
@@ -18575,7 +18578,7 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="G34" s="7"/>
     </row>
@@ -18588,7 +18591,7 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G35" s="7"/>
     </row>
@@ -18601,7 +18604,7 @@
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G36" s="7"/>
     </row>
@@ -18614,143 +18617,143 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G37" s="7"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="4:4">
       <c r="D39" s="2" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="4:4">
       <c r="D40" s="2" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="4:4">
       <c r="D41" s="2" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="4:4">
       <c r="D42" s="2" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
       <c r="B43" s="1" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="4:4">
       <c r="D44" s="2" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="4:4">
       <c r="D45" s="2" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="46" ht="129" customHeight="1" spans="4:6">
       <c r="D46" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:7">
       <c r="B47" s="1" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="48" ht="58" customHeight="1" spans="6:7">
       <c r="F48" s="19" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="6:7">
       <c r="F49" s="19" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="4:7">
       <c r="D50" s="2" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="51" ht="58" customHeight="1" spans="6:7">
       <c r="F51" s="19" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="4:7">
       <c r="D52" s="2" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G52" s="19"/>
     </row>
     <row r="53" customHeight="1" spans="6:7">
       <c r="F53" s="19" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G53" s="19"/>
     </row>
     <row r="54" customHeight="1" spans="2:7">
       <c r="B54" s="1" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>129</v>
@@ -18760,136 +18763,136 @@
     </row>
     <row r="55" customHeight="1" spans="2:7">
       <c r="B55" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
     </row>
     <row r="56" customHeight="1" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
     </row>
     <row r="57" customHeight="1" spans="2:4">
       <c r="B57" s="1" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="4:4">
       <c r="D58" s="2" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="4:4">
       <c r="D59" s="2" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="4:4">
       <c r="D60" s="2" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="4:4">
       <c r="D61" s="2" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:7">
       <c r="B63" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="6:7">
       <c r="F64" s="19" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="6:7">
       <c r="F65" s="19" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="6:7">
       <c r="F66" s="19" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="6:7">
       <c r="F67" s="19" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="6:7">
       <c r="F68" s="19" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="6:7">
       <c r="F69" s="19" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="6:7">
       <c r="F70" s="19" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="6:7">
       <c r="F71" s="19" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="4:7">
@@ -18897,226 +18900,226 @@
         <v>131</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="6:7">
       <c r="F73" s="19" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="6:7">
       <c r="F74" s="19" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="6:7">
       <c r="F75" s="19" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="76" ht="65" customHeight="1" spans="6:7">
       <c r="F76" s="2" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="6:7">
       <c r="F77" s="2" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="78" ht="70" spans="6:7">
       <c r="F78" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="79" ht="56" spans="6:7">
       <c r="F79" s="2" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="6:7">
       <c r="F80" s="2" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="6:7">
       <c r="F81" s="2" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="6:7">
       <c r="F82" s="2" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="83" ht="70" spans="6:7">
       <c r="F83" s="2" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="84" ht="56" spans="6:7">
       <c r="F84" s="2" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="85" ht="84" spans="6:7">
       <c r="F85" s="2" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="3:7">
       <c r="C87" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="2" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="6:7">
       <c r="F88" s="2" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="6:7">
       <c r="F89" s="2" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="90" ht="42" spans="6:7">
       <c r="F90" s="2" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="6:7">
       <c r="F91" s="2" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="4:7">
       <c r="D92" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="2" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="6:7">
       <c r="F93" s="2" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="94" ht="42" spans="6:7">
       <c r="F94" s="2" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="6:7">
       <c r="F95" s="2" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="6:7">
       <c r="F96" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="97" ht="84" spans="6:7">
       <c r="F97" s="2" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="98" ht="70" spans="6:7">
       <c r="F98" s="2" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="99" ht="71" customHeight="1" spans="4:7">
@@ -19125,130 +19128,130 @@
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="2" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="100" ht="42" spans="6:7">
       <c r="F100" s="2" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="6:7">
       <c r="F101" s="2" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="6:7">
       <c r="F102" s="2" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="6:7">
       <c r="F103" s="2" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="104" ht="56" spans="6:7">
       <c r="F104" s="2" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="105" ht="45" customHeight="1" spans="6:7">
       <c r="F105" s="2" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="6:7">
       <c r="F106" s="2" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="107" ht="54" customHeight="1" spans="6:7">
       <c r="F107" s="2" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="6:7">
       <c r="F108" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="109" ht="59" customHeight="1" spans="6:7">
       <c r="F109" s="2" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="6:7">
       <c r="F110" s="2" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="111" ht="56" spans="6:7">
       <c r="F111" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="6:7">
       <c r="F112" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="6:7">
       <c r="F113" s="2" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="6:7">
       <c r="F114" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
   </sheetData>
@@ -20257,8 +20260,8 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -20417,7 +20420,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" ht="74" customHeight="1" spans="1:7">
+    <row r="9" ht="74" customHeight="1" spans="1:8">
       <c r="A9" s="62">
         <v>3.3</v>
       </c>
@@ -20434,6 +20437,9 @@
       <c r="F9" s="40"/>
       <c r="G9" s="67" t="s">
         <v>237</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="10" ht="55" customHeight="1" spans="1:7">
@@ -20449,10 +20455,10 @@
         <v>222</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" ht="77" customHeight="1" spans="1:7">
@@ -20466,10 +20472,10 @@
         <v>232</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G11" s="67" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" ht="100" customHeight="1" spans="1:7">
@@ -20480,13 +20486,13 @@
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" ht="104" customHeight="1" spans="1:7">
@@ -20494,18 +20500,18 @@
         <v>3.4</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="67" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" ht="60" customHeight="1" spans="1:7">
@@ -20521,10 +20527,10 @@
         <v>222</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G14" s="67" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" ht="52" customHeight="1" spans="1:7">
@@ -20538,10 +20544,10 @@
         <v>232</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G15" s="67" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" ht="48" customHeight="1" spans="1:7">
@@ -20552,13 +20558,13 @@
         <v>3.3</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G16" s="67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" ht="86" customHeight="1" spans="1:7">
@@ -20569,13 +20575,13 @@
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G17" s="67" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" ht="78" customHeight="1" spans="1:7">
@@ -20583,20 +20589,20 @@
         <v>3.5</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="40" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G18" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" ht="67" customHeight="1" spans="1:7">
@@ -20612,10 +20618,10 @@
         <v>222</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G19" s="67" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" ht="63" customHeight="1" spans="1:7">
@@ -20624,13 +20630,13 @@
       <c r="C20" s="31"/>
       <c r="D20" s="66"/>
       <c r="E20" s="40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G20" s="67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" ht="73" customHeight="1" spans="1:7">
@@ -20641,13 +20647,13 @@
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G21" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -20727,18 +20733,18 @@
         <v>4.1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="65" customHeight="1" spans="1:7">
@@ -20752,10 +20758,10 @@
         <v>218</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
@@ -20769,10 +20775,10 @@
         <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="60" customHeight="1" spans="1:7">
@@ -20783,13 +20789,13 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="137" customHeight="1" spans="1:7">
@@ -20797,20 +20803,20 @@
         <v>4.2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="66" customHeight="1" spans="1:7">
@@ -20823,13 +20829,13 @@
         <v>4.1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
@@ -20840,13 +20846,13 @@
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -20854,18 +20860,18 @@
         <v>4.3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="40" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -20878,13 +20884,13 @@
         <v>4.2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="53" customHeight="1" spans="1:7">
@@ -20895,13 +20901,13 @@
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -20909,18 +20915,18 @@
         <v>4.4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
@@ -20931,13 +20937,13 @@
       </c>
       <c r="D13" s="46"/>
       <c r="E13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
@@ -20948,13 +20954,13 @@
         <v>3.2</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -20965,13 +20971,13 @@
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -20979,18 +20985,18 @@
         <v>4.5</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
@@ -21003,13 +21009,13 @@
         <v>3.2</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
@@ -21020,13 +21026,13 @@
         <v>3.6</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" ht="48" customHeight="1" spans="1:7">
@@ -21037,13 +21043,13 @@
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -21123,20 +21129,20 @@
         <v>5.1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="61" customHeight="1" spans="1:7">
@@ -21147,13 +21153,13 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
@@ -21162,13 +21168,13 @@
       <c r="C4" s="26"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
@@ -21179,13 +21185,13 @@
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
@@ -21194,13 +21200,13 @@
       <c r="C6" s="55"/>
       <c r="D6" s="56"/>
       <c r="E6" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
@@ -21208,18 +21214,18 @@
         <v>5.2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="42" spans="1:7">
@@ -21230,13 +21236,13 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21245,13 +21251,13 @@
       <c r="C9" s="26"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="60" customHeight="1" spans="1:7">
@@ -21262,13 +21268,13 @@
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21277,13 +21283,13 @@
       <c r="C11" s="55"/>
       <c r="D11" s="56"/>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="72" customHeight="1" spans="1:7">
@@ -21291,18 +21297,18 @@
         <v>5.3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21313,13 +21319,13 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21328,13 +21334,13 @@
       <c r="C14" s="26"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21345,13 +21351,13 @@
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21360,13 +21366,13 @@
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
       <c r="E16" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="66" customHeight="1" spans="1:7">
@@ -21374,18 +21380,18 @@
         <v>5.4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="64" customHeight="1" spans="1:7">
@@ -21396,13 +21402,13 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
@@ -21411,13 +21417,13 @@
       <c r="C19" s="26"/>
       <c r="D19" s="6"/>
       <c r="E19" s="60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
@@ -21426,13 +21432,13 @@
       <c r="C20" s="26"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21443,13 +21449,13 @@
       </c>
       <c r="D21" s="54"/>
       <c r="E21" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21458,13 +21464,13 @@
       <c r="C22" s="55"/>
       <c r="D22" s="56"/>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
@@ -21472,18 +21478,18 @@
         <v>5.5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21494,13 +21500,13 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21509,13 +21515,13 @@
       <c r="C25" s="26"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21526,13 +21532,13 @@
       </c>
       <c r="D26" s="54"/>
       <c r="E26" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:7">
@@ -21541,13 +21547,13 @@
       <c r="C27" s="55"/>
       <c r="D27" s="56"/>
       <c r="E27" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -21628,18 +21634,18 @@
         <v>6.1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="40" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
@@ -21652,13 +21658,13 @@
         <v>4.3</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21670,10 +21676,10 @@
         <v>218</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="49" customHeight="1" spans="1:7">
@@ -21684,13 +21690,13 @@
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21699,13 +21705,13 @@
       <c r="C6" s="55"/>
       <c r="D6" s="56"/>
       <c r="E6" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
@@ -21713,18 +21719,18 @@
         <v>6.2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
@@ -21735,13 +21741,13 @@
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21752,13 +21758,13 @@
       </c>
       <c r="D9" s="54"/>
       <c r="E9" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="61" customHeight="1" spans="1:7">
@@ -21767,13 +21773,13 @@
       <c r="C10" s="57"/>
       <c r="D10" s="58"/>
       <c r="E10" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
@@ -21782,13 +21788,13 @@
       <c r="C11" s="55"/>
       <c r="D11" s="56"/>
       <c r="E11" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="90" customHeight="1" spans="1:7">
@@ -21796,20 +21802,20 @@
         <v>6.3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="40" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21822,13 +21828,13 @@
         <v>6.2</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21839,13 +21845,13 @@
         <v>4.3</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21854,13 +21860,13 @@
       <c r="C15" s="26"/>
       <c r="D15" s="46"/>
       <c r="E15" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21871,13 +21877,13 @@
         <v>6.2</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21888,13 +21894,13 @@
         <v>5.3</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21905,7 +21911,7 @@
         <v>5.3</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -21918,13 +21924,13 @@
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="110" customHeight="1" spans="1:7">
@@ -21932,20 +21938,20 @@
         <v>6.4</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
@@ -21958,13 +21964,13 @@
         <v>6.1</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
@@ -21975,13 +21981,13 @@
         <v>6.2</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
@@ -21992,13 +21998,13 @@
         <v>6.3</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
@@ -22012,10 +22018,10 @@
         <v>232</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22026,13 +22032,13 @@
       </c>
       <c r="D25" s="54"/>
       <c r="E25" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
@@ -22041,13 +22047,13 @@
       <c r="C26" s="55"/>
       <c r="D26" s="56"/>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -22124,18 +22130,18 @@
         <v>7.1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="40" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
@@ -22145,16 +22151,16 @@
         <v>217</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22174,13 +22180,13 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
@@ -22188,18 +22194,18 @@
         <v>7.2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="40" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
@@ -22212,13 +22218,13 @@
         <v>7.1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22229,13 +22235,13 @@
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
@@ -22243,18 +22249,18 @@
         <v>7.3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="40" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="49" customHeight="1" spans="1:7">
@@ -22267,13 +22273,13 @@
         <v>7.1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="64" customHeight="1" spans="1:7">
@@ -22284,13 +22290,13 @@
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="115" customHeight="1" spans="1:7">
@@ -22298,18 +22304,18 @@
         <v>7.4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
@@ -22322,13 +22328,13 @@
         <v>3.4</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22337,13 +22343,13 @@
       <c r="C14" s="26"/>
       <c r="D14" s="46"/>
       <c r="E14" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
@@ -22354,13 +22360,13 @@
         <v>6.4</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22371,13 +22377,13 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="95" customHeight="1" spans="1:7">
@@ -22385,18 +22391,18 @@
         <v>7.5</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
@@ -22409,13 +22415,13 @@
         <v>6.4</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="72" customHeight="1" spans="1:7">
@@ -22423,16 +22429,16 @@
       <c r="B19" s="11"/>
       <c r="C19" s="30"/>
       <c r="D19" s="47" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22443,13 +22449,13 @@
         <v>7.4</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -22460,13 +22466,13 @@
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="60" customHeight="1" spans="1:7">
@@ -22474,18 +22480,18 @@
         <v>7.6</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
@@ -22498,13 +22504,13 @@
         <v>6.2</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22515,13 +22521,13 @@
         <v>7.5</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
@@ -22532,13 +22538,13 @@
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/笔记/CBAP/知识点.xlsx
+++ b/笔记/CBAP/知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13180" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="13180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="核查单" sheetId="12" r:id="rId1"/>
@@ -10141,9 +10141,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="33">
@@ -10205,8 +10205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10221,34 +10222,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10267,11 +10244,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10290,8 +10303,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10305,30 +10327,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10409,13 +10409,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10427,103 +10565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10535,61 +10583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10773,7 +10773,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10797,7 +10797,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10819,20 +10819,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10856,142 +10856,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11001,7 +11001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11206,9 +11206,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11306,6 +11303,53 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>854710</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>785495</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26100405" y="3949700"/>
+          <a:ext cx="4470400" cy="4467860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11704,471 +11748,471 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.703125" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="72" customWidth="1"/>
-    <col min="2" max="3" width="20.703125" style="72" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="72" customWidth="1"/>
-    <col min="5" max="16384" width="20.703125" style="72" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="71" customWidth="1"/>
+    <col min="2" max="3" width="20.703125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="71" customWidth="1"/>
+    <col min="5" max="16384" width="20.703125" style="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="72" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75">
         <v>20211106</v>
       </c>
-      <c r="D9" s="76"/>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76">
+      <c r="B10" s="75"/>
+      <c r="C10" s="75">
         <v>20211114</v>
       </c>
-      <c r="D10" s="76"/>
+      <c r="D10" s="75"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76">
+      <c r="B11" s="75"/>
+      <c r="C11" s="75">
         <v>20211208</v>
       </c>
-      <c r="D11" s="76"/>
+      <c r="D11" s="75"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76">
+      <c r="B12" s="75"/>
+      <c r="C12" s="75">
         <v>20211225</v>
       </c>
-      <c r="D12" s="76"/>
+      <c r="D12" s="75"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76">
+      <c r="B13" s="75"/>
+      <c r="C13" s="75">
         <v>20211106</v>
       </c>
-      <c r="D13" s="76"/>
+      <c r="D13" s="75"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76">
+      <c r="B14" s="75"/>
+      <c r="C14" s="75">
         <v>20211106</v>
       </c>
-      <c r="D14" s="76"/>
+      <c r="D14" s="75"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76">
+      <c r="B15" s="75"/>
+      <c r="C15" s="75">
         <v>20211108</v>
       </c>
-      <c r="D15" s="76"/>
+      <c r="D15" s="75"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76">
+      <c r="B16" s="75"/>
+      <c r="C16" s="75">
         <v>20211108</v>
       </c>
-      <c r="D16" s="76"/>
+      <c r="D16" s="75"/>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76">
+      <c r="B17" s="75"/>
+      <c r="C17" s="75">
         <v>20211108</v>
       </c>
-      <c r="D17" s="76"/>
+      <c r="D17" s="75"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76">
+      <c r="B18" s="75"/>
+      <c r="C18" s="75">
         <v>20211109</v>
       </c>
-      <c r="D18" s="76"/>
+      <c r="D18" s="75"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76">
+      <c r="B19" s="75"/>
+      <c r="C19" s="75">
         <v>20211109</v>
       </c>
-      <c r="D19" s="76"/>
+      <c r="D19" s="75"/>
     </row>
     <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76">
+      <c r="B20" s="75"/>
+      <c r="C20" s="75">
         <v>20211109</v>
       </c>
-      <c r="D20" s="76"/>
+      <c r="D20" s="75"/>
     </row>
     <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76">
+      <c r="B21" s="75"/>
+      <c r="C21" s="75">
         <v>20211114</v>
       </c>
-      <c r="D21" s="76"/>
+      <c r="D21" s="75"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76">
+      <c r="B22" s="75"/>
+      <c r="C22" s="75">
         <v>20211208</v>
       </c>
-      <c r="D22" s="76"/>
+      <c r="D22" s="75"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76">
+      <c r="B23" s="75"/>
+      <c r="C23" s="75">
         <v>20211225</v>
       </c>
-      <c r="D23" s="76"/>
+      <c r="D23" s="75"/>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76">
+      <c r="B24" s="75"/>
+      <c r="C24" s="75">
         <v>20220213</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="75" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76">
+      <c r="B25" s="75"/>
+      <c r="C25" s="75">
         <v>20220213</v>
       </c>
-      <c r="D25" s="76"/>
+      <c r="D25" s="75"/>
     </row>
     <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76">
+      <c r="B26" s="75"/>
+      <c r="C26" s="75">
         <v>20220306</v>
       </c>
-      <c r="D26" s="76"/>
+      <c r="D26" s="75"/>
     </row>
     <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
     </row>
     <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76">
+      <c r="B28" s="75"/>
+      <c r="C28" s="75">
         <v>20220320</v>
       </c>
-      <c r="D28" s="76"/>
+      <c r="D28" s="75"/>
     </row>
     <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76">
+      <c r="B29" s="75"/>
+      <c r="C29" s="75">
         <v>20211225</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="75" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76">
+      <c r="B30" s="75"/>
+      <c r="C30" s="75">
         <v>20211226</v>
       </c>
-      <c r="D30" s="76"/>
+      <c r="D30" s="75"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76">
+      <c r="B31" s="75"/>
+      <c r="C31" s="75">
         <v>20211226</v>
       </c>
-      <c r="D31" s="76"/>
+      <c r="D31" s="75"/>
     </row>
     <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
     </row>
     <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
     </row>
     <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
     </row>
     <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76">
+      <c r="B38" s="75"/>
+      <c r="C38" s="75">
         <v>20211229</v>
       </c>
-      <c r="D38" s="77"/>
+      <c r="D38" s="76"/>
     </row>
     <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76">
+      <c r="B39" s="75"/>
+      <c r="C39" s="75">
         <v>20211229</v>
       </c>
-      <c r="D39" s="77"/>
+      <c r="D39" s="76"/>
     </row>
     <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76">
+      <c r="B40" s="75"/>
+      <c r="C40" s="75">
         <v>20211230</v>
       </c>
-      <c r="D40" s="77"/>
+      <c r="D40" s="76"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76">
+      <c r="B41" s="75"/>
+      <c r="C41" s="75">
         <v>20220101</v>
       </c>
-      <c r="D41" s="77"/>
+      <c r="D41" s="76"/>
     </row>
     <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76">
+      <c r="B42" s="75"/>
+      <c r="C42" s="75">
         <v>20220102</v>
       </c>
-      <c r="D42" s="77"/>
+      <c r="D42" s="76"/>
     </row>
     <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76">
+      <c r="B43" s="75"/>
+      <c r="C43" s="75">
         <v>20220106</v>
       </c>
-      <c r="D43" s="77"/>
+      <c r="D43" s="76"/>
     </row>
     <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76">
+      <c r="B44" s="75"/>
+      <c r="C44" s="75">
         <v>20220108</v>
       </c>
-      <c r="D44" s="77"/>
+      <c r="D44" s="76"/>
     </row>
     <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76">
+      <c r="B45" s="75"/>
+      <c r="C45" s="75">
         <v>20220108</v>
       </c>
-      <c r="D45" s="77"/>
+      <c r="D45" s="76"/>
     </row>
     <row r="46" customHeight="1" spans="1:4">
-      <c r="A46" s="77" t="s">
+      <c r="A46" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76">
+      <c r="B46" s="75"/>
+      <c r="C46" s="75">
         <v>20220130</v>
       </c>
-      <c r="D46" s="77"/>
+      <c r="D46" s="76"/>
     </row>
     <row r="47" customHeight="1" spans="1:4">
-      <c r="A47" s="77" t="s">
+      <c r="A47" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76">
+      <c r="B47" s="75"/>
+      <c r="C47" s="75">
         <v>20220208</v>
       </c>
-      <c r="D47" s="77"/>
+      <c r="D47" s="76"/>
     </row>
     <row r="48" customHeight="1" spans="1:4">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76">
+      <c r="B48" s="75"/>
+      <c r="C48" s="75">
         <v>20220210</v>
       </c>
-      <c r="D48" s="77"/>
+      <c r="D48" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -19404,28 +19448,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="62" customHeight="1" spans="1:8">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>60</v>
       </c>
     </row>
@@ -19812,10 +19856,10 @@
       <c r="D2" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" ht="68" spans="1:6">
       <c r="A3" s="11"/>
@@ -19826,10 +19870,10 @@
       <c r="D3" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="70"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" ht="68" spans="1:6">
       <c r="A4" s="11"/>
@@ -19840,8 +19884,8 @@
       <c r="D4" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" ht="82" spans="1:6">
       <c r="A5" s="11"/>
@@ -19852,10 +19896,10 @@
       <c r="D5" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="70"/>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" ht="247" spans="1:6">
       <c r="A6" s="11"/>
@@ -19866,8 +19910,8 @@
       <c r="D6" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
     </row>
     <row r="7" ht="149" spans="1:6">
       <c r="A7" s="13"/>
@@ -19878,8 +19922,8 @@
       <c r="D7" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="9">
@@ -19894,8 +19938,8 @@
       <c r="D8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
     </row>
     <row r="9" ht="52" customHeight="1" spans="1:6">
       <c r="A9" s="11"/>
@@ -20260,8 +20304,8 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -20312,7 +20356,7 @@
       <c r="G2" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="5" t="s">
         <v>216</v>
       </c>
     </row>
@@ -20438,7 +20482,7 @@
       <c r="G9" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="5" t="s">
         <v>238</v>
       </c>
     </row>
@@ -20693,13 +20737,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5625" defaultRowHeight="40" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="20.5625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.5625" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.78125" style="1" customWidth="1"/>
@@ -20798,7 +20842,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="137" customHeight="1" spans="1:7">
+    <row r="6" s="1" customFormat="1" ht="137" customHeight="1" spans="1:8">
       <c r="A6" s="9">
         <v>4.2</v>
       </c>
@@ -20818,6 +20862,7 @@
       <c r="G6" s="40" t="s">
         <v>283</v>
       </c>
+      <c r="H6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="66" customHeight="1" spans="1:7">
       <c r="A7" s="11"/>
@@ -21082,7 +21127,8 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/笔记/CBAP/知识点.xlsx
+++ b/笔记/CBAP/知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13180" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="核查单" sheetId="12" r:id="rId1"/>
@@ -11771,10 +11771,10 @@
   <sheetPr/>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.703125" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
@@ -12111,9 +12111,11 @@
       <c r="A34" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76">
+        <v>20220402</v>
+      </c>
+      <c r="D34" s="76"/>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="77" t="s">
@@ -12268,7 +12270,7 @@
   <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -20347,7 +20349,7 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
@@ -21183,8 +21185,8 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -21692,7 +21694,7 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -22188,7 +22190,7 @@
   <sheetPr/>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="F17" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>

--- a/笔记/CBAP/知识点.xlsx
+++ b/笔记/CBAP/知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13180"/>
+    <workbookView windowWidth="28800" windowHeight="13180" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="核查单" sheetId="12" r:id="rId1"/>
@@ -1738,7 +1738,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522">
   <si>
     <t>核查单</t>
   </si>
@@ -5034,10 +5034,20 @@
 需要分析风险的：如果风险发生的可能后果、这些后果的影响、风险的概率、风险可能发生的潜在时间跨度。</t>
   </si>
   <si>
+    <t>评估风险的相关方全是内部的，没有end user和customer</t>
+  </si>
+  <si>
     <t>describing the desired direction needed to achieve the future state can be used to identify and discuss potential risks.</t>
   </si>
   <si>
     <t>描述达成将来状态所需的期望方向，可用于识别和探讨潜在风险。</t>
+  </si>
+  <si>
+    <t>CBAP 中risk就是风险</t>
+  </si>
+  <si>
+    <t>Elicitation Results (confirmed)
+发掘结果（已核实）</t>
   </si>
   <si>
     <t>an understanding of what the various stakeholders perceive as risks to the realization of the desired future state.</t>
@@ -11771,7 +11781,7 @@
   <sheetPr/>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
@@ -12270,7 +12280,7 @@
   <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -12307,18 +12317,18 @@
         <v>8.1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="40" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12331,13 +12341,13 @@
         <v>6.2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12346,13 +12356,13 @@
       <c r="C4" s="31"/>
       <c r="D4" s="45"/>
       <c r="E4" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12363,13 +12373,13 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="58" customHeight="1" spans="1:7">
@@ -12377,18 +12387,18 @@
         <v>8.2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
@@ -12401,13 +12411,13 @@
         <v>6.2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
@@ -12418,13 +12428,13 @@
         <v>8.1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12435,13 +12445,13 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="75" customHeight="1" spans="1:7">
@@ -12449,18 +12459,18 @@
         <v>8.3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="40" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12471,13 +12481,13 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12488,13 +12498,13 @@
         <v>8.2</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12505,13 +12515,13 @@
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
@@ -12519,18 +12529,18 @@
         <v>8.4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="40" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="5" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12546,10 +12556,10 @@
         <v>399</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12558,13 +12568,13 @@
       <c r="C16" s="26"/>
       <c r="D16" s="46"/>
       <c r="E16" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12575,13 +12585,13 @@
         <v>8.2</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12592,13 +12602,13 @@
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="78" customHeight="1" spans="1:7">
@@ -12606,18 +12616,18 @@
         <v>8.5</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="40" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="5" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12630,13 +12640,13 @@
         <v>8.3</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12647,13 +12657,13 @@
         <v>8.4</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12664,13 +12674,13 @@
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -12735,7 +12745,7 @@
         <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>111</v>
@@ -12751,19 +12761,19 @@
     </row>
     <row r="2" ht="49" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -12771,16 +12781,16 @@
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -12788,16 +12798,16 @@
     <row r="4" ht="47" customHeight="1" spans="1:7">
       <c r="A4" s="11"/>
       <c r="B4" s="5" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -12805,16 +12815,16 @@
     <row r="5" ht="48" customHeight="1" spans="1:7">
       <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -12822,16 +12832,16 @@
     <row r="6" ht="47" customHeight="1" spans="1:7">
       <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -12839,16 +12849,16 @@
     <row r="7" ht="58" customHeight="1" spans="1:7">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -12856,35 +12866,35 @@
     <row r="8" ht="45" customHeight="1" spans="1:7">
       <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" ht="62" customHeight="1" spans="1:7">
       <c r="A9" s="9" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -12892,16 +12902,16 @@
     <row r="10" ht="57" customHeight="1" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="5" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -12909,16 +12919,16 @@
     <row r="11" ht="50" customHeight="1" spans="1:7">
       <c r="A11" s="11"/>
       <c r="B11" s="5" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -12926,16 +12936,16 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="11"/>
       <c r="B12" s="5" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -12943,35 +12953,35 @@
     <row r="13" ht="50" customHeight="1" spans="1:7">
       <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" ht="34" spans="1:7">
       <c r="A14" s="9" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -12979,16 +12989,16 @@
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -12996,16 +13006,16 @@
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="11"/>
       <c r="B16" s="5" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -13013,16 +13023,16 @@
     <row r="17" ht="55" customHeight="1" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -13030,35 +13040,35 @@
     <row r="18" ht="49" customHeight="1" spans="1:7">
       <c r="A18" s="13"/>
       <c r="B18" s="5" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -13066,16 +13076,16 @@
     <row r="20" ht="48" customHeight="1" spans="1:7">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -13083,16 +13093,16 @@
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="11"/>
       <c r="B21" s="5" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -13100,35 +13110,35 @@
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="13"/>
       <c r="B22" s="5" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" ht="80" customHeight="1" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -13136,16 +13146,16 @@
     <row r="24" ht="54" customHeight="1" spans="1:7">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -13153,16 +13163,16 @@
     <row r="25" ht="48" customHeight="1" spans="1:7">
       <c r="A25" s="11"/>
       <c r="B25" s="5" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -13170,16 +13180,16 @@
     <row r="26" ht="56" spans="1:7">
       <c r="A26" s="11"/>
       <c r="B26" s="5" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -13187,35 +13197,35 @@
     <row r="27" ht="55" customHeight="1" spans="1:7">
       <c r="A27" s="13"/>
       <c r="B27" s="5" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -13223,16 +13233,16 @@
     <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -13240,16 +13250,16 @@
     <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -13316,17 +13326,17 @@
         <v>10.1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="32" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -13334,14 +13344,14 @@
       <c r="A3" s="25"/>
       <c r="B3" s="11"/>
       <c r="C3" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="32" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -13349,10 +13359,10 @@
       <c r="A4" s="25"/>
       <c r="B4" s="11"/>
       <c r="C4" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="33"/>
@@ -13363,13 +13373,13 @@
       <c r="B5" s="13"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -13378,17 +13388,17 @@
         <v>10.2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -13396,14 +13406,14 @@
       <c r="A7" s="25"/>
       <c r="B7" s="11"/>
       <c r="C7" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="32" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -13411,16 +13421,16 @@
       <c r="A8" s="25"/>
       <c r="B8" s="11"/>
       <c r="C8" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -13429,13 +13439,13 @@
       <c r="B9" s="11"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -13444,13 +13454,13 @@
       <c r="B10" s="11"/>
       <c r="C10" s="26"/>
       <c r="D10" s="27" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -13459,11 +13469,11 @@
       <c r="B11" s="13"/>
       <c r="C11" s="26"/>
       <c r="D11" s="27" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="33" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -13472,17 +13482,17 @@
         <v>10.3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -13490,14 +13500,14 @@
       <c r="A13" s="25"/>
       <c r="B13" s="11"/>
       <c r="C13" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="32" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -13505,16 +13515,16 @@
       <c r="A14" s="25"/>
       <c r="B14" s="11"/>
       <c r="C14" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -13523,13 +13533,13 @@
       <c r="B15" s="11"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -13538,13 +13548,13 @@
       <c r="B16" s="11"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -13553,13 +13563,13 @@
       <c r="B17" s="11"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -13568,13 +13578,13 @@
       <c r="B18" s="13"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -13583,17 +13593,17 @@
         <v>10.4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="7" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -13601,14 +13611,14 @@
       <c r="A20" s="25"/>
       <c r="B20" s="11"/>
       <c r="C20" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="32" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -13616,14 +13626,14 @@
       <c r="A21" s="25"/>
       <c r="B21" s="11"/>
       <c r="C21" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="33" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -13632,11 +13642,11 @@
       <c r="B22" s="13"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="33" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -13645,17 +13655,17 @@
         <v>10.5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -13663,14 +13673,14 @@
       <c r="A24" s="25"/>
       <c r="B24" s="11"/>
       <c r="C24" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="32" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="G24" s="6"/>
     </row>
@@ -13678,14 +13688,14 @@
       <c r="A25" s="25"/>
       <c r="B25" s="11"/>
       <c r="C25" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="33" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="G25" s="6"/>
     </row>
@@ -13694,11 +13704,11 @@
       <c r="B26" s="11"/>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="33" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="G26" s="6"/>
     </row>
@@ -13707,11 +13717,11 @@
       <c r="B27" s="13"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="33" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -13720,17 +13730,17 @@
         <v>10.6</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="7" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="G28" s="6"/>
     </row>
@@ -13738,14 +13748,14 @@
       <c r="A29" s="25"/>
       <c r="B29" s="11"/>
       <c r="C29" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="32" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="G29" s="6"/>
     </row>
@@ -13753,16 +13763,16 @@
       <c r="A30" s="25"/>
       <c r="B30" s="11"/>
       <c r="C30" s="29" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="G30" s="6"/>
     </row>
@@ -13771,13 +13781,13 @@
       <c r="B31" s="11"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="G31" s="6"/>
     </row>
@@ -13786,13 +13796,13 @@
       <c r="B32" s="11"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="G32" s="6"/>
     </row>
@@ -13801,13 +13811,13 @@
       <c r="B33" s="11"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="G33" s="6"/>
     </row>
@@ -13816,13 +13826,13 @@
       <c r="B34" s="11"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="G34" s="6"/>
     </row>
@@ -13831,11 +13841,11 @@
       <c r="B35" s="11"/>
       <c r="C35" s="31"/>
       <c r="D35" s="27" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="33" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="G35" s="6"/>
     </row>
@@ -13844,17 +13854,17 @@
         <v>10.7</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="7" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="G36" s="6"/>
     </row>
@@ -13862,14 +13872,14 @@
       <c r="A37" s="25"/>
       <c r="B37" s="11"/>
       <c r="C37" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="32" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="G37" s="6"/>
     </row>
@@ -13877,16 +13887,16 @@
       <c r="A38" s="25"/>
       <c r="B38" s="11"/>
       <c r="C38" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="G38" s="6"/>
     </row>
@@ -13895,13 +13905,13 @@
       <c r="B39" s="11"/>
       <c r="C39" s="26"/>
       <c r="D39" s="27" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="G39" s="6"/>
     </row>
@@ -13910,13 +13920,13 @@
       <c r="B40" s="11"/>
       <c r="C40" s="26"/>
       <c r="D40" s="27" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="G40" s="6"/>
     </row>
@@ -13925,13 +13935,13 @@
       <c r="B41" s="11"/>
       <c r="C41" s="26"/>
       <c r="D41" s="27" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="G41" s="6"/>
     </row>
@@ -13940,17 +13950,17 @@
         <v>10.8</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="7" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="G42" s="6"/>
     </row>
@@ -13958,14 +13968,14 @@
       <c r="A43" s="25"/>
       <c r="B43" s="11"/>
       <c r="C43" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="32" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G43" s="6"/>
     </row>
@@ -13973,16 +13983,16 @@
       <c r="A44" s="25"/>
       <c r="B44" s="11"/>
       <c r="C44" s="29" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="G44" s="6"/>
     </row>
@@ -13991,13 +14001,13 @@
       <c r="B45" s="11"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="G45" s="6"/>
     </row>
@@ -14006,13 +14016,13 @@
       <c r="B46" s="11"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="G46" s="6"/>
     </row>
@@ -14021,13 +14031,13 @@
       <c r="B47" s="11"/>
       <c r="C47" s="30"/>
       <c r="D47" s="27" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="G47" s="6"/>
     </row>
@@ -14036,13 +14046,13 @@
       <c r="B48" s="11"/>
       <c r="C48" s="30"/>
       <c r="D48" s="27" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="G48" s="6"/>
     </row>
@@ -14051,13 +14061,13 @@
       <c r="B49" s="11"/>
       <c r="C49" s="30"/>
       <c r="D49" s="27" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="G49" s="6"/>
     </row>
@@ -14066,13 +14076,13 @@
       <c r="B50" s="11"/>
       <c r="C50" s="30"/>
       <c r="D50" s="27" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="G50" s="6"/>
     </row>
@@ -14081,11 +14091,11 @@
       <c r="B51" s="11"/>
       <c r="C51" s="30"/>
       <c r="D51" s="27" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="33" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="G51" s="6"/>
     </row>
@@ -14094,13 +14104,13 @@
       <c r="B52" s="11"/>
       <c r="C52" s="31"/>
       <c r="D52" s="27" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G52" s="6"/>
     </row>
@@ -14109,17 +14119,17 @@
         <v>10.9</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="7" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="G53" s="6"/>
     </row>
@@ -14127,14 +14137,14 @@
       <c r="A54" s="25"/>
       <c r="B54" s="11"/>
       <c r="C54" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="32" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="G54" s="6"/>
     </row>
@@ -14142,16 +14152,16 @@
       <c r="A55" s="25"/>
       <c r="B55" s="11"/>
       <c r="C55" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="G55" s="6"/>
     </row>
@@ -14160,32 +14170,32 @@
       <c r="B56" s="13"/>
       <c r="C56" s="26"/>
       <c r="D56" s="27" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="G56" s="6"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A57" s="22" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="7" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="G57" s="6"/>
     </row>
@@ -14193,14 +14203,14 @@
       <c r="A58" s="25"/>
       <c r="B58" s="11"/>
       <c r="C58" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="32" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="G58" s="6"/>
     </row>
@@ -14208,16 +14218,16 @@
       <c r="A59" s="25"/>
       <c r="B59" s="11"/>
       <c r="C59" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="G59" s="6"/>
     </row>
@@ -14226,11 +14236,11 @@
       <c r="B60" s="11"/>
       <c r="C60" s="26"/>
       <c r="D60" s="27" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="E60" s="32"/>
       <c r="F60" s="33" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="G60" s="6"/>
     </row>
@@ -14239,11 +14249,11 @@
       <c r="B61" s="11"/>
       <c r="C61" s="26"/>
       <c r="D61" s="27" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="33" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="G61" s="6"/>
     </row>
@@ -14252,32 +14262,32 @@
       <c r="B62" s="11"/>
       <c r="C62" s="26"/>
       <c r="D62" s="27" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="G62" s="6"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A63" s="22" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C63" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D63" s="24"/>
       <c r="E63" s="7" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="G63" s="6"/>
     </row>
@@ -14285,14 +14295,14 @@
       <c r="A64" s="25"/>
       <c r="B64" s="11"/>
       <c r="C64" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D64" s="24"/>
       <c r="E64" s="32" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="G64" s="6"/>
     </row>
@@ -14300,14 +14310,14 @@
       <c r="A65" s="25"/>
       <c r="B65" s="11"/>
       <c r="C65" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="33" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="G65" s="6"/>
     </row>
@@ -14316,13 +14326,13 @@
       <c r="B66" s="11"/>
       <c r="C66" s="26"/>
       <c r="D66" s="27" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="G66" s="6"/>
     </row>
@@ -14331,30 +14341,30 @@
       <c r="B67" s="11"/>
       <c r="C67" s="26"/>
       <c r="D67" s="27" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="33" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G67" s="6"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A68" s="22" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D68" s="24"/>
       <c r="E68" s="7" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="G68" s="6"/>
     </row>
@@ -14362,14 +14372,14 @@
       <c r="A69" s="25"/>
       <c r="B69" s="11"/>
       <c r="C69" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="32" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G69" s="6"/>
     </row>
@@ -14377,16 +14387,16 @@
       <c r="A70" s="25"/>
       <c r="B70" s="11"/>
       <c r="C70" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="G70" s="6"/>
     </row>
@@ -14395,13 +14405,13 @@
       <c r="B71" s="11"/>
       <c r="C71" s="26"/>
       <c r="D71" s="27" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="G71" s="6"/>
     </row>
@@ -14410,32 +14420,32 @@
       <c r="B72" s="11"/>
       <c r="C72" s="26"/>
       <c r="D72" s="27" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="G72" s="6"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A73" s="22" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C73" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="7" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="G73" s="6"/>
     </row>
@@ -14443,14 +14453,14 @@
       <c r="A74" s="25"/>
       <c r="B74" s="5"/>
       <c r="C74" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="32" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="F74" s="33" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="G74" s="6"/>
     </row>
@@ -14458,16 +14468,16 @@
       <c r="A75" s="25"/>
       <c r="B75" s="5"/>
       <c r="C75" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="G75" s="6"/>
     </row>
@@ -14476,13 +14486,13 @@
       <c r="B76" s="5"/>
       <c r="C76" s="26"/>
       <c r="D76" s="27" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="G76" s="6"/>
     </row>
@@ -14491,13 +14501,13 @@
       <c r="B77" s="5"/>
       <c r="C77" s="26"/>
       <c r="D77" s="27" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="G77" s="6"/>
     </row>
@@ -14506,32 +14516,32 @@
       <c r="B78" s="5"/>
       <c r="C78" s="26"/>
       <c r="D78" s="27" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="G78" s="6"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A79" s="22" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C79" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="7" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="F79" s="33" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="G79" s="6"/>
     </row>
@@ -14539,14 +14549,14 @@
       <c r="A80" s="25"/>
       <c r="B80" s="11"/>
       <c r="C80" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="32" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="F80" s="33" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G80" s="6"/>
     </row>
@@ -14554,16 +14564,16 @@
       <c r="A81" s="25"/>
       <c r="B81" s="11"/>
       <c r="C81" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="G81" s="6"/>
     </row>
@@ -14572,13 +14582,13 @@
       <c r="B82" s="11"/>
       <c r="C82" s="26"/>
       <c r="D82" s="27" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="G82" s="6"/>
     </row>
@@ -14587,13 +14597,13 @@
       <c r="B83" s="11"/>
       <c r="C83" s="26"/>
       <c r="D83" s="27" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="G83" s="6"/>
     </row>
@@ -14602,11 +14612,11 @@
       <c r="B84" s="11"/>
       <c r="C84" s="26"/>
       <c r="D84" s="27" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="33" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="G84" s="6"/>
     </row>
@@ -14615,32 +14625,32 @@
       <c r="B85" s="11"/>
       <c r="C85" s="26"/>
       <c r="D85" s="27" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="G85" s="6"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A86" s="22" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C86" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D86" s="24"/>
       <c r="E86" s="7" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="G86" s="6"/>
     </row>
@@ -14648,14 +14658,14 @@
       <c r="A87" s="25"/>
       <c r="B87" s="11"/>
       <c r="C87" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="32" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="G87" s="6"/>
     </row>
@@ -14663,16 +14673,16 @@
       <c r="A88" s="25"/>
       <c r="B88" s="11"/>
       <c r="C88" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="G88" s="6"/>
     </row>
@@ -14681,13 +14691,13 @@
       <c r="B89" s="11"/>
       <c r="C89" s="26"/>
       <c r="D89" s="27" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="E89" s="32" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="G89" s="6"/>
     </row>
@@ -14696,13 +14706,13 @@
       <c r="B90" s="11"/>
       <c r="C90" s="26"/>
       <c r="D90" s="27" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="G90" s="6"/>
     </row>
@@ -14711,13 +14721,13 @@
       <c r="B91" s="11"/>
       <c r="C91" s="26"/>
       <c r="D91" s="27" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="F91" s="33" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="G91" s="6"/>
     </row>
@@ -14726,32 +14736,32 @@
       <c r="B92" s="11"/>
       <c r="C92" s="26"/>
       <c r="D92" s="27" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="E92" s="32" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="F92" s="33" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="G92" s="6"/>
     </row>
     <row r="93" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A93" s="22" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C93" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D93" s="24"/>
       <c r="E93" s="7" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="F93" s="33" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="G93" s="6"/>
     </row>
@@ -14759,14 +14769,14 @@
       <c r="A94" s="25"/>
       <c r="B94" s="11"/>
       <c r="C94" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D94" s="24"/>
       <c r="E94" s="32" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="F94" s="33" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="G94" s="6"/>
     </row>
@@ -14774,16 +14784,16 @@
       <c r="A95" s="25"/>
       <c r="B95" s="11"/>
       <c r="C95" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="F95" s="33" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G95" s="6"/>
     </row>
@@ -14792,11 +14802,11 @@
       <c r="B96" s="11"/>
       <c r="C96" s="26"/>
       <c r="D96" s="27" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="33" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="G96" s="6"/>
     </row>
@@ -14805,13 +14815,13 @@
       <c r="B97" s="11"/>
       <c r="C97" s="26"/>
       <c r="D97" s="27" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="G97" s="6"/>
     </row>
@@ -14820,32 +14830,32 @@
       <c r="B98" s="11"/>
       <c r="C98" s="26"/>
       <c r="D98" s="27" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="F98" s="33" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="G98" s="6"/>
     </row>
     <row r="99" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A99" s="22" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C99" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D99" s="24"/>
       <c r="E99" s="7" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="F99" s="33" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="G99" s="6"/>
     </row>
@@ -14853,14 +14863,14 @@
       <c r="A100" s="25"/>
       <c r="B100" s="11"/>
       <c r="C100" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D100" s="24"/>
       <c r="E100" s="32" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="F100" s="33" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="G100" s="6"/>
     </row>
@@ -14868,14 +14878,14 @@
       <c r="A101" s="25"/>
       <c r="B101" s="11"/>
       <c r="C101" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="33" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="G101" s="6"/>
     </row>
@@ -14884,11 +14894,11 @@
       <c r="B102" s="11"/>
       <c r="C102" s="26"/>
       <c r="D102" s="27" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="33" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="G102" s="6"/>
     </row>
@@ -14897,11 +14907,11 @@
       <c r="B103" s="11"/>
       <c r="C103" s="26"/>
       <c r="D103" s="27" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="33" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="G103" s="6"/>
     </row>
@@ -14910,32 +14920,32 @@
       <c r="B104" s="11"/>
       <c r="C104" s="26"/>
       <c r="D104" s="27" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="F104" s="33" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="G104" s="6"/>
     </row>
     <row r="105" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A105" s="22" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C105" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D105" s="24"/>
       <c r="E105" s="7" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="F105" s="33" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="G105" s="6"/>
     </row>
@@ -14943,14 +14953,14 @@
       <c r="A106" s="25"/>
       <c r="B106" s="11"/>
       <c r="C106" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D106" s="24"/>
       <c r="E106" s="32" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="F106" s="33" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="G106" s="6"/>
     </row>
@@ -14958,16 +14968,16 @@
       <c r="A107" s="25"/>
       <c r="B107" s="11"/>
       <c r="C107" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="F107" s="33" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="G107" s="6"/>
     </row>
@@ -14976,13 +14986,13 @@
       <c r="B108" s="11"/>
       <c r="C108" s="26"/>
       <c r="D108" s="27" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="F108" s="33" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="G108" s="6"/>
     </row>
@@ -14991,32 +15001,32 @@
       <c r="B109" s="11"/>
       <c r="C109" s="26"/>
       <c r="D109" s="27" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="F109" s="33" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="G109" s="6"/>
     </row>
     <row r="110" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A110" s="22" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C110" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D110" s="24"/>
       <c r="E110" s="7" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="F110" s="33" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="G110" s="6"/>
     </row>
@@ -15024,14 +15034,14 @@
       <c r="A111" s="25"/>
       <c r="B111" s="11"/>
       <c r="C111" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D111" s="24"/>
       <c r="E111" s="32" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="F111" s="33" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="G111" s="6"/>
     </row>
@@ -15039,16 +15049,16 @@
       <c r="A112" s="25"/>
       <c r="B112" s="11"/>
       <c r="C112" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D112" s="27" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="F112" s="33" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="G112" s="6"/>
     </row>
@@ -15057,13 +15067,13 @@
       <c r="B113" s="11"/>
       <c r="C113" s="26"/>
       <c r="D113" s="27" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="F113" s="33" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="G113" s="6"/>
     </row>
@@ -15072,13 +15082,13 @@
       <c r="B114" s="11"/>
       <c r="C114" s="26"/>
       <c r="D114" s="27" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="E114" s="32" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="F114" s="33" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="G114" s="6"/>
     </row>
@@ -15087,13 +15097,13 @@
       <c r="B115" s="11"/>
       <c r="C115" s="26"/>
       <c r="D115" s="27" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="E115" s="32" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="F115" s="33" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="G115" s="6"/>
     </row>
@@ -15102,30 +15112,30 @@
       <c r="B116" s="11"/>
       <c r="C116" s="26"/>
       <c r="D116" s="27" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="E116" s="32"/>
       <c r="F116" s="33" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="G116" s="6"/>
     </row>
     <row r="117" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A117" s="22" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="C117" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D117" s="24"/>
       <c r="E117" s="7" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="F117" s="33" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="G117" s="6"/>
     </row>
@@ -15133,14 +15143,14 @@
       <c r="A118" s="25"/>
       <c r="B118" s="11"/>
       <c r="C118" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D118" s="24"/>
       <c r="E118" s="32" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="F118" s="33" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="G118" s="6"/>
     </row>
@@ -15148,16 +15158,16 @@
       <c r="A119" s="25"/>
       <c r="B119" s="11"/>
       <c r="C119" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E119" s="32" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="F119" s="33" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="G119" s="6"/>
     </row>
@@ -15166,13 +15176,13 @@
       <c r="B120" s="11"/>
       <c r="C120" s="26"/>
       <c r="D120" s="27" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="E120" s="32" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="F120" s="33" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="G120" s="6"/>
     </row>
@@ -15181,13 +15191,13 @@
       <c r="B121" s="11"/>
       <c r="C121" s="26"/>
       <c r="D121" s="27" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="E121" s="32" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="F121" s="33" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="G121" s="6"/>
     </row>
@@ -15196,13 +15206,13 @@
       <c r="B122" s="11"/>
       <c r="C122" s="26"/>
       <c r="D122" s="27" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E122" s="32" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="F122" s="33" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="G122" s="6"/>
     </row>
@@ -15211,13 +15221,13 @@
       <c r="B123" s="11"/>
       <c r="C123" s="26"/>
       <c r="D123" s="35" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E123" s="38" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="G123" s="6"/>
     </row>
@@ -15227,10 +15237,10 @@
       <c r="C124" s="26"/>
       <c r="D124" s="36"/>
       <c r="E124" s="38" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="F124" s="33" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="G124" s="6"/>
     </row>
@@ -15240,10 +15250,10 @@
       <c r="C125" s="26"/>
       <c r="D125" s="36"/>
       <c r="E125" s="38" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="F125" s="33" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="G125" s="6"/>
     </row>
@@ -15253,10 +15263,10 @@
       <c r="C126" s="26"/>
       <c r="D126" s="36"/>
       <c r="E126" s="38" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="F126" s="33" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="G126" s="6"/>
     </row>
@@ -15266,10 +15276,10 @@
       <c r="C127" s="26"/>
       <c r="D127" s="36"/>
       <c r="E127" s="38" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="F127" s="33" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="G127" s="6"/>
     </row>
@@ -15279,26 +15289,26 @@
       <c r="C128" s="26"/>
       <c r="D128" s="37"/>
       <c r="E128" s="38" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="F128" s="33" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="G128" s="6"/>
     </row>
     <row r="129" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A129" s="22" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C129" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D129" s="24"/>
       <c r="E129" s="7" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="6"/>
@@ -15307,11 +15317,11 @@
       <c r="A130" s="25"/>
       <c r="B130" s="11"/>
       <c r="C130" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D130" s="24"/>
       <c r="E130" s="32" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="6"/>
@@ -15320,10 +15330,10 @@
       <c r="A131" s="25"/>
       <c r="B131" s="11"/>
       <c r="C131" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D131" s="27" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E131" s="32"/>
       <c r="F131" s="33"/>
@@ -15334,10 +15344,10 @@
       <c r="B132" s="11"/>
       <c r="C132" s="26"/>
       <c r="D132" s="27" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="6"/>
@@ -15347,10 +15357,10 @@
       <c r="B133" s="11"/>
       <c r="C133" s="26"/>
       <c r="D133" s="27" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="6"/>
@@ -15360,10 +15370,10 @@
       <c r="B134" s="11"/>
       <c r="C134" s="26"/>
       <c r="D134" s="27" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="6"/>
@@ -15373,7 +15383,7 @@
       <c r="B135" s="11"/>
       <c r="C135" s="26"/>
       <c r="D135" s="27" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="E135" s="32"/>
       <c r="F135" s="33"/>
@@ -15384,7 +15394,7 @@
       <c r="B136" s="11"/>
       <c r="C136" s="26"/>
       <c r="D136" s="27" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="E136" s="32"/>
       <c r="F136" s="33"/>
@@ -15395,27 +15405,27 @@
       <c r="B137" s="11"/>
       <c r="C137" s="26"/>
       <c r="D137" s="27" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="E137" s="32" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="6"/>
     </row>
     <row r="138" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A138" s="22" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C138" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D138" s="24"/>
       <c r="E138" s="7" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="6"/>
@@ -15424,11 +15434,11 @@
       <c r="A139" s="25"/>
       <c r="B139" s="11"/>
       <c r="C139" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D139" s="24"/>
       <c r="E139" s="32" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="6"/>
@@ -15437,13 +15447,13 @@
       <c r="A140" s="25"/>
       <c r="B140" s="11"/>
       <c r="C140" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="E140" s="32" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="6"/>
@@ -15453,10 +15463,10 @@
       <c r="B141" s="11"/>
       <c r="C141" s="26"/>
       <c r="D141" s="27" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="E141" s="32" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="6"/>
@@ -15466,7 +15476,7 @@
       <c r="B142" s="11"/>
       <c r="C142" s="26"/>
       <c r="D142" s="27" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="E142" s="32"/>
       <c r="F142" s="33"/>
@@ -15477,27 +15487,27 @@
       <c r="B143" s="11"/>
       <c r="C143" s="26"/>
       <c r="D143" s="27" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="E143" s="32" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="6"/>
     </row>
     <row r="144" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A144" s="22" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="C144" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D144" s="24"/>
       <c r="E144" s="7" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="6"/>
@@ -15506,28 +15516,28 @@
       <c r="A145" s="25"/>
       <c r="B145" s="11"/>
       <c r="C145" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D145" s="24"/>
       <c r="E145" s="32" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="6"/>
     </row>
     <row r="146" s="1" customFormat="1" ht="62" customHeight="1" spans="1:7">
       <c r="A146" s="22" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="C146" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D146" s="24"/>
       <c r="E146" s="7" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="6"/>
@@ -15536,11 +15546,11 @@
       <c r="A147" s="25"/>
       <c r="B147" s="11"/>
       <c r="C147" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D147" s="24"/>
       <c r="E147" s="32" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="6"/>
@@ -15549,13 +15559,13 @@
       <c r="A148" s="25"/>
       <c r="B148" s="11"/>
       <c r="C148" s="29" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="E148" s="32" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="6"/>
@@ -15565,10 +15575,10 @@
       <c r="B149" s="11"/>
       <c r="C149" s="30"/>
       <c r="D149" s="27" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="6"/>
@@ -15578,27 +15588,27 @@
       <c r="B150" s="11"/>
       <c r="C150" s="31"/>
       <c r="D150" s="27" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="E150" s="32" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="6"/>
     </row>
     <row r="151" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A151" s="22" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="C151" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D151" s="24"/>
       <c r="E151" s="7" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="F151" s="33"/>
       <c r="G151" s="6"/>
@@ -15607,11 +15617,11 @@
       <c r="A152" s="25"/>
       <c r="B152" s="11"/>
       <c r="C152" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D152" s="24"/>
       <c r="E152" s="32" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="6"/>
@@ -15620,10 +15630,10 @@
       <c r="A153" s="25"/>
       <c r="B153" s="11"/>
       <c r="C153" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="33"/>
@@ -15634,11 +15644,11 @@
       <c r="B154" s="11"/>
       <c r="C154" s="26"/>
       <c r="D154" s="27" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="E154" s="32"/>
       <c r="F154" s="33" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="G154" s="6"/>
     </row>
@@ -15647,7 +15657,7 @@
       <c r="B155" s="11"/>
       <c r="C155" s="26"/>
       <c r="D155" s="27" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="33"/>
@@ -15658,10 +15668,10 @@
       <c r="B156" s="11"/>
       <c r="C156" s="26"/>
       <c r="D156" s="27" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="E156" s="32" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="6"/>
@@ -15671,7 +15681,7 @@
       <c r="B157" s="11"/>
       <c r="C157" s="26"/>
       <c r="D157" s="27" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="E157" s="32"/>
       <c r="F157" s="33"/>
@@ -15682,7 +15692,7 @@
       <c r="B158" s="11"/>
       <c r="C158" s="26"/>
       <c r="D158" s="27" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="33"/>
@@ -15690,17 +15700,17 @@
     </row>
     <row r="159" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A159" s="22" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C159" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D159" s="24"/>
       <c r="E159" s="7" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="6"/>
@@ -15709,11 +15719,11 @@
       <c r="A160" s="25"/>
       <c r="B160" s="11"/>
       <c r="C160" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D160" s="24"/>
       <c r="E160" s="32" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="6"/>
@@ -15722,13 +15732,13 @@
       <c r="A161" s="25"/>
       <c r="B161" s="11"/>
       <c r="C161" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D161" s="27" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="E161" s="32" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="6"/>
@@ -15738,10 +15748,10 @@
       <c r="B162" s="11"/>
       <c r="C162" s="26"/>
       <c r="D162" s="27" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E162" s="32" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="6"/>
@@ -15751,7 +15761,7 @@
       <c r="B163" s="11"/>
       <c r="C163" s="26"/>
       <c r="D163" s="27" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="E163" s="32"/>
       <c r="F163" s="33"/>
@@ -15759,17 +15769,17 @@
     </row>
     <row r="164" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A164" s="22" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="C164" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D164" s="24"/>
       <c r="E164" s="7" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="6"/>
@@ -15778,11 +15788,11 @@
       <c r="A165" s="25"/>
       <c r="B165" s="11"/>
       <c r="C165" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D165" s="24"/>
       <c r="E165" s="32" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="6"/>
@@ -15791,7 +15801,7 @@
       <c r="A166" s="25"/>
       <c r="B166" s="11"/>
       <c r="C166" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="32"/>
@@ -15809,17 +15819,17 @@
     </row>
     <row r="168" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A168" s="22" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="C168" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D168" s="24"/>
       <c r="E168" s="7" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="6"/>
@@ -15828,11 +15838,11 @@
       <c r="A169" s="25"/>
       <c r="B169" s="11"/>
       <c r="C169" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D169" s="24"/>
       <c r="E169" s="32" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="6"/>
@@ -15841,13 +15851,13 @@
       <c r="A170" s="25"/>
       <c r="B170" s="11"/>
       <c r="C170" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D170" s="27" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="E170" s="32" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="6"/>
@@ -15857,10 +15867,10 @@
       <c r="B171" s="11"/>
       <c r="C171" s="26"/>
       <c r="D171" s="27" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="E171" s="32" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="6"/>
@@ -15870,10 +15880,10 @@
       <c r="B172" s="11"/>
       <c r="C172" s="26"/>
       <c r="D172" s="27" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E172" s="32" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="6"/>
@@ -15883,7 +15893,7 @@
       <c r="B173" s="11"/>
       <c r="C173" s="26"/>
       <c r="D173" s="27" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="E173" s="32"/>
       <c r="F173" s="33"/>
@@ -15891,17 +15901,17 @@
     </row>
     <row r="174" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A174" s="22" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="C174" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D174" s="24"/>
       <c r="E174" s="7" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="6"/>
@@ -15910,11 +15920,11 @@
       <c r="A175" s="25"/>
       <c r="B175" s="11"/>
       <c r="C175" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D175" s="24"/>
       <c r="E175" s="32" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="6"/>
@@ -15923,10 +15933,10 @@
       <c r="A176" s="25"/>
       <c r="B176" s="11"/>
       <c r="C176" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="E176" s="32"/>
       <c r="F176" s="33"/>
@@ -15937,7 +15947,7 @@
       <c r="B177" s="11"/>
       <c r="C177" s="26"/>
       <c r="D177" s="27" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="E177" s="32"/>
       <c r="F177" s="33"/>
@@ -15948,7 +15958,7 @@
       <c r="B178" s="11"/>
       <c r="C178" s="26"/>
       <c r="D178" s="27" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="E178" s="32"/>
       <c r="F178" s="33"/>
@@ -15959,7 +15969,7 @@
       <c r="B179" s="11"/>
       <c r="C179" s="26"/>
       <c r="D179" s="27" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="E179" s="32"/>
       <c r="F179" s="33"/>
@@ -15970,7 +15980,7 @@
       <c r="B180" s="11"/>
       <c r="C180" s="26"/>
       <c r="D180" s="27" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="E180" s="32"/>
       <c r="F180" s="33"/>
@@ -15981,7 +15991,7 @@
       <c r="B181" s="11"/>
       <c r="C181" s="26"/>
       <c r="D181" s="27" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="E181" s="32"/>
       <c r="F181" s="33"/>
@@ -15992,7 +16002,7 @@
       <c r="B182" s="11"/>
       <c r="C182" s="26"/>
       <c r="D182" s="27" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="E182" s="32"/>
       <c r="F182" s="33"/>
@@ -16000,17 +16010,17 @@
     </row>
     <row r="183" s="1" customFormat="1" ht="58" customHeight="1" spans="1:7">
       <c r="A183" s="22" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="C183" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D183" s="24"/>
       <c r="E183" s="7" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="F183" s="33"/>
       <c r="G183" s="6"/>
@@ -16019,11 +16029,11 @@
       <c r="A184" s="25"/>
       <c r="B184" s="11"/>
       <c r="C184" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D184" s="24"/>
       <c r="E184" s="32" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="F184" s="33"/>
       <c r="G184" s="6"/>
@@ -16032,13 +16042,13 @@
       <c r="A185" s="25"/>
       <c r="B185" s="11"/>
       <c r="C185" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D185" s="27" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="E185" s="32" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="F185" s="33"/>
       <c r="G185" s="6"/>
@@ -16048,7 +16058,7 @@
       <c r="B186" s="11"/>
       <c r="C186" s="26"/>
       <c r="D186" s="27" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="E186" s="32"/>
       <c r="F186" s="33"/>
@@ -16059,7 +16069,7 @@
       <c r="B187" s="11"/>
       <c r="C187" s="26"/>
       <c r="D187" s="27" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="E187" s="32"/>
       <c r="F187" s="33"/>
@@ -16067,17 +16077,17 @@
     </row>
     <row r="188" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A188" s="22" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C188" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D188" s="24"/>
       <c r="E188" s="7" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="6"/>
@@ -16086,11 +16096,11 @@
       <c r="A189" s="25"/>
       <c r="B189" s="11"/>
       <c r="C189" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D189" s="24"/>
       <c r="E189" s="32" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="6"/>
@@ -16099,10 +16109,10 @@
       <c r="A190" s="25"/>
       <c r="B190" s="11"/>
       <c r="C190" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="E190" s="32"/>
       <c r="F190" s="33"/>
@@ -16113,7 +16123,7 @@
       <c r="B191" s="11"/>
       <c r="C191" s="26"/>
       <c r="D191" s="27" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="E191" s="32"/>
       <c r="F191" s="33"/>
@@ -16124,7 +16134,7 @@
       <c r="B192" s="11"/>
       <c r="C192" s="26"/>
       <c r="D192" s="27" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="E192" s="32"/>
       <c r="F192" s="33"/>
@@ -16135,7 +16145,7 @@
       <c r="B193" s="11"/>
       <c r="C193" s="26"/>
       <c r="D193" s="27" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="E193" s="32"/>
       <c r="F193" s="33"/>
@@ -16143,17 +16153,17 @@
     </row>
     <row r="194" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A194" s="22" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C194" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D194" s="24"/>
       <c r="E194" s="7" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="F194" s="33"/>
       <c r="G194" s="6"/>
@@ -16162,11 +16172,11 @@
       <c r="A195" s="25"/>
       <c r="B195" s="11"/>
       <c r="C195" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D195" s="24"/>
       <c r="E195" s="32" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="6"/>
@@ -16175,13 +16185,13 @@
       <c r="A196" s="25"/>
       <c r="B196" s="11"/>
       <c r="C196" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D196" s="27" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="E196" s="32" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="F196" s="33"/>
       <c r="G196" s="6"/>
@@ -16191,10 +16201,10 @@
       <c r="B197" s="11"/>
       <c r="C197" s="26"/>
       <c r="D197" s="27" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="E197" s="32" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="F197" s="33"/>
       <c r="G197" s="6"/>
@@ -16204,10 +16214,10 @@
       <c r="B198" s="11"/>
       <c r="C198" s="26"/>
       <c r="D198" s="27" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="E198" s="32" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="F198" s="33"/>
       <c r="G198" s="6"/>
@@ -16217,10 +16227,10 @@
       <c r="B199" s="11"/>
       <c r="C199" s="26"/>
       <c r="D199" s="27" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="E199" s="32" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="F199" s="33"/>
       <c r="G199" s="6"/>
@@ -16230,7 +16240,7 @@
       <c r="B200" s="11"/>
       <c r="C200" s="26"/>
       <c r="D200" s="27" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="E200" s="32"/>
       <c r="F200" s="33"/>
@@ -16238,17 +16248,17 @@
     </row>
     <row r="201" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A201" s="22" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C201" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D201" s="24"/>
       <c r="E201" s="7" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="F201" s="33"/>
       <c r="G201" s="6"/>
@@ -16257,11 +16267,11 @@
       <c r="A202" s="25"/>
       <c r="B202" s="11"/>
       <c r="C202" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D202" s="24"/>
       <c r="E202" s="32" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="F202" s="33"/>
       <c r="G202" s="6"/>
@@ -16270,13 +16280,13 @@
       <c r="A203" s="25"/>
       <c r="B203" s="11"/>
       <c r="C203" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D203" s="27" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="E203" s="32" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="F203" s="33"/>
       <c r="G203" s="6"/>
@@ -16286,10 +16296,10 @@
       <c r="B204" s="11"/>
       <c r="C204" s="26"/>
       <c r="D204" s="27" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="E204" s="32" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="F204" s="33"/>
       <c r="G204" s="6"/>
@@ -16299,10 +16309,10 @@
       <c r="B205" s="11"/>
       <c r="C205" s="26"/>
       <c r="D205" s="27" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="E205" s="32" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="F205" s="33"/>
       <c r="G205" s="6"/>
@@ -16312,27 +16322,27 @@
       <c r="B206" s="11"/>
       <c r="C206" s="26"/>
       <c r="D206" s="27" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="E206" s="32" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="F206" s="33"/>
       <c r="G206" s="6"/>
     </row>
     <row r="207" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A207" s="22" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="C207" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D207" s="24"/>
       <c r="E207" s="7" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="6"/>
@@ -16341,14 +16351,14 @@
       <c r="A208" s="25"/>
       <c r="B208" s="11"/>
       <c r="C208" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D208" s="24"/>
       <c r="E208" s="38" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="F208" s="33" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="G208" s="6"/>
     </row>
@@ -16356,13 +16366,13 @@
       <c r="A209" s="25"/>
       <c r="B209" s="11"/>
       <c r="C209" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="E209" s="32" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="6"/>
@@ -16372,10 +16382,10 @@
       <c r="B210" s="11"/>
       <c r="C210" s="26"/>
       <c r="D210" s="27" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="E210" s="32" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="6"/>
@@ -16385,10 +16395,10 @@
       <c r="B211" s="11"/>
       <c r="C211" s="26"/>
       <c r="D211" s="27" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="E211" s="32" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="6"/>
@@ -16398,27 +16408,27 @@
       <c r="B212" s="11"/>
       <c r="C212" s="26"/>
       <c r="D212" s="27" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="E212" s="32" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="6"/>
     </row>
     <row r="213" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A213" s="22" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="C213" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D213" s="24"/>
       <c r="E213" s="7" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="6"/>
@@ -16427,11 +16437,11 @@
       <c r="A214" s="25"/>
       <c r="B214" s="11"/>
       <c r="C214" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D214" s="24"/>
       <c r="E214" s="32" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="6"/>
@@ -16440,13 +16450,13 @@
       <c r="A215" s="25"/>
       <c r="B215" s="11"/>
       <c r="C215" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D215" s="27" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="E215" s="38" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="6"/>
@@ -16456,13 +16466,13 @@
       <c r="B216" s="11"/>
       <c r="C216" s="26"/>
       <c r="D216" s="27" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="E216" s="32" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="F216" s="33" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="G216" s="6"/>
     </row>
@@ -16471,13 +16481,13 @@
       <c r="B217" s="11"/>
       <c r="C217" s="26"/>
       <c r="D217" s="27" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="E217" s="32" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="F217" s="33" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="G217" s="6"/>
     </row>
@@ -16486,29 +16496,29 @@
       <c r="B218" s="11"/>
       <c r="C218" s="26"/>
       <c r="D218" s="27" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="E218" s="32" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="F218" s="33" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="G218" s="6"/>
     </row>
     <row r="219" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A219" s="22" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="C219" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D219" s="24"/>
       <c r="E219" s="7" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="F219" s="33"/>
       <c r="G219" s="6"/>
@@ -16517,11 +16527,11 @@
       <c r="A220" s="25"/>
       <c r="B220" s="11"/>
       <c r="C220" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D220" s="24"/>
       <c r="E220" s="32" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="F220" s="33"/>
       <c r="G220" s="6"/>
@@ -16530,13 +16540,13 @@
       <c r="A221" s="25"/>
       <c r="B221" s="11"/>
       <c r="C221" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D221" s="27" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="E221" s="32" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="F221" s="33"/>
       <c r="G221" s="6"/>
@@ -16546,10 +16556,10 @@
       <c r="B222" s="11"/>
       <c r="C222" s="26"/>
       <c r="D222" s="27" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="E222" s="32" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="F222" s="33"/>
       <c r="G222" s="6"/>
@@ -16559,27 +16569,27 @@
       <c r="B223" s="11"/>
       <c r="C223" s="26"/>
       <c r="D223" s="27" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="E223" s="32" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="F223" s="33"/>
       <c r="G223" s="6"/>
     </row>
     <row r="224" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A224" s="22" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="C224" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D224" s="24"/>
       <c r="E224" s="7" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="F224" s="33"/>
       <c r="G224" s="6"/>
@@ -16588,11 +16598,11 @@
       <c r="A225" s="25"/>
       <c r="B225" s="11"/>
       <c r="C225" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D225" s="24"/>
       <c r="E225" s="32" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="F225" s="33"/>
       <c r="G225" s="6"/>
@@ -16601,13 +16611,13 @@
       <c r="A226" s="25"/>
       <c r="B226" s="11"/>
       <c r="C226" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D226" s="27" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="E226" s="32" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="F226" s="33"/>
       <c r="G226" s="6"/>
@@ -16620,7 +16630,7 @@
         <v>132</v>
       </c>
       <c r="E227" s="32" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="F227" s="33"/>
       <c r="G227" s="6"/>
@@ -16630,27 +16640,27 @@
       <c r="B228" s="11"/>
       <c r="C228" s="26"/>
       <c r="D228" s="27" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="E228" s="32" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="F228" s="33"/>
       <c r="G228" s="6"/>
     </row>
     <row r="229" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A229" s="22" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="C229" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D229" s="24"/>
       <c r="E229" s="7" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="F229" s="33"/>
       <c r="G229" s="6"/>
@@ -16659,11 +16669,11 @@
       <c r="A230" s="25"/>
       <c r="B230" s="11"/>
       <c r="C230" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D230" s="24"/>
       <c r="E230" s="32" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="F230" s="33"/>
       <c r="G230" s="6"/>
@@ -16672,13 +16682,13 @@
       <c r="A231" s="25"/>
       <c r="B231" s="11"/>
       <c r="C231" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D231" s="27" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="E231" s="32" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="6"/>
@@ -16688,10 +16698,10 @@
       <c r="B232" s="11"/>
       <c r="C232" s="26"/>
       <c r="D232" s="27" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="E232" s="32" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="F232" s="33"/>
       <c r="G232" s="6"/>
@@ -16701,10 +16711,10 @@
       <c r="B233" s="11"/>
       <c r="C233" s="26"/>
       <c r="D233" s="27" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="E233" s="32" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="6"/>
@@ -16714,27 +16724,27 @@
       <c r="B234" s="11"/>
       <c r="C234" s="26"/>
       <c r="D234" s="27" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="E234" s="38" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="F234" s="33"/>
       <c r="G234" s="6"/>
     </row>
     <row r="235" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A235" s="22" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="C235" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D235" s="24"/>
       <c r="E235" s="7" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="F235" s="33"/>
       <c r="G235" s="6"/>
@@ -16743,11 +16753,11 @@
       <c r="A236" s="25"/>
       <c r="B236" s="11"/>
       <c r="C236" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D236" s="24"/>
       <c r="E236" s="32" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="F236" s="33"/>
       <c r="G236" s="6"/>
@@ -16756,10 +16766,10 @@
       <c r="A237" s="25"/>
       <c r="B237" s="11"/>
       <c r="C237" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="E237" s="32"/>
       <c r="F237" s="33"/>
@@ -16770,7 +16780,7 @@
       <c r="B238" s="11"/>
       <c r="C238" s="26"/>
       <c r="D238" s="27" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="E238" s="32"/>
       <c r="F238" s="33"/>
@@ -16781,10 +16791,10 @@
       <c r="B239" s="11"/>
       <c r="C239" s="26"/>
       <c r="D239" s="27" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="E239" s="32" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="F239" s="33"/>
       <c r="G239" s="6"/>
@@ -16794,27 +16804,27 @@
       <c r="B240" s="11"/>
       <c r="C240" s="26"/>
       <c r="D240" s="27" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="E240" s="32" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="F240" s="33"/>
       <c r="G240" s="6"/>
     </row>
     <row r="241" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A241" s="22" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="C241" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D241" s="24"/>
       <c r="E241" s="7" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="F241" s="33"/>
       <c r="G241" s="6"/>
@@ -16823,11 +16833,11 @@
       <c r="A242" s="25"/>
       <c r="B242" s="11"/>
       <c r="C242" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D242" s="24"/>
       <c r="E242" s="32" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="F242" s="33"/>
       <c r="G242" s="6"/>
@@ -16836,10 +16846,10 @@
       <c r="A243" s="25"/>
       <c r="B243" s="11"/>
       <c r="C243" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D243" s="27" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="E243" s="32"/>
       <c r="F243" s="33"/>
@@ -16850,7 +16860,7 @@
       <c r="B244" s="13"/>
       <c r="C244" s="26"/>
       <c r="D244" s="27" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="E244" s="32"/>
       <c r="F244" s="33"/>
@@ -16858,17 +16868,17 @@
     </row>
     <row r="245" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A245" s="22" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="C245" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D245" s="24"/>
       <c r="E245" s="7" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="F245" s="33"/>
       <c r="G245" s="6"/>
@@ -16877,11 +16887,11 @@
       <c r="A246" s="25"/>
       <c r="B246" s="11"/>
       <c r="C246" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D246" s="24"/>
       <c r="E246" s="32" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="F246" s="33"/>
       <c r="G246" s="6"/>
@@ -16890,10 +16900,10 @@
       <c r="A247" s="25"/>
       <c r="B247" s="11"/>
       <c r="C247" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D247" s="27" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="E247" s="32"/>
       <c r="F247" s="33"/>
@@ -16904,7 +16914,7 @@
       <c r="B248" s="11"/>
       <c r="C248" s="26"/>
       <c r="D248" s="27" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="E248" s="32"/>
       <c r="F248" s="33"/>
@@ -16915,10 +16925,10 @@
       <c r="B249" s="11"/>
       <c r="C249" s="26"/>
       <c r="D249" s="27" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="E249" s="32" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="F249" s="33"/>
       <c r="G249" s="6"/>
@@ -16928,10 +16938,10 @@
       <c r="B250" s="11"/>
       <c r="C250" s="26"/>
       <c r="D250" s="27" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="E250" s="32" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="F250" s="33"/>
       <c r="G250" s="6"/>
@@ -16941,7 +16951,7 @@
       <c r="B251" s="11"/>
       <c r="C251" s="26"/>
       <c r="D251" s="27" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="E251" s="32"/>
       <c r="F251" s="33"/>
@@ -16952,7 +16962,7 @@
       <c r="B252" s="11"/>
       <c r="C252" s="26"/>
       <c r="D252" s="27" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="E252" s="32"/>
       <c r="F252" s="33"/>
@@ -16960,17 +16970,17 @@
     </row>
     <row r="253" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A253" s="22" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="C253" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D253" s="24"/>
       <c r="E253" s="7" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="F253" s="33"/>
       <c r="G253" s="6"/>
@@ -16979,14 +16989,14 @@
       <c r="A254" s="25"/>
       <c r="B254" s="11"/>
       <c r="C254" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D254" s="24"/>
       <c r="E254" s="32" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="F254" s="33" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="G254" s="6"/>
     </row>
@@ -16994,13 +17004,13 @@
       <c r="A255" s="25"/>
       <c r="B255" s="11"/>
       <c r="C255" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D255" s="27" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="E255" s="32" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="F255" s="33"/>
       <c r="G255" s="6"/>
@@ -17010,10 +17020,10 @@
       <c r="B256" s="11"/>
       <c r="C256" s="26"/>
       <c r="D256" s="27" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="E256" s="32" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="F256" s="33"/>
       <c r="G256" s="6"/>
@@ -17023,27 +17033,27 @@
       <c r="B257" s="11"/>
       <c r="C257" s="26"/>
       <c r="D257" s="27" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="E257" s="32" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="F257" s="33"/>
       <c r="G257" s="6"/>
     </row>
     <row r="258" s="1" customFormat="1" ht="65" customHeight="1" spans="1:7">
       <c r="A258" s="22" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="C258" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D258" s="24"/>
       <c r="E258" s="7" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="F258" s="33"/>
       <c r="G258" s="6"/>
@@ -17052,11 +17062,11 @@
       <c r="A259" s="25"/>
       <c r="B259" s="11"/>
       <c r="C259" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D259" s="24"/>
       <c r="E259" s="32" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="F259" s="33"/>
       <c r="G259" s="6"/>
@@ -17065,10 +17075,10 @@
       <c r="A260" s="25"/>
       <c r="B260" s="11"/>
       <c r="C260" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D260" s="27" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="E260" s="32"/>
       <c r="F260" s="33"/>
@@ -17079,10 +17089,10 @@
       <c r="B261" s="11"/>
       <c r="C261" s="26"/>
       <c r="D261" s="27" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="E261" s="32" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="F261" s="33"/>
       <c r="G261" s="6"/>
@@ -17092,7 +17102,7 @@
       <c r="B262" s="11"/>
       <c r="C262" s="26"/>
       <c r="D262" s="27" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="E262" s="32"/>
       <c r="F262" s="33"/>
@@ -17103,7 +17113,7 @@
       <c r="B263" s="11"/>
       <c r="C263" s="26"/>
       <c r="D263" s="27" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="E263" s="32"/>
       <c r="F263" s="33"/>
@@ -17111,17 +17121,17 @@
     </row>
     <row r="264" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A264" s="22" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="C264" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D264" s="24"/>
       <c r="E264" s="7" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="F264" s="33"/>
       <c r="G264" s="6"/>
@@ -17130,11 +17140,11 @@
       <c r="A265" s="25"/>
       <c r="B265" s="11"/>
       <c r="C265" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D265" s="24"/>
       <c r="E265" s="32" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="F265" s="33"/>
       <c r="G265" s="6"/>
@@ -17143,13 +17153,13 @@
       <c r="A266" s="25"/>
       <c r="B266" s="11"/>
       <c r="C266" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D266" s="27" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="E266" s="32" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="F266" s="33"/>
       <c r="G266" s="6"/>
@@ -17159,7 +17169,7 @@
       <c r="B267" s="11"/>
       <c r="C267" s="26"/>
       <c r="D267" s="27" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="E267" s="32"/>
       <c r="F267" s="33"/>
@@ -17170,7 +17180,7 @@
       <c r="B268" s="11"/>
       <c r="C268" s="26"/>
       <c r="D268" s="27" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="E268" s="32"/>
       <c r="F268" s="33"/>
@@ -17181,7 +17191,7 @@
       <c r="B269" s="11"/>
       <c r="C269" s="26"/>
       <c r="D269" s="27" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="E269" s="32"/>
       <c r="F269" s="33"/>
@@ -17189,17 +17199,17 @@
     </row>
     <row r="270" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A270" s="22" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="C270" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D270" s="24"/>
       <c r="E270" s="7" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="F270" s="33"/>
       <c r="G270" s="6"/>
@@ -17208,11 +17218,11 @@
       <c r="A271" s="25"/>
       <c r="B271" s="11"/>
       <c r="C271" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D271" s="24"/>
       <c r="E271" s="38" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="F271" s="33"/>
       <c r="G271" s="6"/>
@@ -17221,13 +17231,13 @@
       <c r="A272" s="25"/>
       <c r="B272" s="11"/>
       <c r="C272" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D272" s="27" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="E272" s="32" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="F272" s="33"/>
       <c r="G272" s="6"/>
@@ -17237,7 +17247,7 @@
       <c r="B273" s="11"/>
       <c r="C273" s="26"/>
       <c r="D273" s="27" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="E273" s="32"/>
       <c r="F273" s="33"/>
@@ -17248,27 +17258,27 @@
       <c r="B274" s="11"/>
       <c r="C274" s="26"/>
       <c r="D274" s="27" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="E274" s="32" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="F274" s="33"/>
       <c r="G274" s="6"/>
     </row>
     <row r="275" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A275" s="22" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="C275" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D275" s="24"/>
       <c r="E275" s="7" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="F275" s="33"/>
       <c r="G275" s="6"/>
@@ -17277,11 +17287,11 @@
       <c r="A276" s="25"/>
       <c r="B276" s="11"/>
       <c r="C276" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D276" s="24"/>
       <c r="E276" s="32" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="F276" s="33"/>
       <c r="G276" s="6"/>
@@ -17290,13 +17300,13 @@
       <c r="A277" s="25"/>
       <c r="B277" s="11"/>
       <c r="C277" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D277" s="27" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="E277" s="32" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="F277" s="33"/>
       <c r="G277" s="6"/>
@@ -17306,10 +17316,10 @@
       <c r="B278" s="11"/>
       <c r="C278" s="26"/>
       <c r="D278" s="27" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="E278" s="32" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="F278" s="33"/>
       <c r="G278" s="6"/>
@@ -17319,10 +17329,10 @@
       <c r="B279" s="11"/>
       <c r="C279" s="26"/>
       <c r="D279" s="27" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="E279" s="32" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="F279" s="33"/>
       <c r="G279" s="6"/>
@@ -17332,27 +17342,27 @@
       <c r="B280" s="11"/>
       <c r="C280" s="26"/>
       <c r="D280" s="27" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="E280" s="32" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="F280" s="33"/>
       <c r="G280" s="6"/>
     </row>
     <row r="281" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A281" s="22" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="C281" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D281" s="24"/>
       <c r="E281" s="7" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="F281" s="33"/>
       <c r="G281" s="6"/>
@@ -17361,7 +17371,7 @@
       <c r="A282" s="25"/>
       <c r="B282" s="11"/>
       <c r="C282" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D282" s="24"/>
       <c r="E282" s="32"/>
@@ -17372,13 +17382,13 @@
       <c r="A283" s="25"/>
       <c r="B283" s="11"/>
       <c r="C283" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D283" s="27" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="E283" s="32" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="F283" s="33"/>
       <c r="G283" s="6"/>
@@ -17388,17 +17398,17 @@
       <c r="B284" s="13"/>
       <c r="C284" s="26"/>
       <c r="D284" s="27" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="E284" s="32" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="F284" s="33"/>
       <c r="G284" s="6"/>
     </row>
     <row r="285" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A285" s="22" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="B285" s="9"/>
       <c r="C285" s="23" t="s">
@@ -17406,7 +17416,7 @@
       </c>
       <c r="D285" s="24"/>
       <c r="E285" s="7" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="F285" s="33"/>
       <c r="G285" s="6"/>
@@ -17415,11 +17425,11 @@
       <c r="A286" s="25"/>
       <c r="B286" s="11"/>
       <c r="C286" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D286" s="24"/>
       <c r="E286" s="32" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="F286" s="33"/>
       <c r="G286" s="6"/>
@@ -17428,10 +17438,10 @@
       <c r="A287" s="25"/>
       <c r="B287" s="11"/>
       <c r="C287" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D287" s="27" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="E287" s="32"/>
       <c r="F287" s="33"/>
@@ -17442,10 +17452,10 @@
       <c r="B288" s="11"/>
       <c r="C288" s="26"/>
       <c r="D288" s="27" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="E288" s="32" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="F288" s="33"/>
       <c r="G288" s="6"/>
@@ -17455,10 +17465,10 @@
       <c r="B289" s="11"/>
       <c r="C289" s="26"/>
       <c r="D289" s="27" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="E289" s="32" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="F289" s="33"/>
       <c r="G289" s="6"/>
@@ -17468,27 +17478,27 @@
       <c r="B290" s="11"/>
       <c r="C290" s="26"/>
       <c r="D290" s="27" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="E290" s="32" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="F290" s="33"/>
       <c r="G290" s="6"/>
     </row>
     <row r="291" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A291" s="22" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C291" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D291" s="24"/>
       <c r="E291" s="7" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="F291" s="33"/>
       <c r="G291" s="6"/>
@@ -17497,7 +17507,7 @@
       <c r="A292" s="25"/>
       <c r="B292" s="11"/>
       <c r="C292" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D292" s="24"/>
       <c r="E292" s="32"/>
@@ -17508,13 +17518,13 @@
       <c r="A293" s="25"/>
       <c r="B293" s="11"/>
       <c r="C293" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D293" s="27" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="E293" s="32" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="F293" s="33"/>
       <c r="G293" s="6"/>
@@ -17524,10 +17534,10 @@
       <c r="B294" s="11"/>
       <c r="C294" s="26"/>
       <c r="D294" s="27" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="E294" s="32" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="F294" s="33"/>
       <c r="G294" s="6"/>
@@ -17537,7 +17547,7 @@
       <c r="B295" s="11"/>
       <c r="C295" s="26"/>
       <c r="D295" s="27" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="E295" s="32"/>
       <c r="F295" s="33"/>
@@ -17548,7 +17558,7 @@
       <c r="B296" s="11"/>
       <c r="C296" s="26"/>
       <c r="D296" s="27" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="E296" s="32"/>
       <c r="F296" s="33"/>
@@ -17559,7 +17569,7 @@
       <c r="B297" s="11"/>
       <c r="C297" s="26"/>
       <c r="D297" s="27" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="E297" s="32"/>
       <c r="F297" s="33"/>
@@ -17567,17 +17577,17 @@
     </row>
     <row r="298" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A298" s="22" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="C298" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D298" s="24"/>
       <c r="E298" s="7" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="F298" s="33"/>
       <c r="G298" s="6"/>
@@ -17586,11 +17596,11 @@
       <c r="A299" s="25"/>
       <c r="B299" s="11"/>
       <c r="C299" s="23" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D299" s="24"/>
       <c r="E299" s="32" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="F299" s="33"/>
       <c r="G299" s="6"/>
@@ -17599,10 +17609,10 @@
       <c r="A300" s="25"/>
       <c r="B300" s="11"/>
       <c r="C300" s="29" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D300" s="27" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="E300" s="32"/>
       <c r="F300" s="33"/>
@@ -17613,10 +17623,10 @@
       <c r="B301" s="11"/>
       <c r="C301" s="30"/>
       <c r="D301" s="27" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="E301" s="32" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="F301" s="33"/>
       <c r="G301" s="6"/>
@@ -17626,7 +17636,7 @@
       <c r="B302" s="11"/>
       <c r="C302" s="30"/>
       <c r="D302" s="5" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="E302" s="7"/>
       <c r="F302" s="33"/>
@@ -17637,10 +17647,10 @@
       <c r="B303" s="13"/>
       <c r="C303" s="31"/>
       <c r="D303" s="5" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="F303" s="33"/>
       <c r="G303" s="6"/>
@@ -18234,7 +18244,7 @@
         <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>111</v>
@@ -18250,7 +18260,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -18262,13 +18272,13 @@
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -18279,7 +18289,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="7" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -18290,11 +18300,11 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="7" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -18303,11 +18313,11 @@
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="7" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -18316,7 +18326,7 @@
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="7" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -18325,13 +18335,13 @@
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -18342,7 +18352,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -18353,7 +18363,7 @@
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="7" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -18364,7 +18374,7 @@
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="7" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -18373,17 +18383,17 @@
     <row r="12" ht="139" customHeight="1" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -18396,10 +18406,10 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="18" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
@@ -18409,10 +18419,10 @@
       <c r="D14" s="15"/>
       <c r="E14" s="10"/>
       <c r="F14" s="18" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="15" ht="84" spans="1:7">
@@ -18422,10 +18432,10 @@
       <c r="D15" s="15"/>
       <c r="E15" s="10"/>
       <c r="F15" s="18" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="16" ht="56" spans="1:7">
@@ -18435,10 +18445,10 @@
       <c r="D16" s="15"/>
       <c r="E16" s="10"/>
       <c r="F16" s="18" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
@@ -18448,10 +18458,10 @@
       <c r="D17" s="15"/>
       <c r="E17" s="10"/>
       <c r="F17" s="18" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
@@ -18461,10 +18471,10 @@
       <c r="D18" s="15"/>
       <c r="E18" s="10"/>
       <c r="F18" s="18" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
@@ -18474,10 +18484,10 @@
       <c r="D19" s="15"/>
       <c r="E19" s="10"/>
       <c r="F19" s="18" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1" spans="1:7">
@@ -18487,10 +18497,10 @@
       <c r="D20" s="15"/>
       <c r="E20" s="10"/>
       <c r="F20" s="18" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="21" ht="63" customHeight="1" spans="1:7">
@@ -18500,10 +18510,10 @@
       <c r="D21" s="15"/>
       <c r="E21" s="10"/>
       <c r="F21" s="18" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:7">
@@ -18513,10 +18523,10 @@
       <c r="D22" s="15"/>
       <c r="E22" s="10"/>
       <c r="F22" s="18" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
@@ -18526,10 +18536,10 @@
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
       <c r="F23" s="18" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
@@ -18539,10 +18549,10 @@
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
       <c r="F24" s="18" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
@@ -18552,22 +18562,22 @@
       <c r="D25" s="16"/>
       <c r="E25" s="12"/>
       <c r="F25" s="18" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -18578,7 +18588,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -18589,7 +18599,7 @@
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -18600,7 +18610,7 @@
       <c r="B29" s="6"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -18611,7 +18621,7 @@
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -18622,7 +18632,7 @@
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -18631,17 +18641,17 @@
     <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -18650,11 +18660,11 @@
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="G33" s="7"/>
     </row>
@@ -18667,7 +18677,7 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="G34" s="7"/>
     </row>
@@ -18680,7 +18690,7 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="G35" s="7"/>
     </row>
@@ -18693,7 +18703,7 @@
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="G36" s="7"/>
     </row>
@@ -18706,143 +18716,143 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="G37" s="7"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="4:4">
       <c r="D39" s="2" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="4:4">
       <c r="D40" s="2" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="4:4">
       <c r="D41" s="2" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="4:4">
       <c r="D42" s="2" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
       <c r="B43" s="1" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="4:4">
       <c r="D44" s="2" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="4:4">
       <c r="D45" s="2" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="46" ht="129" customHeight="1" spans="4:6">
       <c r="D46" s="2" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:7">
       <c r="B47" s="1" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="48" ht="58" customHeight="1" spans="6:7">
       <c r="F48" s="19" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="6:7">
       <c r="F49" s="19" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="4:7">
       <c r="D50" s="2" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="51" ht="58" customHeight="1" spans="6:7">
       <c r="F51" s="19" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="4:7">
       <c r="D52" s="2" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="G52" s="19"/>
     </row>
     <row r="53" customHeight="1" spans="6:7">
       <c r="F53" s="19" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="G53" s="19"/>
     </row>
     <row r="54" customHeight="1" spans="2:7">
       <c r="B54" s="1" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>130</v>
@@ -18852,136 +18862,136 @@
     </row>
     <row r="55" customHeight="1" spans="2:7">
       <c r="B55" s="1" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
     </row>
     <row r="56" customHeight="1" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
     </row>
     <row r="57" customHeight="1" spans="2:4">
       <c r="B57" s="1" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="4:4">
       <c r="D58" s="2" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="4:4">
       <c r="D59" s="2" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="4:4">
       <c r="D60" s="2" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="4:4">
       <c r="D61" s="2" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:7">
       <c r="B63" s="1" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="6:7">
       <c r="F64" s="19" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="6:7">
       <c r="F65" s="19" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="6:7">
       <c r="F66" s="19" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="6:7">
       <c r="F67" s="19" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="6:7">
       <c r="F68" s="19" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="6:7">
       <c r="F69" s="19" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="6:7">
       <c r="F70" s="19" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="6:7">
       <c r="F71" s="19" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="4:7">
@@ -18989,226 +18999,226 @@
         <v>132</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="6:7">
       <c r="F73" s="19" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="6:7">
       <c r="F74" s="19" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="6:7">
       <c r="F75" s="19" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="76" ht="65" customHeight="1" spans="6:7">
       <c r="F76" s="2" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="6:7">
       <c r="F77" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="78" ht="70" spans="6:7">
       <c r="F78" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="79" ht="56" spans="6:7">
       <c r="F79" s="2" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="6:7">
       <c r="F80" s="2" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="6:7">
       <c r="F81" s="2" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="6:7">
       <c r="F82" s="2" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="83" ht="70" spans="6:7">
       <c r="F83" s="2" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="84" ht="56" spans="6:7">
       <c r="F84" s="2" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="85" ht="84" spans="6:7">
       <c r="F85" s="2" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="3:7">
       <c r="C87" s="1" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="2" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="6:7">
       <c r="F88" s="2" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="6:7">
       <c r="F89" s="2" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="90" ht="42" spans="6:7">
       <c r="F90" s="2" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="6:7">
       <c r="F91" s="2" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="4:7">
       <c r="D92" s="1" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="2" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="6:7">
       <c r="F93" s="2" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="94" ht="42" spans="6:7">
       <c r="F94" s="2" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="6:7">
       <c r="F95" s="2" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="6:7">
       <c r="F96" s="2" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="97" ht="84" spans="6:7">
       <c r="F97" s="2" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="98" ht="70" spans="6:7">
       <c r="F98" s="2" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="99" ht="71" customHeight="1" spans="4:7">
@@ -19217,130 +19227,130 @@
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="2" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="100" ht="42" spans="6:7">
       <c r="F100" s="2" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="6:7">
       <c r="F101" s="2" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="6:7">
       <c r="F102" s="2" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="6:7">
       <c r="F103" s="2" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="104" ht="56" spans="6:7">
       <c r="F104" s="2" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="105" ht="45" customHeight="1" spans="6:7">
       <c r="F105" s="2" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="6:7">
       <c r="F106" s="2" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="107" ht="54" customHeight="1" spans="6:7">
       <c r="F107" s="2" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="6:7">
       <c r="F108" s="2" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="109" ht="59" customHeight="1" spans="6:7">
       <c r="F109" s="2" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="6:7">
       <c r="F110" s="2" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="111" ht="56" spans="6:7">
       <c r="F111" s="2" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="6:7">
       <c r="F112" s="2" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="6:7">
       <c r="F113" s="2" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="6:7">
       <c r="F114" s="2" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
     </row>
   </sheetData>
@@ -20349,7 +20359,7 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
@@ -20784,7 +20794,7 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="F8" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -21185,7 +21195,7 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -21692,13 +21702,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5625" defaultRowHeight="40" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="20.5625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.5625" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.78125" style="1" customWidth="1"/>
@@ -21894,7 +21904,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="90" customHeight="1" spans="1:7">
+    <row r="12" s="1" customFormat="1" ht="90" customHeight="1" spans="1:8">
       <c r="A12" s="9">
         <v>6.3</v>
       </c>
@@ -21914,8 +21924,11 @@
       <c r="G12" s="5" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="H12" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="26" t="s">
@@ -21928,10 +21941,13 @@
         <v>410</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21942,13 +21958,13 @@
         <v>4.3</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>427</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21957,13 +21973,13 @@
       <c r="C15" s="26"/>
       <c r="D15" s="46"/>
       <c r="E15" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21977,10 +21993,10 @@
         <v>416</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -21991,13 +22007,13 @@
         <v>5.3</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22008,7 +22024,7 @@
         <v>5.3</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -22021,13 +22037,13 @@
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="110" customHeight="1" spans="1:7">
@@ -22035,20 +22051,20 @@
         <v>6.4</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
@@ -22064,10 +22080,10 @@
         <v>399</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
@@ -22081,10 +22097,10 @@
         <v>413</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
@@ -22095,13 +22111,13 @@
         <v>6.3</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
@@ -22115,10 +22131,10 @@
         <v>233</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22129,13 +22145,13 @@
       </c>
       <c r="D25" s="54"/>
       <c r="E25" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
@@ -22144,13 +22160,13 @@
       <c r="C26" s="55"/>
       <c r="D26" s="56"/>
       <c r="E26" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -22190,7 +22206,7 @@
   <sheetPr/>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -22227,18 +22243,18 @@
         <v>7.1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="40" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
@@ -22248,16 +22264,16 @@
         <v>218</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22277,13 +22293,13 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
@@ -22291,18 +22307,18 @@
         <v>7.2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="40" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="5" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
@@ -22315,13 +22331,13 @@
         <v>7.1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22335,10 +22351,10 @@
         <v>381</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
@@ -22346,18 +22362,18 @@
         <v>7.3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="40" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="49" customHeight="1" spans="1:7">
@@ -22370,13 +22386,13 @@
         <v>7.1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="64" customHeight="1" spans="1:7">
@@ -22387,13 +22403,13 @@
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="115" customHeight="1" spans="1:7">
@@ -22401,18 +22417,18 @@
         <v>7.4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
@@ -22425,13 +22441,13 @@
         <v>3.4</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22440,13 +22456,13 @@
       <c r="C14" s="26"/>
       <c r="D14" s="46"/>
       <c r="E14" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
@@ -22457,13 +22473,13 @@
         <v>6.4</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22474,13 +22490,13 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="95" customHeight="1" spans="1:7">
@@ -22488,18 +22504,18 @@
         <v>7.5</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="5" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
@@ -22512,13 +22528,13 @@
         <v>6.4</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="72" customHeight="1" spans="1:7">
@@ -22526,16 +22542,16 @@
       <c r="B19" s="11"/>
       <c r="C19" s="30"/>
       <c r="D19" s="47" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22546,13 +22562,13 @@
         <v>7.4</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -22563,13 +22579,13 @@
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="60" customHeight="1" spans="1:7">
@@ -22577,18 +22593,18 @@
         <v>7.6</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="5" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
@@ -22604,10 +22620,10 @@
         <v>416</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22618,13 +22634,13 @@
         <v>7.5</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
@@ -22635,13 +22651,13 @@
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/笔记/CBAP/知识点.xlsx
+++ b/笔记/CBAP/知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13180" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="13180" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="核查单" sheetId="12" r:id="rId1"/>
@@ -1738,7 +1738,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521">
   <si>
     <t>核查单</t>
   </si>
@@ -5201,7 +5201,7 @@
     <t>模型化可以从任何发掘结果开始，并可能为了澄清或扩展需求而产生更多发掘需要。</t>
   </si>
   <si>
-    <t xml:space="preserve"> Requirements (specified and modelled)
+    <t>Requirements (specified and modelled)
 需求（已说明与已模型化）</t>
   </si>
   <si>
@@ -5252,6 +5252,13 @@
   </si>
   <si>
     <t>任何需求、设计或其组合都可以被审核、以确保文本得到良好组织，且矩阵和建模的标记法得到正确使用。</t>
+  </si>
+  <si>
+    <t>elements: fac + cut +cpu</t>
+  </si>
+  <si>
+    <t>Requirements (verified)
+需求（已审核）</t>
   </si>
   <si>
     <r>
@@ -5324,10 +5331,6 @@
 实现需求的总体目标是达成相关方的期望将来状态。</t>
   </si>
   <si>
-    <t>Requirements (specified and modelled)
-需求（已说明与已模型化）</t>
-  </si>
-  <si>
     <t>any types of requirements and designs can be validated. Validation activities may begin before requirements are completely verified. However, validation activities cannot be completed before requirements are completely verified.</t>
   </si>
   <si>
@@ -5451,10 +5454,6 @@
 在设计解决方案时，可能发现一个或多个设计选择。每个设计选择都代表满足一组需求的一种方式。设计选择需要比变革策略低一个层次，是战术性而非战略性的。在开发解决方案时，可能需要在备选设计中做出战术性的权衡。商业分析人员必须评估这些权衡对于向相关方交付价值所造成的影响。</t>
   </si>
   <si>
-    <t xml:space="preserve"> Change Strategy
-变革策略</t>
-  </si>
-  <si>
     <t>describes the approach that will be followed to transition to the future state. This may have some impact on design decisions in terms of what is feasible or possible.</t>
   </si>
   <si>
@@ -5481,7 +5480,7 @@
     <t>完整的需求组合及它们之间的关系对于定义能够母案组整组需求的设计选择至关重要。</t>
   </si>
   <si>
-    <t xml:space="preserve"> Design Options
+    <t>Design Options
 设计选择</t>
   </si>
   <si>
@@ -5509,17 +5508,13 @@
     <t>可用作评估设计所带来价值的标杆。</t>
   </si>
   <si>
-    <t>Design Options
-设计选择</t>
-  </si>
-  <si>
     <t>need to be evaluated and compared to one another to recommend one option for the solution.</t>
   </si>
   <si>
     <t>需进行评价并相互比较，从而为解决方案推荐一个选择。</t>
   </si>
   <si>
-    <t xml:space="preserve"> Solution Recommendation
+    <t>Solution Recommendation
 解决方案建议</t>
   </si>
   <si>
@@ -11039,7 +11034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11198,6 +11193,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11782,492 +11780,494 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.703125" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="72" customWidth="1"/>
-    <col min="2" max="3" width="20.703125" style="72" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="72" customWidth="1"/>
-    <col min="5" max="16384" width="20.703125" style="72" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="73" customWidth="1"/>
+    <col min="2" max="3" width="20.703125" style="73" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="73" customWidth="1"/>
+    <col min="5" max="16384" width="20.703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="74" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76">
+      <c r="B9" s="77"/>
+      <c r="C9" s="77">
         <v>20211106</v>
       </c>
-      <c r="D9" s="76"/>
+      <c r="D9" s="77"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76">
+      <c r="B10" s="77"/>
+      <c r="C10" s="77">
         <v>20211114</v>
       </c>
-      <c r="D10" s="76"/>
+      <c r="D10" s="77"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76">
+      <c r="B11" s="77"/>
+      <c r="C11" s="77">
         <v>20211208</v>
       </c>
-      <c r="D11" s="76"/>
+      <c r="D11" s="77"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76">
+      <c r="B12" s="77"/>
+      <c r="C12" s="77">
         <v>20211225</v>
       </c>
-      <c r="D12" s="76"/>
+      <c r="D12" s="77"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77">
         <v>20211106</v>
       </c>
-      <c r="D13" s="76"/>
+      <c r="D13" s="77"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76">
+      <c r="B14" s="77"/>
+      <c r="C14" s="77">
         <v>20211106</v>
       </c>
-      <c r="D14" s="76"/>
+      <c r="D14" s="77"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76">
+      <c r="B15" s="77"/>
+      <c r="C15" s="77">
         <v>20211108</v>
       </c>
-      <c r="D15" s="76"/>
+      <c r="D15" s="77"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76">
+      <c r="B16" s="77"/>
+      <c r="C16" s="77">
         <v>20211108</v>
       </c>
-      <c r="D16" s="76"/>
+      <c r="D16" s="77"/>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76">
+      <c r="B17" s="77"/>
+      <c r="C17" s="77">
         <v>20211108</v>
       </c>
-      <c r="D17" s="76"/>
+      <c r="D17" s="77"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76">
+      <c r="B18" s="77"/>
+      <c r="C18" s="77">
         <v>20211109</v>
       </c>
-      <c r="D18" s="76"/>
+      <c r="D18" s="77"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76">
+      <c r="B19" s="77"/>
+      <c r="C19" s="77">
         <v>20211109</v>
       </c>
-      <c r="D19" s="76"/>
+      <c r="D19" s="77"/>
     </row>
     <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77">
         <v>20211109</v>
       </c>
-      <c r="D20" s="76"/>
+      <c r="D20" s="77"/>
     </row>
     <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76">
+      <c r="B21" s="77"/>
+      <c r="C21" s="77">
         <v>20211114</v>
       </c>
-      <c r="D21" s="76"/>
+      <c r="D21" s="77"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76">
+      <c r="B22" s="77"/>
+      <c r="C22" s="77">
         <v>20211208</v>
       </c>
-      <c r="D22" s="76"/>
+      <c r="D22" s="77"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77">
         <v>20211225</v>
       </c>
-      <c r="D23" s="76"/>
+      <c r="D23" s="77"/>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77">
         <v>20220213</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="77" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76">
+      <c r="B25" s="77"/>
+      <c r="C25" s="77">
         <v>20220213</v>
       </c>
-      <c r="D25" s="76"/>
+      <c r="D25" s="77"/>
     </row>
     <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76">
+      <c r="B26" s="77"/>
+      <c r="C26" s="77">
         <v>20220306</v>
       </c>
-      <c r="D26" s="76"/>
+      <c r="D26" s="77"/>
     </row>
     <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
     </row>
     <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76">
+      <c r="B28" s="77"/>
+      <c r="C28" s="77">
         <v>20220320</v>
       </c>
-      <c r="D28" s="76"/>
+      <c r="D28" s="77"/>
     </row>
     <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76">
+      <c r="B29" s="77"/>
+      <c r="C29" s="77">
         <v>20211225</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="77" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76">
+      <c r="B30" s="77"/>
+      <c r="C30" s="77">
         <v>20211226</v>
       </c>
-      <c r="D30" s="76"/>
+      <c r="D30" s="77"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76">
+      <c r="B31" s="77"/>
+      <c r="C31" s="77">
         <v>20211226</v>
       </c>
-      <c r="D31" s="76"/>
+      <c r="D31" s="77"/>
     </row>
     <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76">
+      <c r="B32" s="77"/>
+      <c r="C32" s="77">
         <v>20220324</v>
       </c>
-      <c r="D32" s="76"/>
+      <c r="D32" s="77"/>
     </row>
     <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76">
+      <c r="B33" s="77"/>
+      <c r="C33" s="77">
         <v>20220327</v>
       </c>
-      <c r="D33" s="76"/>
+      <c r="D33" s="77"/>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76">
+      <c r="B34" s="77"/>
+      <c r="C34" s="77">
         <v>20220402</v>
       </c>
-      <c r="D34" s="76"/>
+      <c r="D34" s="77"/>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="78" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
+      <c r="C35" s="77">
+        <v>20220406</v>
+      </c>
       <c r="D35" s="77"/>
     </row>
     <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
     </row>
     <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76">
+      <c r="B38" s="77"/>
+      <c r="C38" s="77">
         <v>20211229</v>
       </c>
-      <c r="D38" s="77"/>
+      <c r="D38" s="78"/>
     </row>
     <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76">
+      <c r="B39" s="77"/>
+      <c r="C39" s="77">
         <v>20211229</v>
       </c>
-      <c r="D39" s="77"/>
+      <c r="D39" s="78"/>
     </row>
     <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76">
+      <c r="B40" s="77"/>
+      <c r="C40" s="77">
         <v>20211230</v>
       </c>
-      <c r="D40" s="77"/>
+      <c r="D40" s="78"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76">
+      <c r="B41" s="77"/>
+      <c r="C41" s="77">
         <v>20220101</v>
       </c>
-      <c r="D41" s="77"/>
+      <c r="D41" s="78"/>
     </row>
     <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76">
+      <c r="B42" s="77"/>
+      <c r="C42" s="77">
         <v>20220102</v>
       </c>
-      <c r="D42" s="77"/>
+      <c r="D42" s="78"/>
     </row>
     <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76">
+      <c r="B43" s="77"/>
+      <c r="C43" s="77">
         <v>20220106</v>
       </c>
-      <c r="D43" s="77"/>
+      <c r="D43" s="78"/>
     </row>
     <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76">
+      <c r="B44" s="77"/>
+      <c r="C44" s="77">
         <v>20220108</v>
       </c>
-      <c r="D44" s="77"/>
+      <c r="D44" s="78"/>
     </row>
     <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76">
+      <c r="B45" s="77"/>
+      <c r="C45" s="77">
         <v>20220108</v>
       </c>
-      <c r="D45" s="77"/>
+      <c r="D45" s="78"/>
     </row>
     <row r="46" customHeight="1" spans="1:4">
-      <c r="A46" s="77" t="s">
+      <c r="A46" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76">
+      <c r="B46" s="77"/>
+      <c r="C46" s="77">
         <v>20220130</v>
       </c>
-      <c r="D46" s="77"/>
+      <c r="D46" s="78"/>
     </row>
     <row r="47" customHeight="1" spans="1:4">
-      <c r="A47" s="77" t="s">
+      <c r="A47" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76">
+      <c r="B47" s="77"/>
+      <c r="C47" s="77">
         <v>20220208</v>
       </c>
-      <c r="D47" s="77"/>
+      <c r="D47" s="78"/>
     </row>
     <row r="48" customHeight="1" spans="1:4">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76">
+      <c r="B48" s="77"/>
+      <c r="C48" s="77">
         <v>20220210</v>
       </c>
-      <c r="D48" s="77"/>
+      <c r="D48" s="78"/>
     </row>
     <row r="49" customHeight="1" spans="1:4">
-      <c r="A49" s="77" t="s">
+      <c r="A49" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -12317,18 +12317,18 @@
         <v>8.1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="40" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12341,13 +12341,13 @@
         <v>6.2</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>530</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="G3" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12356,13 +12356,13 @@
       <c r="C4" s="31"/>
       <c r="D4" s="45"/>
       <c r="E4" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12373,13 +12373,13 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>536</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="G5" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="58" customHeight="1" spans="1:7">
@@ -12387,18 +12387,18 @@
         <v>8.2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
@@ -12411,13 +12411,13 @@
         <v>6.2</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
@@ -12428,13 +12428,13 @@
         <v>8.1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12445,13 +12445,13 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="75" customHeight="1" spans="1:7">
@@ -12459,18 +12459,18 @@
         <v>8.3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="40" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12481,13 +12481,13 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>553</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12498,13 +12498,13 @@
         <v>8.2</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12515,13 +12515,13 @@
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F13" s="40" t="s">
         <v>557</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="G13" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
@@ -12529,18 +12529,18 @@
         <v>8.4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="40" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12556,10 +12556,10 @@
         <v>399</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12568,13 +12568,13 @@
       <c r="C16" s="26"/>
       <c r="D16" s="46"/>
       <c r="E16" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>553</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12585,13 +12585,13 @@
         <v>8.2</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>566</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12602,13 +12602,13 @@
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F18" s="40" t="s">
         <v>568</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="G18" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="78" customHeight="1" spans="1:7">
@@ -12616,18 +12616,18 @@
         <v>8.5</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="40" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12640,13 +12640,13 @@
         <v>8.3</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12657,13 +12657,13 @@
         <v>8.4</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>575</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12674,13 +12674,13 @@
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F22" s="40" t="s">
         <v>577</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="G22" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -12745,7 +12745,7 @@
         <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>111</v>
@@ -12761,19 +12761,19 @@
     </row>
     <row r="2" ht="49" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>582</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>583</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -12781,16 +12781,16 @@
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>585</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>586</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -12798,16 +12798,16 @@
     <row r="4" ht="47" customHeight="1" spans="1:7">
       <c r="A4" s="11"/>
       <c r="B4" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>588</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>589</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -12815,16 +12815,16 @@
     <row r="5" ht="48" customHeight="1" spans="1:7">
       <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>592</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -12832,16 +12832,16 @@
     <row r="6" ht="47" customHeight="1" spans="1:7">
       <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>595</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -12849,16 +12849,16 @@
     <row r="7" ht="58" customHeight="1" spans="1:7">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>597</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>598</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -12866,35 +12866,35 @@
     <row r="8" ht="45" customHeight="1" spans="1:7">
       <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>600</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>601</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" ht="62" customHeight="1" spans="1:7">
       <c r="A9" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>605</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -12902,16 +12902,16 @@
     <row r="10" ht="57" customHeight="1" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>607</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>608</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -12919,16 +12919,16 @@
     <row r="11" ht="50" customHeight="1" spans="1:7">
       <c r="A11" s="11"/>
       <c r="B11" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>611</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -12936,16 +12936,16 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="11"/>
       <c r="B12" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>613</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>614</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -12953,35 +12953,35 @@
     <row r="13" ht="50" customHeight="1" spans="1:7">
       <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>616</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>617</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" ht="34" spans="1:7">
       <c r="A14" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>621</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -12989,16 +12989,16 @@
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>624</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -13006,16 +13006,16 @@
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="11"/>
       <c r="B16" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -13023,16 +13023,16 @@
     <row r="17" ht="55" customHeight="1" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>630</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -13040,35 +13040,35 @@
     <row r="18" ht="49" customHeight="1" spans="1:7">
       <c r="A18" s="13"/>
       <c r="B18" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>632</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>633</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>636</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>637</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -13076,16 +13076,16 @@
     <row r="20" ht="48" customHeight="1" spans="1:7">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>640</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -13093,16 +13093,16 @@
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="11"/>
       <c r="B21" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>642</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>643</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -13110,35 +13110,35 @@
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="13"/>
       <c r="B22" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>646</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" ht="80" customHeight="1" spans="1:7">
       <c r="A23" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>649</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>650</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -13146,16 +13146,16 @@
     <row r="24" ht="54" customHeight="1" spans="1:7">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>652</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>653</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -13163,16 +13163,16 @@
     <row r="25" ht="48" customHeight="1" spans="1:7">
       <c r="A25" s="11"/>
       <c r="B25" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>655</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>656</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -13180,16 +13180,16 @@
     <row r="26" ht="56" spans="1:7">
       <c r="A26" s="11"/>
       <c r="B26" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>658</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>659</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -13197,35 +13197,35 @@
     <row r="27" ht="55" customHeight="1" spans="1:7">
       <c r="A27" s="13"/>
       <c r="B27" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>661</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>662</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>665</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>666</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -13233,16 +13233,16 @@
     <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>668</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>669</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -13250,16 +13250,16 @@
     <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>671</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>672</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -13326,17 +13326,17 @@
         <v>10.1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="32" t="s">
+        <v>674</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>675</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>676</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -13344,14 +13344,14 @@
       <c r="A3" s="25"/>
       <c r="B3" s="11"/>
       <c r="C3" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="32" t="s">
+        <v>677</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>678</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>679</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -13359,10 +13359,10 @@
       <c r="A4" s="25"/>
       <c r="B4" s="11"/>
       <c r="C4" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>680</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>681</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="33"/>
@@ -13373,13 +13373,13 @@
       <c r="B5" s="13"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>682</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="F5" s="33" t="s">
         <v>683</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>684</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -13388,17 +13388,17 @@
         <v>10.2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>686</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>687</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -13406,14 +13406,14 @@
       <c r="A7" s="25"/>
       <c r="B7" s="11"/>
       <c r="C7" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>688</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>689</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -13421,16 +13421,16 @@
       <c r="A8" s="25"/>
       <c r="B8" s="11"/>
       <c r="C8" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="E8" s="32" t="s">
         <v>690</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="F8" s="33" t="s">
         <v>691</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>692</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -13439,13 +13439,13 @@
       <c r="B9" s="11"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
+        <v>692</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="F9" s="33" t="s">
         <v>694</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>695</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -13454,13 +13454,13 @@
       <c r="B10" s="11"/>
       <c r="C10" s="26"/>
       <c r="D10" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>696</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="F10" s="33" t="s">
         <v>697</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>698</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -13469,11 +13469,11 @@
       <c r="B11" s="13"/>
       <c r="C11" s="26"/>
       <c r="D11" s="27" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="33" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -13482,17 +13482,17 @@
         <v>10.3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>702</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>703</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -13500,14 +13500,14 @@
       <c r="A13" s="25"/>
       <c r="B13" s="11"/>
       <c r="C13" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="32" t="s">
+        <v>703</v>
+      </c>
+      <c r="F13" s="33" t="s">
         <v>704</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>705</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -13515,16 +13515,16 @@
       <c r="A14" s="25"/>
       <c r="B14" s="11"/>
       <c r="C14" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>705</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>706</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="F14" s="33" t="s">
         <v>707</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>708</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -13533,13 +13533,13 @@
       <c r="B15" s="11"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27" t="s">
+        <v>708</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>709</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="33" t="s">
         <v>710</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>711</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -13548,13 +13548,13 @@
       <c r="B16" s="11"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="E16" s="32" t="s">
         <v>712</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="F16" s="33" t="s">
         <v>713</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>714</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -13563,13 +13563,13 @@
       <c r="B17" s="11"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>715</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="F17" s="33" t="s">
         <v>716</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -13578,13 +13578,13 @@
       <c r="B18" s="13"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>718</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="F18" s="33" t="s">
         <v>719</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>720</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -13593,17 +13593,17 @@
         <v>10.4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>722</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>723</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -13611,14 +13611,14 @@
       <c r="A20" s="25"/>
       <c r="B20" s="11"/>
       <c r="C20" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="F20" s="33" t="s">
         <v>724</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>725</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -13626,14 +13626,14 @@
       <c r="A21" s="25"/>
       <c r="B21" s="11"/>
       <c r="C21" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="33" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -13642,11 +13642,11 @@
       <c r="B22" s="13"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -13655,17 +13655,17 @@
         <v>10.5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="F23" s="33" t="s">
         <v>731</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>732</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -13673,14 +13673,14 @@
       <c r="A24" s="25"/>
       <c r="B24" s="11"/>
       <c r="C24" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="32" t="s">
+        <v>732</v>
+      </c>
+      <c r="F24" s="33" t="s">
         <v>733</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>734</v>
       </c>
       <c r="G24" s="6"/>
     </row>
@@ -13688,14 +13688,14 @@
       <c r="A25" s="25"/>
       <c r="B25" s="11"/>
       <c r="C25" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="33" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G25" s="6"/>
     </row>
@@ -13704,11 +13704,11 @@
       <c r="B26" s="11"/>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G26" s="6"/>
     </row>
@@ -13717,11 +13717,11 @@
       <c r="B27" s="13"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="33" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -13730,17 +13730,17 @@
         <v>10.6</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="F28" s="33" t="s">
         <v>742</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>743</v>
       </c>
       <c r="G28" s="6"/>
     </row>
@@ -13748,14 +13748,14 @@
       <c r="A29" s="25"/>
       <c r="B29" s="11"/>
       <c r="C29" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="F29" s="34" t="s">
         <v>744</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>745</v>
       </c>
       <c r="G29" s="6"/>
     </row>
@@ -13763,16 +13763,16 @@
       <c r="A30" s="25"/>
       <c r="B30" s="11"/>
       <c r="C30" s="29" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D30" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="F30" s="33" t="s">
         <v>747</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>748</v>
       </c>
       <c r="G30" s="6"/>
     </row>
@@ -13781,13 +13781,13 @@
       <c r="B31" s="11"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27" t="s">
+        <v>748</v>
+      </c>
+      <c r="E31" s="32" t="s">
         <v>749</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="F31" s="33" t="s">
         <v>750</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>751</v>
       </c>
       <c r="G31" s="6"/>
     </row>
@@ -13796,13 +13796,13 @@
       <c r="B32" s="11"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="E32" s="32" t="s">
         <v>752</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="F32" s="33" t="s">
         <v>753</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>754</v>
       </c>
       <c r="G32" s="6"/>
     </row>
@@ -13811,13 +13811,13 @@
       <c r="B33" s="11"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="E33" s="32" t="s">
         <v>755</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="F33" s="33" t="s">
         <v>756</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>757</v>
       </c>
       <c r="G33" s="6"/>
     </row>
@@ -13826,13 +13826,13 @@
       <c r="B34" s="11"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27" t="s">
+        <v>757</v>
+      </c>
+      <c r="E34" s="32" t="s">
         <v>758</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="F34" s="33" t="s">
         <v>759</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>760</v>
       </c>
       <c r="G34" s="6"/>
     </row>
@@ -13841,11 +13841,11 @@
       <c r="B35" s="11"/>
       <c r="C35" s="31"/>
       <c r="D35" s="27" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="33" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G35" s="6"/>
     </row>
@@ -13854,17 +13854,17 @@
         <v>10.7</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="F36" s="33" t="s">
         <v>764</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>765</v>
       </c>
       <c r="G36" s="6"/>
     </row>
@@ -13872,14 +13872,14 @@
       <c r="A37" s="25"/>
       <c r="B37" s="11"/>
       <c r="C37" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="F37" s="33" t="s">
         <v>766</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>767</v>
       </c>
       <c r="G37" s="6"/>
     </row>
@@ -13887,16 +13887,16 @@
       <c r="A38" s="25"/>
       <c r="B38" s="11"/>
       <c r="C38" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D38" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="E38" s="32" t="s">
         <v>768</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="F38" s="33" t="s">
         <v>769</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>770</v>
       </c>
       <c r="G38" s="6"/>
     </row>
@@ -13905,13 +13905,13 @@
       <c r="B39" s="11"/>
       <c r="C39" s="26"/>
       <c r="D39" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="E39" s="32" t="s">
         <v>771</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="F39" s="33" t="s">
         <v>772</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>773</v>
       </c>
       <c r="G39" s="6"/>
     </row>
@@ -13920,13 +13920,13 @@
       <c r="B40" s="11"/>
       <c r="C40" s="26"/>
       <c r="D40" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="E40" s="32" t="s">
         <v>774</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="F40" s="33" t="s">
         <v>775</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>776</v>
       </c>
       <c r="G40" s="6"/>
     </row>
@@ -13935,13 +13935,13 @@
       <c r="B41" s="11"/>
       <c r="C41" s="26"/>
       <c r="D41" s="27" t="s">
+        <v>776</v>
+      </c>
+      <c r="E41" s="32" t="s">
         <v>777</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="F41" s="33" t="s">
         <v>778</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>779</v>
       </c>
       <c r="G41" s="6"/>
     </row>
@@ -13950,17 +13950,17 @@
         <v>10.8</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="F42" s="33" t="s">
         <v>781</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>782</v>
       </c>
       <c r="G42" s="6"/>
     </row>
@@ -13968,14 +13968,14 @@
       <c r="A43" s="25"/>
       <c r="B43" s="11"/>
       <c r="C43" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="32" t="s">
+        <v>782</v>
+      </c>
+      <c r="F43" s="33" t="s">
         <v>783</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>784</v>
       </c>
       <c r="G43" s="6"/>
     </row>
@@ -13983,16 +13983,16 @@
       <c r="A44" s="25"/>
       <c r="B44" s="11"/>
       <c r="C44" s="29" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D44" s="27" t="s">
+        <v>784</v>
+      </c>
+      <c r="E44" s="32" t="s">
         <v>785</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="F44" s="33" t="s">
         <v>786</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>787</v>
       </c>
       <c r="G44" s="6"/>
     </row>
@@ -14001,13 +14001,13 @@
       <c r="B45" s="11"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27" t="s">
+        <v>787</v>
+      </c>
+      <c r="E45" s="32" t="s">
         <v>788</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="F45" s="33" t="s">
         <v>789</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>790</v>
       </c>
       <c r="G45" s="6"/>
     </row>
@@ -14016,13 +14016,13 @@
       <c r="B46" s="11"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="E46" s="32" t="s">
         <v>791</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="F46" s="33" t="s">
         <v>792</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>793</v>
       </c>
       <c r="G46" s="6"/>
     </row>
@@ -14031,13 +14031,13 @@
       <c r="B47" s="11"/>
       <c r="C47" s="30"/>
       <c r="D47" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="E47" s="32" t="s">
         <v>794</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="F47" s="33" t="s">
         <v>795</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>796</v>
       </c>
       <c r="G47" s="6"/>
     </row>
@@ -14046,13 +14046,13 @@
       <c r="B48" s="11"/>
       <c r="C48" s="30"/>
       <c r="D48" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="E48" s="32" t="s">
         <v>797</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="F48" s="33" t="s">
         <v>798</v>
-      </c>
-      <c r="F48" s="33" t="s">
-        <v>799</v>
       </c>
       <c r="G48" s="6"/>
     </row>
@@ -14061,13 +14061,13 @@
       <c r="B49" s="11"/>
       <c r="C49" s="30"/>
       <c r="D49" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="E49" s="32" t="s">
         <v>800</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="F49" s="33" t="s">
         <v>801</v>
-      </c>
-      <c r="F49" s="33" t="s">
-        <v>802</v>
       </c>
       <c r="G49" s="6"/>
     </row>
@@ -14076,13 +14076,13 @@
       <c r="B50" s="11"/>
       <c r="C50" s="30"/>
       <c r="D50" s="27" t="s">
+        <v>802</v>
+      </c>
+      <c r="E50" s="32" t="s">
         <v>803</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="F50" s="33" t="s">
         <v>804</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>805</v>
       </c>
       <c r="G50" s="6"/>
     </row>
@@ -14091,11 +14091,11 @@
       <c r="B51" s="11"/>
       <c r="C51" s="30"/>
       <c r="D51" s="27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="33" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G51" s="6"/>
     </row>
@@ -14104,13 +14104,13 @@
       <c r="B52" s="11"/>
       <c r="C52" s="31"/>
       <c r="D52" s="27" t="s">
+        <v>807</v>
+      </c>
+      <c r="E52" s="32" t="s">
         <v>808</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="F52" s="33" t="s">
         <v>809</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>810</v>
       </c>
       <c r="G52" s="6"/>
     </row>
@@ -14119,17 +14119,17 @@
         <v>10.9</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="F53" s="33" t="s">
         <v>812</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>813</v>
       </c>
       <c r="G53" s="6"/>
     </row>
@@ -14137,14 +14137,14 @@
       <c r="A54" s="25"/>
       <c r="B54" s="11"/>
       <c r="C54" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="F54" s="33" t="s">
         <v>814</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>815</v>
       </c>
       <c r="G54" s="6"/>
     </row>
@@ -14152,16 +14152,16 @@
       <c r="A55" s="25"/>
       <c r="B55" s="11"/>
       <c r="C55" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D55" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="E55" s="32" t="s">
         <v>816</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="F55" s="33" t="s">
         <v>817</v>
-      </c>
-      <c r="F55" s="33" t="s">
-        <v>818</v>
       </c>
       <c r="G55" s="6"/>
     </row>
@@ -14170,32 +14170,32 @@
       <c r="B56" s="13"/>
       <c r="C56" s="26"/>
       <c r="D56" s="27" t="s">
+        <v>818</v>
+      </c>
+      <c r="E56" s="32" t="s">
         <v>819</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="F56" s="33" t="s">
         <v>820</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>821</v>
       </c>
       <c r="G56" s="6"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A57" s="22" t="s">
+        <v>821</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>822</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>823</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F57" s="33" t="s">
         <v>824</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>825</v>
       </c>
       <c r="G57" s="6"/>
     </row>
@@ -14203,14 +14203,14 @@
       <c r="A58" s="25"/>
       <c r="B58" s="11"/>
       <c r="C58" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="32" t="s">
+        <v>825</v>
+      </c>
+      <c r="F58" s="33" t="s">
         <v>826</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>827</v>
       </c>
       <c r="G58" s="6"/>
     </row>
@@ -14218,16 +14218,16 @@
       <c r="A59" s="25"/>
       <c r="B59" s="11"/>
       <c r="C59" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D59" s="27" t="s">
+        <v>827</v>
+      </c>
+      <c r="E59" s="32" t="s">
         <v>828</v>
       </c>
-      <c r="E59" s="32" t="s">
+      <c r="F59" s="33" t="s">
         <v>829</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>830</v>
       </c>
       <c r="G59" s="6"/>
     </row>
@@ -14236,11 +14236,11 @@
       <c r="B60" s="11"/>
       <c r="C60" s="26"/>
       <c r="D60" s="27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E60" s="32"/>
       <c r="F60" s="33" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G60" s="6"/>
     </row>
@@ -14249,11 +14249,11 @@
       <c r="B61" s="11"/>
       <c r="C61" s="26"/>
       <c r="D61" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="33" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G61" s="6"/>
     </row>
@@ -14262,32 +14262,32 @@
       <c r="B62" s="11"/>
       <c r="C62" s="26"/>
       <c r="D62" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="E62" s="32" t="s">
         <v>835</v>
       </c>
-      <c r="E62" s="32" t="s">
+      <c r="F62" s="33" t="s">
         <v>836</v>
-      </c>
-      <c r="F62" s="33" t="s">
-        <v>837</v>
       </c>
       <c r="G62" s="6"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A63" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="C63" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D63" s="24"/>
       <c r="E63" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="F63" s="33" t="s">
         <v>840</v>
-      </c>
-      <c r="F63" s="33" t="s">
-        <v>841</v>
       </c>
       <c r="G63" s="6"/>
     </row>
@@ -14295,14 +14295,14 @@
       <c r="A64" s="25"/>
       <c r="B64" s="11"/>
       <c r="C64" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D64" s="24"/>
       <c r="E64" s="32" t="s">
+        <v>841</v>
+      </c>
+      <c r="F64" s="33" t="s">
         <v>842</v>
-      </c>
-      <c r="F64" s="33" t="s">
-        <v>843</v>
       </c>
       <c r="G64" s="6"/>
     </row>
@@ -14310,14 +14310,14 @@
       <c r="A65" s="25"/>
       <c r="B65" s="11"/>
       <c r="C65" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="33" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G65" s="6"/>
     </row>
@@ -14326,13 +14326,13 @@
       <c r="B66" s="11"/>
       <c r="C66" s="26"/>
       <c r="D66" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="E66" s="32" t="s">
         <v>846</v>
       </c>
-      <c r="E66" s="32" t="s">
+      <c r="F66" s="33" t="s">
         <v>847</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>848</v>
       </c>
       <c r="G66" s="6"/>
     </row>
@@ -14341,30 +14341,30 @@
       <c r="B67" s="11"/>
       <c r="C67" s="26"/>
       <c r="D67" s="27" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="33" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G67" s="6"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A68" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>851</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>852</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D68" s="24"/>
       <c r="E68" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="F68" s="33" t="s">
         <v>853</v>
-      </c>
-      <c r="F68" s="33" t="s">
-        <v>854</v>
       </c>
       <c r="G68" s="6"/>
     </row>
@@ -14372,14 +14372,14 @@
       <c r="A69" s="25"/>
       <c r="B69" s="11"/>
       <c r="C69" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="32" t="s">
+        <v>854</v>
+      </c>
+      <c r="F69" s="33" t="s">
         <v>855</v>
-      </c>
-      <c r="F69" s="33" t="s">
-        <v>856</v>
       </c>
       <c r="G69" s="6"/>
     </row>
@@ -14387,16 +14387,16 @@
       <c r="A70" s="25"/>
       <c r="B70" s="11"/>
       <c r="C70" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D70" s="27" t="s">
+        <v>856</v>
+      </c>
+      <c r="E70" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="E70" s="32" t="s">
+      <c r="F70" s="33" t="s">
         <v>858</v>
-      </c>
-      <c r="F70" s="33" t="s">
-        <v>859</v>
       </c>
       <c r="G70" s="6"/>
     </row>
@@ -14405,13 +14405,13 @@
       <c r="B71" s="11"/>
       <c r="C71" s="26"/>
       <c r="D71" s="27" t="s">
+        <v>859</v>
+      </c>
+      <c r="E71" s="32" t="s">
         <v>860</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="F71" s="33" t="s">
         <v>861</v>
-      </c>
-      <c r="F71" s="33" t="s">
-        <v>862</v>
       </c>
       <c r="G71" s="6"/>
     </row>
@@ -14420,32 +14420,32 @@
       <c r="B72" s="11"/>
       <c r="C72" s="26"/>
       <c r="D72" s="27" t="s">
+        <v>862</v>
+      </c>
+      <c r="E72" s="32" t="s">
         <v>863</v>
       </c>
-      <c r="E72" s="32" t="s">
+      <c r="F72" s="33" t="s">
         <v>864</v>
-      </c>
-      <c r="F72" s="33" t="s">
-        <v>865</v>
       </c>
       <c r="G72" s="6"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A73" s="22" t="s">
+        <v>865</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>866</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>867</v>
       </c>
       <c r="C73" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="F73" s="33" t="s">
         <v>868</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>869</v>
       </c>
       <c r="G73" s="6"/>
     </row>
@@ -14453,14 +14453,14 @@
       <c r="A74" s="25"/>
       <c r="B74" s="5"/>
       <c r="C74" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="32" t="s">
+        <v>869</v>
+      </c>
+      <c r="F74" s="33" t="s">
         <v>870</v>
-      </c>
-      <c r="F74" s="33" t="s">
-        <v>871</v>
       </c>
       <c r="G74" s="6"/>
     </row>
@@ -14468,16 +14468,16 @@
       <c r="A75" s="25"/>
       <c r="B75" s="5"/>
       <c r="C75" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D75" s="27" t="s">
+        <v>871</v>
+      </c>
+      <c r="E75" s="32" t="s">
         <v>872</v>
       </c>
-      <c r="E75" s="32" t="s">
+      <c r="F75" s="33" t="s">
         <v>873</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>874</v>
       </c>
       <c r="G75" s="6"/>
     </row>
@@ -14486,13 +14486,13 @@
       <c r="B76" s="5"/>
       <c r="C76" s="26"/>
       <c r="D76" s="27" t="s">
+        <v>874</v>
+      </c>
+      <c r="E76" s="32" t="s">
         <v>875</v>
       </c>
-      <c r="E76" s="32" t="s">
+      <c r="F76" s="33" t="s">
         <v>876</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>877</v>
       </c>
       <c r="G76" s="6"/>
     </row>
@@ -14501,13 +14501,13 @@
       <c r="B77" s="5"/>
       <c r="C77" s="26"/>
       <c r="D77" s="27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E77" s="32" t="s">
+        <v>877</v>
+      </c>
+      <c r="F77" s="33" t="s">
         <v>878</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>879</v>
       </c>
       <c r="G77" s="6"/>
     </row>
@@ -14516,32 +14516,32 @@
       <c r="B78" s="5"/>
       <c r="C78" s="26"/>
       <c r="D78" s="27" t="s">
+        <v>879</v>
+      </c>
+      <c r="E78" s="32" t="s">
         <v>880</v>
       </c>
-      <c r="E78" s="32" t="s">
+      <c r="F78" s="33" t="s">
         <v>881</v>
-      </c>
-      <c r="F78" s="33" t="s">
-        <v>882</v>
       </c>
       <c r="G78" s="6"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A79" s="22" t="s">
+        <v>882</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>883</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>884</v>
       </c>
       <c r="C79" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F79" s="33" t="s">
         <v>885</v>
-      </c>
-      <c r="F79" s="33" t="s">
-        <v>886</v>
       </c>
       <c r="G79" s="6"/>
     </row>
@@ -14549,14 +14549,14 @@
       <c r="A80" s="25"/>
       <c r="B80" s="11"/>
       <c r="C80" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="32" t="s">
+        <v>886</v>
+      </c>
+      <c r="F80" s="33" t="s">
         <v>887</v>
-      </c>
-      <c r="F80" s="33" t="s">
-        <v>888</v>
       </c>
       <c r="G80" s="6"/>
     </row>
@@ -14564,16 +14564,16 @@
       <c r="A81" s="25"/>
       <c r="B81" s="11"/>
       <c r="C81" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D81" s="27" t="s">
+        <v>888</v>
+      </c>
+      <c r="E81" s="32" t="s">
         <v>889</v>
       </c>
-      <c r="E81" s="32" t="s">
+      <c r="F81" s="33" t="s">
         <v>890</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>891</v>
       </c>
       <c r="G81" s="6"/>
     </row>
@@ -14582,13 +14582,13 @@
       <c r="B82" s="11"/>
       <c r="C82" s="26"/>
       <c r="D82" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="E82" s="32" t="s">
         <v>892</v>
       </c>
-      <c r="E82" s="32" t="s">
+      <c r="F82" s="33" t="s">
         <v>893</v>
-      </c>
-      <c r="F82" s="33" t="s">
-        <v>894</v>
       </c>
       <c r="G82" s="6"/>
     </row>
@@ -14597,13 +14597,13 @@
       <c r="B83" s="11"/>
       <c r="C83" s="26"/>
       <c r="D83" s="27" t="s">
+        <v>894</v>
+      </c>
+      <c r="E83" s="32" t="s">
         <v>895</v>
       </c>
-      <c r="E83" s="32" t="s">
+      <c r="F83" s="33" t="s">
         <v>896</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>897</v>
       </c>
       <c r="G83" s="6"/>
     </row>
@@ -14612,11 +14612,11 @@
       <c r="B84" s="11"/>
       <c r="C84" s="26"/>
       <c r="D84" s="27" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G84" s="6"/>
     </row>
@@ -14625,32 +14625,32 @@
       <c r="B85" s="11"/>
       <c r="C85" s="26"/>
       <c r="D85" s="27" t="s">
+        <v>899</v>
+      </c>
+      <c r="E85" s="32" t="s">
         <v>900</v>
       </c>
-      <c r="E85" s="32" t="s">
+      <c r="F85" s="33" t="s">
         <v>901</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>902</v>
       </c>
       <c r="G85" s="6"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A86" s="22" t="s">
+        <v>902</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>903</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>904</v>
       </c>
       <c r="C86" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D86" s="24"/>
       <c r="E86" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="F86" s="33" t="s">
         <v>905</v>
-      </c>
-      <c r="F86" s="33" t="s">
-        <v>906</v>
       </c>
       <c r="G86" s="6"/>
     </row>
@@ -14658,14 +14658,14 @@
       <c r="A87" s="25"/>
       <c r="B87" s="11"/>
       <c r="C87" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="32" t="s">
+        <v>906</v>
+      </c>
+      <c r="F87" s="33" t="s">
         <v>907</v>
-      </c>
-      <c r="F87" s="33" t="s">
-        <v>908</v>
       </c>
       <c r="G87" s="6"/>
     </row>
@@ -14673,16 +14673,16 @@
       <c r="A88" s="25"/>
       <c r="B88" s="11"/>
       <c r="C88" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D88" s="27" t="s">
+        <v>908</v>
+      </c>
+      <c r="E88" s="32" t="s">
         <v>909</v>
       </c>
-      <c r="E88" s="32" t="s">
+      <c r="F88" s="33" t="s">
         <v>910</v>
-      </c>
-      <c r="F88" s="33" t="s">
-        <v>911</v>
       </c>
       <c r="G88" s="6"/>
     </row>
@@ -14691,13 +14691,13 @@
       <c r="B89" s="11"/>
       <c r="C89" s="26"/>
       <c r="D89" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="E89" s="32" t="s">
         <v>912</v>
       </c>
-      <c r="E89" s="32" t="s">
+      <c r="F89" s="33" t="s">
         <v>913</v>
-      </c>
-      <c r="F89" s="33" t="s">
-        <v>914</v>
       </c>
       <c r="G89" s="6"/>
     </row>
@@ -14706,13 +14706,13 @@
       <c r="B90" s="11"/>
       <c r="C90" s="26"/>
       <c r="D90" s="27" t="s">
+        <v>914</v>
+      </c>
+      <c r="E90" s="32" t="s">
         <v>915</v>
       </c>
-      <c r="E90" s="32" t="s">
+      <c r="F90" s="33" t="s">
         <v>916</v>
-      </c>
-      <c r="F90" s="33" t="s">
-        <v>917</v>
       </c>
       <c r="G90" s="6"/>
     </row>
@@ -14721,13 +14721,13 @@
       <c r="B91" s="11"/>
       <c r="C91" s="26"/>
       <c r="D91" s="27" t="s">
+        <v>917</v>
+      </c>
+      <c r="E91" s="32" t="s">
         <v>918</v>
       </c>
-      <c r="E91" s="32" t="s">
+      <c r="F91" s="33" t="s">
         <v>919</v>
-      </c>
-      <c r="F91" s="33" t="s">
-        <v>920</v>
       </c>
       <c r="G91" s="6"/>
     </row>
@@ -14736,32 +14736,32 @@
       <c r="B92" s="11"/>
       <c r="C92" s="26"/>
       <c r="D92" s="27" t="s">
+        <v>920</v>
+      </c>
+      <c r="E92" s="32" t="s">
         <v>921</v>
       </c>
-      <c r="E92" s="32" t="s">
+      <c r="F92" s="33" t="s">
         <v>922</v>
-      </c>
-      <c r="F92" s="33" t="s">
-        <v>923</v>
       </c>
       <c r="G92" s="6"/>
     </row>
     <row r="93" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A93" s="22" t="s">
+        <v>923</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>924</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>925</v>
       </c>
       <c r="C93" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D93" s="24"/>
       <c r="E93" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="F93" s="33" t="s">
         <v>926</v>
-      </c>
-      <c r="F93" s="33" t="s">
-        <v>927</v>
       </c>
       <c r="G93" s="6"/>
     </row>
@@ -14769,14 +14769,14 @@
       <c r="A94" s="25"/>
       <c r="B94" s="11"/>
       <c r="C94" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D94" s="24"/>
       <c r="E94" s="32" t="s">
+        <v>927</v>
+      </c>
+      <c r="F94" s="33" t="s">
         <v>928</v>
-      </c>
-      <c r="F94" s="33" t="s">
-        <v>929</v>
       </c>
       <c r="G94" s="6"/>
     </row>
@@ -14784,16 +14784,16 @@
       <c r="A95" s="25"/>
       <c r="B95" s="11"/>
       <c r="C95" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D95" s="27" t="s">
+        <v>929</v>
+      </c>
+      <c r="E95" s="32" t="s">
         <v>930</v>
       </c>
-      <c r="E95" s="32" t="s">
+      <c r="F95" s="33" t="s">
         <v>931</v>
-      </c>
-      <c r="F95" s="33" t="s">
-        <v>932</v>
       </c>
       <c r="G95" s="6"/>
     </row>
@@ -14802,11 +14802,11 @@
       <c r="B96" s="11"/>
       <c r="C96" s="26"/>
       <c r="D96" s="27" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="33" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G96" s="6"/>
     </row>
@@ -14815,13 +14815,13 @@
       <c r="B97" s="11"/>
       <c r="C97" s="26"/>
       <c r="D97" s="27" t="s">
+        <v>934</v>
+      </c>
+      <c r="E97" s="32" t="s">
         <v>935</v>
       </c>
-      <c r="E97" s="32" t="s">
+      <c r="F97" s="33" t="s">
         <v>936</v>
-      </c>
-      <c r="F97" s="33" t="s">
-        <v>937</v>
       </c>
       <c r="G97" s="6"/>
     </row>
@@ -14830,32 +14830,32 @@
       <c r="B98" s="11"/>
       <c r="C98" s="26"/>
       <c r="D98" s="27" t="s">
+        <v>937</v>
+      </c>
+      <c r="E98" s="32" t="s">
         <v>938</v>
       </c>
-      <c r="E98" s="32" t="s">
+      <c r="F98" s="33" t="s">
         <v>939</v>
-      </c>
-      <c r="F98" s="33" t="s">
-        <v>940</v>
       </c>
       <c r="G98" s="6"/>
     </row>
     <row r="99" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A99" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>941</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>942</v>
       </c>
       <c r="C99" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D99" s="24"/>
       <c r="E99" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="F99" s="33" t="s">
         <v>943</v>
-      </c>
-      <c r="F99" s="33" t="s">
-        <v>944</v>
       </c>
       <c r="G99" s="6"/>
     </row>
@@ -14863,14 +14863,14 @@
       <c r="A100" s="25"/>
       <c r="B100" s="11"/>
       <c r="C100" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D100" s="24"/>
       <c r="E100" s="32" t="s">
+        <v>944</v>
+      </c>
+      <c r="F100" s="33" t="s">
         <v>945</v>
-      </c>
-      <c r="F100" s="33" t="s">
-        <v>946</v>
       </c>
       <c r="G100" s="6"/>
     </row>
@@ -14878,14 +14878,14 @@
       <c r="A101" s="25"/>
       <c r="B101" s="11"/>
       <c r="C101" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="33" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G101" s="6"/>
     </row>
@@ -14894,11 +14894,11 @@
       <c r="B102" s="11"/>
       <c r="C102" s="26"/>
       <c r="D102" s="27" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="33" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G102" s="6"/>
     </row>
@@ -14907,11 +14907,11 @@
       <c r="B103" s="11"/>
       <c r="C103" s="26"/>
       <c r="D103" s="27" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="33" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G103" s="6"/>
     </row>
@@ -14920,32 +14920,32 @@
       <c r="B104" s="11"/>
       <c r="C104" s="26"/>
       <c r="D104" s="27" t="s">
+        <v>950</v>
+      </c>
+      <c r="E104" s="32" t="s">
         <v>951</v>
       </c>
-      <c r="E104" s="32" t="s">
+      <c r="F104" s="33" t="s">
         <v>952</v>
-      </c>
-      <c r="F104" s="33" t="s">
-        <v>953</v>
       </c>
       <c r="G104" s="6"/>
     </row>
     <row r="105" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A105" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>954</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>955</v>
       </c>
       <c r="C105" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D105" s="24"/>
       <c r="E105" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="F105" s="33" t="s">
         <v>956</v>
-      </c>
-      <c r="F105" s="33" t="s">
-        <v>957</v>
       </c>
       <c r="G105" s="6"/>
     </row>
@@ -14953,14 +14953,14 @@
       <c r="A106" s="25"/>
       <c r="B106" s="11"/>
       <c r="C106" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D106" s="24"/>
       <c r="E106" s="32" t="s">
+        <v>957</v>
+      </c>
+      <c r="F106" s="33" t="s">
         <v>958</v>
-      </c>
-      <c r="F106" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="G106" s="6"/>
     </row>
@@ -14968,16 +14968,16 @@
       <c r="A107" s="25"/>
       <c r="B107" s="11"/>
       <c r="C107" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D107" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="E107" s="32" t="s">
+        <v>959</v>
+      </c>
+      <c r="F107" s="33" t="s">
         <v>735</v>
-      </c>
-      <c r="E107" s="32" t="s">
-        <v>960</v>
-      </c>
-      <c r="F107" s="33" t="s">
-        <v>736</v>
       </c>
       <c r="G107" s="6"/>
     </row>
@@ -14986,13 +14986,13 @@
       <c r="B108" s="11"/>
       <c r="C108" s="26"/>
       <c r="D108" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="E108" s="32" t="s">
         <v>961</v>
       </c>
-      <c r="E108" s="32" t="s">
+      <c r="F108" s="33" t="s">
         <v>962</v>
-      </c>
-      <c r="F108" s="33" t="s">
-        <v>963</v>
       </c>
       <c r="G108" s="6"/>
     </row>
@@ -15001,32 +15001,32 @@
       <c r="B109" s="11"/>
       <c r="C109" s="26"/>
       <c r="D109" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E109" s="32" t="s">
         <v>964</v>
       </c>
-      <c r="E109" s="32" t="s">
+      <c r="F109" s="33" t="s">
         <v>965</v>
-      </c>
-      <c r="F109" s="33" t="s">
-        <v>966</v>
       </c>
       <c r="G109" s="6"/>
     </row>
     <row r="110" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A110" s="22" t="s">
+        <v>966</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>967</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>968</v>
       </c>
       <c r="C110" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D110" s="24"/>
       <c r="E110" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="F110" s="33" t="s">
         <v>969</v>
-      </c>
-      <c r="F110" s="33" t="s">
-        <v>970</v>
       </c>
       <c r="G110" s="6"/>
     </row>
@@ -15034,14 +15034,14 @@
       <c r="A111" s="25"/>
       <c r="B111" s="11"/>
       <c r="C111" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D111" s="24"/>
       <c r="E111" s="32" t="s">
+        <v>970</v>
+      </c>
+      <c r="F111" s="33" t="s">
         <v>971</v>
-      </c>
-      <c r="F111" s="33" t="s">
-        <v>972</v>
       </c>
       <c r="G111" s="6"/>
     </row>
@@ -15049,16 +15049,16 @@
       <c r="A112" s="25"/>
       <c r="B112" s="11"/>
       <c r="C112" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D112" s="27" t="s">
+        <v>972</v>
+      </c>
+      <c r="E112" s="32" t="s">
         <v>973</v>
       </c>
-      <c r="E112" s="32" t="s">
+      <c r="F112" s="33" t="s">
         <v>974</v>
-      </c>
-      <c r="F112" s="33" t="s">
-        <v>975</v>
       </c>
       <c r="G112" s="6"/>
     </row>
@@ -15067,13 +15067,13 @@
       <c r="B113" s="11"/>
       <c r="C113" s="26"/>
       <c r="D113" s="27" t="s">
+        <v>975</v>
+      </c>
+      <c r="E113" s="32" t="s">
         <v>976</v>
       </c>
-      <c r="E113" s="32" t="s">
+      <c r="F113" s="33" t="s">
         <v>977</v>
-      </c>
-      <c r="F113" s="33" t="s">
-        <v>978</v>
       </c>
       <c r="G113" s="6"/>
     </row>
@@ -15082,13 +15082,13 @@
       <c r="B114" s="11"/>
       <c r="C114" s="26"/>
       <c r="D114" s="27" t="s">
+        <v>978</v>
+      </c>
+      <c r="E114" s="32" t="s">
         <v>979</v>
       </c>
-      <c r="E114" s="32" t="s">
+      <c r="F114" s="33" t="s">
         <v>980</v>
-      </c>
-      <c r="F114" s="33" t="s">
-        <v>981</v>
       </c>
       <c r="G114" s="6"/>
     </row>
@@ -15097,13 +15097,13 @@
       <c r="B115" s="11"/>
       <c r="C115" s="26"/>
       <c r="D115" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="E115" s="32" t="s">
         <v>982</v>
       </c>
-      <c r="E115" s="32" t="s">
+      <c r="F115" s="33" t="s">
         <v>983</v>
-      </c>
-      <c r="F115" s="33" t="s">
-        <v>984</v>
       </c>
       <c r="G115" s="6"/>
     </row>
@@ -15112,30 +15112,30 @@
       <c r="B116" s="11"/>
       <c r="C116" s="26"/>
       <c r="D116" s="27" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E116" s="32"/>
       <c r="F116" s="33" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G116" s="6"/>
     </row>
     <row r="117" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A117" s="22" t="s">
+        <v>986</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>987</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>988</v>
       </c>
       <c r="C117" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D117" s="24"/>
       <c r="E117" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="F117" s="33" t="s">
         <v>989</v>
-      </c>
-      <c r="F117" s="33" t="s">
-        <v>990</v>
       </c>
       <c r="G117" s="6"/>
     </row>
@@ -15143,14 +15143,14 @@
       <c r="A118" s="25"/>
       <c r="B118" s="11"/>
       <c r="C118" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D118" s="24"/>
       <c r="E118" s="32" t="s">
+        <v>990</v>
+      </c>
+      <c r="F118" s="33" t="s">
         <v>991</v>
-      </c>
-      <c r="F118" s="33" t="s">
-        <v>992</v>
       </c>
       <c r="G118" s="6"/>
     </row>
@@ -15158,16 +15158,16 @@
       <c r="A119" s="25"/>
       <c r="B119" s="11"/>
       <c r="C119" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D119" s="27" t="s">
+        <v>992</v>
+      </c>
+      <c r="E119" s="32" t="s">
         <v>993</v>
       </c>
-      <c r="E119" s="32" t="s">
+      <c r="F119" s="33" t="s">
         <v>994</v>
-      </c>
-      <c r="F119" s="33" t="s">
-        <v>995</v>
       </c>
       <c r="G119" s="6"/>
     </row>
@@ -15176,13 +15176,13 @@
       <c r="B120" s="11"/>
       <c r="C120" s="26"/>
       <c r="D120" s="27" t="s">
+        <v>995</v>
+      </c>
+      <c r="E120" s="32" t="s">
         <v>996</v>
       </c>
-      <c r="E120" s="32" t="s">
+      <c r="F120" s="33" t="s">
         <v>997</v>
-      </c>
-      <c r="F120" s="33" t="s">
-        <v>998</v>
       </c>
       <c r="G120" s="6"/>
     </row>
@@ -15191,13 +15191,13 @@
       <c r="B121" s="11"/>
       <c r="C121" s="26"/>
       <c r="D121" s="27" t="s">
+        <v>998</v>
+      </c>
+      <c r="E121" s="32" t="s">
         <v>999</v>
       </c>
-      <c r="E121" s="32" t="s">
+      <c r="F121" s="33" t="s">
         <v>1000</v>
-      </c>
-      <c r="F121" s="33" t="s">
-        <v>1001</v>
       </c>
       <c r="G121" s="6"/>
     </row>
@@ -15206,13 +15206,13 @@
       <c r="B122" s="11"/>
       <c r="C122" s="26"/>
       <c r="D122" s="27" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E122" s="32" t="s">
         <v>1002</v>
       </c>
-      <c r="E122" s="32" t="s">
+      <c r="F122" s="33" t="s">
         <v>1003</v>
-      </c>
-      <c r="F122" s="33" t="s">
-        <v>1004</v>
       </c>
       <c r="G122" s="6"/>
     </row>
@@ -15221,13 +15221,13 @@
       <c r="B123" s="11"/>
       <c r="C123" s="26"/>
       <c r="D123" s="35" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E123" s="38" t="s">
         <v>1005</v>
       </c>
-      <c r="E123" s="38" t="s">
+      <c r="F123" s="33" t="s">
         <v>1006</v>
-      </c>
-      <c r="F123" s="33" t="s">
-        <v>1007</v>
       </c>
       <c r="G123" s="6"/>
     </row>
@@ -15237,10 +15237,10 @@
       <c r="C124" s="26"/>
       <c r="D124" s="36"/>
       <c r="E124" s="38" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F124" s="33" t="s">
         <v>1008</v>
-      </c>
-      <c r="F124" s="33" t="s">
-        <v>1009</v>
       </c>
       <c r="G124" s="6"/>
     </row>
@@ -15250,10 +15250,10 @@
       <c r="C125" s="26"/>
       <c r="D125" s="36"/>
       <c r="E125" s="38" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F125" s="33" t="s">
         <v>1010</v>
-      </c>
-      <c r="F125" s="33" t="s">
-        <v>1011</v>
       </c>
       <c r="G125" s="6"/>
     </row>
@@ -15263,10 +15263,10 @@
       <c r="C126" s="26"/>
       <c r="D126" s="36"/>
       <c r="E126" s="38" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F126" s="33" t="s">
         <v>1012</v>
-      </c>
-      <c r="F126" s="33" t="s">
-        <v>1013</v>
       </c>
       <c r="G126" s="6"/>
     </row>
@@ -15276,10 +15276,10 @@
       <c r="C127" s="26"/>
       <c r="D127" s="36"/>
       <c r="E127" s="38" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F127" s="33" t="s">
         <v>1014</v>
-      </c>
-      <c r="F127" s="33" t="s">
-        <v>1015</v>
       </c>
       <c r="G127" s="6"/>
     </row>
@@ -15289,26 +15289,26 @@
       <c r="C128" s="26"/>
       <c r="D128" s="37"/>
       <c r="E128" s="38" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F128" s="33" t="s">
         <v>1016</v>
-      </c>
-      <c r="F128" s="33" t="s">
-        <v>1017</v>
       </c>
       <c r="G128" s="6"/>
     </row>
     <row r="129" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A129" s="22" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>1018</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>1019</v>
       </c>
       <c r="C129" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D129" s="24"/>
       <c r="E129" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="6"/>
@@ -15317,11 +15317,11 @@
       <c r="A130" s="25"/>
       <c r="B130" s="11"/>
       <c r="C130" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D130" s="24"/>
       <c r="E130" s="32" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="6"/>
@@ -15330,10 +15330,10 @@
       <c r="A131" s="25"/>
       <c r="B131" s="11"/>
       <c r="C131" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D131" s="27" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E131" s="32"/>
       <c r="F131" s="33"/>
@@ -15344,10 +15344,10 @@
       <c r="B132" s="11"/>
       <c r="C132" s="26"/>
       <c r="D132" s="27" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E132" s="32" t="s">
         <v>1023</v>
-      </c>
-      <c r="E132" s="32" t="s">
-        <v>1024</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="6"/>
@@ -15357,10 +15357,10 @@
       <c r="B133" s="11"/>
       <c r="C133" s="26"/>
       <c r="D133" s="27" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E133" s="32" t="s">
         <v>1025</v>
-      </c>
-      <c r="E133" s="32" t="s">
-        <v>1026</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="6"/>
@@ -15370,10 +15370,10 @@
       <c r="B134" s="11"/>
       <c r="C134" s="26"/>
       <c r="D134" s="27" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E134" s="32" t="s">
         <v>1027</v>
-      </c>
-      <c r="E134" s="32" t="s">
-        <v>1028</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="6"/>
@@ -15383,7 +15383,7 @@
       <c r="B135" s="11"/>
       <c r="C135" s="26"/>
       <c r="D135" s="27" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E135" s="32"/>
       <c r="F135" s="33"/>
@@ -15394,7 +15394,7 @@
       <c r="B136" s="11"/>
       <c r="C136" s="26"/>
       <c r="D136" s="27" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E136" s="32"/>
       <c r="F136" s="33"/>
@@ -15405,27 +15405,27 @@
       <c r="B137" s="11"/>
       <c r="C137" s="26"/>
       <c r="D137" s="27" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E137" s="32" t="s">
         <v>1031</v>
-      </c>
-      <c r="E137" s="32" t="s">
-        <v>1032</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="6"/>
     </row>
     <row r="138" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A138" s="22" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>1033</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>1034</v>
       </c>
       <c r="C138" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D138" s="24"/>
       <c r="E138" s="7" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="6"/>
@@ -15434,11 +15434,11 @@
       <c r="A139" s="25"/>
       <c r="B139" s="11"/>
       <c r="C139" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D139" s="24"/>
       <c r="E139" s="32" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="6"/>
@@ -15447,13 +15447,13 @@
       <c r="A140" s="25"/>
       <c r="B140" s="11"/>
       <c r="C140" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D140" s="27" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E140" s="32" t="s">
         <v>1037</v>
-      </c>
-      <c r="E140" s="32" t="s">
-        <v>1038</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="6"/>
@@ -15463,10 +15463,10 @@
       <c r="B141" s="11"/>
       <c r="C141" s="26"/>
       <c r="D141" s="27" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E141" s="32" t="s">
         <v>1039</v>
-      </c>
-      <c r="E141" s="32" t="s">
-        <v>1040</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="6"/>
@@ -15476,7 +15476,7 @@
       <c r="B142" s="11"/>
       <c r="C142" s="26"/>
       <c r="D142" s="27" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E142" s="32"/>
       <c r="F142" s="33"/>
@@ -15487,27 +15487,27 @@
       <c r="B143" s="11"/>
       <c r="C143" s="26"/>
       <c r="D143" s="27" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E143" s="32" t="s">
         <v>1042</v>
-      </c>
-      <c r="E143" s="32" t="s">
-        <v>1043</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="6"/>
     </row>
     <row r="144" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A144" s="22" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>1044</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>1045</v>
       </c>
       <c r="C144" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D144" s="24"/>
       <c r="E144" s="7" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="6"/>
@@ -15516,28 +15516,28 @@
       <c r="A145" s="25"/>
       <c r="B145" s="11"/>
       <c r="C145" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D145" s="24"/>
       <c r="E145" s="32" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="6"/>
     </row>
     <row r="146" s="1" customFormat="1" ht="62" customHeight="1" spans="1:7">
       <c r="A146" s="22" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>1048</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>1049</v>
       </c>
       <c r="C146" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D146" s="24"/>
       <c r="E146" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="6"/>
@@ -15546,11 +15546,11 @@
       <c r="A147" s="25"/>
       <c r="B147" s="11"/>
       <c r="C147" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D147" s="24"/>
       <c r="E147" s="32" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="6"/>
@@ -15559,13 +15559,13 @@
       <c r="A148" s="25"/>
       <c r="B148" s="11"/>
       <c r="C148" s="29" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D148" s="27" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E148" s="32" t="s">
         <v>1052</v>
-      </c>
-      <c r="E148" s="32" t="s">
-        <v>1053</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="6"/>
@@ -15575,10 +15575,10 @@
       <c r="B149" s="11"/>
       <c r="C149" s="30"/>
       <c r="D149" s="27" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E149" s="32" t="s">
         <v>1054</v>
-      </c>
-      <c r="E149" s="32" t="s">
-        <v>1055</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="6"/>
@@ -15588,27 +15588,27 @@
       <c r="B150" s="11"/>
       <c r="C150" s="31"/>
       <c r="D150" s="27" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E150" s="32" t="s">
         <v>1056</v>
-      </c>
-      <c r="E150" s="32" t="s">
-        <v>1057</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="6"/>
     </row>
     <row r="151" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A151" s="22" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B151" s="9" t="s">
         <v>1058</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>1059</v>
       </c>
       <c r="C151" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D151" s="24"/>
       <c r="E151" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F151" s="33"/>
       <c r="G151" s="6"/>
@@ -15617,11 +15617,11 @@
       <c r="A152" s="25"/>
       <c r="B152" s="11"/>
       <c r="C152" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D152" s="24"/>
       <c r="E152" s="32" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="6"/>
@@ -15630,10 +15630,10 @@
       <c r="A153" s="25"/>
       <c r="B153" s="11"/>
       <c r="C153" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="33"/>
@@ -15644,11 +15644,11 @@
       <c r="B154" s="11"/>
       <c r="C154" s="26"/>
       <c r="D154" s="27" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E154" s="32"/>
       <c r="F154" s="33" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G154" s="6"/>
     </row>
@@ -15657,7 +15657,7 @@
       <c r="B155" s="11"/>
       <c r="C155" s="26"/>
       <c r="D155" s="27" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="33"/>
@@ -15668,10 +15668,10 @@
       <c r="B156" s="11"/>
       <c r="C156" s="26"/>
       <c r="D156" s="27" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E156" s="32" t="s">
         <v>1066</v>
-      </c>
-      <c r="E156" s="32" t="s">
-        <v>1067</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="6"/>
@@ -15681,7 +15681,7 @@
       <c r="B157" s="11"/>
       <c r="C157" s="26"/>
       <c r="D157" s="27" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E157" s="32"/>
       <c r="F157" s="33"/>
@@ -15692,7 +15692,7 @@
       <c r="B158" s="11"/>
       <c r="C158" s="26"/>
       <c r="D158" s="27" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="33"/>
@@ -15700,17 +15700,17 @@
     </row>
     <row r="159" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A159" s="22" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B159" s="9" t="s">
         <v>1070</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>1071</v>
       </c>
       <c r="C159" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D159" s="24"/>
       <c r="E159" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="6"/>
@@ -15719,11 +15719,11 @@
       <c r="A160" s="25"/>
       <c r="B160" s="11"/>
       <c r="C160" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D160" s="24"/>
       <c r="E160" s="32" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="6"/>
@@ -15732,13 +15732,13 @@
       <c r="A161" s="25"/>
       <c r="B161" s="11"/>
       <c r="C161" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D161" s="27" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E161" s="32" t="s">
         <v>1074</v>
-      </c>
-      <c r="E161" s="32" t="s">
-        <v>1075</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="6"/>
@@ -15748,10 +15748,10 @@
       <c r="B162" s="11"/>
       <c r="C162" s="26"/>
       <c r="D162" s="27" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E162" s="32" t="s">
         <v>1076</v>
-      </c>
-      <c r="E162" s="32" t="s">
-        <v>1077</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="6"/>
@@ -15761,7 +15761,7 @@
       <c r="B163" s="11"/>
       <c r="C163" s="26"/>
       <c r="D163" s="27" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E163" s="32"/>
       <c r="F163" s="33"/>
@@ -15769,17 +15769,17 @@
     </row>
     <row r="164" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A164" s="22" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B164" s="9" t="s">
         <v>1079</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>1080</v>
       </c>
       <c r="C164" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D164" s="24"/>
       <c r="E164" s="7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="6"/>
@@ -15788,11 +15788,11 @@
       <c r="A165" s="25"/>
       <c r="B165" s="11"/>
       <c r="C165" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D165" s="24"/>
       <c r="E165" s="32" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="6"/>
@@ -15801,7 +15801,7 @@
       <c r="A166" s="25"/>
       <c r="B166" s="11"/>
       <c r="C166" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="32"/>
@@ -15819,17 +15819,17 @@
     </row>
     <row r="168" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A168" s="22" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B168" s="9" t="s">
         <v>1083</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>1084</v>
       </c>
       <c r="C168" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D168" s="24"/>
       <c r="E168" s="7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="6"/>
@@ -15838,11 +15838,11 @@
       <c r="A169" s="25"/>
       <c r="B169" s="11"/>
       <c r="C169" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D169" s="24"/>
       <c r="E169" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="6"/>
@@ -15851,13 +15851,13 @@
       <c r="A170" s="25"/>
       <c r="B170" s="11"/>
       <c r="C170" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D170" s="27" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E170" s="32" t="s">
         <v>1087</v>
-      </c>
-      <c r="E170" s="32" t="s">
-        <v>1088</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="6"/>
@@ -15867,10 +15867,10 @@
       <c r="B171" s="11"/>
       <c r="C171" s="26"/>
       <c r="D171" s="27" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E171" s="32" t="s">
         <v>1089</v>
-      </c>
-      <c r="E171" s="32" t="s">
-        <v>1090</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="6"/>
@@ -15880,10 +15880,10 @@
       <c r="B172" s="11"/>
       <c r="C172" s="26"/>
       <c r="D172" s="27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E172" s="32" t="s">
         <v>1091</v>
-      </c>
-      <c r="E172" s="32" t="s">
-        <v>1092</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="6"/>
@@ -15893,7 +15893,7 @@
       <c r="B173" s="11"/>
       <c r="C173" s="26"/>
       <c r="D173" s="27" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E173" s="32"/>
       <c r="F173" s="33"/>
@@ -15901,17 +15901,17 @@
     </row>
     <row r="174" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A174" s="22" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B174" s="9" t="s">
         <v>1094</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>1095</v>
       </c>
       <c r="C174" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D174" s="24"/>
       <c r="E174" s="7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="6"/>
@@ -15920,11 +15920,11 @@
       <c r="A175" s="25"/>
       <c r="B175" s="11"/>
       <c r="C175" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D175" s="24"/>
       <c r="E175" s="32" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="6"/>
@@ -15933,10 +15933,10 @@
       <c r="A176" s="25"/>
       <c r="B176" s="11"/>
       <c r="C176" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E176" s="32"/>
       <c r="F176" s="33"/>
@@ -15947,7 +15947,7 @@
       <c r="B177" s="11"/>
       <c r="C177" s="26"/>
       <c r="D177" s="27" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E177" s="32"/>
       <c r="F177" s="33"/>
@@ -15958,7 +15958,7 @@
       <c r="B178" s="11"/>
       <c r="C178" s="26"/>
       <c r="D178" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E178" s="32"/>
       <c r="F178" s="33"/>
@@ -15969,7 +15969,7 @@
       <c r="B179" s="11"/>
       <c r="C179" s="26"/>
       <c r="D179" s="27" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E179" s="32"/>
       <c r="F179" s="33"/>
@@ -15980,7 +15980,7 @@
       <c r="B180" s="11"/>
       <c r="C180" s="26"/>
       <c r="D180" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E180" s="32"/>
       <c r="F180" s="33"/>
@@ -15991,7 +15991,7 @@
       <c r="B181" s="11"/>
       <c r="C181" s="26"/>
       <c r="D181" s="27" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E181" s="32"/>
       <c r="F181" s="33"/>
@@ -16002,7 +16002,7 @@
       <c r="B182" s="11"/>
       <c r="C182" s="26"/>
       <c r="D182" s="27" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E182" s="32"/>
       <c r="F182" s="33"/>
@@ -16010,17 +16010,17 @@
     </row>
     <row r="183" s="1" customFormat="1" ht="58" customHeight="1" spans="1:7">
       <c r="A183" s="22" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B183" s="9" t="s">
         <v>1105</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>1106</v>
       </c>
       <c r="C183" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D183" s="24"/>
       <c r="E183" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F183" s="33"/>
       <c r="G183" s="6"/>
@@ -16029,11 +16029,11 @@
       <c r="A184" s="25"/>
       <c r="B184" s="11"/>
       <c r="C184" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D184" s="24"/>
       <c r="E184" s="32" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F184" s="33"/>
       <c r="G184" s="6"/>
@@ -16042,13 +16042,13 @@
       <c r="A185" s="25"/>
       <c r="B185" s="11"/>
       <c r="C185" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D185" s="27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E185" s="32" t="s">
         <v>1109</v>
-      </c>
-      <c r="E185" s="32" t="s">
-        <v>1110</v>
       </c>
       <c r="F185" s="33"/>
       <c r="G185" s="6"/>
@@ -16058,7 +16058,7 @@
       <c r="B186" s="11"/>
       <c r="C186" s="26"/>
       <c r="D186" s="27" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E186" s="32"/>
       <c r="F186" s="33"/>
@@ -16069,7 +16069,7 @@
       <c r="B187" s="11"/>
       <c r="C187" s="26"/>
       <c r="D187" s="27" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E187" s="32"/>
       <c r="F187" s="33"/>
@@ -16077,17 +16077,17 @@
     </row>
     <row r="188" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A188" s="22" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B188" s="9" t="s">
         <v>1113</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>1114</v>
       </c>
       <c r="C188" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D188" s="24"/>
       <c r="E188" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="6"/>
@@ -16096,11 +16096,11 @@
       <c r="A189" s="25"/>
       <c r="B189" s="11"/>
       <c r="C189" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D189" s="24"/>
       <c r="E189" s="32" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="6"/>
@@ -16109,10 +16109,10 @@
       <c r="A190" s="25"/>
       <c r="B190" s="11"/>
       <c r="C190" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E190" s="32"/>
       <c r="F190" s="33"/>
@@ -16123,7 +16123,7 @@
       <c r="B191" s="11"/>
       <c r="C191" s="26"/>
       <c r="D191" s="27" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E191" s="32"/>
       <c r="F191" s="33"/>
@@ -16134,7 +16134,7 @@
       <c r="B192" s="11"/>
       <c r="C192" s="26"/>
       <c r="D192" s="27" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E192" s="32"/>
       <c r="F192" s="33"/>
@@ -16145,7 +16145,7 @@
       <c r="B193" s="11"/>
       <c r="C193" s="26"/>
       <c r="D193" s="27" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E193" s="32"/>
       <c r="F193" s="33"/>
@@ -16153,17 +16153,17 @@
     </row>
     <row r="194" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A194" s="22" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B194" s="9" t="s">
         <v>1121</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>1122</v>
       </c>
       <c r="C194" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D194" s="24"/>
       <c r="E194" s="7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F194" s="33"/>
       <c r="G194" s="6"/>
@@ -16172,11 +16172,11 @@
       <c r="A195" s="25"/>
       <c r="B195" s="11"/>
       <c r="C195" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D195" s="24"/>
       <c r="E195" s="32" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="6"/>
@@ -16185,13 +16185,13 @@
       <c r="A196" s="25"/>
       <c r="B196" s="11"/>
       <c r="C196" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D196" s="27" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E196" s="32" t="s">
         <v>1125</v>
-      </c>
-      <c r="E196" s="32" t="s">
-        <v>1126</v>
       </c>
       <c r="F196" s="33"/>
       <c r="G196" s="6"/>
@@ -16201,10 +16201,10 @@
       <c r="B197" s="11"/>
       <c r="C197" s="26"/>
       <c r="D197" s="27" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E197" s="32" t="s">
         <v>1127</v>
-      </c>
-      <c r="E197" s="32" t="s">
-        <v>1128</v>
       </c>
       <c r="F197" s="33"/>
       <c r="G197" s="6"/>
@@ -16214,10 +16214,10 @@
       <c r="B198" s="11"/>
       <c r="C198" s="26"/>
       <c r="D198" s="27" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E198" s="32" t="s">
         <v>1129</v>
-      </c>
-      <c r="E198" s="32" t="s">
-        <v>1130</v>
       </c>
       <c r="F198" s="33"/>
       <c r="G198" s="6"/>
@@ -16227,10 +16227,10 @@
       <c r="B199" s="11"/>
       <c r="C199" s="26"/>
       <c r="D199" s="27" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E199" s="32" t="s">
         <v>1131</v>
-      </c>
-      <c r="E199" s="32" t="s">
-        <v>1132</v>
       </c>
       <c r="F199" s="33"/>
       <c r="G199" s="6"/>
@@ -16240,7 +16240,7 @@
       <c r="B200" s="11"/>
       <c r="C200" s="26"/>
       <c r="D200" s="27" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E200" s="32"/>
       <c r="F200" s="33"/>
@@ -16248,17 +16248,17 @@
     </row>
     <row r="201" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A201" s="22" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C201" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D201" s="24"/>
       <c r="E201" s="7" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F201" s="33"/>
       <c r="G201" s="6"/>
@@ -16267,11 +16267,11 @@
       <c r="A202" s="25"/>
       <c r="B202" s="11"/>
       <c r="C202" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D202" s="24"/>
       <c r="E202" s="32" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F202" s="33"/>
       <c r="G202" s="6"/>
@@ -16280,13 +16280,13 @@
       <c r="A203" s="25"/>
       <c r="B203" s="11"/>
       <c r="C203" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D203" s="27" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E203" s="32" t="s">
         <v>1137</v>
-      </c>
-      <c r="E203" s="32" t="s">
-        <v>1138</v>
       </c>
       <c r="F203" s="33"/>
       <c r="G203" s="6"/>
@@ -16296,10 +16296,10 @@
       <c r="B204" s="11"/>
       <c r="C204" s="26"/>
       <c r="D204" s="27" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E204" s="32" t="s">
         <v>1139</v>
-      </c>
-      <c r="E204" s="32" t="s">
-        <v>1140</v>
       </c>
       <c r="F204" s="33"/>
       <c r="G204" s="6"/>
@@ -16309,10 +16309,10 @@
       <c r="B205" s="11"/>
       <c r="C205" s="26"/>
       <c r="D205" s="27" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E205" s="32" t="s">
         <v>1141</v>
-      </c>
-      <c r="E205" s="32" t="s">
-        <v>1142</v>
       </c>
       <c r="F205" s="33"/>
       <c r="G205" s="6"/>
@@ -16322,27 +16322,27 @@
       <c r="B206" s="11"/>
       <c r="C206" s="26"/>
       <c r="D206" s="27" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E206" s="32" t="s">
         <v>1143</v>
-      </c>
-      <c r="E206" s="32" t="s">
-        <v>1144</v>
       </c>
       <c r="F206" s="33"/>
       <c r="G206" s="6"/>
     </row>
     <row r="207" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A207" s="22" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B207" s="9" t="s">
         <v>1145</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>1146</v>
       </c>
       <c r="C207" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D207" s="24"/>
       <c r="E207" s="7" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="6"/>
@@ -16351,14 +16351,14 @@
       <c r="A208" s="25"/>
       <c r="B208" s="11"/>
       <c r="C208" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D208" s="24"/>
       <c r="E208" s="38" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F208" s="33" t="s">
         <v>1148</v>
-      </c>
-      <c r="F208" s="33" t="s">
-        <v>1149</v>
       </c>
       <c r="G208" s="6"/>
     </row>
@@ -16366,13 +16366,13 @@
       <c r="A209" s="25"/>
       <c r="B209" s="11"/>
       <c r="C209" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D209" s="27" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E209" s="32" t="s">
         <v>1150</v>
-      </c>
-      <c r="E209" s="32" t="s">
-        <v>1151</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="6"/>
@@ -16382,10 +16382,10 @@
       <c r="B210" s="11"/>
       <c r="C210" s="26"/>
       <c r="D210" s="27" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E210" s="32" t="s">
         <v>1152</v>
-      </c>
-      <c r="E210" s="32" t="s">
-        <v>1153</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="6"/>
@@ -16395,10 +16395,10 @@
       <c r="B211" s="11"/>
       <c r="C211" s="26"/>
       <c r="D211" s="27" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E211" s="32" t="s">
         <v>1154</v>
-      </c>
-      <c r="E211" s="32" t="s">
-        <v>1155</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="6"/>
@@ -16408,27 +16408,27 @@
       <c r="B212" s="11"/>
       <c r="C212" s="26"/>
       <c r="D212" s="27" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E212" s="32" t="s">
         <v>1156</v>
-      </c>
-      <c r="E212" s="32" t="s">
-        <v>1157</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="6"/>
     </row>
     <row r="213" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A213" s="22" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B213" s="9" t="s">
         <v>1158</v>
-      </c>
-      <c r="B213" s="9" t="s">
-        <v>1159</v>
       </c>
       <c r="C213" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D213" s="24"/>
       <c r="E213" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="6"/>
@@ -16437,11 +16437,11 @@
       <c r="A214" s="25"/>
       <c r="B214" s="11"/>
       <c r="C214" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D214" s="24"/>
       <c r="E214" s="32" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="6"/>
@@ -16450,13 +16450,13 @@
       <c r="A215" s="25"/>
       <c r="B215" s="11"/>
       <c r="C215" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D215" s="27" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E215" s="38" t="s">
         <v>1162</v>
-      </c>
-      <c r="E215" s="38" t="s">
-        <v>1163</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="6"/>
@@ -16466,13 +16466,13 @@
       <c r="B216" s="11"/>
       <c r="C216" s="26"/>
       <c r="D216" s="27" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E216" s="32" t="s">
         <v>1164</v>
       </c>
-      <c r="E216" s="32" t="s">
+      <c r="F216" s="33" t="s">
         <v>1165</v>
-      </c>
-      <c r="F216" s="33" t="s">
-        <v>1166</v>
       </c>
       <c r="G216" s="6"/>
     </row>
@@ -16481,13 +16481,13 @@
       <c r="B217" s="11"/>
       <c r="C217" s="26"/>
       <c r="D217" s="27" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E217" s="32" t="s">
         <v>1167</v>
       </c>
-      <c r="E217" s="32" t="s">
+      <c r="F217" s="33" t="s">
         <v>1168</v>
-      </c>
-      <c r="F217" s="33" t="s">
-        <v>1169</v>
       </c>
       <c r="G217" s="6"/>
     </row>
@@ -16496,29 +16496,29 @@
       <c r="B218" s="11"/>
       <c r="C218" s="26"/>
       <c r="D218" s="27" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E218" s="32" t="s">
         <v>1170</v>
       </c>
-      <c r="E218" s="32" t="s">
+      <c r="F218" s="33" t="s">
         <v>1171</v>
-      </c>
-      <c r="F218" s="33" t="s">
-        <v>1172</v>
       </c>
       <c r="G218" s="6"/>
     </row>
     <row r="219" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A219" s="22" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B219" s="9" t="s">
         <v>1173</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>1174</v>
       </c>
       <c r="C219" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D219" s="24"/>
       <c r="E219" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F219" s="33"/>
       <c r="G219" s="6"/>
@@ -16527,11 +16527,11 @@
       <c r="A220" s="25"/>
       <c r="B220" s="11"/>
       <c r="C220" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D220" s="24"/>
       <c r="E220" s="32" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F220" s="33"/>
       <c r="G220" s="6"/>
@@ -16540,13 +16540,13 @@
       <c r="A221" s="25"/>
       <c r="B221" s="11"/>
       <c r="C221" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D221" s="27" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E221" s="32" t="s">
         <v>1177</v>
-      </c>
-      <c r="E221" s="32" t="s">
-        <v>1178</v>
       </c>
       <c r="F221" s="33"/>
       <c r="G221" s="6"/>
@@ -16556,10 +16556,10 @@
       <c r="B222" s="11"/>
       <c r="C222" s="26"/>
       <c r="D222" s="27" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E222" s="32" t="s">
         <v>1179</v>
-      </c>
-      <c r="E222" s="32" t="s">
-        <v>1180</v>
       </c>
       <c r="F222" s="33"/>
       <c r="G222" s="6"/>
@@ -16569,27 +16569,27 @@
       <c r="B223" s="11"/>
       <c r="C223" s="26"/>
       <c r="D223" s="27" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E223" s="32" t="s">
         <v>1181</v>
-      </c>
-      <c r="E223" s="32" t="s">
-        <v>1182</v>
       </c>
       <c r="F223" s="33"/>
       <c r="G223" s="6"/>
     </row>
     <row r="224" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A224" s="22" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B224" s="9" t="s">
         <v>1183</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>1184</v>
       </c>
       <c r="C224" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D224" s="24"/>
       <c r="E224" s="7" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F224" s="33"/>
       <c r="G224" s="6"/>
@@ -16598,11 +16598,11 @@
       <c r="A225" s="25"/>
       <c r="B225" s="11"/>
       <c r="C225" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D225" s="24"/>
       <c r="E225" s="32" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F225" s="33"/>
       <c r="G225" s="6"/>
@@ -16611,13 +16611,13 @@
       <c r="A226" s="25"/>
       <c r="B226" s="11"/>
       <c r="C226" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D226" s="27" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E226" s="32" t="s">
         <v>1187</v>
-      </c>
-      <c r="E226" s="32" t="s">
-        <v>1188</v>
       </c>
       <c r="F226" s="33"/>
       <c r="G226" s="6"/>
@@ -16630,7 +16630,7 @@
         <v>132</v>
       </c>
       <c r="E227" s="32" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F227" s="33"/>
       <c r="G227" s="6"/>
@@ -16640,27 +16640,27 @@
       <c r="B228" s="11"/>
       <c r="C228" s="26"/>
       <c r="D228" s="27" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E228" s="32" t="s">
         <v>1190</v>
-      </c>
-      <c r="E228" s="32" t="s">
-        <v>1191</v>
       </c>
       <c r="F228" s="33"/>
       <c r="G228" s="6"/>
     </row>
     <row r="229" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A229" s="22" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B229" s="9" t="s">
         <v>1192</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>1193</v>
       </c>
       <c r="C229" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D229" s="24"/>
       <c r="E229" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F229" s="33"/>
       <c r="G229" s="6"/>
@@ -16669,11 +16669,11 @@
       <c r="A230" s="25"/>
       <c r="B230" s="11"/>
       <c r="C230" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D230" s="24"/>
       <c r="E230" s="32" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F230" s="33"/>
       <c r="G230" s="6"/>
@@ -16682,13 +16682,13 @@
       <c r="A231" s="25"/>
       <c r="B231" s="11"/>
       <c r="C231" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D231" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E231" s="32" t="s">
         <v>1196</v>
-      </c>
-      <c r="E231" s="32" t="s">
-        <v>1197</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="6"/>
@@ -16698,10 +16698,10 @@
       <c r="B232" s="11"/>
       <c r="C232" s="26"/>
       <c r="D232" s="27" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E232" s="32" t="s">
         <v>1198</v>
-      </c>
-      <c r="E232" s="32" t="s">
-        <v>1199</v>
       </c>
       <c r="F232" s="33"/>
       <c r="G232" s="6"/>
@@ -16711,10 +16711,10 @@
       <c r="B233" s="11"/>
       <c r="C233" s="26"/>
       <c r="D233" s="27" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E233" s="32" t="s">
         <v>1200</v>
-      </c>
-      <c r="E233" s="32" t="s">
-        <v>1201</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="6"/>
@@ -16724,27 +16724,27 @@
       <c r="B234" s="11"/>
       <c r="C234" s="26"/>
       <c r="D234" s="27" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E234" s="38" t="s">
         <v>1202</v>
-      </c>
-      <c r="E234" s="38" t="s">
-        <v>1203</v>
       </c>
       <c r="F234" s="33"/>
       <c r="G234" s="6"/>
     </row>
     <row r="235" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A235" s="22" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B235" s="9" t="s">
         <v>1204</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>1205</v>
       </c>
       <c r="C235" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D235" s="24"/>
       <c r="E235" s="7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F235" s="33"/>
       <c r="G235" s="6"/>
@@ -16753,11 +16753,11 @@
       <c r="A236" s="25"/>
       <c r="B236" s="11"/>
       <c r="C236" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D236" s="24"/>
       <c r="E236" s="32" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F236" s="33"/>
       <c r="G236" s="6"/>
@@ -16766,10 +16766,10 @@
       <c r="A237" s="25"/>
       <c r="B237" s="11"/>
       <c r="C237" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E237" s="32"/>
       <c r="F237" s="33"/>
@@ -16780,7 +16780,7 @@
       <c r="B238" s="11"/>
       <c r="C238" s="26"/>
       <c r="D238" s="27" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E238" s="32"/>
       <c r="F238" s="33"/>
@@ -16791,10 +16791,10 @@
       <c r="B239" s="11"/>
       <c r="C239" s="26"/>
       <c r="D239" s="27" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E239" s="32" t="s">
         <v>1210</v>
-      </c>
-      <c r="E239" s="32" t="s">
-        <v>1211</v>
       </c>
       <c r="F239" s="33"/>
       <c r="G239" s="6"/>
@@ -16804,27 +16804,27 @@
       <c r="B240" s="11"/>
       <c r="C240" s="26"/>
       <c r="D240" s="27" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E240" s="32" t="s">
         <v>1212</v>
-      </c>
-      <c r="E240" s="32" t="s">
-        <v>1213</v>
       </c>
       <c r="F240" s="33"/>
       <c r="G240" s="6"/>
     </row>
     <row r="241" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A241" s="22" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B241" s="9" t="s">
         <v>1214</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>1215</v>
       </c>
       <c r="C241" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D241" s="24"/>
       <c r="E241" s="7" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F241" s="33"/>
       <c r="G241" s="6"/>
@@ -16833,11 +16833,11 @@
       <c r="A242" s="25"/>
       <c r="B242" s="11"/>
       <c r="C242" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D242" s="24"/>
       <c r="E242" s="32" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F242" s="33"/>
       <c r="G242" s="6"/>
@@ -16846,10 +16846,10 @@
       <c r="A243" s="25"/>
       <c r="B243" s="11"/>
       <c r="C243" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D243" s="27" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E243" s="32"/>
       <c r="F243" s="33"/>
@@ -16860,7 +16860,7 @@
       <c r="B244" s="13"/>
       <c r="C244" s="26"/>
       <c r="D244" s="27" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E244" s="32"/>
       <c r="F244" s="33"/>
@@ -16868,17 +16868,17 @@
     </row>
     <row r="245" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A245" s="22" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B245" s="9" t="s">
         <v>1220</v>
-      </c>
-      <c r="B245" s="9" t="s">
-        <v>1221</v>
       </c>
       <c r="C245" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D245" s="24"/>
       <c r="E245" s="7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F245" s="33"/>
       <c r="G245" s="6"/>
@@ -16887,11 +16887,11 @@
       <c r="A246" s="25"/>
       <c r="B246" s="11"/>
       <c r="C246" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D246" s="24"/>
       <c r="E246" s="32" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F246" s="33"/>
       <c r="G246" s="6"/>
@@ -16900,10 +16900,10 @@
       <c r="A247" s="25"/>
       <c r="B247" s="11"/>
       <c r="C247" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D247" s="27" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E247" s="32"/>
       <c r="F247" s="33"/>
@@ -16914,7 +16914,7 @@
       <c r="B248" s="11"/>
       <c r="C248" s="26"/>
       <c r="D248" s="27" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E248" s="32"/>
       <c r="F248" s="33"/>
@@ -16925,10 +16925,10 @@
       <c r="B249" s="11"/>
       <c r="C249" s="26"/>
       <c r="D249" s="27" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E249" s="32" t="s">
         <v>1226</v>
-      </c>
-      <c r="E249" s="32" t="s">
-        <v>1227</v>
       </c>
       <c r="F249" s="33"/>
       <c r="G249" s="6"/>
@@ -16938,10 +16938,10 @@
       <c r="B250" s="11"/>
       <c r="C250" s="26"/>
       <c r="D250" s="27" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E250" s="32" t="s">
         <v>1228</v>
-      </c>
-      <c r="E250" s="32" t="s">
-        <v>1229</v>
       </c>
       <c r="F250" s="33"/>
       <c r="G250" s="6"/>
@@ -16951,7 +16951,7 @@
       <c r="B251" s="11"/>
       <c r="C251" s="26"/>
       <c r="D251" s="27" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E251" s="32"/>
       <c r="F251" s="33"/>
@@ -16962,7 +16962,7 @@
       <c r="B252" s="11"/>
       <c r="C252" s="26"/>
       <c r="D252" s="27" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E252" s="32"/>
       <c r="F252" s="33"/>
@@ -16970,17 +16970,17 @@
     </row>
     <row r="253" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A253" s="22" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B253" s="9" t="s">
         <v>1232</v>
-      </c>
-      <c r="B253" s="9" t="s">
-        <v>1233</v>
       </c>
       <c r="C253" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D253" s="24"/>
       <c r="E253" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F253" s="33"/>
       <c r="G253" s="6"/>
@@ -16989,14 +16989,14 @@
       <c r="A254" s="25"/>
       <c r="B254" s="11"/>
       <c r="C254" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D254" s="24"/>
       <c r="E254" s="32" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F254" s="33" t="s">
         <v>1235</v>
-      </c>
-      <c r="F254" s="33" t="s">
-        <v>1236</v>
       </c>
       <c r="G254" s="6"/>
     </row>
@@ -17004,13 +17004,13 @@
       <c r="A255" s="25"/>
       <c r="B255" s="11"/>
       <c r="C255" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D255" s="27" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E255" s="32" t="s">
         <v>1237</v>
-      </c>
-      <c r="E255" s="32" t="s">
-        <v>1238</v>
       </c>
       <c r="F255" s="33"/>
       <c r="G255" s="6"/>
@@ -17020,10 +17020,10 @@
       <c r="B256" s="11"/>
       <c r="C256" s="26"/>
       <c r="D256" s="27" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E256" s="32" t="s">
         <v>1239</v>
-      </c>
-      <c r="E256" s="32" t="s">
-        <v>1240</v>
       </c>
       <c r="F256" s="33"/>
       <c r="G256" s="6"/>
@@ -17033,27 +17033,27 @@
       <c r="B257" s="11"/>
       <c r="C257" s="26"/>
       <c r="D257" s="27" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E257" s="32" t="s">
         <v>1241</v>
-      </c>
-      <c r="E257" s="32" t="s">
-        <v>1242</v>
       </c>
       <c r="F257" s="33"/>
       <c r="G257" s="6"/>
     </row>
     <row r="258" s="1" customFormat="1" ht="65" customHeight="1" spans="1:7">
       <c r="A258" s="22" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B258" s="9" t="s">
         <v>1243</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>1244</v>
       </c>
       <c r="C258" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D258" s="24"/>
       <c r="E258" s="7" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F258" s="33"/>
       <c r="G258" s="6"/>
@@ -17062,11 +17062,11 @@
       <c r="A259" s="25"/>
       <c r="B259" s="11"/>
       <c r="C259" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D259" s="24"/>
       <c r="E259" s="32" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F259" s="33"/>
       <c r="G259" s="6"/>
@@ -17075,10 +17075,10 @@
       <c r="A260" s="25"/>
       <c r="B260" s="11"/>
       <c r="C260" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D260" s="27" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E260" s="32"/>
       <c r="F260" s="33"/>
@@ -17089,10 +17089,10 @@
       <c r="B261" s="11"/>
       <c r="C261" s="26"/>
       <c r="D261" s="27" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E261" s="32" t="s">
         <v>1248</v>
-      </c>
-      <c r="E261" s="32" t="s">
-        <v>1249</v>
       </c>
       <c r="F261" s="33"/>
       <c r="G261" s="6"/>
@@ -17102,7 +17102,7 @@
       <c r="B262" s="11"/>
       <c r="C262" s="26"/>
       <c r="D262" s="27" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E262" s="32"/>
       <c r="F262" s="33"/>
@@ -17113,7 +17113,7 @@
       <c r="B263" s="11"/>
       <c r="C263" s="26"/>
       <c r="D263" s="27" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E263" s="32"/>
       <c r="F263" s="33"/>
@@ -17121,17 +17121,17 @@
     </row>
     <row r="264" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A264" s="22" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B264" s="9" t="s">
         <v>1252</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>1253</v>
       </c>
       <c r="C264" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D264" s="24"/>
       <c r="E264" s="7" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F264" s="33"/>
       <c r="G264" s="6"/>
@@ -17140,11 +17140,11 @@
       <c r="A265" s="25"/>
       <c r="B265" s="11"/>
       <c r="C265" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D265" s="24"/>
       <c r="E265" s="32" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F265" s="33"/>
       <c r="G265" s="6"/>
@@ -17153,13 +17153,13 @@
       <c r="A266" s="25"/>
       <c r="B266" s="11"/>
       <c r="C266" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D266" s="27" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E266" s="32" t="s">
         <v>1256</v>
-      </c>
-      <c r="E266" s="32" t="s">
-        <v>1257</v>
       </c>
       <c r="F266" s="33"/>
       <c r="G266" s="6"/>
@@ -17169,7 +17169,7 @@
       <c r="B267" s="11"/>
       <c r="C267" s="26"/>
       <c r="D267" s="27" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E267" s="32"/>
       <c r="F267" s="33"/>
@@ -17180,7 +17180,7 @@
       <c r="B268" s="11"/>
       <c r="C268" s="26"/>
       <c r="D268" s="27" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E268" s="32"/>
       <c r="F268" s="33"/>
@@ -17191,7 +17191,7 @@
       <c r="B269" s="11"/>
       <c r="C269" s="26"/>
       <c r="D269" s="27" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E269" s="32"/>
       <c r="F269" s="33"/>
@@ -17199,17 +17199,17 @@
     </row>
     <row r="270" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A270" s="22" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B270" s="9" t="s">
         <v>1261</v>
-      </c>
-      <c r="B270" s="9" t="s">
-        <v>1262</v>
       </c>
       <c r="C270" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D270" s="24"/>
       <c r="E270" s="7" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F270" s="33"/>
       <c r="G270" s="6"/>
@@ -17218,11 +17218,11 @@
       <c r="A271" s="25"/>
       <c r="B271" s="11"/>
       <c r="C271" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D271" s="24"/>
       <c r="E271" s="38" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F271" s="33"/>
       <c r="G271" s="6"/>
@@ -17231,13 +17231,13 @@
       <c r="A272" s="25"/>
       <c r="B272" s="11"/>
       <c r="C272" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D272" s="27" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E272" s="32" t="s">
         <v>1265</v>
-      </c>
-      <c r="E272" s="32" t="s">
-        <v>1266</v>
       </c>
       <c r="F272" s="33"/>
       <c r="G272" s="6"/>
@@ -17247,7 +17247,7 @@
       <c r="B273" s="11"/>
       <c r="C273" s="26"/>
       <c r="D273" s="27" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E273" s="32"/>
       <c r="F273" s="33"/>
@@ -17258,27 +17258,27 @@
       <c r="B274" s="11"/>
       <c r="C274" s="26"/>
       <c r="D274" s="27" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E274" s="32" t="s">
         <v>1268</v>
-      </c>
-      <c r="E274" s="32" t="s">
-        <v>1269</v>
       </c>
       <c r="F274" s="33"/>
       <c r="G274" s="6"/>
     </row>
     <row r="275" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A275" s="22" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B275" s="9" t="s">
         <v>1270</v>
-      </c>
-      <c r="B275" s="9" t="s">
-        <v>1271</v>
       </c>
       <c r="C275" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D275" s="24"/>
       <c r="E275" s="7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F275" s="33"/>
       <c r="G275" s="6"/>
@@ -17287,11 +17287,11 @@
       <c r="A276" s="25"/>
       <c r="B276" s="11"/>
       <c r="C276" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D276" s="24"/>
       <c r="E276" s="32" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F276" s="33"/>
       <c r="G276" s="6"/>
@@ -17300,13 +17300,13 @@
       <c r="A277" s="25"/>
       <c r="B277" s="11"/>
       <c r="C277" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D277" s="27" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E277" s="32" t="s">
         <v>1274</v>
-      </c>
-      <c r="E277" s="32" t="s">
-        <v>1275</v>
       </c>
       <c r="F277" s="33"/>
       <c r="G277" s="6"/>
@@ -17316,10 +17316,10 @@
       <c r="B278" s="11"/>
       <c r="C278" s="26"/>
       <c r="D278" s="27" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E278" s="32" t="s">
         <v>1276</v>
-      </c>
-      <c r="E278" s="32" t="s">
-        <v>1277</v>
       </c>
       <c r="F278" s="33"/>
       <c r="G278" s="6"/>
@@ -17329,10 +17329,10 @@
       <c r="B279" s="11"/>
       <c r="C279" s="26"/>
       <c r="D279" s="27" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E279" s="32" t="s">
         <v>1278</v>
-      </c>
-      <c r="E279" s="32" t="s">
-        <v>1279</v>
       </c>
       <c r="F279" s="33"/>
       <c r="G279" s="6"/>
@@ -17342,27 +17342,27 @@
       <c r="B280" s="11"/>
       <c r="C280" s="26"/>
       <c r="D280" s="27" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E280" s="32" t="s">
         <v>1280</v>
-      </c>
-      <c r="E280" s="32" t="s">
-        <v>1281</v>
       </c>
       <c r="F280" s="33"/>
       <c r="G280" s="6"/>
     </row>
     <row r="281" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A281" s="22" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B281" s="9" t="s">
         <v>1282</v>
-      </c>
-      <c r="B281" s="9" t="s">
-        <v>1283</v>
       </c>
       <c r="C281" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D281" s="24"/>
       <c r="E281" s="7" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F281" s="33"/>
       <c r="G281" s="6"/>
@@ -17371,7 +17371,7 @@
       <c r="A282" s="25"/>
       <c r="B282" s="11"/>
       <c r="C282" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D282" s="24"/>
       <c r="E282" s="32"/>
@@ -17382,13 +17382,13 @@
       <c r="A283" s="25"/>
       <c r="B283" s="11"/>
       <c r="C283" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D283" s="27" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E283" s="32" t="s">
         <v>1285</v>
-      </c>
-      <c r="E283" s="32" t="s">
-        <v>1286</v>
       </c>
       <c r="F283" s="33"/>
       <c r="G283" s="6"/>
@@ -17398,17 +17398,17 @@
       <c r="B284" s="13"/>
       <c r="C284" s="26"/>
       <c r="D284" s="27" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E284" s="32" t="s">
         <v>1287</v>
-      </c>
-      <c r="E284" s="32" t="s">
-        <v>1288</v>
       </c>
       <c r="F284" s="33"/>
       <c r="G284" s="6"/>
     </row>
     <row r="285" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A285" s="22" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B285" s="9"/>
       <c r="C285" s="23" t="s">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="D285" s="24"/>
       <c r="E285" s="7" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F285" s="33"/>
       <c r="G285" s="6"/>
@@ -17425,11 +17425,11 @@
       <c r="A286" s="25"/>
       <c r="B286" s="11"/>
       <c r="C286" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D286" s="24"/>
       <c r="E286" s="32" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F286" s="33"/>
       <c r="G286" s="6"/>
@@ -17438,10 +17438,10 @@
       <c r="A287" s="25"/>
       <c r="B287" s="11"/>
       <c r="C287" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D287" s="27" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E287" s="32"/>
       <c r="F287" s="33"/>
@@ -17452,10 +17452,10 @@
       <c r="B288" s="11"/>
       <c r="C288" s="26"/>
       <c r="D288" s="27" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E288" s="32" t="s">
         <v>1293</v>
-      </c>
-      <c r="E288" s="32" t="s">
-        <v>1294</v>
       </c>
       <c r="F288" s="33"/>
       <c r="G288" s="6"/>
@@ -17465,10 +17465,10 @@
       <c r="B289" s="11"/>
       <c r="C289" s="26"/>
       <c r="D289" s="27" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E289" s="32" t="s">
         <v>1295</v>
-      </c>
-      <c r="E289" s="32" t="s">
-        <v>1296</v>
       </c>
       <c r="F289" s="33"/>
       <c r="G289" s="6"/>
@@ -17478,27 +17478,27 @@
       <c r="B290" s="11"/>
       <c r="C290" s="26"/>
       <c r="D290" s="27" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E290" s="32" t="s">
         <v>1297</v>
-      </c>
-      <c r="E290" s="32" t="s">
-        <v>1298</v>
       </c>
       <c r="F290" s="33"/>
       <c r="G290" s="6"/>
     </row>
     <row r="291" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A291" s="22" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B291" s="9" t="s">
         <v>1299</v>
-      </c>
-      <c r="B291" s="9" t="s">
-        <v>1300</v>
       </c>
       <c r="C291" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D291" s="24"/>
       <c r="E291" s="7" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F291" s="33"/>
       <c r="G291" s="6"/>
@@ -17507,7 +17507,7 @@
       <c r="A292" s="25"/>
       <c r="B292" s="11"/>
       <c r="C292" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D292" s="24"/>
       <c r="E292" s="32"/>
@@ -17518,13 +17518,13 @@
       <c r="A293" s="25"/>
       <c r="B293" s="11"/>
       <c r="C293" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D293" s="27" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E293" s="32" t="s">
         <v>1302</v>
-      </c>
-      <c r="E293" s="32" t="s">
-        <v>1303</v>
       </c>
       <c r="F293" s="33"/>
       <c r="G293" s="6"/>
@@ -17534,10 +17534,10 @@
       <c r="B294" s="11"/>
       <c r="C294" s="26"/>
       <c r="D294" s="27" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E294" s="32" t="s">
         <v>1304</v>
-      </c>
-      <c r="E294" s="32" t="s">
-        <v>1305</v>
       </c>
       <c r="F294" s="33"/>
       <c r="G294" s="6"/>
@@ -17547,7 +17547,7 @@
       <c r="B295" s="11"/>
       <c r="C295" s="26"/>
       <c r="D295" s="27" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E295" s="32"/>
       <c r="F295" s="33"/>
@@ -17558,7 +17558,7 @@
       <c r="B296" s="11"/>
       <c r="C296" s="26"/>
       <c r="D296" s="27" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E296" s="32"/>
       <c r="F296" s="33"/>
@@ -17569,7 +17569,7 @@
       <c r="B297" s="11"/>
       <c r="C297" s="26"/>
       <c r="D297" s="27" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E297" s="32"/>
       <c r="F297" s="33"/>
@@ -17577,17 +17577,17 @@
     </row>
     <row r="298" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A298" s="22" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B298" s="9" t="s">
         <v>1309</v>
-      </c>
-      <c r="B298" s="9" t="s">
-        <v>1310</v>
       </c>
       <c r="C298" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D298" s="24"/>
       <c r="E298" s="7" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F298" s="33"/>
       <c r="G298" s="6"/>
@@ -17596,11 +17596,11 @@
       <c r="A299" s="25"/>
       <c r="B299" s="11"/>
       <c r="C299" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D299" s="24"/>
       <c r="E299" s="32" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F299" s="33"/>
       <c r="G299" s="6"/>
@@ -17609,10 +17609,10 @@
       <c r="A300" s="25"/>
       <c r="B300" s="11"/>
       <c r="C300" s="29" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D300" s="27" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E300" s="32"/>
       <c r="F300" s="33"/>
@@ -17623,10 +17623,10 @@
       <c r="B301" s="11"/>
       <c r="C301" s="30"/>
       <c r="D301" s="27" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E301" s="32" t="s">
         <v>1314</v>
-      </c>
-      <c r="E301" s="32" t="s">
-        <v>1315</v>
       </c>
       <c r="F301" s="33"/>
       <c r="G301" s="6"/>
@@ -17636,7 +17636,7 @@
       <c r="B302" s="11"/>
       <c r="C302" s="30"/>
       <c r="D302" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E302" s="7"/>
       <c r="F302" s="33"/>
@@ -17647,10 +17647,10 @@
       <c r="B303" s="13"/>
       <c r="C303" s="31"/>
       <c r="D303" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E303" s="7" t="s">
         <v>1317</v>
-      </c>
-      <c r="E303" s="7" t="s">
-        <v>1318</v>
       </c>
       <c r="F303" s="33"/>
       <c r="G303" s="6"/>
@@ -18244,7 +18244,7 @@
         <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>111</v>
@@ -18260,7 +18260,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -18272,13 +18272,13 @@
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>1320</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>1321</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1322</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -18289,7 +18289,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="7" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -18300,11 +18300,11 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="7" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -18313,11 +18313,11 @@
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="7" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -18326,7 +18326,7 @@
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="7" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -18335,13 +18335,13 @@
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>1329</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>1330</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>1331</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -18352,7 +18352,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -18363,7 +18363,7 @@
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="7" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -18374,7 +18374,7 @@
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -18383,17 +18383,17 @@
     <row r="12" ht="139" customHeight="1" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>1335</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>1336</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>1337</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -18406,10 +18406,10 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="18" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>1339</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
@@ -18419,10 +18419,10 @@
       <c r="D14" s="15"/>
       <c r="E14" s="10"/>
       <c r="F14" s="18" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>1341</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="15" ht="84" spans="1:7">
@@ -18432,10 +18432,10 @@
       <c r="D15" s="15"/>
       <c r="E15" s="10"/>
       <c r="F15" s="18" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>1343</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="16" ht="56" spans="1:7">
@@ -18445,10 +18445,10 @@
       <c r="D16" s="15"/>
       <c r="E16" s="10"/>
       <c r="F16" s="18" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>1345</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
@@ -18458,10 +18458,10 @@
       <c r="D17" s="15"/>
       <c r="E17" s="10"/>
       <c r="F17" s="18" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
@@ -18471,10 +18471,10 @@
       <c r="D18" s="15"/>
       <c r="E18" s="10"/>
       <c r="F18" s="18" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>1348</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
@@ -18484,10 +18484,10 @@
       <c r="D19" s="15"/>
       <c r="E19" s="10"/>
       <c r="F19" s="18" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>1350</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1" spans="1:7">
@@ -18497,10 +18497,10 @@
       <c r="D20" s="15"/>
       <c r="E20" s="10"/>
       <c r="F20" s="18" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>1352</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="21" ht="63" customHeight="1" spans="1:7">
@@ -18510,10 +18510,10 @@
       <c r="D21" s="15"/>
       <c r="E21" s="10"/>
       <c r="F21" s="18" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>1354</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:7">
@@ -18523,10 +18523,10 @@
       <c r="D22" s="15"/>
       <c r="E22" s="10"/>
       <c r="F22" s="18" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>1356</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
@@ -18536,10 +18536,10 @@
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
       <c r="F23" s="18" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>1358</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
@@ -18549,10 +18549,10 @@
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
       <c r="F24" s="18" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>1360</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
@@ -18562,22 +18562,22 @@
       <c r="D25" s="16"/>
       <c r="E25" s="12"/>
       <c r="F25" s="18" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>1362</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -18588,7 +18588,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -18599,7 +18599,7 @@
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -18610,7 +18610,7 @@
       <c r="B29" s="6"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -18621,7 +18621,7 @@
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -18632,7 +18632,7 @@
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -18641,17 +18641,17 @@
     <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>1371</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>1372</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -18660,11 +18660,11 @@
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G33" s="7"/>
     </row>
@@ -18677,7 +18677,7 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G34" s="7"/>
     </row>
@@ -18690,7 +18690,7 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G35" s="7"/>
     </row>
@@ -18703,7 +18703,7 @@
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="G36" s="7"/>
     </row>
@@ -18716,143 +18716,143 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G37" s="7"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>1382</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="4:4">
       <c r="D39" s="2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="4:4">
       <c r="D40" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="4:4">
       <c r="D41" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="4:4">
       <c r="D42" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
       <c r="B43" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>1384</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="4:4">
       <c r="D44" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="4:4">
       <c r="D45" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="46" ht="129" customHeight="1" spans="4:6">
       <c r="D46" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:7">
       <c r="B47" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="F47" s="19" t="s">
         <v>1389</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="G47" s="19" t="s">
         <v>1390</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="48" ht="58" customHeight="1" spans="6:7">
       <c r="F48" s="19" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G48" s="19" t="s">
         <v>1392</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="6:7">
       <c r="F49" s="19" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G49" s="19" t="s">
         <v>1394</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="4:7">
       <c r="D50" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F50" s="19" t="s">
         <v>1396</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="G50" s="19" t="s">
         <v>1397</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="51" ht="58" customHeight="1" spans="6:7">
       <c r="F51" s="19" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G51" s="19" t="s">
         <v>1399</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="4:7">
       <c r="D52" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F52" s="19" t="s">
         <v>1401</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>1402</v>
       </c>
       <c r="G52" s="19"/>
     </row>
     <row r="53" customHeight="1" spans="6:7">
       <c r="F53" s="19" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G53" s="19"/>
     </row>
     <row r="54" customHeight="1" spans="2:7">
       <c r="B54" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>130</v>
@@ -18862,136 +18862,136 @@
     </row>
     <row r="55" customHeight="1" spans="2:7">
       <c r="B55" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
     </row>
     <row r="56" customHeight="1" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
     </row>
     <row r="57" customHeight="1" spans="2:4">
       <c r="B57" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>1407</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="4:4">
       <c r="D58" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="4:4">
       <c r="D59" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="4:4">
       <c r="D60" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="4:4">
       <c r="D61" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:7">
       <c r="B63" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="F63" s="19" t="s">
         <v>1416</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="G63" s="19" t="s">
         <v>1417</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="6:7">
       <c r="F64" s="19" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G64" s="19" t="s">
         <v>1419</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="6:7">
       <c r="F65" s="19" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G65" s="19" t="s">
         <v>1421</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="6:7">
       <c r="F66" s="19" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G66" s="19" t="s">
         <v>1423</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="6:7">
       <c r="F67" s="19" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G67" s="19" t="s">
         <v>1425</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="6:7">
       <c r="F68" s="19" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G68" s="19" t="s">
         <v>1427</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="6:7">
       <c r="F69" s="19" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G69" s="19" t="s">
         <v>1429</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="6:7">
       <c r="F70" s="19" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G70" s="19" t="s">
         <v>1431</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="6:7">
       <c r="F71" s="19" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G71" s="19" t="s">
         <v>1433</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="4:7">
@@ -18999,226 +18999,226 @@
         <v>132</v>
       </c>
       <c r="F72" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G72" s="19" t="s">
         <v>1435</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="6:7">
       <c r="F73" s="19" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="6:7">
       <c r="F74" s="19" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G74" s="19" t="s">
         <v>1438</v>
-      </c>
-      <c r="G74" s="19" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="6:7">
       <c r="F75" s="19" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G75" s="19" t="s">
         <v>1440</v>
-      </c>
-      <c r="G75" s="19" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="76" ht="65" customHeight="1" spans="6:7">
       <c r="F76" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>1442</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="6:7">
       <c r="F77" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>1444</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="78" ht="70" spans="6:7">
       <c r="F78" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>1446</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="79" ht="56" spans="6:7">
       <c r="F79" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>1448</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="6:7">
       <c r="F80" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>1450</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="6:7">
       <c r="F81" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>1452</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="6:7">
       <c r="F82" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>1454</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="83" ht="70" spans="6:7">
       <c r="F83" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>1456</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="84" ht="56" spans="6:7">
       <c r="F84" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>1458</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="85" ht="84" spans="6:7">
       <c r="F85" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>1460</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="3:7">
       <c r="C87" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>1463</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>1464</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>1465</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="6:7">
       <c r="F88" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>1467</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="6:7">
       <c r="F89" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>1469</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="90" ht="42" spans="6:7">
       <c r="F90" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>1471</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="6:7">
       <c r="F91" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>1473</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="4:7">
       <c r="D92" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>1476</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="6:7">
       <c r="F93" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>1478</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="94" ht="42" spans="6:7">
       <c r="F94" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>1480</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="6:7">
       <c r="F95" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>1482</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="6:7">
       <c r="F96" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>1484</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="97" ht="84" spans="6:7">
       <c r="F97" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>1486</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="98" ht="70" spans="6:7">
       <c r="F98" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>1488</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="99" ht="71" customHeight="1" spans="4:7">
@@ -19227,130 +19227,130 @@
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>1490</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="100" ht="42" spans="6:7">
       <c r="F100" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>1492</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="6:7">
       <c r="F101" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>1494</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="6:7">
       <c r="F102" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>1496</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="6:7">
       <c r="F103" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>1498</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="104" ht="56" spans="6:7">
       <c r="F104" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>1500</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="105" ht="45" customHeight="1" spans="6:7">
       <c r="F105" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>1502</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="6:7">
       <c r="F106" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>1504</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="107" ht="54" customHeight="1" spans="6:7">
       <c r="F107" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>1506</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="6:7">
       <c r="F108" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>1508</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="109" ht="59" customHeight="1" spans="6:7">
       <c r="F109" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>1510</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="6:7">
       <c r="F110" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>1512</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="111" ht="56" spans="6:7">
       <c r="F111" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>1514</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="6:7">
       <c r="F112" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>1516</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="6:7">
       <c r="F113" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>1518</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="6:7">
       <c r="F114" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>1520</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>1521</v>
       </c>
     </row>
   </sheetData>
@@ -19503,28 +19503,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="62" customHeight="1" spans="1:8">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="72" t="s">
         <v>61</v>
       </c>
     </row>
@@ -19723,95 +19723,95 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="68">
+      <c r="A2" s="69">
         <v>1</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="68">
+      <c r="A3" s="69">
         <v>2</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="68"/>
+      <c r="D3" s="69"/>
     </row>
     <row r="4" ht="64" customHeight="1" spans="1:4">
-      <c r="A4" s="68">
+      <c r="A4" s="69">
         <v>3</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="69"/>
     </row>
     <row r="5" ht="51" spans="1:4">
-      <c r="A5" s="68">
+      <c r="A5" s="69">
         <v>4</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="69"/>
     </row>
     <row r="6" ht="66" customHeight="1" spans="1:4">
-      <c r="A6" s="68">
+      <c r="A6" s="69">
         <v>5</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="69"/>
     </row>
     <row r="7" ht="45" spans="1:4">
-      <c r="A7" s="68">
+      <c r="A7" s="69">
         <v>6</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="68"/>
+      <c r="D7" s="69"/>
     </row>
     <row r="8" ht="79" spans="1:4">
-      <c r="A8" s="68">
+      <c r="A8" s="69">
         <v>7</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="68"/>
+      <c r="D8" s="69"/>
     </row>
     <row r="9" ht="54" customHeight="1" spans="1:4">
-      <c r="A9" s="68">
+      <c r="A9" s="69">
         <v>8</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="69" t="s">
         <v>128</v>
       </c>
       <c r="D9" s="40" t="s">
@@ -19819,37 +19819,37 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="68">
+      <c r="A10" s="69">
         <v>9</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="68"/>
+      <c r="D10" s="69"/>
     </row>
     <row r="11" ht="65" customHeight="1" spans="1:4">
-      <c r="A11" s="68">
+      <c r="A11" s="69">
         <v>10</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="68"/>
+      <c r="D11" s="69"/>
     </row>
     <row r="12" ht="95" customHeight="1" spans="1:4">
-      <c r="A12" s="68">
+      <c r="A12" s="69">
         <v>11</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="69" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="40" t="s">
@@ -19911,10 +19911,10 @@
       <c r="D2" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" ht="68" spans="1:6">
       <c r="A3" s="11"/>
@@ -19925,10 +19925,10 @@
       <c r="D3" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="70"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" ht="68" spans="1:6">
       <c r="A4" s="11"/>
@@ -19939,8 +19939,8 @@
       <c r="D4" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" ht="82" spans="1:6">
       <c r="A5" s="11"/>
@@ -19951,10 +19951,10 @@
       <c r="D5" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="70"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" ht="247" spans="1:6">
       <c r="A6" s="11"/>
@@ -19965,8 +19965,8 @@
       <c r="D6" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" ht="149" spans="1:6">
       <c r="A7" s="13"/>
@@ -19977,8 +19977,8 @@
       <c r="D7" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="71"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="9">
@@ -19993,8 +19993,8 @@
       <c r="D8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="9" ht="52" customHeight="1" spans="1:6">
       <c r="A9" s="11"/>
@@ -20359,7 +20359,7 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
@@ -20392,10 +20392,10 @@
       <c r="G1" s="49"/>
     </row>
     <row r="2" ht="106" customHeight="1" spans="1:8">
-      <c r="A2" s="63">
+      <c r="A2" s="64">
         <v>3.1</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>212</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -20408,7 +20408,7 @@
       <c r="F2" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="69" t="s">
         <v>216</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -20416,8 +20416,8 @@
       </c>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:7">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="26" t="s">
         <v>218</v>
       </c>
@@ -20428,13 +20428,13 @@
       <c r="F3" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="69" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="4" ht="86" customHeight="1" spans="1:7">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="23" t="s">
         <v>222</v>
       </c>
@@ -20445,15 +20445,15 @@
       <c r="F4" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="69" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" ht="84" customHeight="1" spans="1:7">
-      <c r="A5" s="63">
+      <c r="A5" s="64">
         <v>3.2</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="64" t="s">
         <v>226</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -20464,30 +20464,30 @@
         <v>227</v>
       </c>
       <c r="F5" s="40"/>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="69" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6" ht="54" customHeight="1" spans="1:7">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="40" t="s">
         <v>219</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="69" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" ht="56" customHeight="1" spans="1:7">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="31"/>
       <c r="D7" s="44">
         <v>3.1</v>
@@ -20498,13 +20498,13 @@
       <c r="F7" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="69" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="8" ht="65" customHeight="1" spans="1:7">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="23" t="s">
         <v>222</v>
       </c>
@@ -20515,15 +20515,15 @@
       <c r="F8" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="69" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9" ht="74" customHeight="1" spans="1:8">
-      <c r="A9" s="63">
+      <c r="A9" s="64">
         <v>3.3</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="64" t="s">
         <v>236</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -20534,7 +20534,7 @@
         <v>237</v>
       </c>
       <c r="F9" s="40"/>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="69" t="s">
         <v>238</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -20542,8 +20542,8 @@
       </c>
     </row>
     <row r="10" ht="55" customHeight="1" spans="1:7">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="29" t="s">
         <v>218</v>
       </c>
@@ -20556,13 +20556,13 @@
       <c r="F10" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="69" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="11" ht="77" customHeight="1" spans="1:7">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="31"/>
       <c r="D11" s="44">
         <v>3.2</v>
@@ -20573,13 +20573,13 @@
       <c r="F11" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="69" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="12" ht="100" customHeight="1" spans="1:7">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="23" t="s">
         <v>222</v>
       </c>
@@ -20590,15 +20590,15 @@
       <c r="F12" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="69" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="13" ht="104" customHeight="1" spans="1:7">
-      <c r="A13" s="63">
+      <c r="A13" s="64">
         <v>3.4</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="64" t="s">
         <v>247</v>
       </c>
       <c r="C13" s="23" t="s">
@@ -20609,13 +20609,13 @@
         <v>248</v>
       </c>
       <c r="F13" s="40"/>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="69" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="14" ht="60" customHeight="1" spans="1:7">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="29" t="s">
         <v>218</v>
       </c>
@@ -20628,13 +20628,13 @@
       <c r="F14" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="69" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="15" ht="52" customHeight="1" spans="1:7">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="30"/>
       <c r="D15" s="44">
         <v>3.2</v>
@@ -20645,13 +20645,13 @@
       <c r="F15" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="69" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="16" ht="48" customHeight="1" spans="1:7">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="31"/>
       <c r="D16" s="44">
         <v>3.3</v>
@@ -20662,13 +20662,13 @@
       <c r="F16" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="69" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="17" ht="86" customHeight="1" spans="1:7">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="23" t="s">
         <v>222</v>
       </c>
@@ -20679,15 +20679,15 @@
       <c r="F17" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="69" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="18" ht="78" customHeight="1" spans="1:7">
-      <c r="A18" s="63">
+      <c r="A18" s="64">
         <v>3.5</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="64" t="s">
         <v>259</v>
       </c>
       <c r="C18" s="23" t="s">
@@ -20700,13 +20700,13 @@
       <c r="F18" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="69" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="19" ht="67" customHeight="1" spans="1:7">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="29" t="s">
         <v>218</v>
       </c>
@@ -20719,28 +20719,28 @@
       <c r="F19" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="69" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="20" ht="63" customHeight="1" spans="1:7">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="31"/>
-      <c r="D20" s="67"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="40" t="s">
         <v>265</v>
       </c>
       <c r="F20" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="69" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="21" ht="73" customHeight="1" spans="1:7">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="23" t="s">
         <v>222</v>
       </c>
@@ -20751,7 +20751,7 @@
       <c r="F21" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="69" t="s">
         <v>270</v>
       </c>
     </row>
@@ -20822,7 +20822,7 @@
       </c>
       <c r="D1" s="43"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="63" t="s">
         <v>113</v>
       </c>
       <c r="G1" s="49"/>
@@ -21222,8 +21222,8 @@
         <v>137</v>
       </c>
       <c r="D1" s="43"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60" t="s">
         <v>113</v>
       </c>
       <c r="G1" s="49"/>
@@ -21284,10 +21284,10 @@
     <row r="5" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="7" t="s">
         <v>331</v>
       </c>
@@ -21301,8 +21301,8 @@
     <row r="6" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="7" t="s">
         <v>334</v>
       </c>
@@ -21367,10 +21367,10 @@
     <row r="10" s="1" customFormat="1" ht="60" customHeight="1" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="7" t="s">
         <v>343</v>
       </c>
@@ -21384,8 +21384,8 @@
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="7" t="s">
         <v>346</v>
       </c>
@@ -21450,10 +21450,10 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="7" t="s">
         <v>357</v>
       </c>
@@ -21467,8 +21467,8 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="7" t="s">
         <v>360</v>
       </c>
@@ -21520,7 +21520,7 @@
       <c r="B19" s="11"/>
       <c r="C19" s="26"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="61" t="s">
         <v>338</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -21548,10 +21548,10 @@
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="D21" s="54"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="7" t="s">
         <v>371</v>
       </c>
@@ -21561,15 +21561,15 @@
       <c r="G21" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="62" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="7" t="s">
         <v>375</v>
       </c>
@@ -21634,10 +21634,10 @@
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="D26" s="54"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="7" t="s">
         <v>386</v>
       </c>
@@ -21651,8 +21651,8 @@
     <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="7" t="s">
         <v>389</v>
       </c>
@@ -21704,8 +21704,8 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -21792,10 +21792,10 @@
     <row r="5" s="1" customFormat="1" ht="49" customHeight="1" spans="1:7">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="7" t="s">
         <v>399</v>
       </c>
@@ -21809,8 +21809,8 @@
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="7" t="s">
         <v>402</v>
       </c>
@@ -21860,10 +21860,10 @@
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="7" t="s">
         <v>410</v>
       </c>
@@ -21877,8 +21877,8 @@
     <row r="10" s="1" customFormat="1" ht="61" customHeight="1" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="7" t="s">
         <v>413</v>
       </c>
@@ -21892,8 +21892,8 @@
     <row r="11" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="7" t="s">
         <v>416</v>
       </c>
@@ -22140,10 +22140,10 @@
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="D25" s="54"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="7" t="s">
         <v>454</v>
       </c>
@@ -22157,8 +22157,8 @@
     <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="7" t="s">
         <v>457</v>
       </c>
@@ -22204,13 +22204,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5625" defaultRowHeight="40" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="20.5625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.5625" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.78125" style="1" customWidth="1"/>
@@ -22321,7 +22321,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
+    <row r="7" s="1" customFormat="1" ht="54" customHeight="1" spans="1:8">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="26" t="s">
@@ -22338,6 +22338,9 @@
       </c>
       <c r="G7" s="5" t="s">
         <v>474</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22348,13 +22351,13 @@
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>476</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
@@ -22362,18 +22365,18 @@
         <v>7.3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="40" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="49" customHeight="1" spans="1:7">
@@ -22386,13 +22389,13 @@
         <v>7.1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="64" customHeight="1" spans="1:7">
@@ -22403,13 +22406,13 @@
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="115" customHeight="1" spans="1:7">
@@ -22417,18 +22420,18 @@
         <v>7.4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
@@ -22441,13 +22444,13 @@
         <v>3.4</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22456,13 +22459,13 @@
       <c r="C14" s="26"/>
       <c r="D14" s="46"/>
       <c r="E14" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
@@ -22473,13 +22476,13 @@
         <v>6.4</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22490,13 +22493,13 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="95" customHeight="1" spans="1:7">
@@ -22504,18 +22507,18 @@
         <v>7.5</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
@@ -22528,7 +22531,7 @@
         <v>6.4</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
       <c r="F18" s="50" t="s">
         <v>505</v>
@@ -22562,7 +22565,7 @@
         <v>7.4</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>511</v>
@@ -22634,13 +22637,13 @@
         <v>7.5</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
@@ -22651,13 +22654,13 @@
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/笔记/CBAP/知识点.xlsx
+++ b/笔记/CBAP/知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13180" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="13180" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="核查单" sheetId="12" r:id="rId1"/>
@@ -1738,7 +1738,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524">
   <si>
     <t>核查单</t>
   </si>
@@ -4821,6 +4821,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">需求影响分析 </t>
     </r>
     <r>
@@ -4836,6 +4841,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>it（Beneifit、Cost、Impact、Schedule、Urgency）</t>
@@ -5248,6 +5254,9 @@
 审核需求确保需求与设计得到正确定义。高质量需求与设计的最重要特征是适合使用。质量最终是由相关方决定的。</t>
   </si>
   <si>
+    <t>质量</t>
+  </si>
+  <si>
     <t>any requirement, design, or set of those may be verified to ensure that text is well structured and that matrices and modelling notation are used correctly.</t>
   </si>
   <si>
@@ -5329,6 +5338,12 @@
     <t>确认需求的目的是确保所有需求与设计和业务需求相符，并支持所需价值的交付。
 需求确认是确保相关方、解决方案与过度需求和业务需求相符，并且设计能能够满足需求的持续过程。
 实现需求的总体目标是达成相关方的期望将来状态。</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>7.3 不能早于 7.2 结束，因为requirement不能在确认价值前是不能继续往下</t>
   </si>
   <si>
     <t>any types of requirements and designs can be validated. Validation activities may begin before requirements are completely verified. However, validation activities cannot be completed before requirements are completely verified.</t>
@@ -10174,10 +10189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -10230,91 +10245,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10329,7 +10261,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -10337,7 +10277,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10351,16 +10322,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10369,6 +10341,49 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10448,7 +10463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10460,7 +10475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10472,7 +10493,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10484,7 +10541,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10496,19 +10619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10520,109 +10637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10787,22 +10802,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10816,32 +10826,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10863,9 +10852,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10884,153 +10875,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12280,7 +12295,7 @@
   <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -12317,18 +12332,18 @@
         <v>8.1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="40" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12341,13 +12356,13 @@
         <v>6.2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12356,13 +12371,13 @@
       <c r="C4" s="31"/>
       <c r="D4" s="45"/>
       <c r="E4" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12373,13 +12388,13 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="58" customHeight="1" spans="1:7">
@@ -12387,18 +12402,18 @@
         <v>8.2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="5" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
@@ -12411,13 +12426,13 @@
         <v>6.2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
@@ -12428,13 +12443,13 @@
         <v>8.1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12445,13 +12460,13 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="75" customHeight="1" spans="1:7">
@@ -12459,18 +12474,18 @@
         <v>8.3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="40" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12481,13 +12496,13 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12498,13 +12513,13 @@
         <v>8.2</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12515,13 +12530,13 @@
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
@@ -12529,18 +12544,18 @@
         <v>8.4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="40" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="5" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12556,10 +12571,10 @@
         <v>399</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12568,13 +12583,13 @@
       <c r="C16" s="26"/>
       <c r="D16" s="46"/>
       <c r="E16" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12585,13 +12600,13 @@
         <v>8.2</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12602,13 +12617,13 @@
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="78" customHeight="1" spans="1:7">
@@ -12616,18 +12631,18 @@
         <v>8.5</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="40" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="5" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12640,13 +12655,13 @@
         <v>8.3</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12657,13 +12672,13 @@
         <v>8.4</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12674,13 +12689,13 @@
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -12745,7 +12760,7 @@
         <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>111</v>
@@ -12761,19 +12776,19 @@
     </row>
     <row r="2" ht="49" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -12781,16 +12796,16 @@
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -12798,16 +12813,16 @@
     <row r="4" ht="47" customHeight="1" spans="1:7">
       <c r="A4" s="11"/>
       <c r="B4" s="5" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -12815,16 +12830,16 @@
     <row r="5" ht="48" customHeight="1" spans="1:7">
       <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -12832,16 +12847,16 @@
     <row r="6" ht="47" customHeight="1" spans="1:7">
       <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -12849,16 +12864,16 @@
     <row r="7" ht="58" customHeight="1" spans="1:7">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -12866,35 +12881,35 @@
     <row r="8" ht="45" customHeight="1" spans="1:7">
       <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" ht="62" customHeight="1" spans="1:7">
       <c r="A9" s="9" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -12902,16 +12917,16 @@
     <row r="10" ht="57" customHeight="1" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="5" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -12919,16 +12934,16 @@
     <row r="11" ht="50" customHeight="1" spans="1:7">
       <c r="A11" s="11"/>
       <c r="B11" s="5" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -12936,16 +12951,16 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="11"/>
       <c r="B12" s="5" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -12953,35 +12968,35 @@
     <row r="13" ht="50" customHeight="1" spans="1:7">
       <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" ht="34" spans="1:7">
       <c r="A14" s="9" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -12989,16 +13004,16 @@
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -13006,16 +13021,16 @@
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="11"/>
       <c r="B16" s="5" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -13023,16 +13038,16 @@
     <row r="17" ht="55" customHeight="1" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -13040,35 +13055,35 @@
     <row r="18" ht="49" customHeight="1" spans="1:7">
       <c r="A18" s="13"/>
       <c r="B18" s="5" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -13076,16 +13091,16 @@
     <row r="20" ht="48" customHeight="1" spans="1:7">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -13093,16 +13108,16 @@
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="11"/>
       <c r="B21" s="5" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -13110,35 +13125,35 @@
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="13"/>
       <c r="B22" s="5" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" ht="80" customHeight="1" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -13146,16 +13161,16 @@
     <row r="24" ht="54" customHeight="1" spans="1:7">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -13163,16 +13178,16 @@
     <row r="25" ht="48" customHeight="1" spans="1:7">
       <c r="A25" s="11"/>
       <c r="B25" s="5" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -13180,16 +13195,16 @@
     <row r="26" ht="56" spans="1:7">
       <c r="A26" s="11"/>
       <c r="B26" s="5" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -13197,35 +13212,35 @@
     <row r="27" ht="55" customHeight="1" spans="1:7">
       <c r="A27" s="13"/>
       <c r="B27" s="5" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -13233,16 +13248,16 @@
     <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -13250,16 +13265,16 @@
     <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -13326,17 +13341,17 @@
         <v>10.1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="32" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -13344,14 +13359,14 @@
       <c r="A3" s="25"/>
       <c r="B3" s="11"/>
       <c r="C3" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="32" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -13359,10 +13374,10 @@
       <c r="A4" s="25"/>
       <c r="B4" s="11"/>
       <c r="C4" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="33"/>
@@ -13373,13 +13388,13 @@
       <c r="B5" s="13"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -13388,17 +13403,17 @@
         <v>10.2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -13406,14 +13421,14 @@
       <c r="A7" s="25"/>
       <c r="B7" s="11"/>
       <c r="C7" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="32" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -13421,16 +13436,16 @@
       <c r="A8" s="25"/>
       <c r="B8" s="11"/>
       <c r="C8" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -13439,13 +13454,13 @@
       <c r="B9" s="11"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -13454,13 +13469,13 @@
       <c r="B10" s="11"/>
       <c r="C10" s="26"/>
       <c r="D10" s="27" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -13469,11 +13484,11 @@
       <c r="B11" s="13"/>
       <c r="C11" s="26"/>
       <c r="D11" s="27" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="33" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -13482,17 +13497,17 @@
         <v>10.3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="7" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -13500,14 +13515,14 @@
       <c r="A13" s="25"/>
       <c r="B13" s="11"/>
       <c r="C13" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="32" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -13515,16 +13530,16 @@
       <c r="A14" s="25"/>
       <c r="B14" s="11"/>
       <c r="C14" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -13533,13 +13548,13 @@
       <c r="B15" s="11"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -13548,13 +13563,13 @@
       <c r="B16" s="11"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -13563,13 +13578,13 @@
       <c r="B17" s="11"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -13578,13 +13593,13 @@
       <c r="B18" s="13"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -13593,17 +13608,17 @@
         <v>10.4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="7" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -13611,14 +13626,14 @@
       <c r="A20" s="25"/>
       <c r="B20" s="11"/>
       <c r="C20" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="32" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -13626,14 +13641,14 @@
       <c r="A21" s="25"/>
       <c r="B21" s="11"/>
       <c r="C21" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="33" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -13642,11 +13657,11 @@
       <c r="B22" s="13"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="33" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -13655,17 +13670,17 @@
         <v>10.5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="7" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -13673,14 +13688,14 @@
       <c r="A24" s="25"/>
       <c r="B24" s="11"/>
       <c r="C24" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="32" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="G24" s="6"/>
     </row>
@@ -13688,14 +13703,14 @@
       <c r="A25" s="25"/>
       <c r="B25" s="11"/>
       <c r="C25" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="33" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="G25" s="6"/>
     </row>
@@ -13704,11 +13719,11 @@
       <c r="B26" s="11"/>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="33" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="G26" s="6"/>
     </row>
@@ -13717,11 +13732,11 @@
       <c r="B27" s="13"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="33" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -13730,17 +13745,17 @@
         <v>10.6</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="7" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="G28" s="6"/>
     </row>
@@ -13748,14 +13763,14 @@
       <c r="A29" s="25"/>
       <c r="B29" s="11"/>
       <c r="C29" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="32" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="G29" s="6"/>
     </row>
@@ -13763,16 +13778,16 @@
       <c r="A30" s="25"/>
       <c r="B30" s="11"/>
       <c r="C30" s="29" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="G30" s="6"/>
     </row>
@@ -13781,13 +13796,13 @@
       <c r="B31" s="11"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="G31" s="6"/>
     </row>
@@ -13796,13 +13811,13 @@
       <c r="B32" s="11"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="G32" s="6"/>
     </row>
@@ -13811,13 +13826,13 @@
       <c r="B33" s="11"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="G33" s="6"/>
     </row>
@@ -13826,13 +13841,13 @@
       <c r="B34" s="11"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="G34" s="6"/>
     </row>
@@ -13841,11 +13856,11 @@
       <c r="B35" s="11"/>
       <c r="C35" s="31"/>
       <c r="D35" s="27" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="33" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G35" s="6"/>
     </row>
@@ -13854,17 +13869,17 @@
         <v>10.7</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="7" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="G36" s="6"/>
     </row>
@@ -13872,14 +13887,14 @@
       <c r="A37" s="25"/>
       <c r="B37" s="11"/>
       <c r="C37" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="32" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="G37" s="6"/>
     </row>
@@ -13887,16 +13902,16 @@
       <c r="A38" s="25"/>
       <c r="B38" s="11"/>
       <c r="C38" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="G38" s="6"/>
     </row>
@@ -13905,13 +13920,13 @@
       <c r="B39" s="11"/>
       <c r="C39" s="26"/>
       <c r="D39" s="27" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="G39" s="6"/>
     </row>
@@ -13920,13 +13935,13 @@
       <c r="B40" s="11"/>
       <c r="C40" s="26"/>
       <c r="D40" s="27" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="G40" s="6"/>
     </row>
@@ -13935,13 +13950,13 @@
       <c r="B41" s="11"/>
       <c r="C41" s="26"/>
       <c r="D41" s="27" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="G41" s="6"/>
     </row>
@@ -13950,17 +13965,17 @@
         <v>10.8</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="7" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G42" s="6"/>
     </row>
@@ -13968,14 +13983,14 @@
       <c r="A43" s="25"/>
       <c r="B43" s="11"/>
       <c r="C43" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="32" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="G43" s="6"/>
     </row>
@@ -13983,16 +13998,16 @@
       <c r="A44" s="25"/>
       <c r="B44" s="11"/>
       <c r="C44" s="29" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="G44" s="6"/>
     </row>
@@ -14001,13 +14016,13 @@
       <c r="B45" s="11"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="G45" s="6"/>
     </row>
@@ -14016,13 +14031,13 @@
       <c r="B46" s="11"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="G46" s="6"/>
     </row>
@@ -14031,13 +14046,13 @@
       <c r="B47" s="11"/>
       <c r="C47" s="30"/>
       <c r="D47" s="27" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="G47" s="6"/>
     </row>
@@ -14046,13 +14061,13 @@
       <c r="B48" s="11"/>
       <c r="C48" s="30"/>
       <c r="D48" s="27" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="G48" s="6"/>
     </row>
@@ -14061,13 +14076,13 @@
       <c r="B49" s="11"/>
       <c r="C49" s="30"/>
       <c r="D49" s="27" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="G49" s="6"/>
     </row>
@@ -14076,13 +14091,13 @@
       <c r="B50" s="11"/>
       <c r="C50" s="30"/>
       <c r="D50" s="27" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="G50" s="6"/>
     </row>
@@ -14091,11 +14106,11 @@
       <c r="B51" s="11"/>
       <c r="C51" s="30"/>
       <c r="D51" s="27" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="33" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="G51" s="6"/>
     </row>
@@ -14104,13 +14119,13 @@
       <c r="B52" s="11"/>
       <c r="C52" s="31"/>
       <c r="D52" s="27" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="G52" s="6"/>
     </row>
@@ -14119,17 +14134,17 @@
         <v>10.9</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="7" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="G53" s="6"/>
     </row>
@@ -14137,14 +14152,14 @@
       <c r="A54" s="25"/>
       <c r="B54" s="11"/>
       <c r="C54" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="32" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="G54" s="6"/>
     </row>
@@ -14152,16 +14167,16 @@
       <c r="A55" s="25"/>
       <c r="B55" s="11"/>
       <c r="C55" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="G55" s="6"/>
     </row>
@@ -14170,32 +14185,32 @@
       <c r="B56" s="13"/>
       <c r="C56" s="26"/>
       <c r="D56" s="27" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="G56" s="6"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A57" s="22" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="7" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="G57" s="6"/>
     </row>
@@ -14203,14 +14218,14 @@
       <c r="A58" s="25"/>
       <c r="B58" s="11"/>
       <c r="C58" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="32" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="G58" s="6"/>
     </row>
@@ -14218,16 +14233,16 @@
       <c r="A59" s="25"/>
       <c r="B59" s="11"/>
       <c r="C59" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="G59" s="6"/>
     </row>
@@ -14236,11 +14251,11 @@
       <c r="B60" s="11"/>
       <c r="C60" s="26"/>
       <c r="D60" s="27" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="E60" s="32"/>
       <c r="F60" s="33" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="G60" s="6"/>
     </row>
@@ -14249,11 +14264,11 @@
       <c r="B61" s="11"/>
       <c r="C61" s="26"/>
       <c r="D61" s="27" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="33" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="G61" s="6"/>
     </row>
@@ -14262,32 +14277,32 @@
       <c r="B62" s="11"/>
       <c r="C62" s="26"/>
       <c r="D62" s="27" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="G62" s="6"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A63" s="22" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C63" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D63" s="24"/>
       <c r="E63" s="7" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="G63" s="6"/>
     </row>
@@ -14295,14 +14310,14 @@
       <c r="A64" s="25"/>
       <c r="B64" s="11"/>
       <c r="C64" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D64" s="24"/>
       <c r="E64" s="32" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="G64" s="6"/>
     </row>
@@ -14310,14 +14325,14 @@
       <c r="A65" s="25"/>
       <c r="B65" s="11"/>
       <c r="C65" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="33" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="G65" s="6"/>
     </row>
@@ -14326,13 +14341,13 @@
       <c r="B66" s="11"/>
       <c r="C66" s="26"/>
       <c r="D66" s="27" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G66" s="6"/>
     </row>
@@ -14341,30 +14356,30 @@
       <c r="B67" s="11"/>
       <c r="C67" s="26"/>
       <c r="D67" s="27" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="33" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="G67" s="6"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A68" s="22" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D68" s="24"/>
       <c r="E68" s="7" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G68" s="6"/>
     </row>
@@ -14372,14 +14387,14 @@
       <c r="A69" s="25"/>
       <c r="B69" s="11"/>
       <c r="C69" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="32" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="G69" s="6"/>
     </row>
@@ -14387,16 +14402,16 @@
       <c r="A70" s="25"/>
       <c r="B70" s="11"/>
       <c r="C70" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="G70" s="6"/>
     </row>
@@ -14405,13 +14420,13 @@
       <c r="B71" s="11"/>
       <c r="C71" s="26"/>
       <c r="D71" s="27" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="G71" s="6"/>
     </row>
@@ -14420,32 +14435,32 @@
       <c r="B72" s="11"/>
       <c r="C72" s="26"/>
       <c r="D72" s="27" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="G72" s="6"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A73" s="22" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C73" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="7" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="G73" s="6"/>
     </row>
@@ -14453,14 +14468,14 @@
       <c r="A74" s="25"/>
       <c r="B74" s="5"/>
       <c r="C74" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="32" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="F74" s="33" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="G74" s="6"/>
     </row>
@@ -14468,16 +14483,16 @@
       <c r="A75" s="25"/>
       <c r="B75" s="5"/>
       <c r="C75" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="G75" s="6"/>
     </row>
@@ -14486,13 +14501,13 @@
       <c r="B76" s="5"/>
       <c r="C76" s="26"/>
       <c r="D76" s="27" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="G76" s="6"/>
     </row>
@@ -14501,13 +14516,13 @@
       <c r="B77" s="5"/>
       <c r="C77" s="26"/>
       <c r="D77" s="27" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="G77" s="6"/>
     </row>
@@ -14516,32 +14531,32 @@
       <c r="B78" s="5"/>
       <c r="C78" s="26"/>
       <c r="D78" s="27" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="G78" s="6"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A79" s="22" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C79" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="7" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="F79" s="33" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G79" s="6"/>
     </row>
@@ -14549,14 +14564,14 @@
       <c r="A80" s="25"/>
       <c r="B80" s="11"/>
       <c r="C80" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="32" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="F80" s="33" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="G80" s="6"/>
     </row>
@@ -14564,16 +14579,16 @@
       <c r="A81" s="25"/>
       <c r="B81" s="11"/>
       <c r="C81" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="G81" s="6"/>
     </row>
@@ -14582,13 +14597,13 @@
       <c r="B82" s="11"/>
       <c r="C82" s="26"/>
       <c r="D82" s="27" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="G82" s="6"/>
     </row>
@@ -14597,13 +14612,13 @@
       <c r="B83" s="11"/>
       <c r="C83" s="26"/>
       <c r="D83" s="27" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="G83" s="6"/>
     </row>
@@ -14612,11 +14627,11 @@
       <c r="B84" s="11"/>
       <c r="C84" s="26"/>
       <c r="D84" s="27" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="33" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="G84" s="6"/>
     </row>
@@ -14625,32 +14640,32 @@
       <c r="B85" s="11"/>
       <c r="C85" s="26"/>
       <c r="D85" s="27" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="G85" s="6"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A86" s="22" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C86" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D86" s="24"/>
       <c r="E86" s="7" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="G86" s="6"/>
     </row>
@@ -14658,14 +14673,14 @@
       <c r="A87" s="25"/>
       <c r="B87" s="11"/>
       <c r="C87" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="32" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="G87" s="6"/>
     </row>
@@ -14673,16 +14688,16 @@
       <c r="A88" s="25"/>
       <c r="B88" s="11"/>
       <c r="C88" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="G88" s="6"/>
     </row>
@@ -14691,13 +14706,13 @@
       <c r="B89" s="11"/>
       <c r="C89" s="26"/>
       <c r="D89" s="27" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="E89" s="32" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="G89" s="6"/>
     </row>
@@ -14706,13 +14721,13 @@
       <c r="B90" s="11"/>
       <c r="C90" s="26"/>
       <c r="D90" s="27" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="G90" s="6"/>
     </row>
@@ -14721,13 +14736,13 @@
       <c r="B91" s="11"/>
       <c r="C91" s="26"/>
       <c r="D91" s="27" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="F91" s="33" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="G91" s="6"/>
     </row>
@@ -14736,32 +14751,32 @@
       <c r="B92" s="11"/>
       <c r="C92" s="26"/>
       <c r="D92" s="27" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E92" s="32" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="F92" s="33" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="G92" s="6"/>
     </row>
     <row r="93" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A93" s="22" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C93" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D93" s="24"/>
       <c r="E93" s="7" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="F93" s="33" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="G93" s="6"/>
     </row>
@@ -14769,14 +14784,14 @@
       <c r="A94" s="25"/>
       <c r="B94" s="11"/>
       <c r="C94" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D94" s="24"/>
       <c r="E94" s="32" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="F94" s="33" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="G94" s="6"/>
     </row>
@@ -14784,16 +14799,16 @@
       <c r="A95" s="25"/>
       <c r="B95" s="11"/>
       <c r="C95" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="F95" s="33" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="G95" s="6"/>
     </row>
@@ -14802,11 +14817,11 @@
       <c r="B96" s="11"/>
       <c r="C96" s="26"/>
       <c r="D96" s="27" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="33" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="G96" s="6"/>
     </row>
@@ -14815,13 +14830,13 @@
       <c r="B97" s="11"/>
       <c r="C97" s="26"/>
       <c r="D97" s="27" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="G97" s="6"/>
     </row>
@@ -14830,32 +14845,32 @@
       <c r="B98" s="11"/>
       <c r="C98" s="26"/>
       <c r="D98" s="27" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="F98" s="33" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="G98" s="6"/>
     </row>
     <row r="99" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A99" s="22" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C99" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D99" s="24"/>
       <c r="E99" s="7" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="F99" s="33" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="G99" s="6"/>
     </row>
@@ -14863,14 +14878,14 @@
       <c r="A100" s="25"/>
       <c r="B100" s="11"/>
       <c r="C100" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D100" s="24"/>
       <c r="E100" s="32" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="F100" s="33" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="G100" s="6"/>
     </row>
@@ -14878,14 +14893,14 @@
       <c r="A101" s="25"/>
       <c r="B101" s="11"/>
       <c r="C101" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="33" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="G101" s="6"/>
     </row>
@@ -14894,11 +14909,11 @@
       <c r="B102" s="11"/>
       <c r="C102" s="26"/>
       <c r="D102" s="27" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="33" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="G102" s="6"/>
     </row>
@@ -14907,11 +14922,11 @@
       <c r="B103" s="11"/>
       <c r="C103" s="26"/>
       <c r="D103" s="27" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="33" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="G103" s="6"/>
     </row>
@@ -14920,32 +14935,32 @@
       <c r="B104" s="11"/>
       <c r="C104" s="26"/>
       <c r="D104" s="27" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="F104" s="33" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="G104" s="6"/>
     </row>
     <row r="105" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A105" s="22" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C105" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D105" s="24"/>
       <c r="E105" s="7" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="F105" s="33" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="G105" s="6"/>
     </row>
@@ -14953,14 +14968,14 @@
       <c r="A106" s="25"/>
       <c r="B106" s="11"/>
       <c r="C106" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D106" s="24"/>
       <c r="E106" s="32" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="F106" s="33" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="G106" s="6"/>
     </row>
@@ -14968,16 +14983,16 @@
       <c r="A107" s="25"/>
       <c r="B107" s="11"/>
       <c r="C107" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="F107" s="33" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="G107" s="6"/>
     </row>
@@ -14986,13 +15001,13 @@
       <c r="B108" s="11"/>
       <c r="C108" s="26"/>
       <c r="D108" s="27" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="F108" s="33" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="G108" s="6"/>
     </row>
@@ -15001,32 +15016,32 @@
       <c r="B109" s="11"/>
       <c r="C109" s="26"/>
       <c r="D109" s="27" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="F109" s="33" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="G109" s="6"/>
     </row>
     <row r="110" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A110" s="22" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C110" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D110" s="24"/>
       <c r="E110" s="7" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="F110" s="33" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="G110" s="6"/>
     </row>
@@ -15034,14 +15049,14 @@
       <c r="A111" s="25"/>
       <c r="B111" s="11"/>
       <c r="C111" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D111" s="24"/>
       <c r="E111" s="32" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="F111" s="33" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="G111" s="6"/>
     </row>
@@ -15049,16 +15064,16 @@
       <c r="A112" s="25"/>
       <c r="B112" s="11"/>
       <c r="C112" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D112" s="27" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="F112" s="33" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="G112" s="6"/>
     </row>
@@ -15067,13 +15082,13 @@
       <c r="B113" s="11"/>
       <c r="C113" s="26"/>
       <c r="D113" s="27" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="F113" s="33" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="G113" s="6"/>
     </row>
@@ -15082,13 +15097,13 @@
       <c r="B114" s="11"/>
       <c r="C114" s="26"/>
       <c r="D114" s="27" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="E114" s="32" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="F114" s="33" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="G114" s="6"/>
     </row>
@@ -15097,13 +15112,13 @@
       <c r="B115" s="11"/>
       <c r="C115" s="26"/>
       <c r="D115" s="27" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="E115" s="32" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="F115" s="33" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="G115" s="6"/>
     </row>
@@ -15112,30 +15127,30 @@
       <c r="B116" s="11"/>
       <c r="C116" s="26"/>
       <c r="D116" s="27" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="E116" s="32"/>
       <c r="F116" s="33" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="G116" s="6"/>
     </row>
     <row r="117" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A117" s="22" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="C117" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D117" s="24"/>
       <c r="E117" s="7" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="F117" s="33" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="G117" s="6"/>
     </row>
@@ -15143,14 +15158,14 @@
       <c r="A118" s="25"/>
       <c r="B118" s="11"/>
       <c r="C118" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D118" s="24"/>
       <c r="E118" s="32" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="F118" s="33" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="G118" s="6"/>
     </row>
@@ -15158,16 +15173,16 @@
       <c r="A119" s="25"/>
       <c r="B119" s="11"/>
       <c r="C119" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="E119" s="32" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F119" s="33" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="G119" s="6"/>
     </row>
@@ -15176,13 +15191,13 @@
       <c r="B120" s="11"/>
       <c r="C120" s="26"/>
       <c r="D120" s="27" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="E120" s="32" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="F120" s="33" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="G120" s="6"/>
     </row>
@@ -15191,13 +15206,13 @@
       <c r="B121" s="11"/>
       <c r="C121" s="26"/>
       <c r="D121" s="27" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="E121" s="32" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="F121" s="33" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="G121" s="6"/>
     </row>
@@ -15206,13 +15221,13 @@
       <c r="B122" s="11"/>
       <c r="C122" s="26"/>
       <c r="D122" s="27" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="E122" s="32" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="F122" s="33" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="G122" s="6"/>
     </row>
@@ -15221,13 +15236,13 @@
       <c r="B123" s="11"/>
       <c r="C123" s="26"/>
       <c r="D123" s="35" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="E123" s="38" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="G123" s="6"/>
     </row>
@@ -15237,10 +15252,10 @@
       <c r="C124" s="26"/>
       <c r="D124" s="36"/>
       <c r="E124" s="38" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="F124" s="33" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="G124" s="6"/>
     </row>
@@ -15250,10 +15265,10 @@
       <c r="C125" s="26"/>
       <c r="D125" s="36"/>
       <c r="E125" s="38" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="F125" s="33" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="G125" s="6"/>
     </row>
@@ -15263,10 +15278,10 @@
       <c r="C126" s="26"/>
       <c r="D126" s="36"/>
       <c r="E126" s="38" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="F126" s="33" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="G126" s="6"/>
     </row>
@@ -15276,10 +15291,10 @@
       <c r="C127" s="26"/>
       <c r="D127" s="36"/>
       <c r="E127" s="38" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="F127" s="33" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="G127" s="6"/>
     </row>
@@ -15289,26 +15304,26 @@
       <c r="C128" s="26"/>
       <c r="D128" s="37"/>
       <c r="E128" s="38" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="F128" s="33" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="G128" s="6"/>
     </row>
     <row r="129" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A129" s="22" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C129" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D129" s="24"/>
       <c r="E129" s="7" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="6"/>
@@ -15317,11 +15332,11 @@
       <c r="A130" s="25"/>
       <c r="B130" s="11"/>
       <c r="C130" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D130" s="24"/>
       <c r="E130" s="32" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="6"/>
@@ -15330,10 +15345,10 @@
       <c r="A131" s="25"/>
       <c r="B131" s="11"/>
       <c r="C131" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D131" s="27" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="E131" s="32"/>
       <c r="F131" s="33"/>
@@ -15344,10 +15359,10 @@
       <c r="B132" s="11"/>
       <c r="C132" s="26"/>
       <c r="D132" s="27" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="6"/>
@@ -15357,10 +15372,10 @@
       <c r="B133" s="11"/>
       <c r="C133" s="26"/>
       <c r="D133" s="27" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="6"/>
@@ -15370,10 +15385,10 @@
       <c r="B134" s="11"/>
       <c r="C134" s="26"/>
       <c r="D134" s="27" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="6"/>
@@ -15383,7 +15398,7 @@
       <c r="B135" s="11"/>
       <c r="C135" s="26"/>
       <c r="D135" s="27" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="E135" s="32"/>
       <c r="F135" s="33"/>
@@ -15394,7 +15409,7 @@
       <c r="B136" s="11"/>
       <c r="C136" s="26"/>
       <c r="D136" s="27" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="E136" s="32"/>
       <c r="F136" s="33"/>
@@ -15405,27 +15420,27 @@
       <c r="B137" s="11"/>
       <c r="C137" s="26"/>
       <c r="D137" s="27" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="E137" s="32" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="6"/>
     </row>
     <row r="138" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A138" s="22" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C138" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D138" s="24"/>
       <c r="E138" s="7" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="6"/>
@@ -15434,11 +15449,11 @@
       <c r="A139" s="25"/>
       <c r="B139" s="11"/>
       <c r="C139" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D139" s="24"/>
       <c r="E139" s="32" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="6"/>
@@ -15447,13 +15462,13 @@
       <c r="A140" s="25"/>
       <c r="B140" s="11"/>
       <c r="C140" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="E140" s="32" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="6"/>
@@ -15463,10 +15478,10 @@
       <c r="B141" s="11"/>
       <c r="C141" s="26"/>
       <c r="D141" s="27" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="E141" s="32" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="6"/>
@@ -15476,7 +15491,7 @@
       <c r="B142" s="11"/>
       <c r="C142" s="26"/>
       <c r="D142" s="27" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="E142" s="32"/>
       <c r="F142" s="33"/>
@@ -15487,27 +15502,27 @@
       <c r="B143" s="11"/>
       <c r="C143" s="26"/>
       <c r="D143" s="27" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="E143" s="32" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="6"/>
     </row>
     <row r="144" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A144" s="22" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="C144" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D144" s="24"/>
       <c r="E144" s="7" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="6"/>
@@ -15516,28 +15531,28 @@
       <c r="A145" s="25"/>
       <c r="B145" s="11"/>
       <c r="C145" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D145" s="24"/>
       <c r="E145" s="32" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="6"/>
     </row>
     <row r="146" s="1" customFormat="1" ht="62" customHeight="1" spans="1:7">
       <c r="A146" s="22" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="C146" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D146" s="24"/>
       <c r="E146" s="7" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="6"/>
@@ -15546,11 +15561,11 @@
       <c r="A147" s="25"/>
       <c r="B147" s="11"/>
       <c r="C147" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D147" s="24"/>
       <c r="E147" s="32" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="6"/>
@@ -15559,13 +15574,13 @@
       <c r="A148" s="25"/>
       <c r="B148" s="11"/>
       <c r="C148" s="29" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="E148" s="32" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="6"/>
@@ -15575,10 +15590,10 @@
       <c r="B149" s="11"/>
       <c r="C149" s="30"/>
       <c r="D149" s="27" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="6"/>
@@ -15588,27 +15603,27 @@
       <c r="B150" s="11"/>
       <c r="C150" s="31"/>
       <c r="D150" s="27" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="E150" s="32" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="6"/>
     </row>
     <row r="151" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A151" s="22" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="C151" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D151" s="24"/>
       <c r="E151" s="7" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="F151" s="33"/>
       <c r="G151" s="6"/>
@@ -15617,11 +15632,11 @@
       <c r="A152" s="25"/>
       <c r="B152" s="11"/>
       <c r="C152" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D152" s="24"/>
       <c r="E152" s="32" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="6"/>
@@ -15630,10 +15645,10 @@
       <c r="A153" s="25"/>
       <c r="B153" s="11"/>
       <c r="C153" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="33"/>
@@ -15644,11 +15659,11 @@
       <c r="B154" s="11"/>
       <c r="C154" s="26"/>
       <c r="D154" s="27" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="E154" s="32"/>
       <c r="F154" s="33" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="G154" s="6"/>
     </row>
@@ -15657,7 +15672,7 @@
       <c r="B155" s="11"/>
       <c r="C155" s="26"/>
       <c r="D155" s="27" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="33"/>
@@ -15668,10 +15683,10 @@
       <c r="B156" s="11"/>
       <c r="C156" s="26"/>
       <c r="D156" s="27" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="E156" s="32" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="6"/>
@@ -15681,7 +15696,7 @@
       <c r="B157" s="11"/>
       <c r="C157" s="26"/>
       <c r="D157" s="27" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="E157" s="32"/>
       <c r="F157" s="33"/>
@@ -15692,7 +15707,7 @@
       <c r="B158" s="11"/>
       <c r="C158" s="26"/>
       <c r="D158" s="27" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="33"/>
@@ -15700,17 +15715,17 @@
     </row>
     <row r="159" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A159" s="22" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="C159" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D159" s="24"/>
       <c r="E159" s="7" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="6"/>
@@ -15719,11 +15734,11 @@
       <c r="A160" s="25"/>
       <c r="B160" s="11"/>
       <c r="C160" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D160" s="24"/>
       <c r="E160" s="32" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="6"/>
@@ -15732,13 +15747,13 @@
       <c r="A161" s="25"/>
       <c r="B161" s="11"/>
       <c r="C161" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D161" s="27" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E161" s="32" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="6"/>
@@ -15748,10 +15763,10 @@
       <c r="B162" s="11"/>
       <c r="C162" s="26"/>
       <c r="D162" s="27" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="E162" s="32" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="6"/>
@@ -15761,7 +15776,7 @@
       <c r="B163" s="11"/>
       <c r="C163" s="26"/>
       <c r="D163" s="27" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="E163" s="32"/>
       <c r="F163" s="33"/>
@@ -15769,17 +15784,17 @@
     </row>
     <row r="164" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A164" s="22" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="C164" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D164" s="24"/>
       <c r="E164" s="7" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="6"/>
@@ -15788,11 +15803,11 @@
       <c r="A165" s="25"/>
       <c r="B165" s="11"/>
       <c r="C165" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D165" s="24"/>
       <c r="E165" s="32" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="6"/>
@@ -15801,7 +15816,7 @@
       <c r="A166" s="25"/>
       <c r="B166" s="11"/>
       <c r="C166" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="32"/>
@@ -15819,17 +15834,17 @@
     </row>
     <row r="168" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A168" s="22" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="C168" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D168" s="24"/>
       <c r="E168" s="7" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="6"/>
@@ -15838,11 +15853,11 @@
       <c r="A169" s="25"/>
       <c r="B169" s="11"/>
       <c r="C169" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D169" s="24"/>
       <c r="E169" s="32" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="6"/>
@@ -15851,13 +15866,13 @@
       <c r="A170" s="25"/>
       <c r="B170" s="11"/>
       <c r="C170" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D170" s="27" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="E170" s="32" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="6"/>
@@ -15867,10 +15882,10 @@
       <c r="B171" s="11"/>
       <c r="C171" s="26"/>
       <c r="D171" s="27" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E171" s="32" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="6"/>
@@ -15880,10 +15895,10 @@
       <c r="B172" s="11"/>
       <c r="C172" s="26"/>
       <c r="D172" s="27" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="E172" s="32" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="6"/>
@@ -15893,7 +15908,7 @@
       <c r="B173" s="11"/>
       <c r="C173" s="26"/>
       <c r="D173" s="27" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="E173" s="32"/>
       <c r="F173" s="33"/>
@@ -15901,17 +15916,17 @@
     </row>
     <row r="174" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A174" s="22" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="C174" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D174" s="24"/>
       <c r="E174" s="7" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="6"/>
@@ -15920,11 +15935,11 @@
       <c r="A175" s="25"/>
       <c r="B175" s="11"/>
       <c r="C175" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D175" s="24"/>
       <c r="E175" s="32" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="6"/>
@@ -15933,10 +15948,10 @@
       <c r="A176" s="25"/>
       <c r="B176" s="11"/>
       <c r="C176" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="E176" s="32"/>
       <c r="F176" s="33"/>
@@ -15947,7 +15962,7 @@
       <c r="B177" s="11"/>
       <c r="C177" s="26"/>
       <c r="D177" s="27" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="E177" s="32"/>
       <c r="F177" s="33"/>
@@ -15958,7 +15973,7 @@
       <c r="B178" s="11"/>
       <c r="C178" s="26"/>
       <c r="D178" s="27" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="E178" s="32"/>
       <c r="F178" s="33"/>
@@ -15969,7 +15984,7 @@
       <c r="B179" s="11"/>
       <c r="C179" s="26"/>
       <c r="D179" s="27" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="E179" s="32"/>
       <c r="F179" s="33"/>
@@ -15980,7 +15995,7 @@
       <c r="B180" s="11"/>
       <c r="C180" s="26"/>
       <c r="D180" s="27" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="E180" s="32"/>
       <c r="F180" s="33"/>
@@ -15991,7 +16006,7 @@
       <c r="B181" s="11"/>
       <c r="C181" s="26"/>
       <c r="D181" s="27" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="E181" s="32"/>
       <c r="F181" s="33"/>
@@ -16002,7 +16017,7 @@
       <c r="B182" s="11"/>
       <c r="C182" s="26"/>
       <c r="D182" s="27" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="E182" s="32"/>
       <c r="F182" s="33"/>
@@ -16010,17 +16025,17 @@
     </row>
     <row r="183" s="1" customFormat="1" ht="58" customHeight="1" spans="1:7">
       <c r="A183" s="22" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="C183" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D183" s="24"/>
       <c r="E183" s="7" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="F183" s="33"/>
       <c r="G183" s="6"/>
@@ -16029,11 +16044,11 @@
       <c r="A184" s="25"/>
       <c r="B184" s="11"/>
       <c r="C184" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D184" s="24"/>
       <c r="E184" s="32" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="F184" s="33"/>
       <c r="G184" s="6"/>
@@ -16042,13 +16057,13 @@
       <c r="A185" s="25"/>
       <c r="B185" s="11"/>
       <c r="C185" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D185" s="27" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="E185" s="32" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="F185" s="33"/>
       <c r="G185" s="6"/>
@@ -16058,7 +16073,7 @@
       <c r="B186" s="11"/>
       <c r="C186" s="26"/>
       <c r="D186" s="27" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="E186" s="32"/>
       <c r="F186" s="33"/>
@@ -16069,7 +16084,7 @@
       <c r="B187" s="11"/>
       <c r="C187" s="26"/>
       <c r="D187" s="27" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="E187" s="32"/>
       <c r="F187" s="33"/>
@@ -16077,17 +16092,17 @@
     </row>
     <row r="188" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A188" s="22" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="C188" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D188" s="24"/>
       <c r="E188" s="7" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="6"/>
@@ -16096,11 +16111,11 @@
       <c r="A189" s="25"/>
       <c r="B189" s="11"/>
       <c r="C189" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D189" s="24"/>
       <c r="E189" s="32" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="6"/>
@@ -16109,10 +16124,10 @@
       <c r="A190" s="25"/>
       <c r="B190" s="11"/>
       <c r="C190" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="E190" s="32"/>
       <c r="F190" s="33"/>
@@ -16123,7 +16138,7 @@
       <c r="B191" s="11"/>
       <c r="C191" s="26"/>
       <c r="D191" s="27" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="E191" s="32"/>
       <c r="F191" s="33"/>
@@ -16134,7 +16149,7 @@
       <c r="B192" s="11"/>
       <c r="C192" s="26"/>
       <c r="D192" s="27" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="E192" s="32"/>
       <c r="F192" s="33"/>
@@ -16145,7 +16160,7 @@
       <c r="B193" s="11"/>
       <c r="C193" s="26"/>
       <c r="D193" s="27" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="E193" s="32"/>
       <c r="F193" s="33"/>
@@ -16153,17 +16168,17 @@
     </row>
     <row r="194" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A194" s="22" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="C194" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D194" s="24"/>
       <c r="E194" s="7" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="F194" s="33"/>
       <c r="G194" s="6"/>
@@ -16172,11 +16187,11 @@
       <c r="A195" s="25"/>
       <c r="B195" s="11"/>
       <c r="C195" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D195" s="24"/>
       <c r="E195" s="32" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="6"/>
@@ -16185,13 +16200,13 @@
       <c r="A196" s="25"/>
       <c r="B196" s="11"/>
       <c r="C196" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D196" s="27" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="E196" s="32" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="F196" s="33"/>
       <c r="G196" s="6"/>
@@ -16201,10 +16216,10 @@
       <c r="B197" s="11"/>
       <c r="C197" s="26"/>
       <c r="D197" s="27" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="E197" s="32" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="F197" s="33"/>
       <c r="G197" s="6"/>
@@ -16214,10 +16229,10 @@
       <c r="B198" s="11"/>
       <c r="C198" s="26"/>
       <c r="D198" s="27" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="E198" s="32" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="F198" s="33"/>
       <c r="G198" s="6"/>
@@ -16227,10 +16242,10 @@
       <c r="B199" s="11"/>
       <c r="C199" s="26"/>
       <c r="D199" s="27" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="E199" s="32" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="F199" s="33"/>
       <c r="G199" s="6"/>
@@ -16240,7 +16255,7 @@
       <c r="B200" s="11"/>
       <c r="C200" s="26"/>
       <c r="D200" s="27" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="E200" s="32"/>
       <c r="F200" s="33"/>
@@ -16248,17 +16263,17 @@
     </row>
     <row r="201" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A201" s="22" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C201" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D201" s="24"/>
       <c r="E201" s="7" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="F201" s="33"/>
       <c r="G201" s="6"/>
@@ -16267,11 +16282,11 @@
       <c r="A202" s="25"/>
       <c r="B202" s="11"/>
       <c r="C202" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D202" s="24"/>
       <c r="E202" s="32" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="F202" s="33"/>
       <c r="G202" s="6"/>
@@ -16280,13 +16295,13 @@
       <c r="A203" s="25"/>
       <c r="B203" s="11"/>
       <c r="C203" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D203" s="27" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="E203" s="32" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="F203" s="33"/>
       <c r="G203" s="6"/>
@@ -16296,10 +16311,10 @@
       <c r="B204" s="11"/>
       <c r="C204" s="26"/>
       <c r="D204" s="27" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="E204" s="32" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="F204" s="33"/>
       <c r="G204" s="6"/>
@@ -16309,10 +16324,10 @@
       <c r="B205" s="11"/>
       <c r="C205" s="26"/>
       <c r="D205" s="27" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="E205" s="32" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="F205" s="33"/>
       <c r="G205" s="6"/>
@@ -16322,27 +16337,27 @@
       <c r="B206" s="11"/>
       <c r="C206" s="26"/>
       <c r="D206" s="27" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="E206" s="32" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="F206" s="33"/>
       <c r="G206" s="6"/>
     </row>
     <row r="207" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A207" s="22" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="C207" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D207" s="24"/>
       <c r="E207" s="7" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="6"/>
@@ -16351,14 +16366,14 @@
       <c r="A208" s="25"/>
       <c r="B208" s="11"/>
       <c r="C208" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D208" s="24"/>
       <c r="E208" s="38" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="F208" s="33" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="G208" s="6"/>
     </row>
@@ -16366,13 +16381,13 @@
       <c r="A209" s="25"/>
       <c r="B209" s="11"/>
       <c r="C209" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="E209" s="32" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="6"/>
@@ -16382,10 +16397,10 @@
       <c r="B210" s="11"/>
       <c r="C210" s="26"/>
       <c r="D210" s="27" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="E210" s="32" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="6"/>
@@ -16395,10 +16410,10 @@
       <c r="B211" s="11"/>
       <c r="C211" s="26"/>
       <c r="D211" s="27" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="E211" s="32" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="6"/>
@@ -16408,27 +16423,27 @@
       <c r="B212" s="11"/>
       <c r="C212" s="26"/>
       <c r="D212" s="27" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="E212" s="32" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="6"/>
     </row>
     <row r="213" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A213" s="22" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="C213" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D213" s="24"/>
       <c r="E213" s="7" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="6"/>
@@ -16437,11 +16452,11 @@
       <c r="A214" s="25"/>
       <c r="B214" s="11"/>
       <c r="C214" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D214" s="24"/>
       <c r="E214" s="32" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="6"/>
@@ -16450,13 +16465,13 @@
       <c r="A215" s="25"/>
       <c r="B215" s="11"/>
       <c r="C215" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D215" s="27" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="E215" s="38" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="6"/>
@@ -16466,13 +16481,13 @@
       <c r="B216" s="11"/>
       <c r="C216" s="26"/>
       <c r="D216" s="27" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="E216" s="32" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="F216" s="33" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="G216" s="6"/>
     </row>
@@ -16481,13 +16496,13 @@
       <c r="B217" s="11"/>
       <c r="C217" s="26"/>
       <c r="D217" s="27" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="E217" s="32" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="F217" s="33" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="G217" s="6"/>
     </row>
@@ -16496,29 +16511,29 @@
       <c r="B218" s="11"/>
       <c r="C218" s="26"/>
       <c r="D218" s="27" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="E218" s="32" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="F218" s="33" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="G218" s="6"/>
     </row>
     <row r="219" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A219" s="22" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="C219" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D219" s="24"/>
       <c r="E219" s="7" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="F219" s="33"/>
       <c r="G219" s="6"/>
@@ -16527,11 +16542,11 @@
       <c r="A220" s="25"/>
       <c r="B220" s="11"/>
       <c r="C220" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D220" s="24"/>
       <c r="E220" s="32" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="F220" s="33"/>
       <c r="G220" s="6"/>
@@ -16540,13 +16555,13 @@
       <c r="A221" s="25"/>
       <c r="B221" s="11"/>
       <c r="C221" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D221" s="27" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="E221" s="32" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="F221" s="33"/>
       <c r="G221" s="6"/>
@@ -16556,10 +16571,10 @@
       <c r="B222" s="11"/>
       <c r="C222" s="26"/>
       <c r="D222" s="27" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="E222" s="32" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="F222" s="33"/>
       <c r="G222" s="6"/>
@@ -16569,27 +16584,27 @@
       <c r="B223" s="11"/>
       <c r="C223" s="26"/>
       <c r="D223" s="27" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="E223" s="32" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="F223" s="33"/>
       <c r="G223" s="6"/>
     </row>
     <row r="224" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A224" s="22" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C224" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D224" s="24"/>
       <c r="E224" s="7" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="F224" s="33"/>
       <c r="G224" s="6"/>
@@ -16598,11 +16613,11 @@
       <c r="A225" s="25"/>
       <c r="B225" s="11"/>
       <c r="C225" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D225" s="24"/>
       <c r="E225" s="32" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="F225" s="33"/>
       <c r="G225" s="6"/>
@@ -16611,13 +16626,13 @@
       <c r="A226" s="25"/>
       <c r="B226" s="11"/>
       <c r="C226" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D226" s="27" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="E226" s="32" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="F226" s="33"/>
       <c r="G226" s="6"/>
@@ -16630,7 +16645,7 @@
         <v>132</v>
       </c>
       <c r="E227" s="32" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="F227" s="33"/>
       <c r="G227" s="6"/>
@@ -16640,27 +16655,27 @@
       <c r="B228" s="11"/>
       <c r="C228" s="26"/>
       <c r="D228" s="27" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="E228" s="32" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="F228" s="33"/>
       <c r="G228" s="6"/>
     </row>
     <row r="229" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A229" s="22" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="C229" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D229" s="24"/>
       <c r="E229" s="7" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="F229" s="33"/>
       <c r="G229" s="6"/>
@@ -16669,11 +16684,11 @@
       <c r="A230" s="25"/>
       <c r="B230" s="11"/>
       <c r="C230" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D230" s="24"/>
       <c r="E230" s="32" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="F230" s="33"/>
       <c r="G230" s="6"/>
@@ -16682,13 +16697,13 @@
       <c r="A231" s="25"/>
       <c r="B231" s="11"/>
       <c r="C231" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D231" s="27" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="E231" s="32" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="6"/>
@@ -16698,10 +16713,10 @@
       <c r="B232" s="11"/>
       <c r="C232" s="26"/>
       <c r="D232" s="27" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="E232" s="32" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="F232" s="33"/>
       <c r="G232" s="6"/>
@@ -16711,10 +16726,10 @@
       <c r="B233" s="11"/>
       <c r="C233" s="26"/>
       <c r="D233" s="27" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="E233" s="32" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="6"/>
@@ -16724,27 +16739,27 @@
       <c r="B234" s="11"/>
       <c r="C234" s="26"/>
       <c r="D234" s="27" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="E234" s="38" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="F234" s="33"/>
       <c r="G234" s="6"/>
     </row>
     <row r="235" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A235" s="22" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="C235" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D235" s="24"/>
       <c r="E235" s="7" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="F235" s="33"/>
       <c r="G235" s="6"/>
@@ -16753,11 +16768,11 @@
       <c r="A236" s="25"/>
       <c r="B236" s="11"/>
       <c r="C236" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D236" s="24"/>
       <c r="E236" s="32" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="F236" s="33"/>
       <c r="G236" s="6"/>
@@ -16766,10 +16781,10 @@
       <c r="A237" s="25"/>
       <c r="B237" s="11"/>
       <c r="C237" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="E237" s="32"/>
       <c r="F237" s="33"/>
@@ -16780,7 +16795,7 @@
       <c r="B238" s="11"/>
       <c r="C238" s="26"/>
       <c r="D238" s="27" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="E238" s="32"/>
       <c r="F238" s="33"/>
@@ -16791,10 +16806,10 @@
       <c r="B239" s="11"/>
       <c r="C239" s="26"/>
       <c r="D239" s="27" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="E239" s="32" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="F239" s="33"/>
       <c r="G239" s="6"/>
@@ -16804,27 +16819,27 @@
       <c r="B240" s="11"/>
       <c r="C240" s="26"/>
       <c r="D240" s="27" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="E240" s="32" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="F240" s="33"/>
       <c r="G240" s="6"/>
     </row>
     <row r="241" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A241" s="22" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="C241" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D241" s="24"/>
       <c r="E241" s="7" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="F241" s="33"/>
       <c r="G241" s="6"/>
@@ -16833,11 +16848,11 @@
       <c r="A242" s="25"/>
       <c r="B242" s="11"/>
       <c r="C242" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D242" s="24"/>
       <c r="E242" s="32" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="F242" s="33"/>
       <c r="G242" s="6"/>
@@ -16846,10 +16861,10 @@
       <c r="A243" s="25"/>
       <c r="B243" s="11"/>
       <c r="C243" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D243" s="27" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="E243" s="32"/>
       <c r="F243" s="33"/>
@@ -16860,7 +16875,7 @@
       <c r="B244" s="13"/>
       <c r="C244" s="26"/>
       <c r="D244" s="27" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="E244" s="32"/>
       <c r="F244" s="33"/>
@@ -16868,17 +16883,17 @@
     </row>
     <row r="245" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A245" s="22" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="C245" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D245" s="24"/>
       <c r="E245" s="7" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="F245" s="33"/>
       <c r="G245" s="6"/>
@@ -16887,11 +16902,11 @@
       <c r="A246" s="25"/>
       <c r="B246" s="11"/>
       <c r="C246" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D246" s="24"/>
       <c r="E246" s="32" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="F246" s="33"/>
       <c r="G246" s="6"/>
@@ -16900,10 +16915,10 @@
       <c r="A247" s="25"/>
       <c r="B247" s="11"/>
       <c r="C247" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D247" s="27" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="E247" s="32"/>
       <c r="F247" s="33"/>
@@ -16914,7 +16929,7 @@
       <c r="B248" s="11"/>
       <c r="C248" s="26"/>
       <c r="D248" s="27" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="E248" s="32"/>
       <c r="F248" s="33"/>
@@ -16925,10 +16940,10 @@
       <c r="B249" s="11"/>
       <c r="C249" s="26"/>
       <c r="D249" s="27" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="E249" s="32" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="F249" s="33"/>
       <c r="G249" s="6"/>
@@ -16938,10 +16953,10 @@
       <c r="B250" s="11"/>
       <c r="C250" s="26"/>
       <c r="D250" s="27" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="E250" s="32" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="F250" s="33"/>
       <c r="G250" s="6"/>
@@ -16951,7 +16966,7 @@
       <c r="B251" s="11"/>
       <c r="C251" s="26"/>
       <c r="D251" s="27" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="E251" s="32"/>
       <c r="F251" s="33"/>
@@ -16962,7 +16977,7 @@
       <c r="B252" s="11"/>
       <c r="C252" s="26"/>
       <c r="D252" s="27" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="E252" s="32"/>
       <c r="F252" s="33"/>
@@ -16970,17 +16985,17 @@
     </row>
     <row r="253" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A253" s="22" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="C253" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D253" s="24"/>
       <c r="E253" s="7" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="F253" s="33"/>
       <c r="G253" s="6"/>
@@ -16989,14 +17004,14 @@
       <c r="A254" s="25"/>
       <c r="B254" s="11"/>
       <c r="C254" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D254" s="24"/>
       <c r="E254" s="32" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="F254" s="33" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="G254" s="6"/>
     </row>
@@ -17004,13 +17019,13 @@
       <c r="A255" s="25"/>
       <c r="B255" s="11"/>
       <c r="C255" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D255" s="27" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="E255" s="32" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="F255" s="33"/>
       <c r="G255" s="6"/>
@@ -17020,10 +17035,10 @@
       <c r="B256" s="11"/>
       <c r="C256" s="26"/>
       <c r="D256" s="27" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="E256" s="32" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="F256" s="33"/>
       <c r="G256" s="6"/>
@@ -17033,27 +17048,27 @@
       <c r="B257" s="11"/>
       <c r="C257" s="26"/>
       <c r="D257" s="27" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="E257" s="32" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="F257" s="33"/>
       <c r="G257" s="6"/>
     </row>
     <row r="258" s="1" customFormat="1" ht="65" customHeight="1" spans="1:7">
       <c r="A258" s="22" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="C258" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D258" s="24"/>
       <c r="E258" s="7" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="F258" s="33"/>
       <c r="G258" s="6"/>
@@ -17062,11 +17077,11 @@
       <c r="A259" s="25"/>
       <c r="B259" s="11"/>
       <c r="C259" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D259" s="24"/>
       <c r="E259" s="32" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="F259" s="33"/>
       <c r="G259" s="6"/>
@@ -17075,10 +17090,10 @@
       <c r="A260" s="25"/>
       <c r="B260" s="11"/>
       <c r="C260" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D260" s="27" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="E260" s="32"/>
       <c r="F260" s="33"/>
@@ -17089,10 +17104,10 @@
       <c r="B261" s="11"/>
       <c r="C261" s="26"/>
       <c r="D261" s="27" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="E261" s="32" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="F261" s="33"/>
       <c r="G261" s="6"/>
@@ -17102,7 +17117,7 @@
       <c r="B262" s="11"/>
       <c r="C262" s="26"/>
       <c r="D262" s="27" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="E262" s="32"/>
       <c r="F262" s="33"/>
@@ -17113,7 +17128,7 @@
       <c r="B263" s="11"/>
       <c r="C263" s="26"/>
       <c r="D263" s="27" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="E263" s="32"/>
       <c r="F263" s="33"/>
@@ -17121,17 +17136,17 @@
     </row>
     <row r="264" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A264" s="22" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="C264" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D264" s="24"/>
       <c r="E264" s="7" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="F264" s="33"/>
       <c r="G264" s="6"/>
@@ -17140,11 +17155,11 @@
       <c r="A265" s="25"/>
       <c r="B265" s="11"/>
       <c r="C265" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D265" s="24"/>
       <c r="E265" s="32" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="F265" s="33"/>
       <c r="G265" s="6"/>
@@ -17153,13 +17168,13 @@
       <c r="A266" s="25"/>
       <c r="B266" s="11"/>
       <c r="C266" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D266" s="27" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="E266" s="32" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="F266" s="33"/>
       <c r="G266" s="6"/>
@@ -17169,7 +17184,7 @@
       <c r="B267" s="11"/>
       <c r="C267" s="26"/>
       <c r="D267" s="27" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="E267" s="32"/>
       <c r="F267" s="33"/>
@@ -17180,7 +17195,7 @@
       <c r="B268" s="11"/>
       <c r="C268" s="26"/>
       <c r="D268" s="27" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="E268" s="32"/>
       <c r="F268" s="33"/>
@@ -17191,7 +17206,7 @@
       <c r="B269" s="11"/>
       <c r="C269" s="26"/>
       <c r="D269" s="27" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="E269" s="32"/>
       <c r="F269" s="33"/>
@@ -17199,17 +17214,17 @@
     </row>
     <row r="270" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A270" s="22" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="C270" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D270" s="24"/>
       <c r="E270" s="7" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="F270" s="33"/>
       <c r="G270" s="6"/>
@@ -17218,11 +17233,11 @@
       <c r="A271" s="25"/>
       <c r="B271" s="11"/>
       <c r="C271" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D271" s="24"/>
       <c r="E271" s="38" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="F271" s="33"/>
       <c r="G271" s="6"/>
@@ -17231,13 +17246,13 @@
       <c r="A272" s="25"/>
       <c r="B272" s="11"/>
       <c r="C272" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D272" s="27" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="E272" s="32" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="F272" s="33"/>
       <c r="G272" s="6"/>
@@ -17247,7 +17262,7 @@
       <c r="B273" s="11"/>
       <c r="C273" s="26"/>
       <c r="D273" s="27" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="E273" s="32"/>
       <c r="F273" s="33"/>
@@ -17258,27 +17273,27 @@
       <c r="B274" s="11"/>
       <c r="C274" s="26"/>
       <c r="D274" s="27" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="E274" s="32" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="F274" s="33"/>
       <c r="G274" s="6"/>
     </row>
     <row r="275" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A275" s="22" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="C275" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D275" s="24"/>
       <c r="E275" s="7" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="F275" s="33"/>
       <c r="G275" s="6"/>
@@ -17287,11 +17302,11 @@
       <c r="A276" s="25"/>
       <c r="B276" s="11"/>
       <c r="C276" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D276" s="24"/>
       <c r="E276" s="32" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="F276" s="33"/>
       <c r="G276" s="6"/>
@@ -17300,13 +17315,13 @@
       <c r="A277" s="25"/>
       <c r="B277" s="11"/>
       <c r="C277" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D277" s="27" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="E277" s="32" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="F277" s="33"/>
       <c r="G277" s="6"/>
@@ -17316,10 +17331,10 @@
       <c r="B278" s="11"/>
       <c r="C278" s="26"/>
       <c r="D278" s="27" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="E278" s="32" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="F278" s="33"/>
       <c r="G278" s="6"/>
@@ -17329,10 +17344,10 @@
       <c r="B279" s="11"/>
       <c r="C279" s="26"/>
       <c r="D279" s="27" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="E279" s="32" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="F279" s="33"/>
       <c r="G279" s="6"/>
@@ -17342,27 +17357,27 @@
       <c r="B280" s="11"/>
       <c r="C280" s="26"/>
       <c r="D280" s="27" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="E280" s="32" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="F280" s="33"/>
       <c r="G280" s="6"/>
     </row>
     <row r="281" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A281" s="22" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="C281" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D281" s="24"/>
       <c r="E281" s="7" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="F281" s="33"/>
       <c r="G281" s="6"/>
@@ -17371,7 +17386,7 @@
       <c r="A282" s="25"/>
       <c r="B282" s="11"/>
       <c r="C282" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D282" s="24"/>
       <c r="E282" s="32"/>
@@ -17382,13 +17397,13 @@
       <c r="A283" s="25"/>
       <c r="B283" s="11"/>
       <c r="C283" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D283" s="27" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="E283" s="32" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="F283" s="33"/>
       <c r="G283" s="6"/>
@@ -17398,17 +17413,17 @@
       <c r="B284" s="13"/>
       <c r="C284" s="26"/>
       <c r="D284" s="27" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="E284" s="32" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="F284" s="33"/>
       <c r="G284" s="6"/>
     </row>
     <row r="285" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A285" s="22" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="B285" s="9"/>
       <c r="C285" s="23" t="s">
@@ -17416,7 +17431,7 @@
       </c>
       <c r="D285" s="24"/>
       <c r="E285" s="7" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="F285" s="33"/>
       <c r="G285" s="6"/>
@@ -17425,11 +17440,11 @@
       <c r="A286" s="25"/>
       <c r="B286" s="11"/>
       <c r="C286" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D286" s="24"/>
       <c r="E286" s="32" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="F286" s="33"/>
       <c r="G286" s="6"/>
@@ -17438,10 +17453,10 @@
       <c r="A287" s="25"/>
       <c r="B287" s="11"/>
       <c r="C287" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D287" s="27" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="E287" s="32"/>
       <c r="F287" s="33"/>
@@ -17452,10 +17467,10 @@
       <c r="B288" s="11"/>
       <c r="C288" s="26"/>
       <c r="D288" s="27" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="E288" s="32" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="F288" s="33"/>
       <c r="G288" s="6"/>
@@ -17465,10 +17480,10 @@
       <c r="B289" s="11"/>
       <c r="C289" s="26"/>
       <c r="D289" s="27" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="E289" s="32" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="F289" s="33"/>
       <c r="G289" s="6"/>
@@ -17478,27 +17493,27 @@
       <c r="B290" s="11"/>
       <c r="C290" s="26"/>
       <c r="D290" s="27" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="E290" s="32" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="F290" s="33"/>
       <c r="G290" s="6"/>
     </row>
     <row r="291" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A291" s="22" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="C291" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D291" s="24"/>
       <c r="E291" s="7" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="F291" s="33"/>
       <c r="G291" s="6"/>
@@ -17507,7 +17522,7 @@
       <c r="A292" s="25"/>
       <c r="B292" s="11"/>
       <c r="C292" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D292" s="24"/>
       <c r="E292" s="32"/>
@@ -17518,13 +17533,13 @@
       <c r="A293" s="25"/>
       <c r="B293" s="11"/>
       <c r="C293" s="26" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D293" s="27" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="E293" s="32" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="F293" s="33"/>
       <c r="G293" s="6"/>
@@ -17534,10 +17549,10 @@
       <c r="B294" s="11"/>
       <c r="C294" s="26"/>
       <c r="D294" s="27" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="E294" s="32" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="F294" s="33"/>
       <c r="G294" s="6"/>
@@ -17547,7 +17562,7 @@
       <c r="B295" s="11"/>
       <c r="C295" s="26"/>
       <c r="D295" s="27" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="E295" s="32"/>
       <c r="F295" s="33"/>
@@ -17558,7 +17573,7 @@
       <c r="B296" s="11"/>
       <c r="C296" s="26"/>
       <c r="D296" s="27" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="E296" s="32"/>
       <c r="F296" s="33"/>
@@ -17569,7 +17584,7 @@
       <c r="B297" s="11"/>
       <c r="C297" s="26"/>
       <c r="D297" s="27" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E297" s="32"/>
       <c r="F297" s="33"/>
@@ -17577,17 +17592,17 @@
     </row>
     <row r="298" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A298" s="22" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="C298" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D298" s="24"/>
       <c r="E298" s="7" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="F298" s="33"/>
       <c r="G298" s="6"/>
@@ -17596,11 +17611,11 @@
       <c r="A299" s="25"/>
       <c r="B299" s="11"/>
       <c r="C299" s="23" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D299" s="24"/>
       <c r="E299" s="32" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="F299" s="33"/>
       <c r="G299" s="6"/>
@@ -17609,10 +17624,10 @@
       <c r="A300" s="25"/>
       <c r="B300" s="11"/>
       <c r="C300" s="29" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D300" s="27" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="E300" s="32"/>
       <c r="F300" s="33"/>
@@ -17623,10 +17638,10 @@
       <c r="B301" s="11"/>
       <c r="C301" s="30"/>
       <c r="D301" s="27" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="E301" s="32" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="F301" s="33"/>
       <c r="G301" s="6"/>
@@ -17636,7 +17651,7 @@
       <c r="B302" s="11"/>
       <c r="C302" s="30"/>
       <c r="D302" s="5" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="E302" s="7"/>
       <c r="F302" s="33"/>
@@ -17647,10 +17662,10 @@
       <c r="B303" s="13"/>
       <c r="C303" s="31"/>
       <c r="D303" s="5" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="F303" s="33"/>
       <c r="G303" s="6"/>
@@ -18244,7 +18259,7 @@
         <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>111</v>
@@ -18260,7 +18275,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -18272,13 +18287,13 @@
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -18289,7 +18304,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="7" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -18300,11 +18315,11 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="7" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -18313,11 +18328,11 @@
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="7" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -18326,7 +18341,7 @@
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="7" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -18335,13 +18350,13 @@
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -18352,7 +18367,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -18363,7 +18378,7 @@
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="7" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -18374,7 +18389,7 @@
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="7" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -18383,17 +18398,17 @@
     <row r="12" ht="139" customHeight="1" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -18406,10 +18421,10 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="18" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
@@ -18419,10 +18434,10 @@
       <c r="D14" s="15"/>
       <c r="E14" s="10"/>
       <c r="F14" s="18" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="15" ht="84" spans="1:7">
@@ -18432,10 +18447,10 @@
       <c r="D15" s="15"/>
       <c r="E15" s="10"/>
       <c r="F15" s="18" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="16" ht="56" spans="1:7">
@@ -18445,10 +18460,10 @@
       <c r="D16" s="15"/>
       <c r="E16" s="10"/>
       <c r="F16" s="18" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
@@ -18458,10 +18473,10 @@
       <c r="D17" s="15"/>
       <c r="E17" s="10"/>
       <c r="F17" s="18" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
@@ -18471,10 +18486,10 @@
       <c r="D18" s="15"/>
       <c r="E18" s="10"/>
       <c r="F18" s="18" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
@@ -18484,10 +18499,10 @@
       <c r="D19" s="15"/>
       <c r="E19" s="10"/>
       <c r="F19" s="18" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1" spans="1:7">
@@ -18497,10 +18512,10 @@
       <c r="D20" s="15"/>
       <c r="E20" s="10"/>
       <c r="F20" s="18" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="21" ht="63" customHeight="1" spans="1:7">
@@ -18510,10 +18525,10 @@
       <c r="D21" s="15"/>
       <c r="E21" s="10"/>
       <c r="F21" s="18" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:7">
@@ -18523,10 +18538,10 @@
       <c r="D22" s="15"/>
       <c r="E22" s="10"/>
       <c r="F22" s="18" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
@@ -18536,10 +18551,10 @@
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
       <c r="F23" s="18" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
@@ -18549,10 +18564,10 @@
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
       <c r="F24" s="18" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
@@ -18562,22 +18577,22 @@
       <c r="D25" s="16"/>
       <c r="E25" s="12"/>
       <c r="F25" s="18" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -18588,7 +18603,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -18599,7 +18614,7 @@
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -18610,7 +18625,7 @@
       <c r="B29" s="6"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -18621,7 +18636,7 @@
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -18632,7 +18647,7 @@
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -18641,17 +18656,17 @@
     <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -18660,11 +18675,11 @@
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="G33" s="7"/>
     </row>
@@ -18677,7 +18692,7 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="G34" s="7"/>
     </row>
@@ -18690,7 +18705,7 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="G35" s="7"/>
     </row>
@@ -18703,7 +18718,7 @@
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G36" s="7"/>
     </row>
@@ -18716,143 +18731,143 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G37" s="7"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="4:4">
       <c r="D39" s="2" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="4:4">
       <c r="D40" s="2" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="4:4">
       <c r="D41" s="2" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="4:4">
       <c r="D42" s="2" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
       <c r="B43" s="1" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="4:4">
       <c r="D44" s="2" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="4:4">
       <c r="D45" s="2" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="46" ht="129" customHeight="1" spans="4:6">
       <c r="D46" s="2" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:7">
       <c r="B47" s="1" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="48" ht="58" customHeight="1" spans="6:7">
       <c r="F48" s="19" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="6:7">
       <c r="F49" s="19" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="4:7">
       <c r="D50" s="2" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="51" ht="58" customHeight="1" spans="6:7">
       <c r="F51" s="19" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="4:7">
       <c r="D52" s="2" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="G52" s="19"/>
     </row>
     <row r="53" customHeight="1" spans="6:7">
       <c r="F53" s="19" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="G53" s="19"/>
     </row>
     <row r="54" customHeight="1" spans="2:7">
       <c r="B54" s="1" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>130</v>
@@ -18862,136 +18877,136 @@
     </row>
     <row r="55" customHeight="1" spans="2:7">
       <c r="B55" s="1" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
     </row>
     <row r="56" customHeight="1" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
     </row>
     <row r="57" customHeight="1" spans="2:4">
       <c r="B57" s="1" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="4:4">
       <c r="D58" s="2" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="4:4">
       <c r="D59" s="2" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="4:4">
       <c r="D60" s="2" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="4:4">
       <c r="D61" s="2" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:7">
       <c r="B63" s="1" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="6:7">
       <c r="F64" s="19" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="6:7">
       <c r="F65" s="19" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="6:7">
       <c r="F66" s="19" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="6:7">
       <c r="F67" s="19" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="6:7">
       <c r="F68" s="19" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="6:7">
       <c r="F69" s="19" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="6:7">
       <c r="F70" s="19" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="6:7">
       <c r="F71" s="19" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="4:7">
@@ -18999,226 +19014,226 @@
         <v>132</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="6:7">
       <c r="F73" s="19" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="6:7">
       <c r="F74" s="19" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="6:7">
       <c r="F75" s="19" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="76" ht="65" customHeight="1" spans="6:7">
       <c r="F76" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="6:7">
       <c r="F77" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="78" ht="70" spans="6:7">
       <c r="F78" s="2" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="79" ht="56" spans="6:7">
       <c r="F79" s="2" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="6:7">
       <c r="F80" s="2" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="6:7">
       <c r="F81" s="2" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="6:7">
       <c r="F82" s="2" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="83" ht="70" spans="6:7">
       <c r="F83" s="2" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="84" ht="56" spans="6:7">
       <c r="F84" s="2" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="85" ht="84" spans="6:7">
       <c r="F85" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="3:7">
       <c r="C87" s="1" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="2" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="6:7">
       <c r="F88" s="2" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="6:7">
       <c r="F89" s="2" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="90" ht="42" spans="6:7">
       <c r="F90" s="2" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="6:7">
       <c r="F91" s="2" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="4:7">
       <c r="D92" s="1" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="2" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="6:7">
       <c r="F93" s="2" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="94" ht="42" spans="6:7">
       <c r="F94" s="2" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="6:7">
       <c r="F95" s="2" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="6:7">
       <c r="F96" s="2" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="97" ht="84" spans="6:7">
       <c r="F97" s="2" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="98" ht="70" spans="6:7">
       <c r="F98" s="2" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="99" ht="71" customHeight="1" spans="4:7">
@@ -19227,130 +19242,130 @@
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="2" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="100" ht="42" spans="6:7">
       <c r="F100" s="2" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="6:7">
       <c r="F101" s="2" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="6:7">
       <c r="F102" s="2" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="6:7">
       <c r="F103" s="2" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="104" ht="56" spans="6:7">
       <c r="F104" s="2" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="105" ht="45" customHeight="1" spans="6:7">
       <c r="F105" s="2" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="6:7">
       <c r="F106" s="2" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="107" ht="54" customHeight="1" spans="6:7">
       <c r="F107" s="2" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="6:7">
       <c r="F108" s="2" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="109" ht="59" customHeight="1" spans="6:7">
       <c r="F109" s="2" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="6:7">
       <c r="F110" s="2" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="111" ht="56" spans="6:7">
       <c r="F111" s="2" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="6:7">
       <c r="F112" s="2" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="6:7">
       <c r="F113" s="2" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="6:7">
       <c r="F114" s="2" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
     </row>
   </sheetData>
@@ -22204,13 +22219,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="20.5625" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.5625" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.78125" style="1" customWidth="1"/>
@@ -22257,7 +22272,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="29" t="s">
@@ -22285,7 +22300,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="5" s="1" customFormat="1" ht="51" customHeight="1" spans="1:7">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="23" t="s">
@@ -22302,7 +22317,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
+    <row r="6" s="1" customFormat="1" ht="54" customHeight="1" spans="1:8">
       <c r="A6" s="9">
         <v>7.2</v>
       </c>
@@ -22319,6 +22334,9 @@
       <c r="F6" s="51"/>
       <c r="G6" s="5" t="s">
         <v>472</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="54" customHeight="1" spans="1:8">
@@ -22334,13 +22352,13 @@
         <v>467</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H7" s="53" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22351,32 +22369,38 @@
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="59" customHeight="1" spans="1:9">
       <c r="A9" s="9">
         <v>7.3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="40" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="49" customHeight="1" spans="1:7">
@@ -22392,10 +22416,10 @@
         <v>467</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="64" customHeight="1" spans="1:7">
@@ -22406,13 +22430,13 @@
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="115" customHeight="1" spans="1:7">
@@ -22420,18 +22444,18 @@
         <v>7.4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
@@ -22444,13 +22468,13 @@
         <v>3.4</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22459,13 +22483,13 @@
       <c r="C14" s="26"/>
       <c r="D14" s="46"/>
       <c r="E14" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
@@ -22476,16 +22500,16 @@
         <v>6.4</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="61" customHeight="1" spans="1:7">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="23" t="s">
@@ -22493,13 +22517,13 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="95" customHeight="1" spans="1:7">
@@ -22507,18 +22531,18 @@
         <v>7.5</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="5" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
@@ -22534,10 +22558,10 @@
         <v>454</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="72" customHeight="1" spans="1:7">
@@ -22545,16 +22569,16 @@
       <c r="B19" s="11"/>
       <c r="C19" s="30"/>
       <c r="D19" s="47" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22565,13 +22589,13 @@
         <v>7.4</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -22582,13 +22606,13 @@
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="60" customHeight="1" spans="1:7">
@@ -22596,18 +22620,18 @@
         <v>7.6</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="5" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
@@ -22623,10 +22647,10 @@
         <v>416</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -22637,13 +22661,13 @@
         <v>7.5</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
@@ -22654,13 +22678,13 @@
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/笔记/CBAP/知识点.xlsx
+++ b/笔记/CBAP/知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13180" firstSheet="3" activeTab="8"/>
+    <workbookView windowHeight="16780" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="核查单" sheetId="12" r:id="rId1"/>
@@ -1738,7 +1738,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528">
   <si>
     <t>核查单</t>
   </si>
@@ -5550,17 +5550,13 @@
 绩效度量确定一个新部署或现有解决方案的价值。</t>
   </si>
   <si>
-    <t xml:space="preserve"> Business Objectives
-业务目标</t>
-  </si>
-  <si>
     <t>the measurable results that the enterprise wants to achieve. Provides a benchmark against which solution performance can be assessed.</t>
   </si>
   <si>
     <t>企业想要达成的可衡量的结果，为评估解决方案绩效提供标杆。</t>
   </si>
   <si>
-    <t xml:space="preserve"> Implemented Solution (external)
+    <t>Implemented Solution (external)
 已实施的解决方案（外部）</t>
   </si>
   <si>
@@ -5568,37 +5564,41 @@
   </si>
   <si>
     <t>一个以某种形式存在的解决方案（或解决方案部件）。它可以是一个运行中的解决方案、一个原型、或是一个试运行或测试版解决方案。</t>
+  </si>
+  <si>
+    <t>Solution Performance Measures
+解决方案绩效度量</t>
+  </si>
+  <si>
+    <t>measures that provide information on how well the solution is performing or potentially could perform.</t>
+  </si>
+  <si>
+    <t>能够提供有关解决方案实际运行或潜在运行情况信息的度量。</t>
+  </si>
+  <si>
+    <t>Analyze Performance Measures
+分析绩效度量</t>
+  </si>
+  <si>
+    <t>to provide insights into the performance of a solution in relation to the value it brings.</t>
+  </si>
+  <si>
+    <t>分析绩效度量的目的是依据解决方案所带来的价值为其绩效提供洞察。
+在衡量解决方案绩效任务中所搜集的度量常常需要通过解读与综合，才能得出含义并据以采取措施。绩效度量本身很好能直接确定解决方案的价值。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Potential Value
+潜在价值</t>
+  </si>
+  <si>
+    <t>describes the value that may be realized by implementing the proposed future state. It can be used as a benchmark against which solution performance can be evaluated.</t>
+  </si>
+  <si>
+    <t>描述实施拟议将来状态可以实现的价值。可以用作评价解决方案绩效的标杆。</t>
   </si>
   <si>
     <t xml:space="preserve"> Solution Performance Measures
 解决方案绩效度量</t>
-  </si>
-  <si>
-    <t>measures that provide information on how well the solution is performing or potentially could perform.</t>
-  </si>
-  <si>
-    <t>能够提供有关解决方案实际运行或潜在运行情况信息的度量。</t>
-  </si>
-  <si>
-    <t>Analyze Performance Measures
-分析绩效度量</t>
-  </si>
-  <si>
-    <t>to provide insights into the performance of a solution in relation to the value it brings.</t>
-  </si>
-  <si>
-    <t>分析绩效度量的目的是依据解决方案所带来的价值为其绩效提供洞察。
-在衡量解决方案绩效任务中所搜集的度量常常需要通过解读与综合，才能得出含义并据以采取措施。绩效度量本身很好能直接确定解决方案的价值。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Potential Value
-潜在价值</t>
-  </si>
-  <si>
-    <t>describes the value that may be realized by implementing the proposed future state. It can be used as a benchmark against which solution performance can be evaluated.</t>
-  </si>
-  <si>
-    <t>描述实施拟议将来状态可以实现的价值。可以用作评价解决方案绩效的标杆。</t>
   </si>
   <si>
     <t>measures and provides information on how well the solution is performing or potentially could perform.</t>
@@ -5629,6 +5629,16 @@
 如果解决方案没有达成其潜在价值，商业分析人员确定哪些解决方案内部或外部因素限制了其价值。本任务关注对解决方案内部因素的评估。</t>
   </si>
   <si>
+    <t>8.3 与 8.4 同步进行</t>
+  </si>
+  <si>
+    <t>8.3 内部</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implemented Solution (external)
+已实施的解决方案（外部）</t>
+  </si>
+  <si>
     <t>a solution that exists. The solution may or may not be in operational use; it may be a prototype. The solution must be in use in some form in order to be evaluated.</t>
   </si>
   <si>
@@ -5686,6 +5696,9 @@
   <si>
     <t>评估企业局限的目的是确定解决方案的外部因素如何制约其价值实现。
 评估企业局限识别根本原因并说明企业因素如何制约价值实现。</t>
+  </si>
+  <si>
+    <t>8.4 外部</t>
   </si>
   <si>
     <t>the current internal environment of the solution including the environmental, cultural, and internal factors influencing the solution limitations.</t>
@@ -11049,7 +11062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11267,6 +11280,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11795,494 +11814,496 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.703125" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="73" customWidth="1"/>
-    <col min="2" max="3" width="20.703125" style="73" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="73" customWidth="1"/>
-    <col min="5" max="16384" width="20.703125" style="73" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="75" customWidth="1"/>
+    <col min="2" max="3" width="20.703125" style="75" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="75" customWidth="1"/>
+    <col min="5" max="16384" width="20.703125" style="75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="76" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77">
+      <c r="B9" s="79"/>
+      <c r="C9" s="79">
         <v>20211106</v>
       </c>
-      <c r="D9" s="77"/>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77">
+      <c r="B10" s="79"/>
+      <c r="C10" s="79">
         <v>20211114</v>
       </c>
-      <c r="D10" s="77"/>
+      <c r="D10" s="79"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77">
+      <c r="B11" s="79"/>
+      <c r="C11" s="79">
         <v>20211208</v>
       </c>
-      <c r="D11" s="77"/>
+      <c r="D11" s="79"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77">
+      <c r="B12" s="79"/>
+      <c r="C12" s="79">
         <v>20211225</v>
       </c>
-      <c r="D12" s="77"/>
+      <c r="D12" s="79"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79">
         <v>20211106</v>
       </c>
-      <c r="D13" s="77"/>
+      <c r="D13" s="79"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77">
+      <c r="B14" s="79"/>
+      <c r="C14" s="79">
         <v>20211106</v>
       </c>
-      <c r="D14" s="77"/>
+      <c r="D14" s="79"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77">
+      <c r="B15" s="79"/>
+      <c r="C15" s="79">
         <v>20211108</v>
       </c>
-      <c r="D15" s="77"/>
+      <c r="D15" s="79"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77">
+      <c r="B16" s="79"/>
+      <c r="C16" s="79">
         <v>20211108</v>
       </c>
-      <c r="D16" s="77"/>
+      <c r="D16" s="79"/>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77">
+      <c r="B17" s="79"/>
+      <c r="C17" s="79">
         <v>20211108</v>
       </c>
-      <c r="D17" s="77"/>
+      <c r="D17" s="79"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77">
+      <c r="B18" s="79"/>
+      <c r="C18" s="79">
         <v>20211109</v>
       </c>
-      <c r="D18" s="77"/>
+      <c r="D18" s="79"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77">
+      <c r="B19" s="79"/>
+      <c r="C19" s="79">
         <v>20211109</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="79"/>
     </row>
     <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79">
         <v>20211109</v>
       </c>
-      <c r="D20" s="77"/>
+      <c r="D20" s="79"/>
     </row>
     <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77">
+      <c r="B21" s="79"/>
+      <c r="C21" s="79">
         <v>20211114</v>
       </c>
-      <c r="D21" s="77"/>
+      <c r="D21" s="79"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77">
+      <c r="B22" s="79"/>
+      <c r="C22" s="79">
         <v>20211208</v>
       </c>
-      <c r="D22" s="77"/>
+      <c r="D22" s="79"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77">
+      <c r="B23" s="79"/>
+      <c r="C23" s="79">
         <v>20211225</v>
       </c>
-      <c r="D23" s="77"/>
+      <c r="D23" s="79"/>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77">
+      <c r="B24" s="79"/>
+      <c r="C24" s="79">
         <v>20220213</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="79" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77">
+      <c r="B25" s="79"/>
+      <c r="C25" s="79">
         <v>20220213</v>
       </c>
-      <c r="D25" s="77"/>
+      <c r="D25" s="79"/>
     </row>
     <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77">
+      <c r="B26" s="79"/>
+      <c r="C26" s="79">
         <v>20220306</v>
       </c>
-      <c r="D26" s="77"/>
+      <c r="D26" s="79"/>
     </row>
     <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
     </row>
     <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77">
+      <c r="B28" s="79"/>
+      <c r="C28" s="79">
         <v>20220320</v>
       </c>
-      <c r="D28" s="77"/>
+      <c r="D28" s="79"/>
     </row>
     <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77">
+      <c r="B29" s="79"/>
+      <c r="C29" s="79">
         <v>20211225</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="79" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77">
+      <c r="B30" s="79"/>
+      <c r="C30" s="79">
         <v>20211226</v>
       </c>
-      <c r="D30" s="77"/>
+      <c r="D30" s="79"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77">
+      <c r="B31" s="79"/>
+      <c r="C31" s="79">
         <v>20211226</v>
       </c>
-      <c r="D31" s="77"/>
+      <c r="D31" s="79"/>
     </row>
     <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77">
+      <c r="B32" s="79"/>
+      <c r="C32" s="79">
         <v>20220324</v>
       </c>
-      <c r="D32" s="77"/>
+      <c r="D32" s="79"/>
     </row>
     <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77">
+      <c r="B33" s="79"/>
+      <c r="C33" s="79">
         <v>20220327</v>
       </c>
-      <c r="D33" s="77"/>
+      <c r="D33" s="79"/>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77">
+      <c r="B34" s="79"/>
+      <c r="C34" s="79">
         <v>20220402</v>
       </c>
-      <c r="D34" s="77"/>
+      <c r="D34" s="79"/>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77">
+      <c r="B35" s="79"/>
+      <c r="C35" s="79">
         <v>20220406</v>
       </c>
-      <c r="D35" s="77"/>
+      <c r="D35" s="79"/>
     </row>
     <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79">
+        <v>20220415</v>
+      </c>
+      <c r="D36" s="79"/>
     </row>
     <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="78" t="s">
+      <c r="A38" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77">
+      <c r="B38" s="79"/>
+      <c r="C38" s="79">
         <v>20211229</v>
       </c>
-      <c r="D38" s="78"/>
+      <c r="D38" s="80"/>
     </row>
     <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77">
+      <c r="B39" s="79"/>
+      <c r="C39" s="79">
         <v>20211229</v>
       </c>
-      <c r="D39" s="78"/>
+      <c r="D39" s="80"/>
     </row>
     <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77">
+      <c r="B40" s="79"/>
+      <c r="C40" s="79">
         <v>20211230</v>
       </c>
-      <c r="D40" s="78"/>
+      <c r="D40" s="80"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77">
+      <c r="B41" s="79"/>
+      <c r="C41" s="79">
         <v>20220101</v>
       </c>
-      <c r="D41" s="78"/>
+      <c r="D41" s="80"/>
     </row>
     <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77">
+      <c r="B42" s="79"/>
+      <c r="C42" s="79">
         <v>20220102</v>
       </c>
-      <c r="D42" s="78"/>
+      <c r="D42" s="80"/>
     </row>
     <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="78" t="s">
+      <c r="A43" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77">
+      <c r="B43" s="79"/>
+      <c r="C43" s="79">
         <v>20220106</v>
       </c>
-      <c r="D43" s="78"/>
+      <c r="D43" s="80"/>
     </row>
     <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77">
+      <c r="B44" s="79"/>
+      <c r="C44" s="79">
         <v>20220108</v>
       </c>
-      <c r="D44" s="78"/>
+      <c r="D44" s="80"/>
     </row>
     <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77">
+      <c r="B45" s="79"/>
+      <c r="C45" s="79">
         <v>20220108</v>
       </c>
-      <c r="D45" s="78"/>
+      <c r="D45" s="80"/>
     </row>
     <row r="46" customHeight="1" spans="1:4">
-      <c r="A46" s="78" t="s">
+      <c r="A46" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77">
+      <c r="B46" s="79"/>
+      <c r="C46" s="79">
         <v>20220130</v>
       </c>
-      <c r="D46" s="78"/>
+      <c r="D46" s="80"/>
     </row>
     <row r="47" customHeight="1" spans="1:4">
-      <c r="A47" s="78" t="s">
+      <c r="A47" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77">
+      <c r="B47" s="79"/>
+      <c r="C47" s="79">
         <v>20220208</v>
       </c>
-      <c r="D47" s="78"/>
+      <c r="D47" s="80"/>
     </row>
     <row r="48" customHeight="1" spans="1:4">
-      <c r="A48" s="78" t="s">
+      <c r="A48" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77">
+      <c r="B48" s="79"/>
+      <c r="C48" s="79">
         <v>20220210</v>
       </c>
-      <c r="D48" s="78"/>
+      <c r="D48" s="80"/>
     </row>
     <row r="49" customHeight="1" spans="1:4">
-      <c r="A49" s="78" t="s">
+      <c r="A49" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -12293,13 +12314,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5625" defaultRowHeight="40" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="20.5625" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.5625" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.78125" style="1" customWidth="1"/>
@@ -12356,13 +12377,13 @@
         <v>6.2</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="G3" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12371,13 +12392,13 @@
       <c r="C4" s="31"/>
       <c r="D4" s="45"/>
       <c r="E4" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12388,13 +12409,13 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>538</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="G5" s="5" t="s">
         <v>539</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="58" customHeight="1" spans="1:7">
@@ -12402,18 +12423,18 @@
         <v>8.2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
@@ -12426,13 +12447,13 @@
         <v>6.2</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
@@ -12443,7 +12464,7 @@
         <v>8.1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>547</v>
@@ -12469,7 +12490,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="75" customHeight="1" spans="1:7">
+    <row r="10" s="1" customFormat="1" ht="75" customHeight="1" spans="1:9">
       <c r="A10" s="9">
         <v>8.3</v>
       </c>
@@ -12486,6 +12507,12 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
         <v>554</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12496,13 +12523,13 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="7" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12516,10 +12543,10 @@
         <v>549</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12530,32 +12557,35 @@
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="55" customHeight="1" spans="1:9">
       <c r="A14" s="9">
         <v>8.4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="40" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12571,10 +12601,10 @@
         <v>399</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12583,13 +12613,13 @@
       <c r="C16" s="26"/>
       <c r="D16" s="46"/>
       <c r="E16" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12600,13 +12630,13 @@
         <v>8.2</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>550</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12617,13 +12647,13 @@
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="78" customHeight="1" spans="1:7">
@@ -12631,18 +12661,18 @@
         <v>8.5</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="40" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="5" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12655,13 +12685,13 @@
         <v>8.3</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>576</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12672,13 +12702,13 @@
         <v>8.4</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -12689,13 +12719,13 @@
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -12760,7 +12790,7 @@
         <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>111</v>
@@ -12776,19 +12806,19 @@
     </row>
     <row r="2" ht="49" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -12796,16 +12826,16 @@
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -12813,16 +12843,16 @@
     <row r="4" ht="47" customHeight="1" spans="1:7">
       <c r="A4" s="11"/>
       <c r="B4" s="5" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -12830,16 +12860,16 @@
     <row r="5" ht="48" customHeight="1" spans="1:7">
       <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -12847,16 +12877,16 @@
     <row r="6" ht="47" customHeight="1" spans="1:7">
       <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -12864,16 +12894,16 @@
     <row r="7" ht="58" customHeight="1" spans="1:7">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -12881,35 +12911,35 @@
     <row r="8" ht="45" customHeight="1" spans="1:7">
       <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" ht="62" customHeight="1" spans="1:7">
       <c r="A9" s="9" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -12917,16 +12947,16 @@
     <row r="10" ht="57" customHeight="1" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="5" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -12934,16 +12964,16 @@
     <row r="11" ht="50" customHeight="1" spans="1:7">
       <c r="A11" s="11"/>
       <c r="B11" s="5" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -12951,16 +12981,16 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="11"/>
       <c r="B12" s="5" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -12968,35 +12998,35 @@
     <row r="13" ht="50" customHeight="1" spans="1:7">
       <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" ht="34" spans="1:7">
       <c r="A14" s="9" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -13004,16 +13034,16 @@
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -13021,16 +13051,16 @@
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="11"/>
       <c r="B16" s="5" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -13038,16 +13068,16 @@
     <row r="17" ht="55" customHeight="1" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -13055,35 +13085,35 @@
     <row r="18" ht="49" customHeight="1" spans="1:7">
       <c r="A18" s="13"/>
       <c r="B18" s="5" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -13091,16 +13121,16 @@
     <row r="20" ht="48" customHeight="1" spans="1:7">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -13108,16 +13138,16 @@
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="11"/>
       <c r="B21" s="5" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -13125,35 +13155,35 @@
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="13"/>
       <c r="B22" s="5" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" ht="80" customHeight="1" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -13161,16 +13191,16 @@
     <row r="24" ht="54" customHeight="1" spans="1:7">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -13178,16 +13208,16 @@
     <row r="25" ht="48" customHeight="1" spans="1:7">
       <c r="A25" s="11"/>
       <c r="B25" s="5" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -13195,16 +13225,16 @@
     <row r="26" ht="56" spans="1:7">
       <c r="A26" s="11"/>
       <c r="B26" s="5" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -13212,35 +13242,35 @@
     <row r="27" ht="55" customHeight="1" spans="1:7">
       <c r="A27" s="13"/>
       <c r="B27" s="5" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -13248,16 +13278,16 @@
     <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -13265,16 +13295,16 @@
     <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -13341,17 +13371,17 @@
         <v>10.1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="32" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -13359,14 +13389,14 @@
       <c r="A3" s="25"/>
       <c r="B3" s="11"/>
       <c r="C3" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="32" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -13374,10 +13404,10 @@
       <c r="A4" s="25"/>
       <c r="B4" s="11"/>
       <c r="C4" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="33"/>
@@ -13388,13 +13418,13 @@
       <c r="B5" s="13"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -13403,17 +13433,17 @@
         <v>10.2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="7" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -13421,14 +13451,14 @@
       <c r="A7" s="25"/>
       <c r="B7" s="11"/>
       <c r="C7" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="32" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -13436,16 +13466,16 @@
       <c r="A8" s="25"/>
       <c r="B8" s="11"/>
       <c r="C8" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -13454,13 +13484,13 @@
       <c r="B9" s="11"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -13469,13 +13499,13 @@
       <c r="B10" s="11"/>
       <c r="C10" s="26"/>
       <c r="D10" s="27" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -13484,11 +13514,11 @@
       <c r="B11" s="13"/>
       <c r="C11" s="26"/>
       <c r="D11" s="27" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="33" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -13497,17 +13527,17 @@
         <v>10.3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="7" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -13515,14 +13545,14 @@
       <c r="A13" s="25"/>
       <c r="B13" s="11"/>
       <c r="C13" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="32" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -13530,16 +13560,16 @@
       <c r="A14" s="25"/>
       <c r="B14" s="11"/>
       <c r="C14" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -13548,13 +13578,13 @@
       <c r="B15" s="11"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -13563,13 +13593,13 @@
       <c r="B16" s="11"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -13578,13 +13608,13 @@
       <c r="B17" s="11"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -13593,13 +13623,13 @@
       <c r="B18" s="13"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -13608,17 +13638,17 @@
         <v>10.4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="7" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -13626,14 +13656,14 @@
       <c r="A20" s="25"/>
       <c r="B20" s="11"/>
       <c r="C20" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="32" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -13641,14 +13671,14 @@
       <c r="A21" s="25"/>
       <c r="B21" s="11"/>
       <c r="C21" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="33" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -13657,11 +13687,11 @@
       <c r="B22" s="13"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="33" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -13670,17 +13700,17 @@
         <v>10.5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="7" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -13688,14 +13718,14 @@
       <c r="A24" s="25"/>
       <c r="B24" s="11"/>
       <c r="C24" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="32" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="G24" s="6"/>
     </row>
@@ -13703,14 +13733,14 @@
       <c r="A25" s="25"/>
       <c r="B25" s="11"/>
       <c r="C25" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="33" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="G25" s="6"/>
     </row>
@@ -13719,11 +13749,11 @@
       <c r="B26" s="11"/>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="33" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="G26" s="6"/>
     </row>
@@ -13732,11 +13762,11 @@
       <c r="B27" s="13"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="33" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -13745,17 +13775,17 @@
         <v>10.6</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="7" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="G28" s="6"/>
     </row>
@@ -13763,14 +13793,14 @@
       <c r="A29" s="25"/>
       <c r="B29" s="11"/>
       <c r="C29" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="32" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="G29" s="6"/>
     </row>
@@ -13778,16 +13808,16 @@
       <c r="A30" s="25"/>
       <c r="B30" s="11"/>
       <c r="C30" s="29" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="G30" s="6"/>
     </row>
@@ -13796,13 +13826,13 @@
       <c r="B31" s="11"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="G31" s="6"/>
     </row>
@@ -13811,13 +13841,13 @@
       <c r="B32" s="11"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="G32" s="6"/>
     </row>
@@ -13826,13 +13856,13 @@
       <c r="B33" s="11"/>
       <c r="C33" s="30"/>
       <c r="D33" s="27" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="G33" s="6"/>
     </row>
@@ -13841,13 +13871,13 @@
       <c r="B34" s="11"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="G34" s="6"/>
     </row>
@@ -13856,11 +13886,11 @@
       <c r="B35" s="11"/>
       <c r="C35" s="31"/>
       <c r="D35" s="27" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="33" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="G35" s="6"/>
     </row>
@@ -13869,17 +13899,17 @@
         <v>10.7</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="7" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="G36" s="6"/>
     </row>
@@ -13887,14 +13917,14 @@
       <c r="A37" s="25"/>
       <c r="B37" s="11"/>
       <c r="C37" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="32" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="G37" s="6"/>
     </row>
@@ -13902,16 +13932,16 @@
       <c r="A38" s="25"/>
       <c r="B38" s="11"/>
       <c r="C38" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="G38" s="6"/>
     </row>
@@ -13920,13 +13950,13 @@
       <c r="B39" s="11"/>
       <c r="C39" s="26"/>
       <c r="D39" s="27" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="G39" s="6"/>
     </row>
@@ -13935,13 +13965,13 @@
       <c r="B40" s="11"/>
       <c r="C40" s="26"/>
       <c r="D40" s="27" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="G40" s="6"/>
     </row>
@@ -13950,13 +13980,13 @@
       <c r="B41" s="11"/>
       <c r="C41" s="26"/>
       <c r="D41" s="27" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="G41" s="6"/>
     </row>
@@ -13965,17 +13995,17 @@
         <v>10.8</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="7" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="G42" s="6"/>
     </row>
@@ -13983,14 +14013,14 @@
       <c r="A43" s="25"/>
       <c r="B43" s="11"/>
       <c r="C43" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="32" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="G43" s="6"/>
     </row>
@@ -13998,16 +14028,16 @@
       <c r="A44" s="25"/>
       <c r="B44" s="11"/>
       <c r="C44" s="29" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="G44" s="6"/>
     </row>
@@ -14016,13 +14046,13 @@
       <c r="B45" s="11"/>
       <c r="C45" s="30"/>
       <c r="D45" s="27" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="G45" s="6"/>
     </row>
@@ -14031,13 +14061,13 @@
       <c r="B46" s="11"/>
       <c r="C46" s="30"/>
       <c r="D46" s="27" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G46" s="6"/>
     </row>
@@ -14046,13 +14076,13 @@
       <c r="B47" s="11"/>
       <c r="C47" s="30"/>
       <c r="D47" s="27" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="G47" s="6"/>
     </row>
@@ -14061,13 +14091,13 @@
       <c r="B48" s="11"/>
       <c r="C48" s="30"/>
       <c r="D48" s="27" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="G48" s="6"/>
     </row>
@@ -14076,13 +14106,13 @@
       <c r="B49" s="11"/>
       <c r="C49" s="30"/>
       <c r="D49" s="27" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="G49" s="6"/>
     </row>
@@ -14091,13 +14121,13 @@
       <c r="B50" s="11"/>
       <c r="C50" s="30"/>
       <c r="D50" s="27" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="G50" s="6"/>
     </row>
@@ -14106,11 +14136,11 @@
       <c r="B51" s="11"/>
       <c r="C51" s="30"/>
       <c r="D51" s="27" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="33" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="G51" s="6"/>
     </row>
@@ -14119,13 +14149,13 @@
       <c r="B52" s="11"/>
       <c r="C52" s="31"/>
       <c r="D52" s="27" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="G52" s="6"/>
     </row>
@@ -14134,17 +14164,17 @@
         <v>10.9</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="7" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="G53" s="6"/>
     </row>
@@ -14152,14 +14182,14 @@
       <c r="A54" s="25"/>
       <c r="B54" s="11"/>
       <c r="C54" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="32" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="G54" s="6"/>
     </row>
@@ -14167,16 +14197,16 @@
       <c r="A55" s="25"/>
       <c r="B55" s="11"/>
       <c r="C55" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="G55" s="6"/>
     </row>
@@ -14185,32 +14215,32 @@
       <c r="B56" s="13"/>
       <c r="C56" s="26"/>
       <c r="D56" s="27" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="G56" s="6"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A57" s="22" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="7" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="G57" s="6"/>
     </row>
@@ -14218,14 +14248,14 @@
       <c r="A58" s="25"/>
       <c r="B58" s="11"/>
       <c r="C58" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="32" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="G58" s="6"/>
     </row>
@@ -14233,16 +14263,16 @@
       <c r="A59" s="25"/>
       <c r="B59" s="11"/>
       <c r="C59" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="G59" s="6"/>
     </row>
@@ -14251,11 +14281,11 @@
       <c r="B60" s="11"/>
       <c r="C60" s="26"/>
       <c r="D60" s="27" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="E60" s="32"/>
       <c r="F60" s="33" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="G60" s="6"/>
     </row>
@@ -14264,11 +14294,11 @@
       <c r="B61" s="11"/>
       <c r="C61" s="26"/>
       <c r="D61" s="27" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="33" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="G61" s="6"/>
     </row>
@@ -14277,32 +14307,32 @@
       <c r="B62" s="11"/>
       <c r="C62" s="26"/>
       <c r="D62" s="27" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G62" s="6"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A63" s="22" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="C63" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D63" s="24"/>
       <c r="E63" s="7" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="G63" s="6"/>
     </row>
@@ -14310,14 +14340,14 @@
       <c r="A64" s="25"/>
       <c r="B64" s="11"/>
       <c r="C64" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D64" s="24"/>
       <c r="E64" s="32" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="G64" s="6"/>
     </row>
@@ -14325,14 +14355,14 @@
       <c r="A65" s="25"/>
       <c r="B65" s="11"/>
       <c r="C65" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="33" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="G65" s="6"/>
     </row>
@@ -14341,13 +14371,13 @@
       <c r="B66" s="11"/>
       <c r="C66" s="26"/>
       <c r="D66" s="27" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="G66" s="6"/>
     </row>
@@ -14356,30 +14386,30 @@
       <c r="B67" s="11"/>
       <c r="C67" s="26"/>
       <c r="D67" s="27" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="33" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="G67" s="6"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A68" s="22" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D68" s="24"/>
       <c r="E68" s="7" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="G68" s="6"/>
     </row>
@@ -14387,14 +14417,14 @@
       <c r="A69" s="25"/>
       <c r="B69" s="11"/>
       <c r="C69" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="32" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="G69" s="6"/>
     </row>
@@ -14402,16 +14432,16 @@
       <c r="A70" s="25"/>
       <c r="B70" s="11"/>
       <c r="C70" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="G70" s="6"/>
     </row>
@@ -14420,13 +14450,13 @@
       <c r="B71" s="11"/>
       <c r="C71" s="26"/>
       <c r="D71" s="27" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="G71" s="6"/>
     </row>
@@ -14435,32 +14465,32 @@
       <c r="B72" s="11"/>
       <c r="C72" s="26"/>
       <c r="D72" s="27" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="G72" s="6"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A73" s="22" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C73" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="7" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="G73" s="6"/>
     </row>
@@ -14468,14 +14498,14 @@
       <c r="A74" s="25"/>
       <c r="B74" s="5"/>
       <c r="C74" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="32" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="F74" s="33" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="G74" s="6"/>
     </row>
@@ -14483,16 +14513,16 @@
       <c r="A75" s="25"/>
       <c r="B75" s="5"/>
       <c r="C75" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="G75" s="6"/>
     </row>
@@ -14501,13 +14531,13 @@
       <c r="B76" s="5"/>
       <c r="C76" s="26"/>
       <c r="D76" s="27" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="G76" s="6"/>
     </row>
@@ -14516,13 +14546,13 @@
       <c r="B77" s="5"/>
       <c r="C77" s="26"/>
       <c r="D77" s="27" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="G77" s="6"/>
     </row>
@@ -14531,32 +14561,32 @@
       <c r="B78" s="5"/>
       <c r="C78" s="26"/>
       <c r="D78" s="27" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="G78" s="6"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A79" s="22" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C79" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="7" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="F79" s="33" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="G79" s="6"/>
     </row>
@@ -14564,14 +14594,14 @@
       <c r="A80" s="25"/>
       <c r="B80" s="11"/>
       <c r="C80" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="32" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="F80" s="33" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="G80" s="6"/>
     </row>
@@ -14579,16 +14609,16 @@
       <c r="A81" s="25"/>
       <c r="B81" s="11"/>
       <c r="C81" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="G81" s="6"/>
     </row>
@@ -14597,13 +14627,13 @@
       <c r="B82" s="11"/>
       <c r="C82" s="26"/>
       <c r="D82" s="27" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="G82" s="6"/>
     </row>
@@ -14612,13 +14642,13 @@
       <c r="B83" s="11"/>
       <c r="C83" s="26"/>
       <c r="D83" s="27" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="G83" s="6"/>
     </row>
@@ -14627,11 +14657,11 @@
       <c r="B84" s="11"/>
       <c r="C84" s="26"/>
       <c r="D84" s="27" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="33" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="G84" s="6"/>
     </row>
@@ -14640,32 +14670,32 @@
       <c r="B85" s="11"/>
       <c r="C85" s="26"/>
       <c r="D85" s="27" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="G85" s="6"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A86" s="22" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C86" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D86" s="24"/>
       <c r="E86" s="7" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="G86" s="6"/>
     </row>
@@ -14673,14 +14703,14 @@
       <c r="A87" s="25"/>
       <c r="B87" s="11"/>
       <c r="C87" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="32" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="G87" s="6"/>
     </row>
@@ -14688,16 +14718,16 @@
       <c r="A88" s="25"/>
       <c r="B88" s="11"/>
       <c r="C88" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="G88" s="6"/>
     </row>
@@ -14706,13 +14736,13 @@
       <c r="B89" s="11"/>
       <c r="C89" s="26"/>
       <c r="D89" s="27" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="E89" s="32" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="G89" s="6"/>
     </row>
@@ -14721,13 +14751,13 @@
       <c r="B90" s="11"/>
       <c r="C90" s="26"/>
       <c r="D90" s="27" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="G90" s="6"/>
     </row>
@@ -14736,13 +14766,13 @@
       <c r="B91" s="11"/>
       <c r="C91" s="26"/>
       <c r="D91" s="27" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="F91" s="33" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="G91" s="6"/>
     </row>
@@ -14751,32 +14781,32 @@
       <c r="B92" s="11"/>
       <c r="C92" s="26"/>
       <c r="D92" s="27" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="E92" s="32" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="F92" s="33" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="G92" s="6"/>
     </row>
     <row r="93" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A93" s="22" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="C93" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D93" s="24"/>
       <c r="E93" s="7" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="F93" s="33" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="G93" s="6"/>
     </row>
@@ -14784,14 +14814,14 @@
       <c r="A94" s="25"/>
       <c r="B94" s="11"/>
       <c r="C94" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D94" s="24"/>
       <c r="E94" s="32" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="F94" s="33" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="G94" s="6"/>
     </row>
@@ -14799,16 +14829,16 @@
       <c r="A95" s="25"/>
       <c r="B95" s="11"/>
       <c r="C95" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="F95" s="33" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="G95" s="6"/>
     </row>
@@ -14817,11 +14847,11 @@
       <c r="B96" s="11"/>
       <c r="C96" s="26"/>
       <c r="D96" s="27" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="33" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="G96" s="6"/>
     </row>
@@ -14830,13 +14860,13 @@
       <c r="B97" s="11"/>
       <c r="C97" s="26"/>
       <c r="D97" s="27" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="G97" s="6"/>
     </row>
@@ -14845,32 +14875,32 @@
       <c r="B98" s="11"/>
       <c r="C98" s="26"/>
       <c r="D98" s="27" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="F98" s="33" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="G98" s="6"/>
     </row>
     <row r="99" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A99" s="22" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="C99" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D99" s="24"/>
       <c r="E99" s="7" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="F99" s="33" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="G99" s="6"/>
     </row>
@@ -14878,14 +14908,14 @@
       <c r="A100" s="25"/>
       <c r="B100" s="11"/>
       <c r="C100" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D100" s="24"/>
       <c r="E100" s="32" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="F100" s="33" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="G100" s="6"/>
     </row>
@@ -14893,14 +14923,14 @@
       <c r="A101" s="25"/>
       <c r="B101" s="11"/>
       <c r="C101" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="33" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="G101" s="6"/>
     </row>
@@ -14909,11 +14939,11 @@
       <c r="B102" s="11"/>
       <c r="C102" s="26"/>
       <c r="D102" s="27" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="33" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="G102" s="6"/>
     </row>
@@ -14922,11 +14952,11 @@
       <c r="B103" s="11"/>
       <c r="C103" s="26"/>
       <c r="D103" s="27" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="33" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="G103" s="6"/>
     </row>
@@ -14935,32 +14965,32 @@
       <c r="B104" s="11"/>
       <c r="C104" s="26"/>
       <c r="D104" s="27" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="F104" s="33" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="G104" s="6"/>
     </row>
     <row r="105" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A105" s="22" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="C105" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D105" s="24"/>
       <c r="E105" s="7" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="F105" s="33" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="G105" s="6"/>
     </row>
@@ -14968,14 +14998,14 @@
       <c r="A106" s="25"/>
       <c r="B106" s="11"/>
       <c r="C106" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D106" s="24"/>
       <c r="E106" s="32" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="F106" s="33" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="G106" s="6"/>
     </row>
@@ -14983,16 +15013,16 @@
       <c r="A107" s="25"/>
       <c r="B107" s="11"/>
       <c r="C107" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="F107" s="33" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="G107" s="6"/>
     </row>
@@ -15001,13 +15031,13 @@
       <c r="B108" s="11"/>
       <c r="C108" s="26"/>
       <c r="D108" s="27" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="F108" s="33" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="G108" s="6"/>
     </row>
@@ -15016,32 +15046,32 @@
       <c r="B109" s="11"/>
       <c r="C109" s="26"/>
       <c r="D109" s="27" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="F109" s="33" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="G109" s="6"/>
     </row>
     <row r="110" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A110" s="22" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="C110" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D110" s="24"/>
       <c r="E110" s="7" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="F110" s="33" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="G110" s="6"/>
     </row>
@@ -15049,14 +15079,14 @@
       <c r="A111" s="25"/>
       <c r="B111" s="11"/>
       <c r="C111" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D111" s="24"/>
       <c r="E111" s="32" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="F111" s="33" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="G111" s="6"/>
     </row>
@@ -15064,16 +15094,16 @@
       <c r="A112" s="25"/>
       <c r="B112" s="11"/>
       <c r="C112" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D112" s="27" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="F112" s="33" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="G112" s="6"/>
     </row>
@@ -15082,13 +15112,13 @@
       <c r="B113" s="11"/>
       <c r="C113" s="26"/>
       <c r="D113" s="27" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="F113" s="33" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="G113" s="6"/>
     </row>
@@ -15097,13 +15127,13 @@
       <c r="B114" s="11"/>
       <c r="C114" s="26"/>
       <c r="D114" s="27" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="E114" s="32" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="F114" s="33" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="G114" s="6"/>
     </row>
@@ -15112,13 +15142,13 @@
       <c r="B115" s="11"/>
       <c r="C115" s="26"/>
       <c r="D115" s="27" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="E115" s="32" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="F115" s="33" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="G115" s="6"/>
     </row>
@@ -15127,30 +15157,30 @@
       <c r="B116" s="11"/>
       <c r="C116" s="26"/>
       <c r="D116" s="27" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="E116" s="32"/>
       <c r="F116" s="33" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="G116" s="6"/>
     </row>
     <row r="117" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A117" s="22" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="C117" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D117" s="24"/>
       <c r="E117" s="7" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="F117" s="33" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="G117" s="6"/>
     </row>
@@ -15158,14 +15188,14 @@
       <c r="A118" s="25"/>
       <c r="B118" s="11"/>
       <c r="C118" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D118" s="24"/>
       <c r="E118" s="32" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="F118" s="33" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="G118" s="6"/>
     </row>
@@ -15173,16 +15203,16 @@
       <c r="A119" s="25"/>
       <c r="B119" s="11"/>
       <c r="C119" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="E119" s="32" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="F119" s="33" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="G119" s="6"/>
     </row>
@@ -15191,13 +15221,13 @@
       <c r="B120" s="11"/>
       <c r="C120" s="26"/>
       <c r="D120" s="27" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="E120" s="32" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="F120" s="33" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="G120" s="6"/>
     </row>
@@ -15206,13 +15236,13 @@
       <c r="B121" s="11"/>
       <c r="C121" s="26"/>
       <c r="D121" s="27" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="E121" s="32" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="F121" s="33" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="G121" s="6"/>
     </row>
@@ -15221,13 +15251,13 @@
       <c r="B122" s="11"/>
       <c r="C122" s="26"/>
       <c r="D122" s="27" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="E122" s="32" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="F122" s="33" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="G122" s="6"/>
     </row>
@@ -15236,13 +15266,13 @@
       <c r="B123" s="11"/>
       <c r="C123" s="26"/>
       <c r="D123" s="35" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="E123" s="38" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="G123" s="6"/>
     </row>
@@ -15252,10 +15282,10 @@
       <c r="C124" s="26"/>
       <c r="D124" s="36"/>
       <c r="E124" s="38" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="F124" s="33" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="G124" s="6"/>
     </row>
@@ -15265,10 +15295,10 @@
       <c r="C125" s="26"/>
       <c r="D125" s="36"/>
       <c r="E125" s="38" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="F125" s="33" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="G125" s="6"/>
     </row>
@@ -15278,10 +15308,10 @@
       <c r="C126" s="26"/>
       <c r="D126" s="36"/>
       <c r="E126" s="38" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="F126" s="33" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="G126" s="6"/>
     </row>
@@ -15291,10 +15321,10 @@
       <c r="C127" s="26"/>
       <c r="D127" s="36"/>
       <c r="E127" s="38" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="F127" s="33" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="G127" s="6"/>
     </row>
@@ -15304,26 +15334,26 @@
       <c r="C128" s="26"/>
       <c r="D128" s="37"/>
       <c r="E128" s="38" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="F128" s="33" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="G128" s="6"/>
     </row>
     <row r="129" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A129" s="22" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="C129" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D129" s="24"/>
       <c r="E129" s="7" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="6"/>
@@ -15332,11 +15362,11 @@
       <c r="A130" s="25"/>
       <c r="B130" s="11"/>
       <c r="C130" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D130" s="24"/>
       <c r="E130" s="32" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="6"/>
@@ -15345,10 +15375,10 @@
       <c r="A131" s="25"/>
       <c r="B131" s="11"/>
       <c r="C131" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D131" s="27" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="E131" s="32"/>
       <c r="F131" s="33"/>
@@ -15359,10 +15389,10 @@
       <c r="B132" s="11"/>
       <c r="C132" s="26"/>
       <c r="D132" s="27" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="6"/>
@@ -15372,10 +15402,10 @@
       <c r="B133" s="11"/>
       <c r="C133" s="26"/>
       <c r="D133" s="27" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="6"/>
@@ -15385,10 +15415,10 @@
       <c r="B134" s="11"/>
       <c r="C134" s="26"/>
       <c r="D134" s="27" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="6"/>
@@ -15398,7 +15428,7 @@
       <c r="B135" s="11"/>
       <c r="C135" s="26"/>
       <c r="D135" s="27" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="E135" s="32"/>
       <c r="F135" s="33"/>
@@ -15409,7 +15439,7 @@
       <c r="B136" s="11"/>
       <c r="C136" s="26"/>
       <c r="D136" s="27" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="E136" s="32"/>
       <c r="F136" s="33"/>
@@ -15420,27 +15450,27 @@
       <c r="B137" s="11"/>
       <c r="C137" s="26"/>
       <c r="D137" s="27" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="E137" s="32" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="6"/>
     </row>
     <row r="138" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A138" s="22" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="C138" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D138" s="24"/>
       <c r="E138" s="7" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="6"/>
@@ -15449,11 +15479,11 @@
       <c r="A139" s="25"/>
       <c r="B139" s="11"/>
       <c r="C139" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D139" s="24"/>
       <c r="E139" s="32" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="6"/>
@@ -15462,13 +15492,13 @@
       <c r="A140" s="25"/>
       <c r="B140" s="11"/>
       <c r="C140" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="E140" s="32" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="6"/>
@@ -15478,10 +15508,10 @@
       <c r="B141" s="11"/>
       <c r="C141" s="26"/>
       <c r="D141" s="27" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="E141" s="32" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="6"/>
@@ -15491,7 +15521,7 @@
       <c r="B142" s="11"/>
       <c r="C142" s="26"/>
       <c r="D142" s="27" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="E142" s="32"/>
       <c r="F142" s="33"/>
@@ -15502,27 +15532,27 @@
       <c r="B143" s="11"/>
       <c r="C143" s="26"/>
       <c r="D143" s="27" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="E143" s="32" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="6"/>
     </row>
     <row r="144" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A144" s="22" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="C144" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D144" s="24"/>
       <c r="E144" s="7" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="6"/>
@@ -15531,28 +15561,28 @@
       <c r="A145" s="25"/>
       <c r="B145" s="11"/>
       <c r="C145" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D145" s="24"/>
       <c r="E145" s="32" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="6"/>
     </row>
     <row r="146" s="1" customFormat="1" ht="62" customHeight="1" spans="1:7">
       <c r="A146" s="22" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="C146" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D146" s="24"/>
       <c r="E146" s="7" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="6"/>
@@ -15561,11 +15591,11 @@
       <c r="A147" s="25"/>
       <c r="B147" s="11"/>
       <c r="C147" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D147" s="24"/>
       <c r="E147" s="32" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="6"/>
@@ -15574,13 +15604,13 @@
       <c r="A148" s="25"/>
       <c r="B148" s="11"/>
       <c r="C148" s="29" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="E148" s="32" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="6"/>
@@ -15590,10 +15620,10 @@
       <c r="B149" s="11"/>
       <c r="C149" s="30"/>
       <c r="D149" s="27" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="6"/>
@@ -15603,27 +15633,27 @@
       <c r="B150" s="11"/>
       <c r="C150" s="31"/>
       <c r="D150" s="27" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="E150" s="32" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="6"/>
     </row>
     <row r="151" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A151" s="22" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="C151" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D151" s="24"/>
       <c r="E151" s="7" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="F151" s="33"/>
       <c r="G151" s="6"/>
@@ -15632,11 +15662,11 @@
       <c r="A152" s="25"/>
       <c r="B152" s="11"/>
       <c r="C152" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D152" s="24"/>
       <c r="E152" s="32" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="6"/>
@@ -15645,10 +15675,10 @@
       <c r="A153" s="25"/>
       <c r="B153" s="11"/>
       <c r="C153" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="33"/>
@@ -15659,11 +15689,11 @@
       <c r="B154" s="11"/>
       <c r="C154" s="26"/>
       <c r="D154" s="27" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E154" s="32"/>
       <c r="F154" s="33" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="G154" s="6"/>
     </row>
@@ -15672,7 +15702,7 @@
       <c r="B155" s="11"/>
       <c r="C155" s="26"/>
       <c r="D155" s="27" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="33"/>
@@ -15683,10 +15713,10 @@
       <c r="B156" s="11"/>
       <c r="C156" s="26"/>
       <c r="D156" s="27" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E156" s="32" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="6"/>
@@ -15696,7 +15726,7 @@
       <c r="B157" s="11"/>
       <c r="C157" s="26"/>
       <c r="D157" s="27" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E157" s="32"/>
       <c r="F157" s="33"/>
@@ -15707,7 +15737,7 @@
       <c r="B158" s="11"/>
       <c r="C158" s="26"/>
       <c r="D158" s="27" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="33"/>
@@ -15715,17 +15745,17 @@
     </row>
     <row r="159" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A159" s="22" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="C159" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D159" s="24"/>
       <c r="E159" s="7" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="6"/>
@@ -15734,11 +15764,11 @@
       <c r="A160" s="25"/>
       <c r="B160" s="11"/>
       <c r="C160" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D160" s="24"/>
       <c r="E160" s="32" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="6"/>
@@ -15747,13 +15777,13 @@
       <c r="A161" s="25"/>
       <c r="B161" s="11"/>
       <c r="C161" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D161" s="27" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="E161" s="32" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="6"/>
@@ -15763,10 +15793,10 @@
       <c r="B162" s="11"/>
       <c r="C162" s="26"/>
       <c r="D162" s="27" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="E162" s="32" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="6"/>
@@ -15776,7 +15806,7 @@
       <c r="B163" s="11"/>
       <c r="C163" s="26"/>
       <c r="D163" s="27" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="E163" s="32"/>
       <c r="F163" s="33"/>
@@ -15784,17 +15814,17 @@
     </row>
     <row r="164" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A164" s="22" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="C164" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D164" s="24"/>
       <c r="E164" s="7" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="6"/>
@@ -15803,11 +15833,11 @@
       <c r="A165" s="25"/>
       <c r="B165" s="11"/>
       <c r="C165" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D165" s="24"/>
       <c r="E165" s="32" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="6"/>
@@ -15816,7 +15846,7 @@
       <c r="A166" s="25"/>
       <c r="B166" s="11"/>
       <c r="C166" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="32"/>
@@ -15834,17 +15864,17 @@
     </row>
     <row r="168" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A168" s="22" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="C168" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D168" s="24"/>
       <c r="E168" s="7" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="6"/>
@@ -15853,11 +15883,11 @@
       <c r="A169" s="25"/>
       <c r="B169" s="11"/>
       <c r="C169" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D169" s="24"/>
       <c r="E169" s="32" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="6"/>
@@ -15866,13 +15896,13 @@
       <c r="A170" s="25"/>
       <c r="B170" s="11"/>
       <c r="C170" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D170" s="27" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="E170" s="32" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="6"/>
@@ -15882,10 +15912,10 @@
       <c r="B171" s="11"/>
       <c r="C171" s="26"/>
       <c r="D171" s="27" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="E171" s="32" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="6"/>
@@ -15895,10 +15925,10 @@
       <c r="B172" s="11"/>
       <c r="C172" s="26"/>
       <c r="D172" s="27" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="E172" s="32" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="6"/>
@@ -15908,7 +15938,7 @@
       <c r="B173" s="11"/>
       <c r="C173" s="26"/>
       <c r="D173" s="27" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="E173" s="32"/>
       <c r="F173" s="33"/>
@@ -15916,17 +15946,17 @@
     </row>
     <row r="174" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A174" s="22" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="C174" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D174" s="24"/>
       <c r="E174" s="7" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="6"/>
@@ -15935,11 +15965,11 @@
       <c r="A175" s="25"/>
       <c r="B175" s="11"/>
       <c r="C175" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D175" s="24"/>
       <c r="E175" s="32" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="6"/>
@@ -15948,10 +15978,10 @@
       <c r="A176" s="25"/>
       <c r="B176" s="11"/>
       <c r="C176" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="E176" s="32"/>
       <c r="F176" s="33"/>
@@ -15962,7 +15992,7 @@
       <c r="B177" s="11"/>
       <c r="C177" s="26"/>
       <c r="D177" s="27" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="E177" s="32"/>
       <c r="F177" s="33"/>
@@ -15973,7 +16003,7 @@
       <c r="B178" s="11"/>
       <c r="C178" s="26"/>
       <c r="D178" s="27" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="E178" s="32"/>
       <c r="F178" s="33"/>
@@ -15984,7 +16014,7 @@
       <c r="B179" s="11"/>
       <c r="C179" s="26"/>
       <c r="D179" s="27" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="E179" s="32"/>
       <c r="F179" s="33"/>
@@ -15995,7 +16025,7 @@
       <c r="B180" s="11"/>
       <c r="C180" s="26"/>
       <c r="D180" s="27" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="E180" s="32"/>
       <c r="F180" s="33"/>
@@ -16006,7 +16036,7 @@
       <c r="B181" s="11"/>
       <c r="C181" s="26"/>
       <c r="D181" s="27" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="E181" s="32"/>
       <c r="F181" s="33"/>
@@ -16017,7 +16047,7 @@
       <c r="B182" s="11"/>
       <c r="C182" s="26"/>
       <c r="D182" s="27" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="E182" s="32"/>
       <c r="F182" s="33"/>
@@ -16025,17 +16055,17 @@
     </row>
     <row r="183" s="1" customFormat="1" ht="58" customHeight="1" spans="1:7">
       <c r="A183" s="22" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="C183" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D183" s="24"/>
       <c r="E183" s="7" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="F183" s="33"/>
       <c r="G183" s="6"/>
@@ -16044,11 +16074,11 @@
       <c r="A184" s="25"/>
       <c r="B184" s="11"/>
       <c r="C184" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D184" s="24"/>
       <c r="E184" s="32" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="F184" s="33"/>
       <c r="G184" s="6"/>
@@ -16057,13 +16087,13 @@
       <c r="A185" s="25"/>
       <c r="B185" s="11"/>
       <c r="C185" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D185" s="27" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="E185" s="32" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="F185" s="33"/>
       <c r="G185" s="6"/>
@@ -16073,7 +16103,7 @@
       <c r="B186" s="11"/>
       <c r="C186" s="26"/>
       <c r="D186" s="27" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="E186" s="32"/>
       <c r="F186" s="33"/>
@@ -16084,7 +16114,7 @@
       <c r="B187" s="11"/>
       <c r="C187" s="26"/>
       <c r="D187" s="27" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="E187" s="32"/>
       <c r="F187" s="33"/>
@@ -16092,17 +16122,17 @@
     </row>
     <row r="188" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A188" s="22" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="C188" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D188" s="24"/>
       <c r="E188" s="7" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="6"/>
@@ -16111,11 +16141,11 @@
       <c r="A189" s="25"/>
       <c r="B189" s="11"/>
       <c r="C189" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D189" s="24"/>
       <c r="E189" s="32" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="6"/>
@@ -16124,10 +16154,10 @@
       <c r="A190" s="25"/>
       <c r="B190" s="11"/>
       <c r="C190" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="E190" s="32"/>
       <c r="F190" s="33"/>
@@ -16138,7 +16168,7 @@
       <c r="B191" s="11"/>
       <c r="C191" s="26"/>
       <c r="D191" s="27" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="E191" s="32"/>
       <c r="F191" s="33"/>
@@ -16149,7 +16179,7 @@
       <c r="B192" s="11"/>
       <c r="C192" s="26"/>
       <c r="D192" s="27" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="E192" s="32"/>
       <c r="F192" s="33"/>
@@ -16160,7 +16190,7 @@
       <c r="B193" s="11"/>
       <c r="C193" s="26"/>
       <c r="D193" s="27" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="E193" s="32"/>
       <c r="F193" s="33"/>
@@ -16168,17 +16198,17 @@
     </row>
     <row r="194" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A194" s="22" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="C194" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D194" s="24"/>
       <c r="E194" s="7" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="F194" s="33"/>
       <c r="G194" s="6"/>
@@ -16187,11 +16217,11 @@
       <c r="A195" s="25"/>
       <c r="B195" s="11"/>
       <c r="C195" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D195" s="24"/>
       <c r="E195" s="32" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="6"/>
@@ -16200,13 +16230,13 @@
       <c r="A196" s="25"/>
       <c r="B196" s="11"/>
       <c r="C196" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D196" s="27" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="E196" s="32" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="F196" s="33"/>
       <c r="G196" s="6"/>
@@ -16216,10 +16246,10 @@
       <c r="B197" s="11"/>
       <c r="C197" s="26"/>
       <c r="D197" s="27" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="E197" s="32" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="F197" s="33"/>
       <c r="G197" s="6"/>
@@ -16229,10 +16259,10 @@
       <c r="B198" s="11"/>
       <c r="C198" s="26"/>
       <c r="D198" s="27" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="E198" s="32" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="F198" s="33"/>
       <c r="G198" s="6"/>
@@ -16242,10 +16272,10 @@
       <c r="B199" s="11"/>
       <c r="C199" s="26"/>
       <c r="D199" s="27" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="E199" s="32" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="F199" s="33"/>
       <c r="G199" s="6"/>
@@ -16255,7 +16285,7 @@
       <c r="B200" s="11"/>
       <c r="C200" s="26"/>
       <c r="D200" s="27" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="E200" s="32"/>
       <c r="F200" s="33"/>
@@ -16263,17 +16293,17 @@
     </row>
     <row r="201" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A201" s="22" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C201" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D201" s="24"/>
       <c r="E201" s="7" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="F201" s="33"/>
       <c r="G201" s="6"/>
@@ -16282,11 +16312,11 @@
       <c r="A202" s="25"/>
       <c r="B202" s="11"/>
       <c r="C202" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D202" s="24"/>
       <c r="E202" s="32" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="F202" s="33"/>
       <c r="G202" s="6"/>
@@ -16295,13 +16325,13 @@
       <c r="A203" s="25"/>
       <c r="B203" s="11"/>
       <c r="C203" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D203" s="27" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="E203" s="32" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="F203" s="33"/>
       <c r="G203" s="6"/>
@@ -16311,10 +16341,10 @@
       <c r="B204" s="11"/>
       <c r="C204" s="26"/>
       <c r="D204" s="27" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="E204" s="32" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="F204" s="33"/>
       <c r="G204" s="6"/>
@@ -16324,10 +16354,10 @@
       <c r="B205" s="11"/>
       <c r="C205" s="26"/>
       <c r="D205" s="27" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="E205" s="32" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="F205" s="33"/>
       <c r="G205" s="6"/>
@@ -16337,27 +16367,27 @@
       <c r="B206" s="11"/>
       <c r="C206" s="26"/>
       <c r="D206" s="27" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="E206" s="32" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="F206" s="33"/>
       <c r="G206" s="6"/>
     </row>
     <row r="207" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A207" s="22" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="C207" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D207" s="24"/>
       <c r="E207" s="7" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="6"/>
@@ -16366,14 +16396,14 @@
       <c r="A208" s="25"/>
       <c r="B208" s="11"/>
       <c r="C208" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D208" s="24"/>
       <c r="E208" s="38" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="F208" s="33" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="G208" s="6"/>
     </row>
@@ -16381,13 +16411,13 @@
       <c r="A209" s="25"/>
       <c r="B209" s="11"/>
       <c r="C209" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="E209" s="32" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="6"/>
@@ -16397,10 +16427,10 @@
       <c r="B210" s="11"/>
       <c r="C210" s="26"/>
       <c r="D210" s="27" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="E210" s="32" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="6"/>
@@ -16410,10 +16440,10 @@
       <c r="B211" s="11"/>
       <c r="C211" s="26"/>
       <c r="D211" s="27" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="E211" s="32" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="6"/>
@@ -16423,27 +16453,27 @@
       <c r="B212" s="11"/>
       <c r="C212" s="26"/>
       <c r="D212" s="27" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="E212" s="32" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="6"/>
     </row>
     <row r="213" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A213" s="22" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="C213" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D213" s="24"/>
       <c r="E213" s="7" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="6"/>
@@ -16452,11 +16482,11 @@
       <c r="A214" s="25"/>
       <c r="B214" s="11"/>
       <c r="C214" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D214" s="24"/>
       <c r="E214" s="32" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="6"/>
@@ -16465,13 +16495,13 @@
       <c r="A215" s="25"/>
       <c r="B215" s="11"/>
       <c r="C215" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D215" s="27" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="E215" s="38" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="6"/>
@@ -16481,13 +16511,13 @@
       <c r="B216" s="11"/>
       <c r="C216" s="26"/>
       <c r="D216" s="27" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="E216" s="32" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="F216" s="33" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="G216" s="6"/>
     </row>
@@ -16496,13 +16526,13 @@
       <c r="B217" s="11"/>
       <c r="C217" s="26"/>
       <c r="D217" s="27" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="E217" s="32" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="F217" s="33" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="G217" s="6"/>
     </row>
@@ -16511,29 +16541,29 @@
       <c r="B218" s="11"/>
       <c r="C218" s="26"/>
       <c r="D218" s="27" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="E218" s="32" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="F218" s="33" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="G218" s="6"/>
     </row>
     <row r="219" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A219" s="22" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="C219" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D219" s="24"/>
       <c r="E219" s="7" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="F219" s="33"/>
       <c r="G219" s="6"/>
@@ -16542,11 +16572,11 @@
       <c r="A220" s="25"/>
       <c r="B220" s="11"/>
       <c r="C220" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D220" s="24"/>
       <c r="E220" s="32" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="F220" s="33"/>
       <c r="G220" s="6"/>
@@ -16555,13 +16585,13 @@
       <c r="A221" s="25"/>
       <c r="B221" s="11"/>
       <c r="C221" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D221" s="27" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="E221" s="32" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="F221" s="33"/>
       <c r="G221" s="6"/>
@@ -16571,10 +16601,10 @@
       <c r="B222" s="11"/>
       <c r="C222" s="26"/>
       <c r="D222" s="27" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="E222" s="32" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="F222" s="33"/>
       <c r="G222" s="6"/>
@@ -16584,27 +16614,27 @@
       <c r="B223" s="11"/>
       <c r="C223" s="26"/>
       <c r="D223" s="27" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="E223" s="32" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="F223" s="33"/>
       <c r="G223" s="6"/>
     </row>
     <row r="224" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A224" s="22" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="C224" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D224" s="24"/>
       <c r="E224" s="7" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="F224" s="33"/>
       <c r="G224" s="6"/>
@@ -16613,11 +16643,11 @@
       <c r="A225" s="25"/>
       <c r="B225" s="11"/>
       <c r="C225" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D225" s="24"/>
       <c r="E225" s="32" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="F225" s="33"/>
       <c r="G225" s="6"/>
@@ -16626,13 +16656,13 @@
       <c r="A226" s="25"/>
       <c r="B226" s="11"/>
       <c r="C226" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D226" s="27" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="E226" s="32" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="F226" s="33"/>
       <c r="G226" s="6"/>
@@ -16645,7 +16675,7 @@
         <v>132</v>
       </c>
       <c r="E227" s="32" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="F227" s="33"/>
       <c r="G227" s="6"/>
@@ -16655,27 +16685,27 @@
       <c r="B228" s="11"/>
       <c r="C228" s="26"/>
       <c r="D228" s="27" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="E228" s="32" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="F228" s="33"/>
       <c r="G228" s="6"/>
     </row>
     <row r="229" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A229" s="22" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="C229" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D229" s="24"/>
       <c r="E229" s="7" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="F229" s="33"/>
       <c r="G229" s="6"/>
@@ -16684,11 +16714,11 @@
       <c r="A230" s="25"/>
       <c r="B230" s="11"/>
       <c r="C230" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D230" s="24"/>
       <c r="E230" s="32" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="F230" s="33"/>
       <c r="G230" s="6"/>
@@ -16697,13 +16727,13 @@
       <c r="A231" s="25"/>
       <c r="B231" s="11"/>
       <c r="C231" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D231" s="27" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="E231" s="32" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="6"/>
@@ -16713,10 +16743,10 @@
       <c r="B232" s="11"/>
       <c r="C232" s="26"/>
       <c r="D232" s="27" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="E232" s="32" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="F232" s="33"/>
       <c r="G232" s="6"/>
@@ -16726,10 +16756,10 @@
       <c r="B233" s="11"/>
       <c r="C233" s="26"/>
       <c r="D233" s="27" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="E233" s="32" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="6"/>
@@ -16739,27 +16769,27 @@
       <c r="B234" s="11"/>
       <c r="C234" s="26"/>
       <c r="D234" s="27" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="E234" s="38" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="F234" s="33"/>
       <c r="G234" s="6"/>
     </row>
     <row r="235" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A235" s="22" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="C235" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D235" s="24"/>
       <c r="E235" s="7" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="F235" s="33"/>
       <c r="G235" s="6"/>
@@ -16768,11 +16798,11 @@
       <c r="A236" s="25"/>
       <c r="B236" s="11"/>
       <c r="C236" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D236" s="24"/>
       <c r="E236" s="32" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="F236" s="33"/>
       <c r="G236" s="6"/>
@@ -16781,10 +16811,10 @@
       <c r="A237" s="25"/>
       <c r="B237" s="11"/>
       <c r="C237" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="E237" s="32"/>
       <c r="F237" s="33"/>
@@ -16795,7 +16825,7 @@
       <c r="B238" s="11"/>
       <c r="C238" s="26"/>
       <c r="D238" s="27" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="E238" s="32"/>
       <c r="F238" s="33"/>
@@ -16806,10 +16836,10 @@
       <c r="B239" s="11"/>
       <c r="C239" s="26"/>
       <c r="D239" s="27" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="E239" s="32" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="F239" s="33"/>
       <c r="G239" s="6"/>
@@ -16819,27 +16849,27 @@
       <c r="B240" s="11"/>
       <c r="C240" s="26"/>
       <c r="D240" s="27" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="E240" s="32" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="F240" s="33"/>
       <c r="G240" s="6"/>
     </row>
     <row r="241" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A241" s="22" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="C241" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D241" s="24"/>
       <c r="E241" s="7" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="F241" s="33"/>
       <c r="G241" s="6"/>
@@ -16848,11 +16878,11 @@
       <c r="A242" s="25"/>
       <c r="B242" s="11"/>
       <c r="C242" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D242" s="24"/>
       <c r="E242" s="32" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="F242" s="33"/>
       <c r="G242" s="6"/>
@@ -16861,10 +16891,10 @@
       <c r="A243" s="25"/>
       <c r="B243" s="11"/>
       <c r="C243" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D243" s="27" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="E243" s="32"/>
       <c r="F243" s="33"/>
@@ -16875,7 +16905,7 @@
       <c r="B244" s="13"/>
       <c r="C244" s="26"/>
       <c r="D244" s="27" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="E244" s="32"/>
       <c r="F244" s="33"/>
@@ -16883,17 +16913,17 @@
     </row>
     <row r="245" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A245" s="22" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="C245" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D245" s="24"/>
       <c r="E245" s="7" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="F245" s="33"/>
       <c r="G245" s="6"/>
@@ -16902,11 +16932,11 @@
       <c r="A246" s="25"/>
       <c r="B246" s="11"/>
       <c r="C246" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D246" s="24"/>
       <c r="E246" s="32" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="F246" s="33"/>
       <c r="G246" s="6"/>
@@ -16915,10 +16945,10 @@
       <c r="A247" s="25"/>
       <c r="B247" s="11"/>
       <c r="C247" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D247" s="27" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="E247" s="32"/>
       <c r="F247" s="33"/>
@@ -16929,7 +16959,7 @@
       <c r="B248" s="11"/>
       <c r="C248" s="26"/>
       <c r="D248" s="27" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="E248" s="32"/>
       <c r="F248" s="33"/>
@@ -16940,10 +16970,10 @@
       <c r="B249" s="11"/>
       <c r="C249" s="26"/>
       <c r="D249" s="27" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="E249" s="32" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="F249" s="33"/>
       <c r="G249" s="6"/>
@@ -16953,10 +16983,10 @@
       <c r="B250" s="11"/>
       <c r="C250" s="26"/>
       <c r="D250" s="27" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="E250" s="32" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="F250" s="33"/>
       <c r="G250" s="6"/>
@@ -16966,7 +16996,7 @@
       <c r="B251" s="11"/>
       <c r="C251" s="26"/>
       <c r="D251" s="27" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="E251" s="32"/>
       <c r="F251" s="33"/>
@@ -16977,7 +17007,7 @@
       <c r="B252" s="11"/>
       <c r="C252" s="26"/>
       <c r="D252" s="27" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="E252" s="32"/>
       <c r="F252" s="33"/>
@@ -16985,17 +17015,17 @@
     </row>
     <row r="253" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A253" s="22" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="C253" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D253" s="24"/>
       <c r="E253" s="7" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="F253" s="33"/>
       <c r="G253" s="6"/>
@@ -17004,14 +17034,14 @@
       <c r="A254" s="25"/>
       <c r="B254" s="11"/>
       <c r="C254" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D254" s="24"/>
       <c r="E254" s="32" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
       <c r="F254" s="33" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="G254" s="6"/>
     </row>
@@ -17019,13 +17049,13 @@
       <c r="A255" s="25"/>
       <c r="B255" s="11"/>
       <c r="C255" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D255" s="27" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="E255" s="32" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="F255" s="33"/>
       <c r="G255" s="6"/>
@@ -17035,10 +17065,10 @@
       <c r="B256" s="11"/>
       <c r="C256" s="26"/>
       <c r="D256" s="27" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="E256" s="32" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="F256" s="33"/>
       <c r="G256" s="6"/>
@@ -17048,27 +17078,27 @@
       <c r="B257" s="11"/>
       <c r="C257" s="26"/>
       <c r="D257" s="27" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="E257" s="32" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="F257" s="33"/>
       <c r="G257" s="6"/>
     </row>
     <row r="258" s="1" customFormat="1" ht="65" customHeight="1" spans="1:7">
       <c r="A258" s="22" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="C258" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D258" s="24"/>
       <c r="E258" s="7" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="F258" s="33"/>
       <c r="G258" s="6"/>
@@ -17077,11 +17107,11 @@
       <c r="A259" s="25"/>
       <c r="B259" s="11"/>
       <c r="C259" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D259" s="24"/>
       <c r="E259" s="32" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="F259" s="33"/>
       <c r="G259" s="6"/>
@@ -17090,10 +17120,10 @@
       <c r="A260" s="25"/>
       <c r="B260" s="11"/>
       <c r="C260" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D260" s="27" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="E260" s="32"/>
       <c r="F260" s="33"/>
@@ -17104,10 +17134,10 @@
       <c r="B261" s="11"/>
       <c r="C261" s="26"/>
       <c r="D261" s="27" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="E261" s="32" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="F261" s="33"/>
       <c r="G261" s="6"/>
@@ -17117,7 +17147,7 @@
       <c r="B262" s="11"/>
       <c r="C262" s="26"/>
       <c r="D262" s="27" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="E262" s="32"/>
       <c r="F262" s="33"/>
@@ -17128,7 +17158,7 @@
       <c r="B263" s="11"/>
       <c r="C263" s="26"/>
       <c r="D263" s="27" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="E263" s="32"/>
       <c r="F263" s="33"/>
@@ -17136,17 +17166,17 @@
     </row>
     <row r="264" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A264" s="22" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="C264" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D264" s="24"/>
       <c r="E264" s="7" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="F264" s="33"/>
       <c r="G264" s="6"/>
@@ -17155,11 +17185,11 @@
       <c r="A265" s="25"/>
       <c r="B265" s="11"/>
       <c r="C265" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D265" s="24"/>
       <c r="E265" s="32" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="F265" s="33"/>
       <c r="G265" s="6"/>
@@ -17168,13 +17198,13 @@
       <c r="A266" s="25"/>
       <c r="B266" s="11"/>
       <c r="C266" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D266" s="27" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="E266" s="32" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="F266" s="33"/>
       <c r="G266" s="6"/>
@@ -17184,7 +17214,7 @@
       <c r="B267" s="11"/>
       <c r="C267" s="26"/>
       <c r="D267" s="27" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="E267" s="32"/>
       <c r="F267" s="33"/>
@@ -17195,7 +17225,7 @@
       <c r="B268" s="11"/>
       <c r="C268" s="26"/>
       <c r="D268" s="27" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="E268" s="32"/>
       <c r="F268" s="33"/>
@@ -17206,7 +17236,7 @@
       <c r="B269" s="11"/>
       <c r="C269" s="26"/>
       <c r="D269" s="27" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="E269" s="32"/>
       <c r="F269" s="33"/>
@@ -17214,17 +17244,17 @@
     </row>
     <row r="270" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A270" s="22" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="C270" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D270" s="24"/>
       <c r="E270" s="7" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="F270" s="33"/>
       <c r="G270" s="6"/>
@@ -17233,11 +17263,11 @@
       <c r="A271" s="25"/>
       <c r="B271" s="11"/>
       <c r="C271" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D271" s="24"/>
       <c r="E271" s="38" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="F271" s="33"/>
       <c r="G271" s="6"/>
@@ -17246,13 +17276,13 @@
       <c r="A272" s="25"/>
       <c r="B272" s="11"/>
       <c r="C272" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D272" s="27" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="E272" s="32" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="F272" s="33"/>
       <c r="G272" s="6"/>
@@ -17262,7 +17292,7 @@
       <c r="B273" s="11"/>
       <c r="C273" s="26"/>
       <c r="D273" s="27" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="E273" s="32"/>
       <c r="F273" s="33"/>
@@ -17273,27 +17303,27 @@
       <c r="B274" s="11"/>
       <c r="C274" s="26"/>
       <c r="D274" s="27" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="E274" s="32" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="F274" s="33"/>
       <c r="G274" s="6"/>
     </row>
     <row r="275" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A275" s="22" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="C275" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D275" s="24"/>
       <c r="E275" s="7" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="F275" s="33"/>
       <c r="G275" s="6"/>
@@ -17302,11 +17332,11 @@
       <c r="A276" s="25"/>
       <c r="B276" s="11"/>
       <c r="C276" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D276" s="24"/>
       <c r="E276" s="32" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="F276" s="33"/>
       <c r="G276" s="6"/>
@@ -17315,13 +17345,13 @@
       <c r="A277" s="25"/>
       <c r="B277" s="11"/>
       <c r="C277" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D277" s="27" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="E277" s="32" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="F277" s="33"/>
       <c r="G277" s="6"/>
@@ -17331,10 +17361,10 @@
       <c r="B278" s="11"/>
       <c r="C278" s="26"/>
       <c r="D278" s="27" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="E278" s="32" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="F278" s="33"/>
       <c r="G278" s="6"/>
@@ -17344,10 +17374,10 @@
       <c r="B279" s="11"/>
       <c r="C279" s="26"/>
       <c r="D279" s="27" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="E279" s="32" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="F279" s="33"/>
       <c r="G279" s="6"/>
@@ -17357,27 +17387,27 @@
       <c r="B280" s="11"/>
       <c r="C280" s="26"/>
       <c r="D280" s="27" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="E280" s="32" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="F280" s="33"/>
       <c r="G280" s="6"/>
     </row>
     <row r="281" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A281" s="22" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="C281" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D281" s="24"/>
       <c r="E281" s="7" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="F281" s="33"/>
       <c r="G281" s="6"/>
@@ -17386,7 +17416,7 @@
       <c r="A282" s="25"/>
       <c r="B282" s="11"/>
       <c r="C282" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D282" s="24"/>
       <c r="E282" s="32"/>
@@ -17397,13 +17427,13 @@
       <c r="A283" s="25"/>
       <c r="B283" s="11"/>
       <c r="C283" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D283" s="27" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="E283" s="32" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="F283" s="33"/>
       <c r="G283" s="6"/>
@@ -17413,17 +17443,17 @@
       <c r="B284" s="13"/>
       <c r="C284" s="26"/>
       <c r="D284" s="27" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="E284" s="32" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
       <c r="F284" s="33"/>
       <c r="G284" s="6"/>
     </row>
     <row r="285" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A285" s="22" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="B285" s="9"/>
       <c r="C285" s="23" t="s">
@@ -17431,7 +17461,7 @@
       </c>
       <c r="D285" s="24"/>
       <c r="E285" s="7" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="F285" s="33"/>
       <c r="G285" s="6"/>
@@ -17440,11 +17470,11 @@
       <c r="A286" s="25"/>
       <c r="B286" s="11"/>
       <c r="C286" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D286" s="24"/>
       <c r="E286" s="32" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="F286" s="33"/>
       <c r="G286" s="6"/>
@@ -17453,10 +17483,10 @@
       <c r="A287" s="25"/>
       <c r="B287" s="11"/>
       <c r="C287" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D287" s="27" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="E287" s="32"/>
       <c r="F287" s="33"/>
@@ -17467,10 +17497,10 @@
       <c r="B288" s="11"/>
       <c r="C288" s="26"/>
       <c r="D288" s="27" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="E288" s="32" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="F288" s="33"/>
       <c r="G288" s="6"/>
@@ -17480,10 +17510,10 @@
       <c r="B289" s="11"/>
       <c r="C289" s="26"/>
       <c r="D289" s="27" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="E289" s="32" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="F289" s="33"/>
       <c r="G289" s="6"/>
@@ -17493,27 +17523,27 @@
       <c r="B290" s="11"/>
       <c r="C290" s="26"/>
       <c r="D290" s="27" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="E290" s="32" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="F290" s="33"/>
       <c r="G290" s="6"/>
     </row>
     <row r="291" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A291" s="22" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="C291" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D291" s="24"/>
       <c r="E291" s="7" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="F291" s="33"/>
       <c r="G291" s="6"/>
@@ -17522,7 +17552,7 @@
       <c r="A292" s="25"/>
       <c r="B292" s="11"/>
       <c r="C292" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D292" s="24"/>
       <c r="E292" s="32"/>
@@ -17533,13 +17563,13 @@
       <c r="A293" s="25"/>
       <c r="B293" s="11"/>
       <c r="C293" s="26" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D293" s="27" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="E293" s="32" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="F293" s="33"/>
       <c r="G293" s="6"/>
@@ -17549,10 +17579,10 @@
       <c r="B294" s="11"/>
       <c r="C294" s="26"/>
       <c r="D294" s="27" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="E294" s="32" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="F294" s="33"/>
       <c r="G294" s="6"/>
@@ -17562,7 +17592,7 @@
       <c r="B295" s="11"/>
       <c r="C295" s="26"/>
       <c r="D295" s="27" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="E295" s="32"/>
       <c r="F295" s="33"/>
@@ -17573,7 +17603,7 @@
       <c r="B296" s="11"/>
       <c r="C296" s="26"/>
       <c r="D296" s="27" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="E296" s="32"/>
       <c r="F296" s="33"/>
@@ -17584,7 +17614,7 @@
       <c r="B297" s="11"/>
       <c r="C297" s="26"/>
       <c r="D297" s="27" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="E297" s="32"/>
       <c r="F297" s="33"/>
@@ -17592,17 +17622,17 @@
     </row>
     <row r="298" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
       <c r="A298" s="22" t="s">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
       <c r="C298" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D298" s="24"/>
       <c r="E298" s="7" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="F298" s="33"/>
       <c r="G298" s="6"/>
@@ -17611,11 +17641,11 @@
       <c r="A299" s="25"/>
       <c r="B299" s="11"/>
       <c r="C299" s="23" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D299" s="24"/>
       <c r="E299" s="32" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="F299" s="33"/>
       <c r="G299" s="6"/>
@@ -17624,10 +17654,10 @@
       <c r="A300" s="25"/>
       <c r="B300" s="11"/>
       <c r="C300" s="29" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D300" s="27" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="E300" s="32"/>
       <c r="F300" s="33"/>
@@ -17638,10 +17668,10 @@
       <c r="B301" s="11"/>
       <c r="C301" s="30"/>
       <c r="D301" s="27" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="E301" s="32" t="s">
-        <v>1317</v>
+        <v>1321</v>
       </c>
       <c r="F301" s="33"/>
       <c r="G301" s="6"/>
@@ -17651,7 +17681,7 @@
       <c r="B302" s="11"/>
       <c r="C302" s="30"/>
       <c r="D302" s="5" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="E302" s="7"/>
       <c r="F302" s="33"/>
@@ -17662,10 +17692,10 @@
       <c r="B303" s="13"/>
       <c r="C303" s="31"/>
       <c r="D303" s="5" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="F303" s="33"/>
       <c r="G303" s="6"/>
@@ -18259,7 +18289,7 @@
         <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>111</v>
@@ -18275,7 +18305,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -18287,13 +18317,13 @@
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -18304,7 +18334,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="7" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -18315,11 +18345,11 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="7" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -18328,11 +18358,11 @@
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="7" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -18341,7 +18371,7 @@
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="7" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -18350,13 +18380,13 @@
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -18367,7 +18397,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -18378,7 +18408,7 @@
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="7" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -18389,7 +18419,7 @@
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="7" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -18398,17 +18428,17 @@
     <row r="12" ht="139" customHeight="1" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -18421,10 +18451,10 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="18" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
@@ -18434,10 +18464,10 @@
       <c r="D14" s="15"/>
       <c r="E14" s="10"/>
       <c r="F14" s="18" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="15" ht="84" spans="1:7">
@@ -18447,10 +18477,10 @@
       <c r="D15" s="15"/>
       <c r="E15" s="10"/>
       <c r="F15" s="18" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="16" ht="56" spans="1:7">
@@ -18460,10 +18490,10 @@
       <c r="D16" s="15"/>
       <c r="E16" s="10"/>
       <c r="F16" s="18" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
@@ -18473,10 +18503,10 @@
       <c r="D17" s="15"/>
       <c r="E17" s="10"/>
       <c r="F17" s="18" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
@@ -18486,10 +18516,10 @@
       <c r="D18" s="15"/>
       <c r="E18" s="10"/>
       <c r="F18" s="18" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
@@ -18499,10 +18529,10 @@
       <c r="D19" s="15"/>
       <c r="E19" s="10"/>
       <c r="F19" s="18" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1" spans="1:7">
@@ -18512,10 +18542,10 @@
       <c r="D20" s="15"/>
       <c r="E20" s="10"/>
       <c r="F20" s="18" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="21" ht="63" customHeight="1" spans="1:7">
@@ -18525,10 +18555,10 @@
       <c r="D21" s="15"/>
       <c r="E21" s="10"/>
       <c r="F21" s="18" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:7">
@@ -18538,10 +18568,10 @@
       <c r="D22" s="15"/>
       <c r="E22" s="10"/>
       <c r="F22" s="18" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
@@ -18551,10 +18581,10 @@
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
       <c r="F23" s="18" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
@@ -18564,10 +18594,10 @@
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
       <c r="F24" s="18" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
@@ -18577,22 +18607,22 @@
       <c r="D25" s="16"/>
       <c r="E25" s="12"/>
       <c r="F25" s="18" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -18603,7 +18633,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -18614,7 +18644,7 @@
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -18625,7 +18655,7 @@
       <c r="B29" s="6"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -18636,7 +18666,7 @@
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -18647,7 +18677,7 @@
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -18656,17 +18686,17 @@
     <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -18675,11 +18705,11 @@
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="G33" s="7"/>
     </row>
@@ -18692,7 +18722,7 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="G34" s="7"/>
     </row>
@@ -18705,7 +18735,7 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="G35" s="7"/>
     </row>
@@ -18718,7 +18748,7 @@
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="G36" s="7"/>
     </row>
@@ -18731,143 +18761,143 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="G37" s="7"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="4:4">
       <c r="D39" s="2" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="4:4">
       <c r="D40" s="2" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="4:4">
       <c r="D41" s="2" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="4:4">
       <c r="D42" s="2" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
       <c r="B43" s="1" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="4:4">
       <c r="D44" s="2" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="4:4">
       <c r="D45" s="2" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="46" ht="129" customHeight="1" spans="4:6">
       <c r="D46" s="2" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1388</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:7">
       <c r="B47" s="1" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="48" ht="58" customHeight="1" spans="6:7">
       <c r="F48" s="19" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="6:7">
       <c r="F49" s="19" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="4:7">
       <c r="D50" s="2" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="51" ht="58" customHeight="1" spans="6:7">
       <c r="F51" s="19" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="4:7">
       <c r="D52" s="2" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="G52" s="19"/>
     </row>
     <row r="53" customHeight="1" spans="6:7">
       <c r="F53" s="19" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="G53" s="19"/>
     </row>
     <row r="54" customHeight="1" spans="2:7">
       <c r="B54" s="1" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>130</v>
@@ -18877,136 +18907,136 @@
     </row>
     <row r="55" customHeight="1" spans="2:7">
       <c r="B55" s="1" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
     </row>
     <row r="56" customHeight="1" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
     </row>
     <row r="57" customHeight="1" spans="2:4">
       <c r="B57" s="1" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="4:4">
       <c r="D58" s="2" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="4:4">
       <c r="D59" s="2" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="4:4">
       <c r="D60" s="2" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="4:4">
       <c r="D61" s="2" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:7">
       <c r="B63" s="1" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="6:7">
       <c r="F64" s="19" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="6:7">
       <c r="F65" s="19" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="6:7">
       <c r="F66" s="19" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="6:7">
       <c r="F67" s="19" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="6:7">
       <c r="F68" s="19" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="6:7">
       <c r="F69" s="19" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="6:7">
       <c r="F70" s="19" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="6:7">
       <c r="F71" s="19" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="4:7">
@@ -19014,226 +19044,226 @@
         <v>132</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="6:7">
       <c r="F73" s="19" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="6:7">
       <c r="F74" s="19" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="6:7">
       <c r="F75" s="19" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="76" ht="65" customHeight="1" spans="6:7">
       <c r="F76" s="2" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="6:7">
       <c r="F77" s="2" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="78" ht="70" spans="6:7">
       <c r="F78" s="2" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="79" ht="56" spans="6:7">
       <c r="F79" s="2" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="6:7">
       <c r="F80" s="2" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="6:7">
       <c r="F81" s="2" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="6:7">
       <c r="F82" s="2" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="83" ht="70" spans="6:7">
       <c r="F83" s="2" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="84" ht="56" spans="6:7">
       <c r="F84" s="2" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="85" ht="84" spans="6:7">
       <c r="F85" s="2" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="3:7">
       <c r="C87" s="1" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="2" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="6:7">
       <c r="F88" s="2" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="6:7">
       <c r="F89" s="2" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="90" ht="42" spans="6:7">
       <c r="F90" s="2" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="6:7">
       <c r="F91" s="2" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="4:7">
       <c r="D92" s="1" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="2" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="6:7">
       <c r="F93" s="2" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="94" ht="42" spans="6:7">
       <c r="F94" s="2" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="6:7">
       <c r="F95" s="2" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="6:7">
       <c r="F96" s="2" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="97" ht="84" spans="6:7">
       <c r="F97" s="2" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="98" ht="70" spans="6:7">
       <c r="F98" s="2" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="99" ht="71" customHeight="1" spans="4:7">
@@ -19242,130 +19272,130 @@
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="2" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="100" ht="42" spans="6:7">
       <c r="F100" s="2" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="6:7">
       <c r="F101" s="2" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="6:7">
       <c r="F102" s="2" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="6:7">
       <c r="F103" s="2" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>1501</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="104" ht="56" spans="6:7">
       <c r="F104" s="2" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="105" ht="45" customHeight="1" spans="6:7">
       <c r="F105" s="2" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="6:7">
       <c r="F106" s="2" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>1507</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="107" ht="54" customHeight="1" spans="6:7">
       <c r="F107" s="2" t="s">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="6:7">
       <c r="F108" s="2" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="109" ht="59" customHeight="1" spans="6:7">
       <c r="F109" s="2" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="6:7">
       <c r="F110" s="2" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="111" ht="56" spans="6:7">
       <c r="F111" s="2" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="6:7">
       <c r="F112" s="2" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="6:7">
       <c r="F113" s="2" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="6:7">
       <c r="F114" s="2" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
     </row>
   </sheetData>
@@ -19496,15 +19526,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="37.890625" style="2" customWidth="1"/>
     <col min="2" max="2" width="70.4375" style="2" customWidth="1"/>
@@ -19697,6 +19727,16 @@
       </c>
       <c r="H7" s="5" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:8">
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74">
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -21719,7 +21759,7 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20:B26"/>
     </sheetView>
   </sheetViews>
@@ -22221,8 +22261,8 @@
   <sheetPr/>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5625" defaultRowHeight="40" customHeight="1"/>

--- a/笔记/CBAP/知识点.xlsx
+++ b/笔记/CBAP/知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16780" firstSheet="1" activeTab="4"/>
+    <workbookView windowHeight="13180" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="核查单" sheetId="12" r:id="rId1"/>
@@ -11690,10 +11690,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -11762,6 +11762,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -11770,14 +11778,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -11792,6 +11808,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -11801,29 +11824,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11837,24 +11838,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11867,24 +11859,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11964,13 +11964,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11982,13 +11994,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12000,25 +12036,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12030,7 +12048,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12048,31 +12072,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12084,13 +12084,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12102,19 +12108,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12126,25 +12144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12309,6 +12309,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -12320,15 +12329,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12358,16 +12358,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12382,16 +12382,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12411,142 +12411,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12556,7 +12556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12674,27 +12674,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12719,25 +12698,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12752,16 +12716,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12788,43 +12743,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12843,9 +12777,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13408,495 +13339,495 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.703125" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="107" customWidth="1"/>
-    <col min="2" max="3" width="20.703125" style="107" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="107" customWidth="1"/>
-    <col min="5" max="16384" width="20.703125" style="107" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="84" customWidth="1"/>
+    <col min="2" max="3" width="20.703125" style="84" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="84" customWidth="1"/>
+    <col min="5" max="16384" width="20.703125" style="84" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="85" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88">
         <v>20211106</v>
       </c>
-      <c r="D9" s="111"/>
+      <c r="D9" s="88"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111">
+      <c r="B10" s="88"/>
+      <c r="C10" s="88">
         <v>20211114</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="88"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111">
+      <c r="B11" s="88"/>
+      <c r="C11" s="88">
         <v>20211208</v>
       </c>
-      <c r="D11" s="111"/>
+      <c r="D11" s="88"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111">
+      <c r="B12" s="88"/>
+      <c r="C12" s="88">
         <v>20211225</v>
       </c>
-      <c r="D12" s="111"/>
+      <c r="D12" s="88"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111">
+      <c r="B13" s="88"/>
+      <c r="C13" s="88">
         <v>20211106</v>
       </c>
-      <c r="D13" s="111"/>
+      <c r="D13" s="88"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111">
+      <c r="B14" s="88"/>
+      <c r="C14" s="88">
         <v>20211106</v>
       </c>
-      <c r="D14" s="111"/>
+      <c r="D14" s="88"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111">
+      <c r="B15" s="88"/>
+      <c r="C15" s="88">
         <v>20211108</v>
       </c>
-      <c r="D15" s="111"/>
+      <c r="D15" s="88"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111">
+      <c r="B16" s="88"/>
+      <c r="C16" s="88">
         <v>20211108</v>
       </c>
-      <c r="D16" s="111"/>
+      <c r="D16" s="88"/>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111">
+      <c r="B17" s="88"/>
+      <c r="C17" s="88">
         <v>20211108</v>
       </c>
-      <c r="D17" s="111"/>
+      <c r="D17" s="88"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111">
+      <c r="B18" s="88"/>
+      <c r="C18" s="88">
         <v>20211109</v>
       </c>
-      <c r="D18" s="111"/>
+      <c r="D18" s="88"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111">
+      <c r="B19" s="88"/>
+      <c r="C19" s="88">
         <v>20211109</v>
       </c>
-      <c r="D19" s="111"/>
+      <c r="D19" s="88"/>
     </row>
     <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111">
+      <c r="B20" s="88"/>
+      <c r="C20" s="88">
         <v>20211109</v>
       </c>
-      <c r="D20" s="111"/>
+      <c r="D20" s="88"/>
     </row>
     <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111">
+      <c r="B21" s="88"/>
+      <c r="C21" s="88">
         <v>20211114</v>
       </c>
-      <c r="D21" s="111"/>
+      <c r="D21" s="88"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111">
+      <c r="B22" s="88"/>
+      <c r="C22" s="88">
         <v>20211208</v>
       </c>
-      <c r="D22" s="111"/>
+      <c r="D22" s="88"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111">
+      <c r="B23" s="88"/>
+      <c r="C23" s="88">
         <v>20211225</v>
       </c>
-      <c r="D23" s="111"/>
+      <c r="D23" s="88"/>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111">
+      <c r="B24" s="88"/>
+      <c r="C24" s="88">
         <v>20220213</v>
       </c>
-      <c r="D24" s="111" t="s">
+      <c r="D24" s="88" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111">
+      <c r="B25" s="88"/>
+      <c r="C25" s="88">
         <v>20220213</v>
       </c>
-      <c r="D25" s="111"/>
+      <c r="D25" s="88"/>
     </row>
     <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="112" t="s">
+      <c r="A26" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111">
+      <c r="B26" s="88"/>
+      <c r="C26" s="88">
         <v>20220306</v>
       </c>
-      <c r="D26" s="111"/>
+      <c r="D26" s="88"/>
     </row>
     <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88">
         <v>20220430</v>
       </c>
-      <c r="D27" s="111"/>
+      <c r="D27" s="88"/>
     </row>
     <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="112" t="s">
+      <c r="A28" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="111"/>
-      <c r="C28" s="111">
+      <c r="B28" s="88"/>
+      <c r="C28" s="88">
         <v>20220320</v>
       </c>
-      <c r="D28" s="111"/>
+      <c r="D28" s="88"/>
     </row>
     <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111">
+      <c r="B29" s="88"/>
+      <c r="C29" s="88">
         <v>20211225</v>
       </c>
-      <c r="D29" s="111" t="s">
+      <c r="D29" s="88" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="112" t="s">
+      <c r="A30" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111">
+      <c r="B30" s="88"/>
+      <c r="C30" s="88">
         <v>20211226</v>
       </c>
-      <c r="D30" s="111"/>
+      <c r="D30" s="88"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="112" t="s">
+      <c r="A31" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111">
+      <c r="B31" s="88"/>
+      <c r="C31" s="88">
         <v>20211226</v>
       </c>
-      <c r="D31" s="111"/>
+      <c r="D31" s="88"/>
     </row>
     <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="112" t="s">
+      <c r="A32" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111">
+      <c r="B32" s="88"/>
+      <c r="C32" s="88">
         <v>20220324</v>
       </c>
-      <c r="D32" s="111"/>
+      <c r="D32" s="88"/>
     </row>
     <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="112" t="s">
+      <c r="A33" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111">
+      <c r="B33" s="88"/>
+      <c r="C33" s="88">
         <v>20220327</v>
       </c>
-      <c r="D33" s="111"/>
+      <c r="D33" s="88"/>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="112" t="s">
+      <c r="A34" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111">
+      <c r="B34" s="88"/>
+      <c r="C34" s="88">
         <v>20220402</v>
       </c>
-      <c r="D34" s="111"/>
+      <c r="D34" s="88"/>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="111"/>
-      <c r="C35" s="111">
+      <c r="B35" s="88"/>
+      <c r="C35" s="88">
         <v>20220406</v>
       </c>
-      <c r="D35" s="111"/>
+      <c r="D35" s="88"/>
     </row>
     <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="111">
+      <c r="B36" s="88"/>
+      <c r="C36" s="88">
         <v>20220415</v>
       </c>
-      <c r="D36" s="111"/>
+      <c r="D36" s="88"/>
     </row>
     <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="112" t="s">
+      <c r="A37" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="111"/>
-      <c r="C37" s="111">
+      <c r="B37" s="88"/>
+      <c r="C37" s="88">
         <v>20220420</v>
       </c>
-      <c r="D37" s="111"/>
+      <c r="D37" s="88"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="112" t="s">
+      <c r="A38" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111">
+      <c r="B38" s="88"/>
+      <c r="C38" s="88">
         <v>20211229</v>
       </c>
-      <c r="D38" s="111"/>
+      <c r="D38" s="88"/>
     </row>
     <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="112" t="s">
+      <c r="A39" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111">
+      <c r="B39" s="88"/>
+      <c r="C39" s="88">
         <v>20211229</v>
       </c>
-      <c r="D39" s="111"/>
+      <c r="D39" s="88"/>
     </row>
     <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="112" t="s">
+      <c r="A40" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="111"/>
-      <c r="C40" s="111">
+      <c r="B40" s="88"/>
+      <c r="C40" s="88">
         <v>20211230</v>
       </c>
-      <c r="D40" s="111"/>
+      <c r="D40" s="88"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="112" t="s">
+      <c r="A41" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="111"/>
-      <c r="C41" s="111">
+      <c r="B41" s="88"/>
+      <c r="C41" s="88">
         <v>20220101</v>
       </c>
-      <c r="D41" s="111"/>
+      <c r="D41" s="88"/>
     </row>
     <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="112" t="s">
+      <c r="A42" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111">
+      <c r="B42" s="88"/>
+      <c r="C42" s="88">
         <v>20220102</v>
       </c>
-      <c r="D42" s="111"/>
+      <c r="D42" s="88"/>
     </row>
     <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="112" t="s">
+      <c r="A43" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="111"/>
-      <c r="C43" s="111">
+      <c r="B43" s="88"/>
+      <c r="C43" s="88">
         <v>20220106</v>
       </c>
-      <c r="D43" s="111"/>
+      <c r="D43" s="88"/>
     </row>
     <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="112" t="s">
+      <c r="A44" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="111"/>
-      <c r="C44" s="111">
+      <c r="B44" s="88"/>
+      <c r="C44" s="88">
         <v>20220108</v>
       </c>
-      <c r="D44" s="111"/>
+      <c r="D44" s="88"/>
     </row>
     <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="112" t="s">
+      <c r="A45" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111">
+      <c r="B45" s="88"/>
+      <c r="C45" s="88">
         <v>20220108</v>
       </c>
-      <c r="D45" s="111"/>
+      <c r="D45" s="88"/>
     </row>
     <row r="46" customHeight="1" spans="1:4">
-      <c r="A46" s="112" t="s">
+      <c r="A46" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="111"/>
-      <c r="C46" s="111">
+      <c r="B46" s="88"/>
+      <c r="C46" s="88">
         <v>20220130</v>
       </c>
-      <c r="D46" s="111"/>
+      <c r="D46" s="88"/>
     </row>
     <row r="47" customHeight="1" spans="1:4">
-      <c r="A47" s="112" t="s">
+      <c r="A47" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="111"/>
-      <c r="C47" s="111">
+      <c r="B47" s="88"/>
+      <c r="C47" s="88">
         <v>20220208</v>
       </c>
-      <c r="D47" s="111"/>
+      <c r="D47" s="88"/>
     </row>
     <row r="48" customHeight="1" spans="1:4">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="111"/>
-      <c r="C48" s="111">
+      <c r="B48" s="88"/>
+      <c r="C48" s="88">
         <v>20220210</v>
       </c>
-      <c r="D48" s="111"/>
+      <c r="D48" s="88"/>
     </row>
     <row r="49" customHeight="1" spans="1:4">
-      <c r="A49" s="112" t="s">
+      <c r="A49" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="111"/>
-      <c r="C49" s="111">
+      <c r="B49" s="88"/>
+      <c r="C49" s="88">
         <v>20220430</v>
       </c>
-      <c r="D49" s="111"/>
+      <c r="D49" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -13925,21 +13856,21 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
       <c r="A2" s="9">
@@ -13952,7 +13883,7 @@
         <v>213</v>
       </c>
       <c r="D2" s="24"/>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="41" t="s">
         <v>802</v>
       </c>
       <c r="F2" s="7"/>
@@ -13966,13 +13897,13 @@
       <c r="C3" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="45">
         <v>6.2</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="51" t="s">
         <v>804</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -13983,7 +13914,7 @@
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="53"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="7" t="s">
         <v>806</v>
       </c>
@@ -13995,12 +13926,12 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="47" t="s">
         <v>809</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -14010,10 +13941,10 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="47" t="s">
         <v>811</v>
       </c>
       <c r="E6" s="7"/>
@@ -14021,10 +13952,10 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="47" t="s">
         <v>812</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -14034,12 +13965,12 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="47" t="s">
         <v>266</v>
       </c>
       <c r="E8" s="7"/>
@@ -14047,10 +13978,10 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="47" t="s">
         <v>436</v>
       </c>
       <c r="E9" s="7"/>
@@ -14058,10 +13989,10 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="47" t="s">
         <v>814</v>
       </c>
       <c r="E10" s="7"/>
@@ -14069,10 +14000,10 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="47" t="s">
         <v>517</v>
       </c>
       <c r="E11" s="7"/>
@@ -14080,12 +14011,12 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="47" t="s">
         <v>270</v>
       </c>
       <c r="E12" s="7"/>
@@ -14093,10 +14024,10 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="47" t="s">
         <v>190</v>
       </c>
       <c r="E13" s="7"/>
@@ -14104,10 +14035,10 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="47" t="s">
         <v>271</v>
       </c>
       <c r="E14" s="7"/>
@@ -14115,10 +14046,10 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="47" t="s">
         <v>243</v>
       </c>
       <c r="E15" s="7"/>
@@ -14126,10 +14057,10 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="47" t="s">
         <v>247</v>
       </c>
       <c r="E16" s="7"/>
@@ -14137,10 +14068,10 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="47" t="s">
         <v>245</v>
       </c>
       <c r="E17" s="7"/>
@@ -14157,7 +14088,7 @@
       <c r="E18" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="41" t="s">
         <v>816</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -14178,7 +14109,7 @@
       <c r="E19" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="F19" s="64"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="5" t="s">
         <v>820</v>
       </c>
@@ -14189,7 +14120,7 @@
       <c r="C20" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="45">
         <v>6.2</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -14206,7 +14137,7 @@
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="52">
+      <c r="D21" s="45">
         <v>8.1</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -14220,12 +14151,12 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="47" t="s">
         <v>827</v>
       </c>
       <c r="E22" s="7"/>
@@ -14233,10 +14164,10 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="57" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="47" t="s">
         <v>828</v>
       </c>
       <c r="E23" s="7"/>
@@ -14244,10 +14175,10 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="57" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="47" t="s">
         <v>829</v>
       </c>
       <c r="E24" s="7"/>
@@ -14255,10 +14186,10 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="57" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="47" t="s">
         <v>830</v>
       </c>
       <c r="E25" s="7"/>
@@ -14266,10 +14197,10 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="57" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="47" t="s">
         <v>831</v>
       </c>
       <c r="E26" s="7"/>
@@ -14277,12 +14208,12 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="47" t="s">
         <v>266</v>
       </c>
       <c r="E27" s="7"/>
@@ -14290,10 +14221,10 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="57" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="47" t="s">
         <v>436</v>
       </c>
       <c r="E28" s="7"/>
@@ -14301,10 +14232,10 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="57" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="47" t="s">
         <v>797</v>
       </c>
       <c r="E29" s="7"/>
@@ -14312,10 +14243,10 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="57" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="47" t="s">
         <v>517</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -14325,12 +14256,12 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="55" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="47" t="s">
         <v>190</v>
       </c>
       <c r="E31" s="7"/>
@@ -14338,10 +14269,10 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="57" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="47" t="s">
         <v>243</v>
       </c>
       <c r="E32" s="7"/>
@@ -14349,10 +14280,10 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="57" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="47" t="s">
         <v>247</v>
       </c>
       <c r="E33" s="7"/>
@@ -14387,7 +14318,7 @@
         <v>213</v>
       </c>
       <c r="D35" s="24"/>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="41" t="s">
         <v>837</v>
       </c>
       <c r="F35" s="7"/>
@@ -14407,7 +14338,7 @@
       <c r="C36" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="58"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="7" t="s">
         <v>841</v>
       </c>
@@ -14422,7 +14353,7 @@
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="26"/>
-      <c r="D37" s="52">
+      <c r="D37" s="45">
         <v>8.2</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -14436,12 +14367,12 @@
       </c>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="55" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="47" t="s">
         <v>846</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -14451,10 +14382,10 @@
       <c r="G38" s="5"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="57" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="47" t="s">
         <v>848</v>
       </c>
       <c r="E39" s="7"/>
@@ -14462,10 +14393,10 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="57" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="47" t="s">
         <v>849</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -14475,12 +14406,12 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="47" t="s">
         <v>266</v>
       </c>
       <c r="E41" s="7"/>
@@ -14488,10 +14419,10 @@
       <c r="G41" s="5"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="57" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="47" t="s">
         <v>517</v>
       </c>
       <c r="E42" s="7"/>
@@ -14499,10 +14430,10 @@
       <c r="G42" s="5"/>
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="57" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="47" t="s">
         <v>797</v>
       </c>
       <c r="E43" s="7"/>
@@ -14510,12 +14441,12 @@
       <c r="G43" s="5"/>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="55" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="47" t="s">
         <v>270</v>
       </c>
       <c r="E44" s="7"/>
@@ -14523,10 +14454,10 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="57" t="s">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="47" t="s">
         <v>190</v>
       </c>
       <c r="E45" s="7"/>
@@ -14534,10 +14465,10 @@
       <c r="G45" s="5"/>
     </row>
     <row r="46" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="57" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="47" t="s">
         <v>271</v>
       </c>
       <c r="E46" s="7"/>
@@ -14545,10 +14476,10 @@
       <c r="G46" s="5"/>
     </row>
     <row r="47" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="57" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="47" t="s">
         <v>245</v>
       </c>
       <c r="E47" s="7"/>
@@ -14556,10 +14487,10 @@
       <c r="G47" s="5"/>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="57" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="47" t="s">
         <v>247</v>
       </c>
       <c r="E48" s="7"/>
@@ -14567,10 +14498,10 @@
       <c r="G48" s="5"/>
     </row>
     <row r="49" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="57" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="47" t="s">
         <v>418</v>
       </c>
       <c r="E49" s="7"/>
@@ -14587,7 +14518,7 @@
       <c r="E50" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="41" t="s">
         <v>852</v>
       </c>
       <c r="G50" s="5" t="s">
@@ -14605,7 +14536,7 @@
         <v>213</v>
       </c>
       <c r="D51" s="24"/>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="41" t="s">
         <v>855</v>
       </c>
       <c r="F51" s="7"/>
@@ -14622,7 +14553,7 @@
       <c r="C52" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D52" s="59">
+      <c r="D52" s="48">
         <v>6.1</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -14639,7 +14570,7 @@
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="26"/>
-      <c r="D53" s="58"/>
+      <c r="D53" s="47"/>
       <c r="E53" s="7" t="s">
         <v>860</v>
       </c>
@@ -14654,7 +14585,7 @@
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="26"/>
-      <c r="D54" s="59">
+      <c r="D54" s="48">
         <v>8.2</v>
       </c>
       <c r="E54" s="7" t="s">
@@ -14668,12 +14599,12 @@
       </c>
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="55" t="s">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D55" s="60" t="s">
+      <c r="D55" s="47" t="s">
         <v>863</v>
       </c>
       <c r="E55" s="7"/>
@@ -14681,10 +14612,10 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="60" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="47" t="s">
         <v>864</v>
       </c>
       <c r="E56" s="7"/>
@@ -14692,10 +14623,10 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="60" t="s">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="47" t="s">
         <v>865</v>
       </c>
       <c r="E57" s="7"/>
@@ -14703,10 +14634,10 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="60" t="s">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="47" t="s">
         <v>866</v>
       </c>
       <c r="E58" s="7"/>
@@ -14714,12 +14645,12 @@
       <c r="G58" s="5"/>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="55" t="s">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D59" s="60" t="s">
+      <c r="D59" s="47" t="s">
         <v>731</v>
       </c>
       <c r="E59" s="7"/>
@@ -14727,10 +14658,10 @@
       <c r="G59" s="5"/>
     </row>
     <row r="60" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="60" t="s">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="47" t="s">
         <v>266</v>
       </c>
       <c r="E60" s="7"/>
@@ -14738,10 +14669,10 @@
       <c r="G60" s="5"/>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="60" t="s">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="47" t="s">
         <v>436</v>
       </c>
       <c r="E61" s="7"/>
@@ -14749,10 +14680,10 @@
       <c r="G61" s="5"/>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="60" t="s">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="47" t="s">
         <v>797</v>
       </c>
       <c r="E62" s="7"/>
@@ -14760,10 +14691,10 @@
       <c r="G62" s="5"/>
     </row>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="60" t="s">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="47" t="s">
         <v>517</v>
       </c>
       <c r="E63" s="7"/>
@@ -14771,12 +14702,12 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55" t="s">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D64" s="60" t="s">
+      <c r="D64" s="47" t="s">
         <v>270</v>
       </c>
       <c r="E64" s="7"/>
@@ -14784,10 +14715,10 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="60" t="s">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="47" t="s">
         <v>190</v>
       </c>
       <c r="E65" s="7"/>
@@ -14795,10 +14726,10 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="60" t="s">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="47" t="s">
         <v>271</v>
       </c>
       <c r="E66" s="7"/>
@@ -14806,10 +14737,10 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="60" t="s">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="47" t="s">
         <v>245</v>
       </c>
       <c r="E67" s="7"/>
@@ -14817,10 +14748,10 @@
       <c r="G67" s="5"/>
     </row>
     <row r="68" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="60" t="s">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="47" t="s">
         <v>247</v>
       </c>
       <c r="E68" s="7"/>
@@ -14837,7 +14768,7 @@
       <c r="E69" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="F69" s="48" t="s">
+      <c r="F69" s="41" t="s">
         <v>868</v>
       </c>
       <c r="G69" s="5" t="s">
@@ -14855,7 +14786,7 @@
         <v>213</v>
       </c>
       <c r="D70" s="24"/>
-      <c r="E70" s="48" t="s">
+      <c r="E70" s="41" t="s">
         <v>871</v>
       </c>
       <c r="F70" s="7"/>
@@ -14869,7 +14800,7 @@
       <c r="C71" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D71" s="59">
+      <c r="D71" s="48">
         <v>8.3</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -14886,7 +14817,7 @@
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="26"/>
-      <c r="D72" s="59">
+      <c r="D72" s="48">
         <v>8.4</v>
       </c>
       <c r="E72" s="7" t="s">
@@ -14900,12 +14831,12 @@
       </c>
     </row>
     <row r="73" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="55" t="s">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D73" s="60" t="s">
+      <c r="D73" s="47" t="s">
         <v>876</v>
       </c>
       <c r="E73" s="7" t="s">
@@ -14915,10 +14846,10 @@
       <c r="G73" s="5"/>
     </row>
     <row r="74" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="60" t="s">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="47" t="s">
         <v>653</v>
       </c>
       <c r="E74" s="7" t="s">
@@ -14928,12 +14859,12 @@
       <c r="G74" s="5"/>
     </row>
     <row r="75" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="55" t="s">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D75" s="60" t="s">
+      <c r="D75" s="47" t="s">
         <v>731</v>
       </c>
       <c r="E75" s="7"/>
@@ -14941,10 +14872,10 @@
       <c r="G75" s="5"/>
     </row>
     <row r="76" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="60" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="47" t="s">
         <v>268</v>
       </c>
       <c r="E76" s="7"/>
@@ -14952,10 +14883,10 @@
       <c r="G76" s="5"/>
     </row>
     <row r="77" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="60" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="47" t="s">
         <v>517</v>
       </c>
       <c r="E77" s="7"/>
@@ -14963,12 +14894,12 @@
       <c r="G77" s="5"/>
     </row>
     <row r="78" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="55" t="s">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D78" s="60" t="s">
+      <c r="D78" s="47" t="s">
         <v>270</v>
       </c>
       <c r="E78" s="7"/>
@@ -14976,10 +14907,10 @@
       <c r="G78" s="5"/>
     </row>
     <row r="79" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="60" t="s">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="47" t="s">
         <v>190</v>
       </c>
       <c r="E79" s="7"/>
@@ -14987,10 +14918,10 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A80" s="54"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="60" t="s">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="47" t="s">
         <v>271</v>
       </c>
       <c r="E80" s="7"/>
@@ -14998,10 +14929,10 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="60" t="s">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="47" t="s">
         <v>245</v>
       </c>
       <c r="E81" s="7"/>
@@ -15009,10 +14940,10 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A82" s="54"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="60" t="s">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="47" t="s">
         <v>247</v>
       </c>
       <c r="E82" s="7"/>
@@ -15029,7 +14960,7 @@
       <c r="E83" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="F83" s="48" t="s">
+      <c r="F83" s="41" t="s">
         <v>880</v>
       </c>
       <c r="G83" s="5" t="s">
@@ -15121,7 +15052,7 @@
       <c r="D1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="4" t="s">
         <v>113</v>
       </c>
@@ -15348,7 +15279,7 @@
       <c r="D14" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="41" t="s">
         <v>924</v>
       </c>
       <c r="F14" s="5"/>
@@ -15654,10 +15585,10 @@
   <sheetPr/>
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F303" sqref="F303:G303"/>
+      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7421875" defaultRowHeight="40" customHeight="1"/>
@@ -17895,10 +17826,10 @@
       <c r="G143" s="6"/>
     </row>
     <row r="144" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A144" s="39" t="s">
+      <c r="A144" s="22" t="s">
         <v>1361</v>
       </c>
-      <c r="B144" s="40" t="s">
+      <c r="B144" s="9" t="s">
         <v>1362</v>
       </c>
       <c r="C144" s="23" t="s">
@@ -17914,8 +17845,8 @@
       <c r="G144" s="6"/>
     </row>
     <row r="145" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
-      <c r="A145" s="41"/>
-      <c r="B145" s="42"/>
+      <c r="A145" s="25"/>
+      <c r="B145" s="11"/>
       <c r="C145" s="23" t="s">
         <v>979</v>
       </c>
@@ -17929,12 +17860,12 @@
       <c r="G145" s="6"/>
     </row>
     <row r="146" s="1" customFormat="1" ht="70" customHeight="1" spans="1:7">
-      <c r="A146" s="41"/>
-      <c r="B146" s="42"/>
-      <c r="C146" s="43" t="s">
+      <c r="A146" s="25"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="23" t="s">
         <v>982</v>
       </c>
-      <c r="D146" s="44"/>
+      <c r="D146" s="24"/>
       <c r="E146" s="32"/>
       <c r="F146" s="5" t="s">
         <v>1367</v>
@@ -19018,10 +18949,10 @@
       <c r="G216" s="5" t="s">
         <v>1554</v>
       </c>
-      <c r="H216" s="45" t="s">
+      <c r="H216" s="5" t="s">
         <v>1555</v>
       </c>
-      <c r="I216" s="46"/>
+      <c r="I216" s="39"/>
     </row>
     <row r="217" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A217" s="25"/>
@@ -22230,33 +22161,33 @@
   </cols>
   <sheetData>
     <row r="1" ht="62" customHeight="1" spans="1:8">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="82" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1" spans="1:8">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="52" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -22282,7 +22213,7 @@
       </c>
     </row>
     <row r="3" ht="64" customHeight="1" spans="1:8">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -22308,7 +22239,7 @@
       </c>
     </row>
     <row r="4" ht="54" customHeight="1" spans="1:8">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="52" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -22334,7 +22265,7 @@
       </c>
     </row>
     <row r="5" ht="54" customHeight="1" spans="1:8">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="52" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -22360,7 +22291,7 @@
       </c>
     </row>
     <row r="6" ht="107" customHeight="1" spans="1:8">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="52" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -22386,7 +22317,7 @@
       </c>
     </row>
     <row r="7" ht="79" customHeight="1" spans="1:8">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="52" t="s">
         <v>102</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -22417,7 +22348,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="106">
+      <c r="H8" s="83">
         <v>0.14</v>
       </c>
     </row>
@@ -22446,150 +22377,150 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="42" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="100">
+      <c r="A2" s="77">
         <v>1</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="100">
+      <c r="A3" s="77">
         <v>2</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="100"/>
+      <c r="D3" s="77"/>
     </row>
     <row r="4" ht="64" customHeight="1" spans="1:4">
-      <c r="A4" s="100">
+      <c r="A4" s="77">
         <v>3</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="100"/>
+      <c r="D4" s="77"/>
     </row>
     <row r="5" ht="51" spans="1:4">
-      <c r="A5" s="100">
+      <c r="A5" s="77">
         <v>4</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="100"/>
+      <c r="D5" s="77"/>
     </row>
     <row r="6" ht="66" customHeight="1" spans="1:4">
-      <c r="A6" s="100">
+      <c r="A6" s="77">
         <v>5</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="100"/>
+      <c r="D6" s="77"/>
     </row>
     <row r="7" ht="45" spans="1:4">
-      <c r="A7" s="100">
+      <c r="A7" s="77">
         <v>6</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="100"/>
+      <c r="D7" s="77"/>
     </row>
     <row r="8" ht="79" spans="1:4">
-      <c r="A8" s="100">
+      <c r="A8" s="77">
         <v>7</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="100"/>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" ht="54" customHeight="1" spans="1:4">
-      <c r="A9" s="100">
+      <c r="A9" s="77">
         <v>8</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="41" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="100">
+      <c r="A10" s="77">
         <v>9</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="100"/>
+      <c r="D10" s="77"/>
     </row>
     <row r="11" ht="65" customHeight="1" spans="1:4">
-      <c r="A11" s="100">
+      <c r="A11" s="77">
         <v>10</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="100"/>
+      <c r="D11" s="77"/>
     </row>
     <row r="12" ht="95" customHeight="1" spans="1:4">
-      <c r="A12" s="100">
+      <c r="A12" s="77">
         <v>11</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="41" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22620,20 +22551,20 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="62"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" ht="84" spans="1:6">
       <c r="A2" s="9">
@@ -22645,13 +22576,13 @@
       <c r="C2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" ht="68" spans="1:6">
       <c r="A3" s="11"/>
@@ -22659,13 +22590,13 @@
       <c r="C3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="104"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" ht="68" spans="1:6">
       <c r="A4" s="11"/>
@@ -22673,11 +22604,11 @@
       <c r="C4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" ht="82" spans="1:6">
       <c r="A5" s="11"/>
@@ -22685,13 +22616,13 @@
       <c r="C5" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="104"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" ht="247" spans="1:6">
       <c r="A6" s="11"/>
@@ -22699,11 +22630,11 @@
       <c r="C6" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="81"/>
     </row>
     <row r="7" ht="149" spans="1:6">
       <c r="A7" s="13"/>
@@ -22711,11 +22642,11 @@
       <c r="C7" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="9">
@@ -22730,8 +22661,8 @@
       <c r="D8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
     </row>
     <row r="9" ht="52" customHeight="1" spans="1:6">
       <c r="A9" s="11"/>
@@ -22839,7 +22770,7 @@
       <c r="C17" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="41" t="s">
         <v>175</v>
       </c>
       <c r="E17" s="7"/>
@@ -23096,7 +23027,7 @@
   <sheetPr/>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
@@ -23112,40 +23043,40 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" ht="106" customHeight="1" spans="1:8">
-      <c r="A2" s="95">
+      <c r="A2" s="73">
         <v>3.1</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="73" t="s">
         <v>212</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D2" s="24"/>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="77" t="s">
         <v>216</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -23153,477 +23084,477 @@
       </c>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:7">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="77" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="4" ht="65" customHeight="1" spans="1:7">
-      <c r="A4" s="97"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="55" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="100"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" ht="44" customHeight="1" spans="1:7">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="100"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="77"/>
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:7">
-      <c r="A6" s="97"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="100"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="77"/>
     </row>
     <row r="7" ht="45" customHeight="1" spans="1:7">
-      <c r="A7" s="97"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="100"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:7">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="100"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:7">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="100"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:7">
-      <c r="A10" s="97"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="55" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="100"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:7">
-      <c r="A11" s="97"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="100"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:7">
-      <c r="A12" s="97"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="100"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="77"/>
     </row>
     <row r="13" ht="45" customHeight="1" spans="1:7">
-      <c r="A13" s="97"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="100"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:7">
-      <c r="A14" s="97"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="100"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="77"/>
     </row>
     <row r="15" ht="45" customHeight="1" spans="1:7">
-      <c r="A15" s="97"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="55" t="s">
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="100"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="77"/>
     </row>
     <row r="16" ht="45" customHeight="1" spans="1:7">
-      <c r="A16" s="97"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="100"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="77"/>
     </row>
     <row r="17" ht="45" customHeight="1" spans="1:7">
-      <c r="A17" s="97"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="100"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18" ht="45" customHeight="1" spans="1:7">
-      <c r="A18" s="97"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="100"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="77"/>
     </row>
     <row r="19" ht="86" customHeight="1" spans="1:7">
-      <c r="A19" s="98"/>
-      <c r="B19" s="98"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="23" t="s">
         <v>249</v>
       </c>
       <c r="D19" s="24"/>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="G19" s="100" t="s">
+      <c r="G19" s="77" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="20" ht="84" customHeight="1" spans="1:7">
-      <c r="A20" s="95">
+      <c r="A20" s="73">
         <v>3.2</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="73" t="s">
         <v>253</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D20" s="24"/>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="100" t="s">
+      <c r="F20" s="41"/>
+      <c r="G20" s="77" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="21" ht="54" customHeight="1" spans="1:7">
-      <c r="A21" s="96"/>
-      <c r="B21" s="96"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="48" t="s">
+      <c r="D21" s="76"/>
+      <c r="E21" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="G21" s="100" t="s">
+      <c r="G21" s="77" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="22" ht="56" customHeight="1" spans="1:7">
-      <c r="A22" s="96"/>
-      <c r="B22" s="96"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="31"/>
-      <c r="D22" s="52">
+      <c r="D22" s="45">
         <v>3.1</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="G22" s="100" t="s">
+      <c r="G22" s="77" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="23" ht="56" customHeight="1" spans="1:7">
-      <c r="A23" s="97"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="55" t="s">
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="100"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24" ht="56" customHeight="1" spans="1:7">
-      <c r="A24" s="97"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="57" t="s">
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="100"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="77"/>
     </row>
     <row r="25" ht="56" customHeight="1" spans="1:7">
-      <c r="A25" s="97"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="57" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="100"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="77"/>
     </row>
     <row r="26" ht="56" customHeight="1" spans="1:7">
-      <c r="A26" s="97"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="55" t="s">
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="100"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27" ht="56" customHeight="1" spans="1:7">
-      <c r="A27" s="97"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="57" t="s">
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="100"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="77"/>
     </row>
     <row r="28" ht="56" customHeight="1" spans="1:7">
-      <c r="A28" s="97"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="57" t="s">
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="100"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="77"/>
     </row>
     <row r="29" ht="56" customHeight="1" spans="1:7">
-      <c r="A29" s="97"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="55" t="s">
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="100"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="77"/>
     </row>
     <row r="30" ht="56" customHeight="1" spans="1:7">
-      <c r="A30" s="97"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="57" t="s">
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="100"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="77"/>
     </row>
     <row r="31" ht="56" customHeight="1" spans="1:7">
-      <c r="A31" s="97"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="57" t="s">
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="100"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="77"/>
     </row>
     <row r="32" ht="56" customHeight="1" spans="1:7">
-      <c r="A32" s="97"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="57" t="s">
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="100"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="77"/>
     </row>
     <row r="33" ht="56" customHeight="1" spans="1:7">
-      <c r="A33" s="97"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="57" t="s">
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="100"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="77"/>
     </row>
     <row r="34" ht="56" customHeight="1" spans="1:7">
-      <c r="A34" s="97"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="57" t="s">
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="100"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="77"/>
     </row>
     <row r="35" ht="56" customHeight="1" spans="1:7">
-      <c r="A35" s="97"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="57" t="s">
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="100"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="77"/>
     </row>
     <row r="36" ht="65" customHeight="1" spans="1:7">
-      <c r="A36" s="98"/>
-      <c r="B36" s="98"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="23" t="s">
         <v>249</v>
       </c>
       <c r="D36" s="24"/>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="G36" s="100" t="s">
+      <c r="G36" s="77" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="37" ht="74" customHeight="1" spans="1:8">
-      <c r="A37" s="95">
+      <c r="A37" s="73">
         <v>3.3</v>
       </c>
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="73" t="s">
         <v>276</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="48" t="s">
+      <c r="D37" s="46"/>
+      <c r="E37" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="F37" s="48"/>
-      <c r="G37" s="100" t="s">
+      <c r="F37" s="41"/>
+      <c r="G37" s="77" t="s">
         <v>278</v>
       </c>
       <c r="H37" s="5" t="s">
@@ -23631,641 +23562,641 @@
       </c>
     </row>
     <row r="38" ht="55" customHeight="1" spans="1:7">
-      <c r="A38" s="96"/>
-      <c r="B38" s="96"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="45">
         <v>3.1</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="F38" s="70" t="s">
+      <c r="F38" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="G38" s="100" t="s">
+      <c r="G38" s="77" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="39" ht="77" customHeight="1" spans="1:7">
-      <c r="A39" s="96"/>
-      <c r="B39" s="96"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="31"/>
-      <c r="D39" s="52">
+      <c r="D39" s="45">
         <v>3.2</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="70" t="s">
+      <c r="F39" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="G39" s="100" t="s">
+      <c r="G39" s="77" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="40" ht="77" customHeight="1" spans="1:7">
-      <c r="A40" s="97"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="55" t="s">
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="100"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="77"/>
     </row>
     <row r="41" ht="135" customHeight="1" spans="1:7">
-      <c r="A41" s="97"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="66" t="s">
+      <c r="A41" s="74"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="F41" s="70"/>
-      <c r="G41" s="100"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="77"/>
     </row>
     <row r="42" ht="74" customHeight="1" spans="1:7">
-      <c r="A42" s="97"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="66" t="s">
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="100"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="77"/>
     </row>
     <row r="43" ht="74" customHeight="1" spans="1:7">
-      <c r="A43" s="97"/>
-      <c r="B43" s="97"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="66" t="s">
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="100"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="77"/>
     </row>
     <row r="44" ht="74" customHeight="1" spans="1:7">
-      <c r="A44" s="97"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="55" t="s">
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="100"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="77"/>
     </row>
     <row r="45" ht="74" customHeight="1" spans="1:7">
-      <c r="A45" s="97"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="57" t="s">
+      <c r="A45" s="74"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="F45" s="70"/>
-      <c r="G45" s="100"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="77"/>
     </row>
     <row r="46" ht="74" customHeight="1" spans="1:7">
-      <c r="A46" s="97"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="66" t="s">
+      <c r="A46" s="74"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="E46" s="48" t="s">
+      <c r="E46" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="F46" s="70"/>
-      <c r="G46" s="100"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="77"/>
     </row>
     <row r="47" ht="74" customHeight="1" spans="1:7">
-      <c r="A47" s="97"/>
-      <c r="B47" s="97"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="66" t="s">
+      <c r="A47" s="74"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="E47" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="100"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="77"/>
     </row>
     <row r="48" ht="56" customHeight="1" spans="1:7">
-      <c r="A48" s="97"/>
-      <c r="B48" s="97"/>
-      <c r="C48" s="55" t="s">
+      <c r="A48" s="74"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D48" s="66" t="s">
+      <c r="D48" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="F48" s="70"/>
-      <c r="G48" s="100"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="77"/>
     </row>
     <row r="49" ht="56" customHeight="1" spans="1:7">
-      <c r="A49" s="97"/>
-      <c r="B49" s="97"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="66" t="s">
+      <c r="A49" s="74"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="E49" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="F49" s="70"/>
-      <c r="G49" s="100"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="77"/>
     </row>
     <row r="50" ht="56" customHeight="1" spans="1:7">
-      <c r="A50" s="97"/>
-      <c r="B50" s="97"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="66" t="s">
+      <c r="A50" s="74"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="F50" s="70"/>
-      <c r="G50" s="100"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="77"/>
     </row>
     <row r="51" ht="56" customHeight="1" spans="1:7">
-      <c r="A51" s="97"/>
-      <c r="B51" s="97"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="66" t="s">
+      <c r="A51" s="74"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="100"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="77"/>
     </row>
     <row r="52" ht="100" customHeight="1" spans="1:7">
-      <c r="A52" s="98"/>
-      <c r="B52" s="98"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="23" t="s">
         <v>249</v>
       </c>
       <c r="D52" s="24"/>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="F52" s="48" t="s">
+      <c r="F52" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="G52" s="100" t="s">
+      <c r="G52" s="77" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="53" ht="104" customHeight="1" spans="1:7">
-      <c r="A53" s="95">
+      <c r="A53" s="73">
         <v>3.4</v>
       </c>
-      <c r="B53" s="95" t="s">
+      <c r="B53" s="73" t="s">
         <v>300</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D53" s="24"/>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="F53" s="48"/>
-      <c r="G53" s="100" t="s">
+      <c r="F53" s="41"/>
+      <c r="G53" s="77" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="54" ht="60" customHeight="1" spans="1:7">
-      <c r="A54" s="96"/>
-      <c r="B54" s="96"/>
+      <c r="A54" s="74"/>
+      <c r="B54" s="74"/>
       <c r="C54" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D54" s="52">
+      <c r="D54" s="45">
         <v>3.1</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="F54" s="70" t="s">
+      <c r="F54" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="G54" s="100" t="s">
+      <c r="G54" s="77" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="55" ht="52" customHeight="1" spans="1:7">
-      <c r="A55" s="96"/>
-      <c r="B55" s="96"/>
+      <c r="A55" s="74"/>
+      <c r="B55" s="74"/>
       <c r="C55" s="30"/>
-      <c r="D55" s="52">
+      <c r="D55" s="45">
         <v>3.2</v>
       </c>
-      <c r="E55" s="48" t="s">
+      <c r="E55" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="F55" s="48" t="s">
+      <c r="F55" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="G55" s="100" t="s">
+      <c r="G55" s="77" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="56" ht="48" customHeight="1" spans="1:7">
-      <c r="A56" s="96"/>
-      <c r="B56" s="96"/>
+      <c r="A56" s="74"/>
+      <c r="B56" s="74"/>
       <c r="C56" s="31"/>
-      <c r="D56" s="52">
+      <c r="D56" s="45">
         <v>3.3</v>
       </c>
-      <c r="E56" s="48" t="s">
+      <c r="E56" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="F56" s="48" t="s">
+      <c r="F56" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="G56" s="100" t="s">
+      <c r="G56" s="77" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="57" ht="48" customHeight="1" spans="1:7">
-      <c r="A57" s="97"/>
-      <c r="B57" s="97"/>
-      <c r="C57" s="55" t="s">
+      <c r="A57" s="74"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D57" s="66" t="s">
+      <c r="D57" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="F57" s="48"/>
-      <c r="G57" s="100"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="77"/>
     </row>
     <row r="58" ht="48" customHeight="1" spans="1:7">
-      <c r="A58" s="97"/>
-      <c r="B58" s="97"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="66" t="s">
+      <c r="A58" s="74"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="E58" s="48" t="s">
+      <c r="E58" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="F58" s="48"/>
-      <c r="G58" s="100"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="77"/>
     </row>
     <row r="59" ht="48" customHeight="1" spans="1:7">
-      <c r="A59" s="97"/>
-      <c r="B59" s="97"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="66" t="s">
+      <c r="A59" s="74"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="100"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="77"/>
     </row>
     <row r="60" ht="48" customHeight="1" spans="1:7">
-      <c r="A60" s="97"/>
-      <c r="B60" s="97"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="66" t="s">
+      <c r="A60" s="74"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="100"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="77"/>
     </row>
     <row r="61" ht="48" customHeight="1" spans="1:7">
-      <c r="A61" s="97"/>
-      <c r="B61" s="97"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="66" t="s">
+      <c r="A61" s="74"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="100"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="77"/>
     </row>
     <row r="62" ht="48" customHeight="1" spans="1:7">
-      <c r="A62" s="97"/>
-      <c r="B62" s="97"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="66" t="s">
+      <c r="A62" s="74"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="100"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="77"/>
     </row>
     <row r="63" ht="48" customHeight="1" spans="1:7">
-      <c r="A63" s="97"/>
-      <c r="B63" s="97"/>
-      <c r="C63" s="55" t="s">
+      <c r="A63" s="74"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D63" s="66" t="s">
+      <c r="D63" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="100"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="77"/>
     </row>
     <row r="64" ht="48" customHeight="1" spans="1:7">
-      <c r="A64" s="97"/>
-      <c r="B64" s="97"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="66" t="s">
+      <c r="A64" s="74"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="E64" s="48" t="s">
+      <c r="E64" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="F64" s="48"/>
-      <c r="G64" s="100"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="77"/>
     </row>
     <row r="65" ht="48" customHeight="1" spans="1:7">
-      <c r="A65" s="97"/>
-      <c r="B65" s="97"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="66" t="s">
+      <c r="A65" s="74"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="100"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="77"/>
     </row>
     <row r="66" ht="48" customHeight="1" spans="1:7">
-      <c r="A66" s="97"/>
-      <c r="B66" s="97"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="66" t="s">
+      <c r="A66" s="74"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="F66" s="48"/>
-      <c r="G66" s="100"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="77"/>
     </row>
     <row r="67" ht="48" customHeight="1" spans="1:7">
-      <c r="A67" s="97"/>
-      <c r="B67" s="97"/>
-      <c r="C67" s="55" t="s">
+      <c r="A67" s="74"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D67" s="66" t="s">
+      <c r="D67" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="100"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="77"/>
     </row>
     <row r="68" ht="48" customHeight="1" spans="1:7">
-      <c r="A68" s="97"/>
-      <c r="B68" s="97"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="66" t="s">
+      <c r="A68" s="74"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="E68" s="48" t="s">
+      <c r="E68" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="F68" s="48"/>
-      <c r="G68" s="100"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="77"/>
     </row>
     <row r="69" ht="48" customHeight="1" spans="1:7">
-      <c r="A69" s="97"/>
-      <c r="B69" s="97"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="66" t="s">
+      <c r="A69" s="74"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E69" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="F69" s="48"/>
-      <c r="G69" s="100"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="77"/>
     </row>
     <row r="70" ht="86" customHeight="1" spans="1:7">
-      <c r="A70" s="98"/>
-      <c r="B70" s="98"/>
+      <c r="A70" s="75"/>
+      <c r="B70" s="75"/>
       <c r="C70" s="23" t="s">
         <v>249</v>
       </c>
       <c r="D70" s="24"/>
-      <c r="E70" s="48" t="s">
+      <c r="E70" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="F70" s="48" t="s">
+      <c r="F70" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="G70" s="100" t="s">
+      <c r="G70" s="77" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="71" ht="78" customHeight="1" spans="1:7">
-      <c r="A71" s="95">
+      <c r="A71" s="73">
         <v>3.5</v>
       </c>
-      <c r="B71" s="95" t="s">
+      <c r="B71" s="73" t="s">
         <v>325</v>
       </c>
       <c r="C71" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D71" s="24"/>
-      <c r="E71" s="48" t="s">
+      <c r="E71" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="F71" s="48" t="s">
+      <c r="F71" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="G71" s="100" t="s">
+      <c r="G71" s="77" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="72" ht="67" customHeight="1" spans="1:7">
-      <c r="A72" s="96"/>
-      <c r="B72" s="96"/>
+      <c r="A72" s="74"/>
+      <c r="B72" s="74"/>
       <c r="C72" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D72" s="52">
+      <c r="D72" s="45">
         <v>3.1</v>
       </c>
-      <c r="E72" s="48" t="s">
+      <c r="E72" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="F72" s="48" t="s">
+      <c r="F72" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="G72" s="100" t="s">
+      <c r="G72" s="77" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="73" ht="63" customHeight="1" spans="1:7">
-      <c r="A73" s="96"/>
-      <c r="B73" s="96"/>
+      <c r="A73" s="74"/>
+      <c r="B73" s="74"/>
       <c r="C73" s="31"/>
-      <c r="D73" s="101"/>
-      <c r="E73" s="48" t="s">
+      <c r="D73" s="78"/>
+      <c r="E73" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="F73" s="48" t="s">
+      <c r="F73" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="G73" s="100" t="s">
+      <c r="G73" s="77" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="74" ht="63" customHeight="1" spans="1:7">
-      <c r="A74" s="97"/>
-      <c r="B74" s="97"/>
-      <c r="C74" s="55" t="s">
+      <c r="A74" s="74"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D74" s="102" t="s">
+      <c r="D74" s="79" t="s">
         <v>334</v>
       </c>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="100"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="77"/>
     </row>
     <row r="75" ht="63" customHeight="1" spans="1:7">
-      <c r="A75" s="97"/>
-      <c r="B75" s="97"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="102" t="s">
+      <c r="A75" s="74"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="79" t="s">
         <v>335</v>
       </c>
-      <c r="E75" s="48" t="s">
+      <c r="E75" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="F75" s="48"/>
-      <c r="G75" s="100"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="77"/>
     </row>
     <row r="76" ht="63" customHeight="1" spans="1:7">
-      <c r="A76" s="97"/>
-      <c r="B76" s="97"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="102" t="s">
+      <c r="A76" s="74"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="79" t="s">
         <v>337</v>
       </c>
-      <c r="E76" s="48" t="s">
+      <c r="E76" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="F76" s="48"/>
-      <c r="G76" s="100"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="77"/>
     </row>
     <row r="77" ht="63" customHeight="1" spans="1:7">
-      <c r="A77" s="97"/>
-      <c r="B77" s="97"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="102" t="s">
+      <c r="A77" s="74"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="79" t="s">
         <v>339</v>
       </c>
-      <c r="E77" s="48" t="s">
+      <c r="E77" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="F77" s="48"/>
-      <c r="G77" s="100"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="77"/>
     </row>
     <row r="78" ht="63" customHeight="1" spans="1:7">
-      <c r="A78" s="97"/>
-      <c r="B78" s="97"/>
-      <c r="C78" s="43" t="s">
+      <c r="A78" s="74"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="D78" s="102" t="s">
+      <c r="D78" s="79" t="s">
         <v>342</v>
       </c>
-      <c r="E78" s="48" t="s">
+      <c r="E78" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="F78" s="48"/>
-      <c r="G78" s="100"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="77"/>
     </row>
     <row r="79" ht="63" customHeight="1" spans="1:7">
-      <c r="A79" s="97"/>
-      <c r="B79" s="97"/>
-      <c r="C79" s="55" t="s">
+      <c r="A79" s="74"/>
+      <c r="B79" s="74"/>
+      <c r="C79" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D79" s="102" t="s">
+      <c r="D79" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="E79" s="48" t="s">
+      <c r="E79" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="F79" s="48"/>
-      <c r="G79" s="100"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="77"/>
     </row>
     <row r="80" ht="63" customHeight="1" spans="1:7">
-      <c r="A80" s="97"/>
-      <c r="B80" s="97"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="102" t="s">
+      <c r="A80" s="74"/>
+      <c r="B80" s="74"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="E80" s="48" t="s">
+      <c r="E80" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="F80" s="48"/>
-      <c r="G80" s="100"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="77"/>
     </row>
     <row r="81" ht="63" customHeight="1" spans="1:7">
-      <c r="A81" s="97"/>
-      <c r="B81" s="97"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="102" t="s">
+      <c r="A81" s="74"/>
+      <c r="B81" s="74"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="79" t="s">
         <v>247</v>
       </c>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="100"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="77"/>
     </row>
     <row r="82" ht="73" customHeight="1" spans="1:7">
-      <c r="A82" s="98"/>
-      <c r="B82" s="98"/>
+      <c r="A82" s="75"/>
+      <c r="B82" s="75"/>
       <c r="C82" s="23" t="s">
         <v>249</v>
       </c>
       <c r="D82" s="24"/>
-      <c r="E82" s="48" t="s">
+      <c r="E82" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="F82" s="48" t="s">
+      <c r="F82" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="G82" s="100" t="s">
+      <c r="G82" s="77" t="s">
         <v>348</v>
       </c>
     </row>
@@ -24339,21 +24270,21 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="94" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="87" customHeight="1" spans="1:7">
       <c r="A2" s="9">
@@ -24366,7 +24297,7 @@
         <v>213</v>
       </c>
       <c r="D2" s="24"/>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="41" t="s">
         <v>350</v>
       </c>
       <c r="F2" s="7"/>
@@ -24380,11 +24311,11 @@
       <c r="C3" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="55" t="s">
         <v>352</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -24395,7 +24326,7 @@
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="52">
+      <c r="D4" s="45">
         <v>3.2</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -24409,12 +24340,12 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="53" t="s">
         <v>356</v>
       </c>
       <c r="E5" s="7"/>
@@ -24422,10 +24353,10 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="66" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="53" t="s">
         <v>357</v>
       </c>
       <c r="E6" s="7"/>
@@ -24433,10 +24364,10 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="66" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="53" t="s">
         <v>358</v>
       </c>
       <c r="E7" s="7"/>
@@ -24444,10 +24375,10 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="66" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="53" t="s">
         <v>359</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -24457,10 +24388,10 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="66" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="53" t="s">
         <v>361</v>
       </c>
       <c r="E9" s="7"/>
@@ -24468,12 +24399,12 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="53" t="s">
         <v>362</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -24483,10 +24414,10 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="66" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="53" t="s">
         <v>364</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -24496,10 +24427,10 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="66" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="53" t="s">
         <v>366</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -24509,10 +24440,10 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="66" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="53" t="s">
         <v>368</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -24522,12 +24453,12 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="53" t="s">
         <v>190</v>
       </c>
       <c r="E14" s="7"/>
@@ -24535,10 +24466,10 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="66" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="53" t="s">
         <v>243</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -24548,10 +24479,10 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="66" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="53" t="s">
         <v>247</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -24570,7 +24501,7 @@
       <c r="E17" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="41" t="s">
         <v>373</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -24591,10 +24522,10 @@
       <c r="E18" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="52" t="s">
         <v>377</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="41" t="s">
         <v>378</v>
       </c>
       <c r="H18"/>
@@ -24605,7 +24536,7 @@
       <c r="C19" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="45">
         <v>4.1</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -24619,12 +24550,12 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="66" customHeight="1" spans="1:7">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="53" t="s">
         <v>381</v>
       </c>
       <c r="E20" s="7"/>
@@ -24632,10 +24563,10 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="66" customHeight="1" spans="1:7">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="66" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="53" t="s">
         <v>382</v>
       </c>
       <c r="E21" s="7"/>
@@ -24643,12 +24574,12 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="53" t="s">
         <v>362</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -24658,10 +24589,10 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="66" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="53" t="s">
         <v>366</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -24671,10 +24602,10 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="66" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="53" t="s">
         <v>240</v>
       </c>
       <c r="E24" s="7"/>
@@ -24682,10 +24613,10 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="66" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="53" t="s">
         <v>385</v>
       </c>
       <c r="E25" s="7"/>
@@ -24693,12 +24624,12 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="53" t="s">
         <v>270</v>
       </c>
       <c r="E26" s="7"/>
@@ -24706,10 +24637,10 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="66" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="53" t="s">
         <v>190</v>
       </c>
       <c r="E27" s="7"/>
@@ -24717,10 +24648,10 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="66" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="53" t="s">
         <v>271</v>
       </c>
       <c r="E28" s="7"/>
@@ -24728,10 +24659,10 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="66" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="53" t="s">
         <v>194</v>
       </c>
       <c r="E29" s="7"/>
@@ -24739,10 +24670,10 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="66" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="53" t="s">
         <v>247</v>
       </c>
       <c r="E30" s="7"/>
@@ -24750,10 +24681,10 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="66" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="53" t="s">
         <v>386</v>
       </c>
       <c r="E31" s="7"/>
@@ -24788,7 +24719,7 @@
         <v>213</v>
       </c>
       <c r="D33" s="24"/>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="41" t="s">
         <v>391</v>
       </c>
       <c r="F33" s="7"/>
@@ -24802,7 +24733,7 @@
       <c r="C34" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="45">
         <v>4.2</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -24816,12 +24747,12 @@
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="55" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="53" t="s">
         <v>394</v>
       </c>
       <c r="E35" s="7"/>
@@ -24829,10 +24760,10 @@
       <c r="G35" s="5"/>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="66" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="53" t="s">
         <v>395</v>
       </c>
       <c r="E36" s="7"/>
@@ -24840,12 +24771,12 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="55" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="53" t="s">
         <v>396</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -24855,10 +24786,10 @@
       <c r="G37" s="5"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="66" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="53" t="s">
         <v>366</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -24868,12 +24799,12 @@
       <c r="G38" s="5"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="53" t="s">
         <v>190</v>
       </c>
       <c r="E39" s="7"/>
@@ -24881,10 +24812,10 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="66" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="53" t="s">
         <v>386</v>
       </c>
       <c r="E40" s="7"/>
@@ -24901,7 +24832,7 @@
       <c r="E41" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="41" t="s">
         <v>400</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -24933,11 +24864,11 @@
       <c r="C43" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D43" s="58"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F43" s="70" t="s">
+      <c r="F43" s="55" t="s">
         <v>406</v>
       </c>
       <c r="G43" s="5" t="s">
@@ -24948,7 +24879,7 @@
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="26"/>
-      <c r="D44" s="59">
+      <c r="D44" s="48">
         <v>3.2</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -24962,12 +24893,12 @@
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="72" t="s">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="D45" s="93" t="s">
+      <c r="D45" s="71" t="s">
         <v>411</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -24977,10 +24908,10 @@
       <c r="G45" s="5"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="93" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="71" t="s">
         <v>413</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -24990,12 +24921,12 @@
       <c r="G46" s="5"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="72" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="D47" s="93" t="s">
+      <c r="D47" s="71" t="s">
         <v>362</v>
       </c>
       <c r="E47" s="7"/>
@@ -25003,10 +24934,10 @@
       <c r="G47" s="5"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="93" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="71" t="s">
         <v>415</v>
       </c>
       <c r="E48" s="7" t="s">
@@ -25016,12 +24947,12 @@
       <c r="G48" s="5"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="72" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="D49" s="93" t="s">
+      <c r="D49" s="71" t="s">
         <v>271</v>
       </c>
       <c r="E49" s="7"/>
@@ -25029,10 +24960,10 @@
       <c r="G49" s="5"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="93" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="71" t="s">
         <v>270</v>
       </c>
       <c r="E50" s="7"/>
@@ -25040,10 +24971,10 @@
       <c r="G50" s="5"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="93" t="s">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="71" t="s">
         <v>190</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -25053,10 +24984,10 @@
       <c r="G51" s="5"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="93" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="71" t="s">
         <v>194</v>
       </c>
       <c r="E52" s="7"/>
@@ -25064,10 +24995,10 @@
       <c r="G52" s="5"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="93" t="s">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="71" t="s">
         <v>418</v>
       </c>
       <c r="E53" s="7"/>
@@ -25075,10 +25006,10 @@
       <c r="G53" s="5"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="93" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="71" t="s">
         <v>386</v>
       </c>
       <c r="E54" s="7"/>
@@ -25127,7 +25058,7 @@
       <c r="C57" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D57" s="59">
+      <c r="D57" s="48">
         <v>3.2</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -25144,7 +25075,7 @@
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="26"/>
-      <c r="D58" s="59">
+      <c r="D58" s="48">
         <v>3.6</v>
       </c>
       <c r="E58" s="7" t="s">
@@ -25161,12 +25092,12 @@
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:7">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="55" t="s">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D59" s="85" t="s">
+      <c r="D59" s="53" t="s">
         <v>431</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -25176,10 +25107,10 @@
       <c r="G59" s="5"/>
     </row>
     <row r="60" customHeight="1" spans="1:7">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="85" t="s">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="53" t="s">
         <v>433</v>
       </c>
       <c r="E60" s="7"/>
@@ -25187,10 +25118,10 @@
       <c r="G60" s="5"/>
     </row>
     <row r="61" customHeight="1" spans="1:7">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="85" t="s">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="53" t="s">
         <v>434</v>
       </c>
       <c r="E61" s="7"/>
@@ -25198,12 +25129,12 @@
       <c r="G61" s="5"/>
     </row>
     <row r="62" customHeight="1" spans="1:7">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55" t="s">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D62" s="85" t="s">
+      <c r="D62" s="53" t="s">
         <v>362</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -25213,10 +25144,10 @@
       <c r="G62" s="5"/>
     </row>
     <row r="63" customHeight="1" spans="1:7">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="85" t="s">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="53" t="s">
         <v>364</v>
       </c>
       <c r="E63" s="7" t="s">
@@ -25226,10 +25157,10 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64" customHeight="1" spans="1:7">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="85" t="s">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="53" t="s">
         <v>436</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -25239,10 +25170,10 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" customHeight="1" spans="1:7">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="85" t="s">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="53" t="s">
         <v>438</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -25252,10 +25183,10 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="85" t="s">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="53" t="s">
         <v>440</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -25265,12 +25196,12 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" customHeight="1" spans="1:7">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="55" t="s">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D67" s="85" t="s">
+      <c r="D67" s="53" t="s">
         <v>442</v>
       </c>
       <c r="E67" s="7"/>
@@ -25365,21 +25296,21 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="73" customHeight="1" spans="1:7">
       <c r="A2" s="9">
@@ -25437,10 +25368,10 @@
     <row r="5" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="67" t="s">
         <v>456</v>
       </c>
       <c r="E5" s="7"/>
@@ -25450,8 +25381,8 @@
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="88" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="67" t="s">
         <v>457</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -25463,8 +25394,8 @@
     <row r="7" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="88" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="67" t="s">
         <v>459</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -25476,10 +25407,10 @@
     <row r="8" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="67" t="s">
         <v>461</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -25491,8 +25422,8 @@
     <row r="9" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="88" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="67" t="s">
         <v>463</v>
       </c>
       <c r="E9" s="7"/>
@@ -25502,8 +25433,8 @@
     <row r="10" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="88" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="67" t="s">
         <v>292</v>
       </c>
       <c r="E10" s="7"/>
@@ -25513,8 +25444,8 @@
     <row r="11" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="88" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="67" t="s">
         <v>464</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -25526,10 +25457,10 @@
     <row r="12" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="67" t="s">
         <v>270</v>
       </c>
       <c r="E12" s="7"/>
@@ -25539,8 +25470,8 @@
     <row r="13" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="88" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="67" t="s">
         <v>190</v>
       </c>
       <c r="E13" s="7"/>
@@ -25550,8 +25481,8 @@
     <row r="14" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="88" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="67" t="s">
         <v>271</v>
       </c>
       <c r="E14" s="7"/>
@@ -25561,8 +25492,8 @@
     <row r="15" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="88" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="67" t="s">
         <v>194</v>
       </c>
       <c r="E15" s="7"/>
@@ -25572,8 +25503,8 @@
     <row r="16" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="88" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="67" t="s">
         <v>243</v>
       </c>
       <c r="E16" s="7"/>
@@ -25583,8 +25514,8 @@
     <row r="17" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="88" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="67" t="s">
         <v>247</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -25596,8 +25527,8 @@
     <row r="18" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="88" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="67" t="s">
         <v>466</v>
       </c>
       <c r="E18" s="7"/>
@@ -25607,8 +25538,8 @@
     <row r="19" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="88" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="67" t="s">
         <v>272</v>
       </c>
       <c r="E19" s="7"/>
@@ -25618,8 +25549,8 @@
     <row r="20" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="88" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="67" t="s">
         <v>418</v>
       </c>
       <c r="E20" s="7"/>
@@ -25629,10 +25560,10 @@
     <row r="21" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D21" s="80"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="7" t="s">
         <v>467</v>
       </c>
@@ -25646,8 +25577,8 @@
     <row r="22" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="7" t="s">
         <v>470</v>
       </c>
@@ -25712,10 +25643,10 @@
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D26" s="89" t="s">
+      <c r="D26" s="8" t="s">
         <v>479</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -25727,8 +25658,8 @@
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="89" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="8" t="s">
         <v>481</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -25740,8 +25671,8 @@
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="89" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="8" t="s">
         <v>483</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -25756,7 +25687,7 @@
       <c r="C29" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="89" t="s">
+      <c r="D29" s="8" t="s">
         <v>415</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -25768,10 +25699,10 @@
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D30" s="89" t="s">
+      <c r="D30" s="8" t="s">
         <v>190</v>
       </c>
       <c r="E30" s="7"/>
@@ -25781,8 +25712,8 @@
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="89" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E31" s="7"/>
@@ -25792,8 +25723,8 @@
     <row r="32" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="89" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="8" t="s">
         <v>486</v>
       </c>
       <c r="E32" s="7"/>
@@ -25803,8 +25734,8 @@
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="89" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -25816,8 +25747,8 @@
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="89" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="8" t="s">
         <v>418</v>
       </c>
       <c r="E34" s="7"/>
@@ -25827,10 +25758,10 @@
     <row r="35" s="1" customFormat="1" ht="60" customHeight="1" spans="1:7">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D35" s="80"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="7" t="s">
         <v>488</v>
       </c>
@@ -25844,8 +25775,8 @@
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="7" t="s">
         <v>491</v>
       </c>
@@ -25910,10 +25841,10 @@
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D40" s="89" t="s">
+      <c r="D40" s="8" t="s">
         <v>502</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -25925,8 +25856,8 @@
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="89" t="s">
+      <c r="C41" s="26"/>
+      <c r="D41" s="8" t="s">
         <v>504</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -25938,8 +25869,8 @@
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="89" t="s">
+      <c r="C42" s="26"/>
+      <c r="D42" s="8" t="s">
         <v>506</v>
       </c>
       <c r="E42" s="7" t="s">
@@ -25951,10 +25882,10 @@
     <row r="43" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="89" t="s">
+      <c r="D43" s="8" t="s">
         <v>508</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -25966,8 +25897,8 @@
     <row r="44" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="89" t="s">
+      <c r="C44" s="26"/>
+      <c r="D44" s="8" t="s">
         <v>266</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -25979,8 +25910,8 @@
     <row r="45" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="89" t="s">
+      <c r="C45" s="26"/>
+      <c r="D45" s="8" t="s">
         <v>461</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -25992,7 +25923,7 @@
     <row r="46" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
-      <c r="C46" s="55"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="6" t="s">
         <v>512</v>
       </c>
@@ -26005,7 +25936,7 @@
     <row r="47" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="55"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="1" t="s">
         <v>514</v>
       </c>
@@ -26018,8 +25949,8 @@
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="89" t="s">
+      <c r="C48" s="26"/>
+      <c r="D48" s="8" t="s">
         <v>464</v>
       </c>
       <c r="E48" s="7" t="s">
@@ -26031,8 +25962,8 @@
     <row r="49" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="89" t="s">
+      <c r="C49" s="26"/>
+      <c r="D49" s="8" t="s">
         <v>517</v>
       </c>
       <c r="E49" s="7" t="s">
@@ -26044,10 +25975,10 @@
     <row r="50" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D50" s="89" t="s">
+      <c r="D50" s="8" t="s">
         <v>270</v>
       </c>
       <c r="E50" s="7"/>
@@ -26057,8 +25988,8 @@
     <row r="51" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="89" t="s">
+      <c r="C51" s="26"/>
+      <c r="D51" s="8" t="s">
         <v>271</v>
       </c>
       <c r="E51" s="7"/>
@@ -26068,8 +25999,8 @@
     <row r="52" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="89" t="s">
+      <c r="C52" s="26"/>
+      <c r="D52" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E52" s="7"/>
@@ -26079,8 +26010,8 @@
     <row r="53" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="89" t="s">
+      <c r="C53" s="26"/>
+      <c r="D53" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E53" s="7"/>
@@ -26090,8 +26021,8 @@
     <row r="54" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="89" t="s">
+      <c r="C54" s="26"/>
+      <c r="D54" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E54" s="7"/>
@@ -26101,8 +26032,8 @@
     <row r="55" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="89" t="s">
+      <c r="C55" s="26"/>
+      <c r="D55" s="8" t="s">
         <v>247</v>
       </c>
       <c r="E55" s="7"/>
@@ -26112,10 +26043,10 @@
     <row r="56" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
-      <c r="C56" s="79" t="s">
+      <c r="C56" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D56" s="80"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="7" t="s">
         <v>519</v>
       </c>
@@ -26129,8 +26060,8 @@
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="82"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="7" t="s">
         <v>522</v>
       </c>
@@ -26182,7 +26113,7 @@
       <c r="B60" s="11"/>
       <c r="C60" s="26"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="91" t="s">
+      <c r="E60" s="69" t="s">
         <v>474</v>
       </c>
       <c r="F60" s="7" t="s">
@@ -26210,10 +26141,10 @@
     <row r="62" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
-      <c r="C62" s="55" t="s">
+      <c r="C62" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D62" s="89" t="s">
+      <c r="D62" s="8" t="s">
         <v>533</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -26225,8 +26156,8 @@
     <row r="63" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="89" t="s">
+      <c r="C63" s="26"/>
+      <c r="D63" s="8" t="s">
         <v>534</v>
       </c>
       <c r="E63" s="7" t="s">
@@ -26238,8 +26169,8 @@
     <row r="64" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="89" t="s">
+      <c r="C64" s="26"/>
+      <c r="D64" s="8" t="s">
         <v>536</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -26251,10 +26182,10 @@
     <row r="65" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D65" s="89" t="s">
+      <c r="D65" s="8" t="s">
         <v>266</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -26266,8 +26197,8 @@
     <row r="66" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="89" t="s">
+      <c r="C66" s="26"/>
+      <c r="D66" s="8" t="s">
         <v>461</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -26279,8 +26210,8 @@
     <row r="67" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="89" t="s">
+      <c r="C67" s="26"/>
+      <c r="D67" s="8" t="s">
         <v>512</v>
       </c>
       <c r="E67" s="7" t="s">
@@ -26292,8 +26223,8 @@
     <row r="68" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="89" t="s">
+      <c r="C68" s="26"/>
+      <c r="D68" s="8" t="s">
         <v>292</v>
       </c>
       <c r="E68" s="7" t="s">
@@ -26305,8 +26236,8 @@
     <row r="69" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="89" t="s">
+      <c r="C69" s="26"/>
+      <c r="D69" s="8" t="s">
         <v>514</v>
       </c>
       <c r="E69" s="7" t="s">
@@ -26318,8 +26249,8 @@
     <row r="70" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="89" t="s">
+      <c r="C70" s="26"/>
+      <c r="D70" s="8" t="s">
         <v>517</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -26331,10 +26262,10 @@
     <row r="71" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D71" s="89" t="s">
+      <c r="D71" s="8" t="s">
         <v>270</v>
       </c>
       <c r="E71" s="7"/>
@@ -26344,8 +26275,8 @@
     <row r="72" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="89" t="s">
+      <c r="C72" s="26"/>
+      <c r="D72" s="8" t="s">
         <v>190</v>
       </c>
       <c r="E72" s="7"/>
@@ -26355,8 +26286,8 @@
     <row r="73" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="89" t="s">
+      <c r="C73" s="26"/>
+      <c r="D73" s="8" t="s">
         <v>271</v>
       </c>
       <c r="E73" s="7"/>
@@ -26366,8 +26297,8 @@
     <row r="74" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="89" t="s">
+      <c r="C74" s="26"/>
+      <c r="D74" s="8" t="s">
         <v>466</v>
       </c>
       <c r="E74" s="7"/>
@@ -26377,8 +26308,8 @@
     <row r="75" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="89" t="s">
+      <c r="C75" s="26"/>
+      <c r="D75" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E75" s="7"/>
@@ -26388,8 +26319,8 @@
     <row r="76" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="89" t="s">
+      <c r="C76" s="26"/>
+      <c r="D76" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E76" s="7"/>
@@ -26399,8 +26330,8 @@
     <row r="77" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="89" t="s">
+      <c r="C77" s="26"/>
+      <c r="D77" s="8" t="s">
         <v>247</v>
       </c>
       <c r="E77" s="7"/>
@@ -26410,8 +26341,8 @@
     <row r="78" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="89" t="s">
+      <c r="C78" s="26"/>
+      <c r="D78" s="8" t="s">
         <v>418</v>
       </c>
       <c r="E78" s="7"/>
@@ -26421,10 +26352,10 @@
     <row r="79" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
-      <c r="C79" s="79" t="s">
+      <c r="C79" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="80"/>
+      <c r="D79" s="63"/>
       <c r="E79" s="7" t="s">
         <v>544</v>
       </c>
@@ -26434,15 +26365,15 @@
       <c r="G79" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="H79" s="92" t="s">
+      <c r="H79" s="70" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="82"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="64"/>
       <c r="E80" s="7" t="s">
         <v>548</v>
       </c>
@@ -26507,10 +26438,10 @@
     <row r="84" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
-      <c r="C84" s="55" t="s">
+      <c r="C84" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D84" s="89" t="s">
+      <c r="D84" s="8" t="s">
         <v>559</v>
       </c>
       <c r="E84" s="7" t="s">
@@ -26522,8 +26453,8 @@
     <row r="85" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="89" t="s">
+      <c r="C85" s="26"/>
+      <c r="D85" s="8" t="s">
         <v>561</v>
       </c>
       <c r="E85" s="7" t="s">
@@ -26535,8 +26466,8 @@
     <row r="86" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="89" t="s">
+      <c r="C86" s="26"/>
+      <c r="D86" s="8" t="s">
         <v>563</v>
       </c>
       <c r="E86" s="7" t="s">
@@ -26548,8 +26479,8 @@
     <row r="87" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="89" t="s">
+      <c r="C87" s="26"/>
+      <c r="D87" s="8" t="s">
         <v>565</v>
       </c>
       <c r="E87" s="7" t="s">
@@ -26561,10 +26492,10 @@
     <row r="88" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
-      <c r="C88" s="55" t="s">
+      <c r="C88" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D88" s="89" t="s">
+      <c r="D88" s="8" t="s">
         <v>266</v>
       </c>
       <c r="E88" s="7"/>
@@ -26574,8 +26505,8 @@
     <row r="89" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="89" t="s">
+      <c r="C89" s="26"/>
+      <c r="D89" s="8" t="s">
         <v>512</v>
       </c>
       <c r="E89" s="7"/>
@@ -26585,8 +26516,8 @@
     <row r="90" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="89" t="s">
+      <c r="C90" s="26"/>
+      <c r="D90" s="8" t="s">
         <v>292</v>
       </c>
       <c r="E90" s="7"/>
@@ -26596,8 +26527,8 @@
     <row r="91" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="89" t="s">
+      <c r="C91" s="26"/>
+      <c r="D91" s="8" t="s">
         <v>464</v>
       </c>
       <c r="E91" s="7"/>
@@ -26607,8 +26538,8 @@
     <row r="92" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="89" t="s">
+      <c r="C92" s="26"/>
+      <c r="D92" s="8" t="s">
         <v>517</v>
       </c>
       <c r="E92" s="7"/>
@@ -26618,10 +26549,10 @@
     <row r="93" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
-      <c r="C93" s="55" t="s">
+      <c r="C93" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D93" s="89" t="s">
+      <c r="D93" s="8" t="s">
         <v>270</v>
       </c>
       <c r="E93" s="7"/>
@@ -26631,8 +26562,8 @@
     <row r="94" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="89" t="s">
+      <c r="C94" s="26"/>
+      <c r="D94" s="8" t="s">
         <v>190</v>
       </c>
       <c r="E94" s="7"/>
@@ -26642,8 +26573,8 @@
     <row r="95" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="89" t="s">
+      <c r="C95" s="26"/>
+      <c r="D95" s="8" t="s">
         <v>271</v>
       </c>
       <c r="E95" s="7"/>
@@ -26653,8 +26584,8 @@
     <row r="96" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="89" t="s">
+      <c r="C96" s="26"/>
+      <c r="D96" s="8" t="s">
         <v>466</v>
       </c>
       <c r="E96" s="7"/>
@@ -26664,8 +26595,8 @@
     <row r="97" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="89" t="s">
+      <c r="C97" s="26"/>
+      <c r="D97" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E97" s="7"/>
@@ -26675,8 +26606,8 @@
     <row r="98" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="89" t="s">
+      <c r="C98" s="26"/>
+      <c r="D98" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E98" s="7"/>
@@ -26686,8 +26617,8 @@
     <row r="99" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="89" t="s">
+      <c r="C99" s="26"/>
+      <c r="D99" s="8" t="s">
         <v>247</v>
       </c>
       <c r="E99" s="7"/>
@@ -26697,8 +26628,8 @@
     <row r="100" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="89" t="s">
+      <c r="C100" s="26"/>
+      <c r="D100" s="8" t="s">
         <v>418</v>
       </c>
       <c r="E100" s="7"/>
@@ -26708,10 +26639,10 @@
     <row r="101" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
-      <c r="C101" s="79" t="s">
+      <c r="C101" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D101" s="80"/>
+      <c r="D101" s="63"/>
       <c r="E101" s="7" t="s">
         <v>567</v>
       </c>
@@ -26725,8 +26656,8 @@
     <row r="102" customHeight="1" spans="1:7">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
-      <c r="C102" s="81"/>
-      <c r="D102" s="82"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="64"/>
       <c r="E102" s="7" t="s">
         <v>570</v>
       </c>
@@ -26808,21 +26739,21 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="90" customHeight="1" spans="1:7">
       <c r="A2" s="9">
@@ -26835,7 +26766,7 @@
         <v>213</v>
       </c>
       <c r="D2" s="24"/>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="41" t="s">
         <v>574</v>
       </c>
       <c r="F2" s="7"/>
@@ -26849,13 +26780,13 @@
       <c r="C3" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="45">
         <v>4.3</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="51" t="s">
         <v>576</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -26866,7 +26797,7 @@
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="53"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="7" t="s">
         <v>219</v>
       </c>
@@ -26880,10 +26811,10 @@
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="62" t="s">
         <v>580</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -26895,8 +26826,8 @@
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="78" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="62" t="s">
         <v>582</v>
       </c>
       <c r="E6" s="7"/>
@@ -26906,8 +26837,8 @@
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="78" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="62" t="s">
         <v>583</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -26919,8 +26850,8 @@
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="78" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="62" t="s">
         <v>585</v>
       </c>
       <c r="E8" s="7"/>
@@ -26930,8 +26861,8 @@
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="78" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="62" t="s">
         <v>586</v>
       </c>
       <c r="E9" s="7"/>
@@ -26941,8 +26872,8 @@
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="78" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="62" t="s">
         <v>587</v>
       </c>
       <c r="E10" s="7"/>
@@ -26952,8 +26883,8 @@
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="78" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="62" t="s">
         <v>588</v>
       </c>
       <c r="E11" s="7"/>
@@ -26963,8 +26894,8 @@
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="78" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="62" t="s">
         <v>589</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -26976,10 +26907,10 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="62" t="s">
         <v>362</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -26991,8 +26922,8 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="78" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="62" t="s">
         <v>591</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -27004,8 +26935,8 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="78" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="62" t="s">
         <v>593</v>
       </c>
       <c r="E15" s="7"/>
@@ -27015,8 +26946,8 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="78" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="62" t="s">
         <v>594</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -27028,8 +26959,8 @@
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="78" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="62" t="s">
         <v>596</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -27041,8 +26972,8 @@
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="78" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="62" t="s">
         <v>598</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -27054,8 +26985,8 @@
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="78" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="62" t="s">
         <v>600</v>
       </c>
       <c r="E19" s="7"/>
@@ -27065,10 +26996,10 @@
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="62" t="s">
         <v>270</v>
       </c>
       <c r="E20" s="7"/>
@@ -27078,8 +27009,8 @@
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="78" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="62" t="s">
         <v>190</v>
       </c>
       <c r="E21" s="7"/>
@@ -27089,8 +27020,8 @@
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="78" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="62" t="s">
         <v>271</v>
       </c>
       <c r="E22" s="7"/>
@@ -27100,8 +27031,8 @@
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="78" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="62" t="s">
         <v>194</v>
       </c>
       <c r="E23" s="7"/>
@@ -27111,8 +27042,8 @@
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="78" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="62" t="s">
         <v>466</v>
       </c>
       <c r="E24" s="7"/>
@@ -27122,8 +27053,8 @@
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="78" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="62" t="s">
         <v>243</v>
       </c>
       <c r="E25" s="7"/>
@@ -27133,8 +27064,8 @@
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="78" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="62" t="s">
         <v>245</v>
       </c>
       <c r="E26" s="7"/>
@@ -27144,8 +27075,8 @@
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="78" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="62" t="s">
         <v>247</v>
       </c>
       <c r="E27" s="7"/>
@@ -27155,8 +27086,8 @@
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="78" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="62" t="s">
         <v>272</v>
       </c>
       <c r="E28" s="7"/>
@@ -27166,8 +27097,8 @@
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="78" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="62" t="s">
         <v>418</v>
       </c>
       <c r="E29" s="7"/>
@@ -27177,14 +27108,14 @@
     <row r="30" s="1" customFormat="1" ht="49" customHeight="1" spans="1:7">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D30" s="80"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="41" t="s">
         <v>602</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -27194,12 +27125,12 @@
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="41" t="s">
         <v>605</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -27220,7 +27151,7 @@
       <c r="E32" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="F32" s="64"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="5" t="s">
         <v>609</v>
       </c>
@@ -27231,7 +27162,7 @@
       <c r="C33" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D33" s="53"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="7" t="s">
         <v>604</v>
       </c>
@@ -27245,10 +27176,10 @@
     <row r="34" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="62" t="s">
         <v>612</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -27260,8 +27191,8 @@
     <row r="35" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="78" t="s">
+      <c r="C35" s="26"/>
+      <c r="D35" s="62" t="s">
         <v>614</v>
       </c>
       <c r="E35" s="7"/>
@@ -27271,8 +27202,8 @@
     <row r="36" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="78" t="s">
+      <c r="C36" s="26"/>
+      <c r="D36" s="62" t="s">
         <v>615</v>
       </c>
       <c r="E36" s="7"/>
@@ -27282,8 +27213,8 @@
     <row r="37" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="78" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="62" t="s">
         <v>582</v>
       </c>
       <c r="E37" s="7"/>
@@ -27293,8 +27224,8 @@
     <row r="38" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="78" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="62" t="s">
         <v>583</v>
       </c>
       <c r="E38" s="7"/>
@@ -27304,8 +27235,8 @@
     <row r="39" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="78" t="s">
+      <c r="C39" s="26"/>
+      <c r="D39" s="62" t="s">
         <v>585</v>
       </c>
       <c r="E39" s="7"/>
@@ -27315,8 +27246,8 @@
     <row r="40" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="78" t="s">
+      <c r="C40" s="26"/>
+      <c r="D40" s="62" t="s">
         <v>586</v>
       </c>
       <c r="E40" s="7"/>
@@ -27326,8 +27257,8 @@
     <row r="41" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="78" t="s">
+      <c r="C41" s="26"/>
+      <c r="D41" s="62" t="s">
         <v>587</v>
       </c>
       <c r="E41" s="7"/>
@@ -27337,8 +27268,8 @@
     <row r="42" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="78" t="s">
+      <c r="C42" s="26"/>
+      <c r="D42" s="62" t="s">
         <v>588</v>
       </c>
       <c r="E42" s="7"/>
@@ -27348,8 +27279,8 @@
     <row r="43" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="78" t="s">
+      <c r="C43" s="26"/>
+      <c r="D43" s="62" t="s">
         <v>616</v>
       </c>
       <c r="E43" s="7"/>
@@ -27359,8 +27290,8 @@
     <row r="44" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="78" t="s">
+      <c r="C44" s="26"/>
+      <c r="D44" s="62" t="s">
         <v>617</v>
       </c>
       <c r="E44" s="7"/>
@@ -27370,10 +27301,10 @@
     <row r="45" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D45" s="78" t="s">
+      <c r="D45" s="62" t="s">
         <v>268</v>
       </c>
       <c r="E45" s="7"/>
@@ -27383,8 +27314,8 @@
     <row r="46" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="78" t="s">
+      <c r="C46" s="26"/>
+      <c r="D46" s="62" t="s">
         <v>618</v>
       </c>
       <c r="E46" s="7"/>
@@ -27394,8 +27325,8 @@
     <row r="47" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="78" t="s">
+      <c r="C47" s="26"/>
+      <c r="D47" s="62" t="s">
         <v>593</v>
       </c>
       <c r="E47" s="7"/>
@@ -27405,10 +27336,10 @@
     <row r="48" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D48" s="78" t="s">
+      <c r="D48" s="62" t="s">
         <v>270</v>
       </c>
       <c r="E48" s="7"/>
@@ -27418,8 +27349,8 @@
     <row r="49" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="78" t="s">
+      <c r="C49" s="26"/>
+      <c r="D49" s="62" t="s">
         <v>190</v>
       </c>
       <c r="E49" s="7"/>
@@ -27429,8 +27360,8 @@
     <row r="50" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="78" t="s">
+      <c r="C50" s="26"/>
+      <c r="D50" s="62" t="s">
         <v>194</v>
       </c>
       <c r="E50" s="7"/>
@@ -27440,8 +27371,8 @@
     <row r="51" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="78" t="s">
+      <c r="C51" s="26"/>
+      <c r="D51" s="62" t="s">
         <v>466</v>
       </c>
       <c r="E51" s="7"/>
@@ -27451,8 +27382,8 @@
     <row r="52" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="78" t="s">
+      <c r="C52" s="26"/>
+      <c r="D52" s="62" t="s">
         <v>243</v>
       </c>
       <c r="E52" s="7"/>
@@ -27462,8 +27393,8 @@
     <row r="53" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="78" t="s">
+      <c r="C53" s="26"/>
+      <c r="D53" s="62" t="s">
         <v>245</v>
       </c>
       <c r="E53" s="7"/>
@@ -27473,8 +27404,8 @@
     <row r="54" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="78" t="s">
+      <c r="C54" s="26"/>
+      <c r="D54" s="62" t="s">
         <v>247</v>
       </c>
       <c r="E54" s="7"/>
@@ -27484,8 +27415,8 @@
     <row r="55" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="78" t="s">
+      <c r="C55" s="26"/>
+      <c r="D55" s="62" t="s">
         <v>272</v>
       </c>
       <c r="E55" s="7"/>
@@ -27495,8 +27426,8 @@
     <row r="56" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="78" t="s">
+      <c r="C56" s="26"/>
+      <c r="D56" s="62" t="s">
         <v>418</v>
       </c>
       <c r="E56" s="7"/>
@@ -27506,8 +27437,8 @@
     <row r="57" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="78" t="s">
+      <c r="C57" s="26"/>
+      <c r="D57" s="62" t="s">
         <v>271</v>
       </c>
       <c r="E57" s="7"/>
@@ -27517,10 +27448,10 @@
     <row r="58" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
-      <c r="C58" s="79" t="s">
+      <c r="C58" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D58" s="80"/>
+      <c r="D58" s="63"/>
       <c r="E58" s="7" t="s">
         <v>619</v>
       </c>
@@ -27534,8 +27465,8 @@
     <row r="59" s="1" customFormat="1" ht="61" customHeight="1" spans="1:7">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="84"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="65"/>
       <c r="E59" s="7" t="s">
         <v>622</v>
       </c>
@@ -27549,8 +27480,8 @@
     <row r="60" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="82"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="64"/>
       <c r="E60" s="7" t="s">
         <v>625</v>
       </c>
@@ -27572,7 +27503,7 @@
         <v>213</v>
       </c>
       <c r="D61" s="24"/>
-      <c r="E61" s="48" t="s">
+      <c r="E61" s="41" t="s">
         <v>629</v>
       </c>
       <c r="F61" s="7" t="s">
@@ -27591,7 +27522,7 @@
       <c r="C62" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D62" s="59">
+      <c r="D62" s="48">
         <v>6.2</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -27611,7 +27542,7 @@
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="26"/>
-      <c r="D63" s="59">
+      <c r="D63" s="48">
         <v>4.3</v>
       </c>
       <c r="E63" s="7" t="s">
@@ -27628,7 +27559,7 @@
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="26"/>
-      <c r="D64" s="58"/>
+      <c r="D64" s="47"/>
       <c r="E64" s="7" t="s">
         <v>639</v>
       </c>
@@ -27643,7 +27574,7 @@
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="26"/>
-      <c r="D65" s="59">
+      <c r="D65" s="48">
         <v>6.2</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -27660,7 +27591,7 @@
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="26"/>
-      <c r="D66" s="59">
+      <c r="D66" s="48">
         <v>5.3</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -27677,7 +27608,7 @@
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="26"/>
-      <c r="D67" s="59">
+      <c r="D67" s="48">
         <v>5.3</v>
       </c>
       <c r="E67" s="7" t="s">
@@ -27687,234 +27618,234 @@
       <c r="G67" s="13"/>
     </row>
     <row r="68" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="55" t="s">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D68" s="85" t="s">
+      <c r="D68" s="53" t="s">
         <v>648</v>
       </c>
       <c r="E68" s="7"/>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
     </row>
     <row r="69" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="85" t="s">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="53" t="s">
         <v>649</v>
       </c>
       <c r="E69" s="7"/>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
     </row>
     <row r="70" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="85" t="s">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="53" t="s">
         <v>650</v>
       </c>
       <c r="E70" s="7"/>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
     </row>
     <row r="71" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="85" t="s">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="53" t="s">
         <v>651</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
     </row>
     <row r="72" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="85" t="s">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="53" t="s">
         <v>653</v>
       </c>
       <c r="E72" s="7"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
     </row>
     <row r="73" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="55" t="s">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D73" s="85" t="s">
+      <c r="D73" s="53" t="s">
         <v>362</v>
       </c>
       <c r="E73" s="7"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
     </row>
     <row r="74" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="85" t="s">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="53" t="s">
         <v>235</v>
       </c>
       <c r="E74" s="7"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="87"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
     </row>
     <row r="75" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="85" t="s">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="53" t="s">
         <v>266</v>
       </c>
       <c r="E75" s="7"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="87"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
     </row>
     <row r="76" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="85" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="53" t="s">
         <v>268</v>
       </c>
       <c r="E76" s="7"/>
-      <c r="F76" s="87"/>
-      <c r="G76" s="87"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
     </row>
     <row r="77" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="85" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="53" t="s">
         <v>436</v>
       </c>
       <c r="E77" s="7"/>
-      <c r="F77" s="87"/>
-      <c r="G77" s="87"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
     </row>
     <row r="78" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="85" t="s">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="53" t="s">
         <v>654</v>
       </c>
       <c r="E78" s="7"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
     </row>
     <row r="79" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="85" t="s">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="53" t="s">
         <v>240</v>
       </c>
       <c r="E79" s="7"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="87"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
     </row>
     <row r="80" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A80" s="54"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="55" t="s">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D80" s="85" t="s">
+      <c r="D80" s="53" t="s">
         <v>190</v>
       </c>
       <c r="E80" s="7"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="87"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
     </row>
     <row r="81" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="85" t="s">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="53" t="s">
         <v>194</v>
       </c>
       <c r="E81" s="7"/>
-      <c r="F81" s="87"/>
-      <c r="G81" s="87"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
     </row>
     <row r="82" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A82" s="54"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="85" t="s">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="53" t="s">
         <v>466</v>
       </c>
       <c r="E82" s="7"/>
-      <c r="F82" s="87"/>
-      <c r="G82" s="87"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
     </row>
     <row r="83" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A83" s="54"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="85" t="s">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="53" t="s">
         <v>243</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="F83" s="87"/>
-      <c r="G83" s="87"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
     </row>
     <row r="84" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A84" s="54"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="85" t="s">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="53" t="s">
         <v>245</v>
       </c>
       <c r="E84" s="7"/>
-      <c r="F84" s="87"/>
-      <c r="G84" s="87"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
     </row>
     <row r="85" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A85" s="54"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="85" t="s">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="53" t="s">
         <v>247</v>
       </c>
       <c r="E85" s="7"/>
-      <c r="F85" s="87"/>
-      <c r="G85" s="87"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
     </row>
     <row r="86" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A86" s="54"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="85" t="s">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="53" t="s">
         <v>272</v>
       </c>
       <c r="E86" s="7"/>
-      <c r="F86" s="87"/>
-      <c r="G86" s="87"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
     </row>
     <row r="87" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A87" s="54"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="85" t="s">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="53" t="s">
         <v>418</v>
       </c>
       <c r="E87" s="7"/>
-      <c r="F87" s="87"/>
-      <c r="G87" s="87"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
     </row>
     <row r="88" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
       <c r="A88" s="13"/>
@@ -27926,7 +27857,7 @@
       <c r="E88" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="F88" s="48" t="s">
+      <c r="F88" s="41" t="s">
         <v>657</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -27960,13 +27891,13 @@
       <c r="C90" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D90" s="59">
+      <c r="D90" s="48">
         <v>6.1</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="F90" s="63" t="s">
+      <c r="F90" s="51" t="s">
         <v>663</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -27977,7 +27908,7 @@
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="26"/>
-      <c r="D91" s="59">
+      <c r="D91" s="48">
         <v>6.2</v>
       </c>
       <c r="E91" s="7" t="s">
@@ -27994,7 +27925,7 @@
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="26"/>
-      <c r="D92" s="59">
+      <c r="D92" s="48">
         <v>6.3</v>
       </c>
       <c r="E92" s="7" t="s">
@@ -28011,7 +27942,7 @@
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="26"/>
-      <c r="D93" s="59">
+      <c r="D93" s="48">
         <v>3.2</v>
       </c>
       <c r="E93" s="7" t="s">
@@ -28027,10 +27958,10 @@
     <row r="94" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
-      <c r="C94" s="55" t="s">
+      <c r="C94" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D94" s="86" t="s">
+      <c r="D94" s="66" t="s">
         <v>671</v>
       </c>
       <c r="E94" s="7"/>
@@ -28040,8 +27971,8 @@
     <row r="95" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="86" t="s">
+      <c r="C95" s="26"/>
+      <c r="D95" s="66" t="s">
         <v>672</v>
       </c>
       <c r="E95" s="7"/>
@@ -28051,8 +27982,8 @@
     <row r="96" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="86" t="s">
+      <c r="C96" s="26"/>
+      <c r="D96" s="66" t="s">
         <v>673</v>
       </c>
       <c r="E96" s="7"/>
@@ -28062,8 +27993,8 @@
     <row r="97" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="86" t="s">
+      <c r="C97" s="26"/>
+      <c r="D97" s="66" t="s">
         <v>674</v>
       </c>
       <c r="E97" s="7" t="s">
@@ -28075,8 +28006,8 @@
     <row r="98" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="86" t="s">
+      <c r="C98" s="26"/>
+      <c r="D98" s="66" t="s">
         <v>676</v>
       </c>
       <c r="E98" s="7"/>
@@ -28086,10 +28017,10 @@
     <row r="99" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
-      <c r="C99" s="55" t="s">
+      <c r="C99" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D99" s="86" t="s">
+      <c r="D99" s="66" t="s">
         <v>362</v>
       </c>
       <c r="E99" s="7"/>
@@ -28099,8 +28030,8 @@
     <row r="100" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="86" t="s">
+      <c r="C100" s="26"/>
+      <c r="D100" s="66" t="s">
         <v>677</v>
       </c>
       <c r="E100" s="7"/>
@@ -28110,8 +28041,8 @@
     <row r="101" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="86" t="s">
+      <c r="C101" s="26"/>
+      <c r="D101" s="66" t="s">
         <v>678</v>
       </c>
       <c r="E101" s="7"/>
@@ -28121,10 +28052,10 @@
     <row r="102" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
-      <c r="C102" s="55" t="s">
+      <c r="C102" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D102" s="86" t="s">
+      <c r="D102" s="66" t="s">
         <v>270</v>
       </c>
       <c r="E102" s="7"/>
@@ -28134,8 +28065,8 @@
     <row r="103" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
-      <c r="C103" s="55"/>
-      <c r="D103" s="86" t="s">
+      <c r="C103" s="26"/>
+      <c r="D103" s="66" t="s">
         <v>190</v>
       </c>
       <c r="E103" s="7"/>
@@ -28145,8 +28076,8 @@
     <row r="104" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
-      <c r="C104" s="55"/>
-      <c r="D104" s="86" t="s">
+      <c r="C104" s="26"/>
+      <c r="D104" s="66" t="s">
         <v>271</v>
       </c>
       <c r="E104" s="7"/>
@@ -28156,8 +28087,8 @@
     <row r="105" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
-      <c r="C105" s="55"/>
-      <c r="D105" s="86" t="s">
+      <c r="C105" s="26"/>
+      <c r="D105" s="66" t="s">
         <v>194</v>
       </c>
       <c r="E105" s="7"/>
@@ -28167,8 +28098,8 @@
     <row r="106" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
-      <c r="C106" s="55"/>
-      <c r="D106" s="86" t="s">
+      <c r="C106" s="26"/>
+      <c r="D106" s="66" t="s">
         <v>466</v>
       </c>
       <c r="E106" s="7"/>
@@ -28178,8 +28109,8 @@
     <row r="107" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
-      <c r="C107" s="55"/>
-      <c r="D107" s="86" t="s">
+      <c r="C107" s="26"/>
+      <c r="D107" s="66" t="s">
         <v>243</v>
       </c>
       <c r="E107" s="7"/>
@@ -28189,8 +28120,8 @@
     <row r="108" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="86" t="s">
+      <c r="C108" s="26"/>
+      <c r="D108" s="66" t="s">
         <v>245</v>
       </c>
       <c r="E108" s="7"/>
@@ -28200,8 +28131,8 @@
     <row r="109" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
-      <c r="C109" s="55"/>
-      <c r="D109" s="86" t="s">
+      <c r="C109" s="26"/>
+      <c r="D109" s="66" t="s">
         <v>247</v>
       </c>
       <c r="E109" s="7"/>
@@ -28211,8 +28142,8 @@
     <row r="110" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
-      <c r="C110" s="55"/>
-      <c r="D110" s="86" t="s">
+      <c r="C110" s="26"/>
+      <c r="D110" s="66" t="s">
         <v>272</v>
       </c>
       <c r="E110" s="7"/>
@@ -28222,8 +28153,8 @@
     <row r="111" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
-      <c r="C111" s="55"/>
-      <c r="D111" s="86" t="s">
+      <c r="C111" s="26"/>
+      <c r="D111" s="66" t="s">
         <v>418</v>
       </c>
       <c r="E111" s="7"/>
@@ -28233,10 +28164,10 @@
     <row r="112" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
-      <c r="C112" s="79" t="s">
+      <c r="C112" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D112" s="80"/>
+      <c r="D112" s="63"/>
       <c r="E112" s="7" t="s">
         <v>679</v>
       </c>
@@ -28250,8 +28181,8 @@
     <row r="113" customHeight="1" spans="1:7">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
-      <c r="C113" s="81"/>
-      <c r="D113" s="82"/>
+      <c r="C113" s="60"/>
+      <c r="D113" s="64"/>
       <c r="E113" s="7" t="s">
         <v>682</v>
       </c>
@@ -28327,21 +28258,21 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
       <c r="A2" s="9">
@@ -28354,7 +28285,7 @@
         <v>213</v>
       </c>
       <c r="D2" s="24"/>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="41" t="s">
         <v>686</v>
       </c>
       <c r="F2" s="7"/>
@@ -28368,13 +28299,13 @@
       <c r="C3" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="45" t="s">
         <v>688</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="55" t="s">
         <v>690</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -28385,18 +28316,18 @@
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="53"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="47" t="s">
         <v>692</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -28406,10 +28337,10 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="47" t="s">
         <v>694</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -28419,10 +28350,10 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="47" t="s">
         <v>696</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -28432,10 +28363,10 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="47" t="s">
         <v>698</v>
       </c>
       <c r="E8" s="7"/>
@@ -28443,12 +28374,12 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="47" t="s">
         <v>699</v>
       </c>
       <c r="E9" s="7"/>
@@ -28456,10 +28387,10 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="47" t="s">
         <v>700</v>
       </c>
       <c r="E10" s="7"/>
@@ -28467,10 +28398,10 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="47" t="s">
         <v>701</v>
       </c>
       <c r="E11" s="7"/>
@@ -28478,10 +28409,10 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="47" t="s">
         <v>702</v>
       </c>
       <c r="E12" s="7"/>
@@ -28489,10 +28420,10 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="47" t="s">
         <v>671</v>
       </c>
       <c r="E13" s="7"/>
@@ -28500,12 +28431,12 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="47" t="s">
         <v>386</v>
       </c>
       <c r="E14" s="7"/>
@@ -28522,7 +28453,7 @@
       <c r="E15" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="41" t="s">
         <v>704</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -28540,10 +28471,10 @@
         <v>213</v>
       </c>
       <c r="D16" s="24"/>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="F16" s="64"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="5" t="s">
         <v>708</v>
       </c>
@@ -28557,7 +28488,7 @@
       <c r="C17" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="45">
         <v>7.1</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -28569,17 +28500,17 @@
       <c r="G17" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="56" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="54" customHeight="1" spans="1:8">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="65" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="53" t="s">
         <v>713</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -28587,25 +28518,25 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="71"/>
+      <c r="H18" s="56"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="54" customHeight="1" spans="1:8">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="66" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="53" t="s">
         <v>715</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="71"/>
+      <c r="H19" s="56"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="54" customHeight="1" spans="1:8">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="66" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="53" t="s">
         <v>716</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -28613,35 +28544,35 @@
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="71"/>
+      <c r="H20" s="56"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="54" customHeight="1" spans="1:8">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="54" t="s">
         <v>702</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="71"/>
+      <c r="H21" s="56"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="54" customHeight="1" spans="1:8">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="47" t="s">
         <v>442</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="71"/>
+      <c r="H22" s="56"/>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A23" s="13"/>
@@ -28653,7 +28584,7 @@
       <c r="E23" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="41" t="s">
         <v>719</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -28671,7 +28602,7 @@
         <v>213</v>
       </c>
       <c r="D24" s="24"/>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="41" t="s">
         <v>722</v>
       </c>
       <c r="F24" s="7"/>
@@ -28691,7 +28622,7 @@
       <c r="C25" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="45">
         <v>7.1</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -28705,12 +28636,12 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="49" customHeight="1" spans="1:7">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="47" t="s">
         <v>616</v>
       </c>
       <c r="E26" s="7"/>
@@ -28718,10 +28649,10 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="49" customHeight="1" spans="1:7">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="57" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="47" t="s">
         <v>728</v>
       </c>
       <c r="E27" s="7"/>
@@ -28729,10 +28660,10 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="49" customHeight="1" spans="1:7">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="57" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="47" t="s">
         <v>729</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -28742,12 +28673,12 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="49" customHeight="1" spans="1:7">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="47" t="s">
         <v>731</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -28757,10 +28688,10 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="49" customHeight="1" spans="1:7">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="57" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="47" t="s">
         <v>436</v>
       </c>
       <c r="E30" s="7"/>
@@ -28768,10 +28699,10 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="49" customHeight="1" spans="1:7">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="57" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="47" t="s">
         <v>368</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -28781,10 +28712,10 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="49" customHeight="1" spans="1:7">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="57" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="47" t="s">
         <v>517</v>
       </c>
       <c r="E32" s="7"/>
@@ -28792,12 +28723,12 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="49" customHeight="1" spans="1:7">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="47" t="s">
         <v>442</v>
       </c>
       <c r="E33" s="7"/>
@@ -28814,7 +28745,7 @@
       <c r="E34" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="41" t="s">
         <v>735</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -28846,13 +28777,13 @@
       <c r="C36" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="59">
+      <c r="D36" s="48">
         <v>3.4</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="51" t="s">
         <v>741</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -28863,7 +28794,7 @@
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="26"/>
-      <c r="D37" s="58"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="7" t="s">
         <v>743</v>
       </c>
@@ -28878,7 +28809,7 @@
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="26"/>
-      <c r="D38" s="59">
+      <c r="D38" s="48">
         <v>6.4</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -28892,12 +28823,12 @@
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="68" customHeight="1" spans="1:7">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D39" s="60" t="s">
+      <c r="D39" s="47" t="s">
         <v>749</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -28907,10 +28838,10 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="60" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="47" t="s">
         <v>751</v>
       </c>
       <c r="E40" s="7"/>
@@ -28918,10 +28849,10 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="60" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="47" t="s">
         <v>752</v>
       </c>
       <c r="E41" s="7"/>
@@ -28929,10 +28860,10 @@
       <c r="G41" s="5"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="60" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="47" t="s">
         <v>753</v>
       </c>
       <c r="E42" s="7" t="s">
@@ -28942,10 +28873,10 @@
       <c r="G42" s="5"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="60" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="47" t="s">
         <v>755</v>
       </c>
       <c r="E43" s="7"/>
@@ -28953,12 +28884,12 @@
       <c r="G43" s="5"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="55" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D44" s="60" t="s">
+      <c r="D44" s="47" t="s">
         <v>756</v>
       </c>
       <c r="E44" s="7"/>
@@ -28966,10 +28897,10 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="60" t="s">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="47" t="s">
         <v>292</v>
       </c>
       <c r="E45" s="7"/>
@@ -28977,10 +28908,10 @@
       <c r="G45" s="5"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="60" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="47" t="s">
         <v>757</v>
       </c>
       <c r="E46" s="7"/>
@@ -28988,12 +28919,12 @@
       <c r="G46" s="5"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="65" customHeight="1" spans="1:7">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="55" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D47" s="60" t="s">
+      <c r="D47" s="47" t="s">
         <v>758</v>
       </c>
       <c r="E47" s="7"/>
@@ -29001,10 +28932,10 @@
       <c r="G47" s="5"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="47" customHeight="1" spans="1:7">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="60" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="47" t="s">
         <v>386</v>
       </c>
       <c r="E48" s="7"/>
@@ -29053,13 +28984,13 @@
       <c r="C51" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D51" s="59">
+      <c r="D51" s="48">
         <v>6.4</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="F51" s="63" t="s">
+      <c r="F51" s="51" t="s">
         <v>765</v>
       </c>
       <c r="G51" s="5" t="s">
@@ -29070,7 +29001,7 @@
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="30"/>
-      <c r="D52" s="59" t="s">
+      <c r="D52" s="48" t="s">
         <v>767</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -29087,7 +29018,7 @@
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="31"/>
-      <c r="D53" s="59">
+      <c r="D53" s="48">
         <v>7.4</v>
       </c>
       <c r="E53" s="7" t="s">
@@ -29101,12 +29032,12 @@
       </c>
     </row>
     <row r="54" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="60" t="s">
+      <c r="D54" s="47" t="s">
         <v>773</v>
       </c>
       <c r="E54" s="7" t="s">
@@ -29116,10 +29047,10 @@
       <c r="G54" s="5"/>
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="60" t="s">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="47" t="s">
         <v>775</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -29129,10 +29060,10 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="60" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="47" t="s">
         <v>777</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -29142,10 +29073,10 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="60" t="s">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="47" t="s">
         <v>779</v>
       </c>
       <c r="E57" s="7"/>
@@ -29153,12 +29084,12 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="55" t="s">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D58" s="60" t="s">
+      <c r="D58" s="47" t="s">
         <v>780</v>
       </c>
       <c r="E58" s="7"/>
@@ -29166,10 +29097,10 @@
       <c r="G58" s="5"/>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="60" t="s">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="47" t="s">
         <v>436</v>
       </c>
       <c r="E59" s="7"/>
@@ -29177,10 +29108,10 @@
       <c r="G59" s="5"/>
     </row>
     <row r="60" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="60" t="s">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="47" t="s">
         <v>781</v>
       </c>
       <c r="E60" s="7"/>
@@ -29188,10 +29119,10 @@
       <c r="G60" s="5"/>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="60" t="s">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="47" t="s">
         <v>517</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -29201,12 +29132,12 @@
       <c r="G61" s="5"/>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55" t="s">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D62" s="60" t="s">
+      <c r="D62" s="47" t="s">
         <v>190</v>
       </c>
       <c r="E62" s="7"/>
@@ -29214,10 +29145,10 @@
       <c r="G62" s="5"/>
     </row>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="60" t="s">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="47" t="s">
         <v>194</v>
       </c>
       <c r="E63" s="7"/>
@@ -29225,10 +29156,10 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="60" t="s">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="47" t="s">
         <v>466</v>
       </c>
       <c r="E64" s="7"/>
@@ -29236,10 +29167,10 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="60" t="s">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="47" t="s">
         <v>243</v>
       </c>
       <c r="E65" s="7"/>
@@ -29247,10 +29178,10 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="60" t="s">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="47" t="s">
         <v>272</v>
       </c>
       <c r="E66" s="7"/>
@@ -29299,13 +29230,13 @@
       <c r="C69" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D69" s="59">
+      <c r="D69" s="48">
         <v>6.2</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="F69" s="63" t="s">
+      <c r="F69" s="51" t="s">
         <v>789</v>
       </c>
       <c r="G69" s="5" t="s">
@@ -29316,7 +29247,7 @@
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="26"/>
-      <c r="D70" s="59">
+      <c r="D70" s="48">
         <v>7.5</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -29330,12 +29261,12 @@
       </c>
     </row>
     <row r="71" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="72" t="s">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="D71" s="73" t="s">
+      <c r="D71" s="58" t="s">
         <v>793</v>
       </c>
       <c r="E71" s="7"/>
@@ -29343,10 +29274,10 @@
       <c r="G71" s="5"/>
     </row>
     <row r="72" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="73" t="s">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="58" t="s">
         <v>794</v>
       </c>
       <c r="E72" s="7"/>
@@ -29354,10 +29285,10 @@
       <c r="G72" s="5"/>
     </row>
     <row r="73" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="73" t="s">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="58" t="s">
         <v>795</v>
       </c>
       <c r="E73" s="7"/>
@@ -29365,10 +29296,10 @@
       <c r="G73" s="5"/>
     </row>
     <row r="74" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="73" t="s">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="58" t="s">
         <v>796</v>
       </c>
       <c r="E74" s="7"/>
@@ -29376,12 +29307,12 @@
       <c r="G74" s="5"/>
     </row>
     <row r="75" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="72" t="s">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="D75" s="73" t="s">
+      <c r="D75" s="58" t="s">
         <v>731</v>
       </c>
       <c r="E75" s="7"/>
@@ -29389,10 +29320,10 @@
       <c r="G75" s="5"/>
     </row>
     <row r="76" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="73" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="58" t="s">
         <v>436</v>
       </c>
       <c r="E76" s="7"/>
@@ -29400,10 +29331,10 @@
       <c r="G76" s="5"/>
     </row>
     <row r="77" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="73" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="58" t="s">
         <v>268</v>
       </c>
       <c r="E77" s="7"/>
@@ -29411,10 +29342,10 @@
       <c r="G77" s="5"/>
     </row>
     <row r="78" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="73" t="s">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="58" t="s">
         <v>797</v>
       </c>
       <c r="E78" s="7"/>
@@ -29422,10 +29353,10 @@
       <c r="G78" s="5"/>
     </row>
     <row r="79" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="75"/>
-      <c r="D79" s="73" t="s">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="58" t="s">
         <v>517</v>
       </c>
       <c r="E79" s="7"/>
@@ -29433,12 +29364,12 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A80" s="54"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="55" t="s">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D80" s="76" t="s">
+      <c r="D80" s="61" t="s">
         <v>270</v>
       </c>
       <c r="E80" s="7"/>
@@ -29446,10 +29377,10 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="77" t="s">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="61" t="s">
         <v>190</v>
       </c>
       <c r="E81" s="7"/>
@@ -29457,10 +29388,10 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A82" s="54"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="77" t="s">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="61" t="s">
         <v>271</v>
       </c>
       <c r="E82" s="7"/>
@@ -29468,10 +29399,10 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A83" s="54"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="77" t="s">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="61" t="s">
         <v>243</v>
       </c>
       <c r="E83" s="7"/>
@@ -29479,10 +29410,10 @@
       <c r="G83" s="5"/>
     </row>
     <row r="84" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A84" s="54"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="77" t="s">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="61" t="s">
         <v>245</v>
       </c>
       <c r="E84" s="7"/>
@@ -29490,10 +29421,10 @@
       <c r="G84" s="5"/>
     </row>
     <row r="85" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A85" s="54"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="77" t="s">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="61" t="s">
         <v>247</v>
       </c>
       <c r="E85" s="7"/>
